--- a/database/industries/ghaza/ghefars/product/monthly_seprated.xlsx
+++ b/database/industries/ghaza/ghefars/product/monthly_seprated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\ghaza\ghefars\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C3CC53-5BA4-4070-B403-F49DC6AEA92F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A9B2E17-8AA3-4549-8FF0-BEFDFA979D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3159" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3146" uniqueCount="96">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>غفارس-شیر پاستوریزه پگاه فارس</t>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 7 منتهی به 1397/07</t>
   </si>
   <si>
     <t>ماه 8 منتهی به 1397/08</t>
@@ -185,6 +182,9 @@
   </si>
   <si>
     <t>ماه 8 منتهی به 1401/08</t>
+  </si>
+  <si>
+    <t>ماه 9 منتهی به 1401/09</t>
   </si>
   <si>
     <t>مقدار تولید داخلی</t>
@@ -780,7 +780,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:BB132"/>
+  <dimension ref="B1:BB133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1519,95 +1519,95 @@
       <c r="X11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y11" s="11" t="s">
-        <v>58</v>
+      <c r="Y11" s="11">
+        <v>1149</v>
       </c>
       <c r="Z11" s="11">
-        <v>1149</v>
+        <v>1185</v>
       </c>
       <c r="AA11" s="11">
+        <v>1136</v>
+      </c>
+      <c r="AB11" s="11">
+        <v>762</v>
+      </c>
+      <c r="AC11" s="11">
+        <v>989</v>
+      </c>
+      <c r="AD11" s="11">
+        <v>633</v>
+      </c>
+      <c r="AE11" s="11">
+        <v>726</v>
+      </c>
+      <c r="AF11" s="11">
+        <v>917</v>
+      </c>
+      <c r="AG11" s="11">
         <v>1185</v>
       </c>
-      <c r="AB11" s="11">
-        <v>1136</v>
-      </c>
-      <c r="AC11" s="11">
-        <v>762</v>
-      </c>
-      <c r="AD11" s="11">
-        <v>989</v>
-      </c>
-      <c r="AE11" s="11">
-        <v>633</v>
-      </c>
-      <c r="AF11" s="11">
-        <v>726</v>
-      </c>
-      <c r="AG11" s="11">
-        <v>917</v>
-      </c>
       <c r="AH11" s="11">
-        <v>1185</v>
+        <v>1161</v>
       </c>
       <c r="AI11" s="11">
-        <v>1161</v>
+        <v>1061</v>
       </c>
       <c r="AJ11" s="11">
-        <v>1061</v>
+        <v>800</v>
       </c>
       <c r="AK11" s="11">
-        <v>800</v>
+        <v>1046</v>
       </c>
       <c r="AL11" s="11">
-        <v>1046</v>
+        <v>837</v>
       </c>
       <c r="AM11" s="11">
-        <v>837</v>
+        <v>716</v>
       </c>
       <c r="AN11" s="11">
         <v>716</v>
       </c>
       <c r="AO11" s="11">
-        <v>716</v>
+        <v>667</v>
       </c>
       <c r="AP11" s="11">
-        <v>667</v>
+        <v>494</v>
       </c>
       <c r="AQ11" s="11">
-        <v>494</v>
+        <v>701</v>
       </c>
       <c r="AR11" s="11">
-        <v>701</v>
+        <v>514</v>
       </c>
       <c r="AS11" s="11">
-        <v>514</v>
+        <v>625</v>
       </c>
       <c r="AT11" s="11">
-        <v>625</v>
+        <v>990</v>
       </c>
       <c r="AU11" s="11">
-        <v>990</v>
+        <v>581</v>
       </c>
       <c r="AV11" s="11">
-        <v>581</v>
+        <v>903</v>
       </c>
       <c r="AW11" s="11">
-        <v>903</v>
+        <v>708</v>
       </c>
       <c r="AX11" s="11">
-        <v>708</v>
+        <v>935</v>
       </c>
       <c r="AY11" s="11">
-        <v>935</v>
+        <v>709</v>
       </c>
       <c r="AZ11" s="11">
-        <v>709</v>
+        <v>673</v>
       </c>
       <c r="BA11" s="11">
-        <v>673</v>
+        <v>656</v>
       </c>
       <c r="BB11" s="11">
-        <v>656</v>
+        <v>536</v>
       </c>
     </row>
     <row r="12" spans="2:54" x14ac:dyDescent="0.3">
@@ -1678,50 +1678,50 @@
       <c r="X12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y12" s="13" t="s">
-        <v>58</v>
+      <c r="Y12" s="13">
+        <v>18</v>
       </c>
       <c r="Z12" s="13">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="AA12" s="13">
         <v>29</v>
       </c>
       <c r="AB12" s="13">
+        <v>17</v>
+      </c>
+      <c r="AC12" s="13">
+        <v>21</v>
+      </c>
+      <c r="AD12" s="13">
+        <v>38</v>
+      </c>
+      <c r="AE12" s="13">
+        <v>28</v>
+      </c>
+      <c r="AF12" s="13">
         <v>29</v>
       </c>
-      <c r="AC12" s="13">
+      <c r="AG12" s="13">
+        <v>116</v>
+      </c>
+      <c r="AH12" s="13">
+        <v>182</v>
+      </c>
+      <c r="AI12" s="13">
+        <v>82</v>
+      </c>
+      <c r="AJ12" s="13">
+        <v>239</v>
+      </c>
+      <c r="AK12" s="13">
+        <v>18</v>
+      </c>
+      <c r="AL12" s="13">
         <v>17</v>
       </c>
-      <c r="AD12" s="13">
-        <v>21</v>
-      </c>
-      <c r="AE12" s="13">
-        <v>38</v>
-      </c>
-      <c r="AF12" s="13">
-        <v>28</v>
-      </c>
-      <c r="AG12" s="13">
-        <v>29</v>
-      </c>
-      <c r="AH12" s="13">
-        <v>116</v>
-      </c>
-      <c r="AI12" s="13">
-        <v>182</v>
-      </c>
-      <c r="AJ12" s="13">
-        <v>82</v>
-      </c>
-      <c r="AK12" s="13">
-        <v>239</v>
-      </c>
-      <c r="AL12" s="13">
-        <v>18</v>
-      </c>
       <c r="AM12" s="13">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AN12" s="13">
         <v>20</v>
@@ -1730,43 +1730,43 @@
         <v>20</v>
       </c>
       <c r="AP12" s="13">
+        <v>15</v>
+      </c>
+      <c r="AQ12" s="13">
+        <v>17</v>
+      </c>
+      <c r="AR12" s="13">
+        <v>34</v>
+      </c>
+      <c r="AS12" s="13">
+        <v>18</v>
+      </c>
+      <c r="AT12" s="13">
+        <v>17</v>
+      </c>
+      <c r="AU12" s="13">
+        <v>12</v>
+      </c>
+      <c r="AV12" s="13">
+        <v>21</v>
+      </c>
+      <c r="AW12" s="13">
+        <v>18</v>
+      </c>
+      <c r="AX12" s="13">
+        <v>16</v>
+      </c>
+      <c r="AY12" s="13">
         <v>20</v>
       </c>
-      <c r="AQ12" s="13">
-        <v>15</v>
-      </c>
-      <c r="AR12" s="13">
-        <v>17</v>
-      </c>
-      <c r="AS12" s="13">
-        <v>34</v>
-      </c>
-      <c r="AT12" s="13">
-        <v>18</v>
-      </c>
-      <c r="AU12" s="13">
-        <v>17</v>
-      </c>
-      <c r="AV12" s="13">
-        <v>12</v>
-      </c>
-      <c r="AW12" s="13">
-        <v>21</v>
-      </c>
-      <c r="AX12" s="13">
-        <v>18</v>
-      </c>
-      <c r="AY12" s="13">
+      <c r="AZ12" s="13">
         <v>16</v>
       </c>
-      <c r="AZ12" s="13">
-        <v>20</v>
-      </c>
       <c r="BA12" s="13">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="BB12" s="13">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="2:54" x14ac:dyDescent="0.3">
@@ -1837,95 +1837,95 @@
       <c r="X13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y13" s="11" t="s">
-        <v>58</v>
+      <c r="Y13" s="11">
+        <v>2364</v>
       </c>
       <c r="Z13" s="11">
-        <v>2364</v>
+        <v>2283</v>
       </c>
       <c r="AA13" s="11">
-        <v>2283</v>
+        <v>2103</v>
       </c>
       <c r="AB13" s="11">
-        <v>2103</v>
+        <v>2709</v>
       </c>
       <c r="AC13" s="11">
-        <v>2709</v>
+        <v>3188</v>
       </c>
       <c r="AD13" s="11">
-        <v>3188</v>
+        <v>2437</v>
       </c>
       <c r="AE13" s="11">
-        <v>2437</v>
+        <v>3200</v>
       </c>
       <c r="AF13" s="11">
-        <v>3200</v>
+        <v>2889</v>
       </c>
       <c r="AG13" s="11">
-        <v>2889</v>
+        <v>1917</v>
       </c>
       <c r="AH13" s="11">
-        <v>1917</v>
+        <v>2985</v>
       </c>
       <c r="AI13" s="11">
-        <v>2985</v>
+        <v>2133</v>
       </c>
       <c r="AJ13" s="11">
-        <v>2133</v>
+        <v>2391</v>
       </c>
       <c r="AK13" s="11">
-        <v>2391</v>
+        <v>2371</v>
       </c>
       <c r="AL13" s="11">
-        <v>2371</v>
+        <v>2262</v>
       </c>
       <c r="AM13" s="11">
-        <v>2262</v>
+        <v>2259</v>
       </c>
       <c r="AN13" s="11">
         <v>2259</v>
       </c>
       <c r="AO13" s="11">
-        <v>2259</v>
+        <v>2684</v>
       </c>
       <c r="AP13" s="11">
-        <v>2684</v>
+        <v>2852</v>
       </c>
       <c r="AQ13" s="11">
+        <v>2854</v>
+      </c>
+      <c r="AR13" s="11">
+        <v>2337</v>
+      </c>
+      <c r="AS13" s="11">
+        <v>2248</v>
+      </c>
+      <c r="AT13" s="11">
+        <v>2201</v>
+      </c>
+      <c r="AU13" s="11">
+        <v>1899</v>
+      </c>
+      <c r="AV13" s="11">
+        <v>2265</v>
+      </c>
+      <c r="AW13" s="11">
+        <v>1976</v>
+      </c>
+      <c r="AX13" s="11">
+        <v>2165</v>
+      </c>
+      <c r="AY13" s="11">
+        <v>2351</v>
+      </c>
+      <c r="AZ13" s="11">
+        <v>2410</v>
+      </c>
+      <c r="BA13" s="11">
+        <v>2716</v>
+      </c>
+      <c r="BB13" s="11">
         <v>2852</v>
-      </c>
-      <c r="AR13" s="11">
-        <v>2854</v>
-      </c>
-      <c r="AS13" s="11">
-        <v>2337</v>
-      </c>
-      <c r="AT13" s="11">
-        <v>2248</v>
-      </c>
-      <c r="AU13" s="11">
-        <v>2201</v>
-      </c>
-      <c r="AV13" s="11">
-        <v>1899</v>
-      </c>
-      <c r="AW13" s="11">
-        <v>2265</v>
-      </c>
-      <c r="AX13" s="11">
-        <v>1976</v>
-      </c>
-      <c r="AY13" s="11">
-        <v>2165</v>
-      </c>
-      <c r="AZ13" s="11">
-        <v>2351</v>
-      </c>
-      <c r="BA13" s="11">
-        <v>2410</v>
-      </c>
-      <c r="BB13" s="11">
-        <v>2716</v>
       </c>
     </row>
     <row r="14" spans="2:54" x14ac:dyDescent="0.3">
@@ -1996,95 +1996,95 @@
       <c r="X14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y14" s="13" t="s">
-        <v>58</v>
+      <c r="Y14" s="13">
+        <v>314</v>
       </c>
       <c r="Z14" s="13">
-        <v>314</v>
+        <v>254</v>
       </c>
       <c r="AA14" s="13">
-        <v>254</v>
+        <v>305</v>
       </c>
       <c r="AB14" s="13">
-        <v>305</v>
+        <v>229</v>
       </c>
       <c r="AC14" s="13">
-        <v>229</v>
+        <v>408</v>
       </c>
       <c r="AD14" s="13">
-        <v>408</v>
+        <v>510</v>
       </c>
       <c r="AE14" s="13">
-        <v>510</v>
+        <v>379</v>
       </c>
       <c r="AF14" s="13">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="AG14" s="13">
-        <v>365</v>
+        <v>558</v>
       </c>
       <c r="AH14" s="13">
-        <v>558</v>
+        <v>290</v>
       </c>
       <c r="AI14" s="13">
-        <v>290</v>
+        <v>187</v>
       </c>
       <c r="AJ14" s="13">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="AK14" s="13">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="AL14" s="13">
-        <v>186</v>
+        <v>263</v>
       </c>
       <c r="AM14" s="13">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="AN14" s="13">
         <v>282</v>
       </c>
       <c r="AO14" s="13">
-        <v>282</v>
+        <v>195</v>
       </c>
       <c r="AP14" s="13">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="AQ14" s="13">
-        <v>188</v>
+        <v>320</v>
       </c>
       <c r="AR14" s="13">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="AS14" s="13">
-        <v>296</v>
+        <v>427</v>
       </c>
       <c r="AT14" s="13">
-        <v>427</v>
+        <v>375</v>
       </c>
       <c r="AU14" s="13">
-        <v>375</v>
+        <v>179</v>
       </c>
       <c r="AV14" s="13">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="AW14" s="13">
-        <v>201</v>
+        <v>476</v>
       </c>
       <c r="AX14" s="13">
-        <v>476</v>
+        <v>416</v>
       </c>
       <c r="AY14" s="13">
-        <v>416</v>
+        <v>289</v>
       </c>
       <c r="AZ14" s="13">
-        <v>289</v>
+        <v>376</v>
       </c>
       <c r="BA14" s="13">
-        <v>376</v>
+        <v>257</v>
       </c>
       <c r="BB14" s="13">
-        <v>257</v>
+        <v>290</v>
       </c>
     </row>
     <row r="15" spans="2:54" x14ac:dyDescent="0.3">
@@ -2155,95 +2155,95 @@
       <c r="X15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y15" s="11" t="s">
-        <v>58</v>
+      <c r="Y15" s="11">
+        <v>1783</v>
       </c>
       <c r="Z15" s="11">
-        <v>1783</v>
+        <v>1640</v>
       </c>
       <c r="AA15" s="11">
+        <v>1638</v>
+      </c>
+      <c r="AB15" s="11">
+        <v>1296</v>
+      </c>
+      <c r="AC15" s="11">
+        <v>1336</v>
+      </c>
+      <c r="AD15" s="11">
+        <v>1317</v>
+      </c>
+      <c r="AE15" s="11">
+        <v>1255</v>
+      </c>
+      <c r="AF15" s="11">
+        <v>1480</v>
+      </c>
+      <c r="AG15" s="11">
+        <v>1610</v>
+      </c>
+      <c r="AH15" s="11">
+        <v>1909</v>
+      </c>
+      <c r="AI15" s="11">
         <v>1640</v>
       </c>
-      <c r="AB15" s="11">
-        <v>1638</v>
-      </c>
-      <c r="AC15" s="11">
-        <v>1296</v>
-      </c>
-      <c r="AD15" s="11">
-        <v>1336</v>
-      </c>
-      <c r="AE15" s="11">
-        <v>1317</v>
-      </c>
-      <c r="AF15" s="11">
-        <v>1255</v>
-      </c>
-      <c r="AG15" s="11">
-        <v>1480</v>
-      </c>
-      <c r="AH15" s="11">
-        <v>1610</v>
-      </c>
-      <c r="AI15" s="11">
-        <v>1909</v>
-      </c>
       <c r="AJ15" s="11">
-        <v>1640</v>
+        <v>1824</v>
       </c>
       <c r="AK15" s="11">
-        <v>1824</v>
+        <v>1831</v>
       </c>
       <c r="AL15" s="11">
-        <v>1831</v>
+        <v>1347</v>
       </c>
       <c r="AM15" s="11">
-        <v>1347</v>
+        <v>1494</v>
       </c>
       <c r="AN15" s="11">
         <v>1494</v>
       </c>
       <c r="AO15" s="11">
-        <v>1494</v>
+        <v>1139</v>
       </c>
       <c r="AP15" s="11">
-        <v>1139</v>
+        <v>1017</v>
       </c>
       <c r="AQ15" s="11">
-        <v>1017</v>
+        <v>1009</v>
       </c>
       <c r="AR15" s="11">
-        <v>1009</v>
+        <v>1138</v>
       </c>
       <c r="AS15" s="11">
-        <v>1138</v>
+        <v>1043</v>
       </c>
       <c r="AT15" s="11">
-        <v>1043</v>
+        <v>1583</v>
       </c>
       <c r="AU15" s="11">
-        <v>1583</v>
+        <v>1176</v>
       </c>
       <c r="AV15" s="11">
-        <v>1176</v>
+        <v>1338</v>
       </c>
       <c r="AW15" s="11">
-        <v>1338</v>
+        <v>1226</v>
       </c>
       <c r="AX15" s="11">
-        <v>1226</v>
+        <v>1276</v>
       </c>
       <c r="AY15" s="11">
-        <v>1276</v>
+        <v>1247</v>
       </c>
       <c r="AZ15" s="11">
-        <v>1247</v>
+        <v>1127</v>
       </c>
       <c r="BA15" s="11">
-        <v>1127</v>
+        <v>1113</v>
       </c>
       <c r="BB15" s="11">
-        <v>1113</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="16" spans="2:54" x14ac:dyDescent="0.3">
@@ -2314,95 +2314,95 @@
       <c r="X16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y16" s="13" t="s">
-        <v>58</v>
+      <c r="Y16" s="13">
+        <v>580</v>
       </c>
       <c r="Z16" s="13">
-        <v>580</v>
+        <v>527</v>
       </c>
       <c r="AA16" s="13">
-        <v>527</v>
+        <v>440</v>
       </c>
       <c r="AB16" s="13">
+        <v>376</v>
+      </c>
+      <c r="AC16" s="13">
+        <v>357</v>
+      </c>
+      <c r="AD16" s="13">
+        <v>414</v>
+      </c>
+      <c r="AE16" s="13">
+        <v>473</v>
+      </c>
+      <c r="AF16" s="13">
         <v>440</v>
       </c>
-      <c r="AC16" s="13">
-        <v>376</v>
-      </c>
-      <c r="AD16" s="13">
-        <v>357</v>
-      </c>
-      <c r="AE16" s="13">
-        <v>414</v>
-      </c>
-      <c r="AF16" s="13">
+      <c r="AG16" s="13">
+        <v>408</v>
+      </c>
+      <c r="AH16" s="13">
+        <v>427</v>
+      </c>
+      <c r="AI16" s="13">
+        <v>425</v>
+      </c>
+      <c r="AJ16" s="13">
+        <v>347</v>
+      </c>
+      <c r="AK16" s="13">
         <v>473</v>
       </c>
-      <c r="AG16" s="13">
-        <v>440</v>
-      </c>
-      <c r="AH16" s="13">
-        <v>408</v>
-      </c>
-      <c r="AI16" s="13">
-        <v>427</v>
-      </c>
-      <c r="AJ16" s="13">
-        <v>425</v>
-      </c>
-      <c r="AK16" s="13">
-        <v>347</v>
-      </c>
       <c r="AL16" s="13">
-        <v>473</v>
+        <v>400</v>
       </c>
       <c r="AM16" s="13">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="AN16" s="13">
         <v>412</v>
       </c>
       <c r="AO16" s="13">
-        <v>412</v>
+        <v>357</v>
       </c>
       <c r="AP16" s="13">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="AQ16" s="13">
-        <v>365</v>
+        <v>335</v>
       </c>
       <c r="AR16" s="13">
-        <v>335</v>
+        <v>359</v>
       </c>
       <c r="AS16" s="13">
-        <v>359</v>
+        <v>466</v>
       </c>
       <c r="AT16" s="13">
-        <v>466</v>
+        <v>332</v>
       </c>
       <c r="AU16" s="13">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="AV16" s="13">
-        <v>339</v>
+        <v>381</v>
       </c>
       <c r="AW16" s="13">
-        <v>381</v>
+        <v>344</v>
       </c>
       <c r="AX16" s="13">
-        <v>344</v>
+        <v>394</v>
       </c>
       <c r="AY16" s="13">
-        <v>394</v>
+        <v>445</v>
       </c>
       <c r="AZ16" s="13">
-        <v>445</v>
+        <v>350</v>
       </c>
       <c r="BA16" s="13">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="BB16" s="13">
-        <v>330</v>
+        <v>294</v>
       </c>
     </row>
     <row r="17" spans="2:54" x14ac:dyDescent="0.3">
@@ -2473,95 +2473,95 @@
       <c r="X17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y17" s="11" t="s">
-        <v>58</v>
+      <c r="Y17" s="11">
+        <v>73</v>
       </c>
       <c r="Z17" s="11">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="AA17" s="11">
-        <v>22</v>
+        <v>138</v>
       </c>
       <c r="AB17" s="11">
-        <v>138</v>
+        <v>100</v>
       </c>
       <c r="AC17" s="11">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="AD17" s="11">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="AE17" s="11">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AF17" s="11">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="AG17" s="11">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="AH17" s="11">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="AI17" s="11">
+        <v>13</v>
+      </c>
+      <c r="AJ17" s="11">
         <v>18</v>
       </c>
-      <c r="AJ17" s="11">
-        <v>13</v>
-      </c>
       <c r="AK17" s="11">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="AL17" s="11">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="AM17" s="11">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="AN17" s="11">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="AO17" s="11">
-        <v>39</v>
+        <v>145</v>
       </c>
       <c r="AP17" s="11">
-        <v>145</v>
+        <v>111</v>
       </c>
       <c r="AQ17" s="11">
-        <v>111</v>
+        <v>151</v>
       </c>
       <c r="AR17" s="11">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="AS17" s="11">
-        <v>140</v>
+        <v>47</v>
       </c>
       <c r="AT17" s="11">
-        <v>47</v>
+        <v>127</v>
       </c>
       <c r="AU17" s="11">
-        <v>127</v>
+        <v>195</v>
       </c>
       <c r="AV17" s="11">
+        <v>181</v>
+      </c>
+      <c r="AW17" s="11">
+        <v>228</v>
+      </c>
+      <c r="AX17" s="11">
+        <v>194</v>
+      </c>
+      <c r="AY17" s="11">
         <v>195</v>
       </c>
-      <c r="AW17" s="11">
-        <v>181</v>
-      </c>
-      <c r="AX17" s="11">
-        <v>228</v>
-      </c>
-      <c r="AY17" s="11">
-        <v>194</v>
-      </c>
       <c r="AZ17" s="11">
-        <v>195</v>
+        <v>156</v>
       </c>
       <c r="BA17" s="11">
-        <v>156</v>
+        <v>218</v>
       </c>
       <c r="BB17" s="11">
-        <v>218</v>
+        <v>227</v>
       </c>
     </row>
     <row r="18" spans="2:54" x14ac:dyDescent="0.3">
@@ -2632,95 +2632,95 @@
       <c r="X18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y18" s="13" t="s">
-        <v>58</v>
+      <c r="Y18" s="13">
+        <v>257</v>
       </c>
       <c r="Z18" s="13">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="AA18" s="13">
+        <v>237</v>
+      </c>
+      <c r="AB18" s="13">
+        <v>742</v>
+      </c>
+      <c r="AC18" s="13">
         <v>265</v>
       </c>
-      <c r="AB18" s="13">
-        <v>237</v>
-      </c>
-      <c r="AC18" s="13">
-        <v>742</v>
-      </c>
       <c r="AD18" s="13">
-        <v>265</v>
+        <v>431</v>
       </c>
       <c r="AE18" s="13">
-        <v>431</v>
+        <v>315</v>
       </c>
       <c r="AF18" s="13">
-        <v>315</v>
+        <v>373</v>
       </c>
       <c r="AG18" s="13">
-        <v>373</v>
+        <v>0</v>
       </c>
       <c r="AH18" s="13">
-        <v>0</v>
+        <v>491</v>
       </c>
       <c r="AI18" s="13">
-        <v>491</v>
+        <v>460</v>
       </c>
       <c r="AJ18" s="13">
-        <v>460</v>
+        <v>293</v>
       </c>
       <c r="AK18" s="13">
-        <v>293</v>
+        <v>203</v>
       </c>
       <c r="AL18" s="13">
-        <v>203</v>
+        <v>266</v>
       </c>
       <c r="AM18" s="13">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AN18" s="13">
         <v>264</v>
       </c>
       <c r="AO18" s="13">
-        <v>264</v>
+        <v>301</v>
       </c>
       <c r="AP18" s="13">
-        <v>301</v>
+        <v>273</v>
       </c>
       <c r="AQ18" s="13">
-        <v>273</v>
+        <v>360</v>
       </c>
       <c r="AR18" s="13">
-        <v>360</v>
+        <v>331</v>
       </c>
       <c r="AS18" s="13">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AT18" s="13">
-        <v>332</v>
+        <v>303</v>
       </c>
       <c r="AU18" s="13">
-        <v>303</v>
+        <v>405</v>
       </c>
       <c r="AV18" s="13">
-        <v>405</v>
+        <v>352</v>
       </c>
       <c r="AW18" s="13">
-        <v>352</v>
+        <v>372</v>
       </c>
       <c r="AX18" s="13">
-        <v>372</v>
+        <v>349</v>
       </c>
       <c r="AY18" s="13">
-        <v>349</v>
+        <v>298</v>
       </c>
       <c r="AZ18" s="13">
-        <v>298</v>
+        <v>389</v>
       </c>
       <c r="BA18" s="13">
-        <v>389</v>
+        <v>475</v>
       </c>
       <c r="BB18" s="13">
-        <v>475</v>
+        <v>425</v>
       </c>
     </row>
     <row r="19" spans="2:54" x14ac:dyDescent="0.3">
@@ -2790,94 +2790,94 @@
         <v>0</v>
       </c>
       <c r="Y19" s="15">
-        <v>0</v>
+        <v>6538</v>
       </c>
       <c r="Z19" s="15">
-        <v>6538</v>
+        <v>6205</v>
       </c>
       <c r="AA19" s="15">
-        <v>6205</v>
+        <v>6026</v>
       </c>
       <c r="AB19" s="15">
-        <v>6026</v>
+        <v>6231</v>
       </c>
       <c r="AC19" s="15">
-        <v>6231</v>
+        <v>6641</v>
       </c>
       <c r="AD19" s="15">
-        <v>6641</v>
+        <v>5817</v>
       </c>
       <c r="AE19" s="15">
-        <v>5817</v>
+        <v>6416</v>
       </c>
       <c r="AF19" s="15">
-        <v>6416</v>
+        <v>6523</v>
       </c>
       <c r="AG19" s="15">
-        <v>6523</v>
+        <v>5835</v>
       </c>
       <c r="AH19" s="15">
-        <v>5835</v>
+        <v>7463</v>
       </c>
       <c r="AI19" s="15">
-        <v>7463</v>
+        <v>6001</v>
       </c>
       <c r="AJ19" s="15">
-        <v>6001</v>
+        <v>6079</v>
       </c>
       <c r="AK19" s="15">
-        <v>6079</v>
+        <v>6190</v>
       </c>
       <c r="AL19" s="15">
-        <v>6190</v>
+        <v>5475</v>
       </c>
       <c r="AM19" s="15">
-        <v>5475</v>
+        <v>5508</v>
       </c>
       <c r="AN19" s="15">
+        <v>5486</v>
+      </c>
+      <c r="AO19" s="15">
         <v>5508</v>
       </c>
-      <c r="AO19" s="15">
-        <v>5486</v>
-      </c>
       <c r="AP19" s="15">
-        <v>5508</v>
+        <v>5315</v>
       </c>
       <c r="AQ19" s="15">
-        <v>5315</v>
+        <v>5747</v>
       </c>
       <c r="AR19" s="15">
-        <v>5747</v>
+        <v>5149</v>
       </c>
       <c r="AS19" s="15">
-        <v>5149</v>
+        <v>5206</v>
       </c>
       <c r="AT19" s="15">
-        <v>5206</v>
+        <v>5928</v>
       </c>
       <c r="AU19" s="15">
-        <v>5928</v>
+        <v>4786</v>
       </c>
       <c r="AV19" s="15">
-        <v>4786</v>
+        <v>5642</v>
       </c>
       <c r="AW19" s="15">
-        <v>5642</v>
+        <v>5348</v>
       </c>
       <c r="AX19" s="15">
-        <v>5348</v>
+        <v>5745</v>
       </c>
       <c r="AY19" s="15">
-        <v>5745</v>
+        <v>5554</v>
       </c>
       <c r="AZ19" s="15">
-        <v>5554</v>
+        <v>5497</v>
       </c>
       <c r="BA19" s="15">
-        <v>5497</v>
+        <v>5788</v>
       </c>
       <c r="BB19" s="15">
-        <v>5788</v>
+        <v>5676</v>
       </c>
     </row>
     <row r="20" spans="2:54" x14ac:dyDescent="0.3">
@@ -3068,8 +3068,8 @@
       <c r="AS21" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT21" s="11" t="s">
-        <v>58</v>
+      <c r="AT21" s="11">
+        <v>0</v>
       </c>
       <c r="AU21" s="11">
         <v>0</v>
@@ -3191,11 +3191,11 @@
       <c r="AG22" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH22" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI22" s="13">
-        <v>0</v>
+      <c r="AH22" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI22" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AJ22" s="13" t="s">
         <v>58</v>
@@ -3224,8 +3224,8 @@
       <c r="AR22" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS22" s="13" t="s">
-        <v>58</v>
+      <c r="AS22" s="13">
+        <v>0</v>
       </c>
       <c r="AT22" s="13">
         <v>0</v>
@@ -3323,8 +3323,8 @@
       <c r="X23" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y23" s="11" t="s">
-        <v>58</v>
+      <c r="Y23" s="11">
+        <v>0</v>
       </c>
       <c r="Z23" s="11">
         <v>0</v>
@@ -3350,8 +3350,8 @@
       <c r="AG23" s="11">
         <v>0</v>
       </c>
-      <c r="AH23" s="11">
-        <v>0</v>
+      <c r="AH23" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI23" s="11" t="s">
         <v>58</v>
@@ -3383,8 +3383,8 @@
       <c r="AR23" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS23" s="11" t="s">
-        <v>58</v>
+      <c r="AS23" s="11">
+        <v>0</v>
       </c>
       <c r="AT23" s="11">
         <v>0</v>
@@ -3545,8 +3545,8 @@
       <c r="AS24" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT24" s="13" t="s">
-        <v>58</v>
+      <c r="AT24" s="13">
+        <v>0</v>
       </c>
       <c r="AU24" s="13">
         <v>0</v>
@@ -3701,11 +3701,11 @@
       <c r="AR25" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS25" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT25" s="11">
-        <v>0</v>
+      <c r="AS25" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT25" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AU25" s="11" t="s">
         <v>58</v>
@@ -3860,8 +3860,8 @@
       <c r="AR26" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS26" s="13" t="s">
-        <v>58</v>
+      <c r="AS26" s="13">
+        <v>0</v>
       </c>
       <c r="AT26" s="13">
         <v>0</v>
@@ -4040,8 +4040,8 @@
       <c r="AY27" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AZ27" s="11" t="s">
-        <v>58</v>
+      <c r="AZ27" s="11">
+        <v>0</v>
       </c>
       <c r="BA27" s="11">
         <v>0</v>
@@ -4118,8 +4118,8 @@
       <c r="X28" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y28" s="13" t="s">
-        <v>58</v>
+      <c r="Y28" s="13">
+        <v>0</v>
       </c>
       <c r="Z28" s="13">
         <v>0</v>
@@ -4145,8 +4145,8 @@
       <c r="AG28" s="13">
         <v>0</v>
       </c>
-      <c r="AH28" s="13">
-        <v>0</v>
+      <c r="AH28" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI28" s="13" t="s">
         <v>58</v>
@@ -4178,11 +4178,11 @@
       <c r="AR28" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS28" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT28" s="13">
-        <v>0</v>
+      <c r="AS28" s="13">
+        <v>0</v>
+      </c>
+      <c r="AT28" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU28" s="13" t="s">
         <v>58</v>
@@ -4199,8 +4199,8 @@
       <c r="AY28" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AZ28" s="13" t="s">
-        <v>58</v>
+      <c r="AZ28" s="13">
+        <v>0</v>
       </c>
       <c r="BA28" s="13">
         <v>0</v>
@@ -4304,11 +4304,11 @@
       <c r="AG29" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH29" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI29" s="11">
-        <v>0</v>
+      <c r="AH29" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI29" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ29" s="11" t="s">
         <v>58</v>
@@ -4463,11 +4463,11 @@
       <c r="AG30" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH30" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI30" s="13">
-        <v>0</v>
+      <c r="AH30" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI30" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AJ30" s="13" t="s">
         <v>58</v>
@@ -4622,11 +4622,11 @@
       <c r="AG31" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH31" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI31" s="11">
-        <v>0</v>
+      <c r="AH31" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI31" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ31" s="11" t="s">
         <v>58</v>
@@ -4781,11 +4781,11 @@
       <c r="AG32" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH32" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI32" s="13">
-        <v>0</v>
+      <c r="AH32" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI32" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AJ32" s="13" t="s">
         <v>58</v>
@@ -5154,11 +5154,11 @@
       <c r="AG35" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH35" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI35" s="11">
-        <v>0</v>
+      <c r="AH35" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI35" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ35" s="11" t="s">
         <v>58</v>
@@ -5190,8 +5190,8 @@
       <c r="AS35" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT35" s="11" t="s">
-        <v>58</v>
+      <c r="AT35" s="11">
+        <v>0</v>
       </c>
       <c r="AU35" s="11">
         <v>0</v>
@@ -5199,23 +5199,23 @@
       <c r="AV35" s="11">
         <v>0</v>
       </c>
-      <c r="AW35" s="11">
-        <v>0</v>
+      <c r="AW35" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AX35" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AY35" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ35" s="11">
-        <v>0</v>
-      </c>
-      <c r="BA35" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="BB35" s="11">
-        <v>0</v>
+      <c r="AY35" s="11">
+        <v>0</v>
+      </c>
+      <c r="AZ35" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA35" s="11">
+        <v>0</v>
+      </c>
+      <c r="BB35" s="11" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="2:54" x14ac:dyDescent="0.3">
@@ -5284,8 +5284,8 @@
       <c r="X36" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="Y36" s="17" t="s">
-        <v>58</v>
+      <c r="Y36" s="17">
+        <v>0</v>
       </c>
       <c r="Z36" s="17">
         <v>0</v>
@@ -5442,94 +5442,94 @@
         <v>0</v>
       </c>
       <c r="Y37" s="15">
-        <v>0</v>
+        <v>6538</v>
       </c>
       <c r="Z37" s="15">
-        <v>6538</v>
+        <v>6205</v>
       </c>
       <c r="AA37" s="15">
-        <v>6205</v>
+        <v>6026</v>
       </c>
       <c r="AB37" s="15">
-        <v>6026</v>
+        <v>6231</v>
       </c>
       <c r="AC37" s="15">
-        <v>6231</v>
+        <v>6641</v>
       </c>
       <c r="AD37" s="15">
-        <v>6641</v>
+        <v>5817</v>
       </c>
       <c r="AE37" s="15">
-        <v>5817</v>
+        <v>6416</v>
       </c>
       <c r="AF37" s="15">
-        <v>6416</v>
+        <v>6523</v>
       </c>
       <c r="AG37" s="15">
-        <v>6523</v>
+        <v>5835</v>
       </c>
       <c r="AH37" s="15">
-        <v>5835</v>
+        <v>7463</v>
       </c>
       <c r="AI37" s="15">
-        <v>7463</v>
+        <v>6001</v>
       </c>
       <c r="AJ37" s="15">
-        <v>6001</v>
+        <v>6079</v>
       </c>
       <c r="AK37" s="15">
-        <v>6079</v>
+        <v>6190</v>
       </c>
       <c r="AL37" s="15">
-        <v>6190</v>
+        <v>5475</v>
       </c>
       <c r="AM37" s="15">
-        <v>5475</v>
+        <v>5508</v>
       </c>
       <c r="AN37" s="15">
+        <v>5486</v>
+      </c>
+      <c r="AO37" s="15">
         <v>5508</v>
       </c>
-      <c r="AO37" s="15">
-        <v>5486</v>
-      </c>
       <c r="AP37" s="15">
-        <v>5508</v>
+        <v>5315</v>
       </c>
       <c r="AQ37" s="15">
-        <v>5315</v>
+        <v>5747</v>
       </c>
       <c r="AR37" s="15">
-        <v>5747</v>
+        <v>5149</v>
       </c>
       <c r="AS37" s="15">
-        <v>5149</v>
+        <v>5206</v>
       </c>
       <c r="AT37" s="15">
-        <v>5206</v>
+        <v>5928</v>
       </c>
       <c r="AU37" s="15">
-        <v>5928</v>
+        <v>4786</v>
       </c>
       <c r="AV37" s="15">
-        <v>4786</v>
+        <v>5642</v>
       </c>
       <c r="AW37" s="15">
-        <v>5642</v>
+        <v>5348</v>
       </c>
       <c r="AX37" s="15">
-        <v>5348</v>
+        <v>5745</v>
       </c>
       <c r="AY37" s="15">
-        <v>5745</v>
+        <v>5554</v>
       </c>
       <c r="AZ37" s="15">
-        <v>5554</v>
+        <v>5497</v>
       </c>
       <c r="BA37" s="15">
-        <v>5497</v>
+        <v>5788</v>
       </c>
       <c r="BB37" s="15">
-        <v>5788</v>
+        <v>5676</v>
       </c>
     </row>
     <row r="38" spans="2:54" x14ac:dyDescent="0.3">
@@ -6034,95 +6034,95 @@
       <c r="X44" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y44" s="11" t="s">
-        <v>58</v>
+      <c r="Y44" s="11">
+        <v>1149</v>
       </c>
       <c r="Z44" s="11">
-        <v>1149</v>
+        <v>1226</v>
       </c>
       <c r="AA44" s="11">
-        <v>1226</v>
+        <v>1142</v>
       </c>
       <c r="AB44" s="11">
-        <v>1142</v>
+        <v>797</v>
       </c>
       <c r="AC44" s="11">
-        <v>797</v>
+        <v>739</v>
       </c>
       <c r="AD44" s="11">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="AE44" s="11">
-        <v>741</v>
+        <v>768</v>
       </c>
       <c r="AF44" s="11">
-        <v>768</v>
+        <v>857</v>
       </c>
       <c r="AG44" s="11">
-        <v>857</v>
+        <v>1121</v>
       </c>
       <c r="AH44" s="11">
-        <v>1121</v>
+        <v>1268</v>
       </c>
       <c r="AI44" s="11">
-        <v>1268</v>
+        <v>1006</v>
       </c>
       <c r="AJ44" s="11">
-        <v>1006</v>
+        <v>910</v>
       </c>
       <c r="AK44" s="11">
-        <v>910</v>
+        <v>1024</v>
       </c>
       <c r="AL44" s="11">
-        <v>1024</v>
+        <v>799</v>
       </c>
       <c r="AM44" s="11">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="AN44" s="11">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="AO44" s="11">
-        <v>594</v>
+        <v>697</v>
       </c>
       <c r="AP44" s="11">
-        <v>697</v>
+        <v>558</v>
       </c>
       <c r="AQ44" s="11">
-        <v>558</v>
+        <v>597</v>
       </c>
       <c r="AR44" s="11">
-        <v>597</v>
+        <v>585</v>
       </c>
       <c r="AS44" s="11">
-        <v>585</v>
+        <v>675</v>
       </c>
       <c r="AT44" s="11">
-        <v>675</v>
+        <v>971</v>
       </c>
       <c r="AU44" s="11">
-        <v>971</v>
+        <v>647</v>
       </c>
       <c r="AV44" s="11">
-        <v>647</v>
+        <v>876</v>
       </c>
       <c r="AW44" s="11">
-        <v>876</v>
+        <v>727</v>
       </c>
       <c r="AX44" s="11">
-        <v>727</v>
+        <v>840</v>
       </c>
       <c r="AY44" s="11">
-        <v>840</v>
+        <v>776</v>
       </c>
       <c r="AZ44" s="11">
-        <v>776</v>
+        <v>653</v>
       </c>
       <c r="BA44" s="11">
-        <v>653</v>
+        <v>632</v>
       </c>
       <c r="BB44" s="11">
-        <v>632</v>
+        <v>616</v>
       </c>
     </row>
     <row r="45" spans="2:54" x14ac:dyDescent="0.3">
@@ -6193,11 +6193,11 @@
       <c r="X45" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y45" s="13" t="s">
-        <v>58</v>
+      <c r="Y45" s="13">
+        <v>19</v>
       </c>
       <c r="Z45" s="13">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="AA45" s="13">
         <v>24</v>
@@ -6206,82 +6206,82 @@
         <v>24</v>
       </c>
       <c r="AC45" s="13">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AD45" s="13">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="AE45" s="13">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="AF45" s="13">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="AG45" s="13">
-        <v>27</v>
+        <v>108</v>
       </c>
       <c r="AH45" s="13">
-        <v>108</v>
+        <v>26</v>
       </c>
       <c r="AI45" s="13">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="AJ45" s="13">
-        <v>80</v>
+        <v>369</v>
       </c>
       <c r="AK45" s="13">
-        <v>369</v>
+        <v>13</v>
       </c>
       <c r="AL45" s="13">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AM45" s="13">
         <v>20</v>
       </c>
       <c r="AN45" s="13">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="AO45" s="13">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="AP45" s="13">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="AQ45" s="13">
+        <v>14</v>
+      </c>
+      <c r="AR45" s="13">
+        <v>31</v>
+      </c>
+      <c r="AS45" s="13">
         <v>22</v>
       </c>
-      <c r="AR45" s="13">
+      <c r="AT45" s="13">
+        <v>13</v>
+      </c>
+      <c r="AU45" s="13">
+        <v>18</v>
+      </c>
+      <c r="AV45" s="13">
+        <v>19</v>
+      </c>
+      <c r="AW45" s="13">
         <v>14</v>
       </c>
-      <c r="AS45" s="13">
-        <v>31</v>
-      </c>
-      <c r="AT45" s="13">
-        <v>22</v>
-      </c>
-      <c r="AU45" s="13">
-        <v>13</v>
-      </c>
-      <c r="AV45" s="13">
+      <c r="AX45" s="13">
         <v>18</v>
-      </c>
-      <c r="AW45" s="13">
-        <v>19</v>
-      </c>
-      <c r="AX45" s="13">
-        <v>14</v>
       </c>
       <c r="AY45" s="13">
         <v>18</v>
       </c>
       <c r="AZ45" s="13">
+        <v>19</v>
+      </c>
+      <c r="BA45" s="13">
+        <v>20</v>
+      </c>
+      <c r="BB45" s="13">
         <v>18</v>
-      </c>
-      <c r="BA45" s="13">
-        <v>19</v>
-      </c>
-      <c r="BB45" s="13">
-        <v>20</v>
       </c>
     </row>
     <row r="46" spans="2:54" x14ac:dyDescent="0.3">
@@ -6352,95 +6352,95 @@
       <c r="X46" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y46" s="11" t="s">
-        <v>58</v>
+      <c r="Y46" s="11">
+        <v>2297</v>
       </c>
       <c r="Z46" s="11">
-        <v>2297</v>
+        <v>2227</v>
       </c>
       <c r="AA46" s="11">
-        <v>2227</v>
+        <v>2205</v>
       </c>
       <c r="AB46" s="11">
-        <v>2205</v>
+        <v>2756</v>
       </c>
       <c r="AC46" s="11">
-        <v>2756</v>
+        <v>3649</v>
       </c>
       <c r="AD46" s="11">
-        <v>3649</v>
+        <v>2493</v>
       </c>
       <c r="AE46" s="11">
+        <v>2633</v>
+      </c>
+      <c r="AF46" s="11">
+        <v>2858</v>
+      </c>
+      <c r="AG46" s="11">
+        <v>3040</v>
+      </c>
+      <c r="AH46" s="11">
+        <v>2687</v>
+      </c>
+      <c r="AI46" s="11">
+        <v>2496</v>
+      </c>
+      <c r="AJ46" s="11">
+        <v>2279</v>
+      </c>
+      <c r="AK46" s="11">
+        <v>2285</v>
+      </c>
+      <c r="AL46" s="11">
+        <v>2118</v>
+      </c>
+      <c r="AM46" s="11">
+        <v>2405</v>
+      </c>
+      <c r="AN46" s="11">
+        <v>2280</v>
+      </c>
+      <c r="AO46" s="11">
+        <v>2716</v>
+      </c>
+      <c r="AP46" s="11">
+        <v>2860</v>
+      </c>
+      <c r="AQ46" s="11">
+        <v>2607</v>
+      </c>
+      <c r="AR46" s="11">
+        <v>2415</v>
+      </c>
+      <c r="AS46" s="11">
+        <v>2238</v>
+      </c>
+      <c r="AT46" s="11">
+        <v>2191</v>
+      </c>
+      <c r="AU46" s="11">
+        <v>2092</v>
+      </c>
+      <c r="AV46" s="11">
+        <v>1961</v>
+      </c>
+      <c r="AW46" s="11">
+        <v>2238</v>
+      </c>
+      <c r="AX46" s="11">
+        <v>2016</v>
+      </c>
+      <c r="AY46" s="11">
+        <v>2116</v>
+      </c>
+      <c r="AZ46" s="11">
         <v>2493</v>
       </c>
-      <c r="AF46" s="11">
-        <v>2633</v>
-      </c>
-      <c r="AG46" s="11">
-        <v>2858</v>
-      </c>
-      <c r="AH46" s="11">
-        <v>3040</v>
-      </c>
-      <c r="AI46" s="11">
-        <v>2687</v>
-      </c>
-      <c r="AJ46" s="11">
-        <v>2496</v>
-      </c>
-      <c r="AK46" s="11">
-        <v>2279</v>
-      </c>
-      <c r="AL46" s="11">
-        <v>2285</v>
-      </c>
-      <c r="AM46" s="11">
-        <v>2118</v>
-      </c>
-      <c r="AN46" s="11">
-        <v>2405</v>
-      </c>
-      <c r="AO46" s="11">
-        <v>2280</v>
-      </c>
-      <c r="AP46" s="11">
-        <v>2716</v>
-      </c>
-      <c r="AQ46" s="11">
-        <v>2860</v>
-      </c>
-      <c r="AR46" s="11">
-        <v>2607</v>
-      </c>
-      <c r="AS46" s="11">
-        <v>2415</v>
-      </c>
-      <c r="AT46" s="11">
-        <v>2238</v>
-      </c>
-      <c r="AU46" s="11">
-        <v>2191</v>
-      </c>
-      <c r="AV46" s="11">
-        <v>2092</v>
-      </c>
-      <c r="AW46" s="11">
-        <v>1961</v>
-      </c>
-      <c r="AX46" s="11">
-        <v>2238</v>
-      </c>
-      <c r="AY46" s="11">
-        <v>2016</v>
-      </c>
-      <c r="AZ46" s="11">
-        <v>2116</v>
-      </c>
       <c r="BA46" s="11">
-        <v>2493</v>
+        <v>2732</v>
       </c>
       <c r="BB46" s="11">
-        <v>2732</v>
+        <v>2894</v>
       </c>
     </row>
     <row r="47" spans="2:54" x14ac:dyDescent="0.3">
@@ -6511,95 +6511,95 @@
       <c r="X47" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y47" s="13" t="s">
-        <v>58</v>
+      <c r="Y47" s="13">
+        <v>259</v>
       </c>
       <c r="Z47" s="13">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="AA47" s="13">
-        <v>253</v>
+        <v>305</v>
       </c>
       <c r="AB47" s="13">
         <v>305</v>
       </c>
       <c r="AC47" s="13">
+        <v>390</v>
+      </c>
+      <c r="AD47" s="13">
+        <v>527</v>
+      </c>
+      <c r="AE47" s="13">
+        <v>363</v>
+      </c>
+      <c r="AF47" s="13">
+        <v>412</v>
+      </c>
+      <c r="AG47" s="13">
+        <v>297</v>
+      </c>
+      <c r="AH47" s="13">
         <v>305</v>
       </c>
-      <c r="AD47" s="13">
-        <v>390</v>
-      </c>
-      <c r="AE47" s="13">
-        <v>527</v>
-      </c>
-      <c r="AF47" s="13">
-        <v>363</v>
-      </c>
-      <c r="AG47" s="13">
-        <v>412</v>
-      </c>
-      <c r="AH47" s="13">
-        <v>297</v>
-      </c>
       <c r="AI47" s="13">
-        <v>305</v>
+        <v>187</v>
       </c>
       <c r="AJ47" s="13">
-        <v>187</v>
+        <v>154</v>
       </c>
       <c r="AK47" s="13">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AL47" s="13">
+        <v>143</v>
+      </c>
+      <c r="AM47" s="13">
+        <v>170</v>
+      </c>
+      <c r="AN47" s="13">
+        <v>203</v>
+      </c>
+      <c r="AO47" s="13">
         <v>156</v>
       </c>
-      <c r="AM47" s="13">
-        <v>143</v>
-      </c>
-      <c r="AN47" s="13">
-        <v>170</v>
-      </c>
-      <c r="AO47" s="13">
-        <v>203</v>
-      </c>
       <c r="AP47" s="13">
-        <v>156</v>
+        <v>198</v>
       </c>
       <c r="AQ47" s="13">
-        <v>198</v>
+        <v>268</v>
       </c>
       <c r="AR47" s="13">
-        <v>268</v>
+        <v>174</v>
       </c>
       <c r="AS47" s="13">
-        <v>174</v>
+        <v>438</v>
       </c>
       <c r="AT47" s="13">
-        <v>438</v>
+        <v>376</v>
       </c>
       <c r="AU47" s="13">
-        <v>376</v>
+        <v>159</v>
       </c>
       <c r="AV47" s="13">
-        <v>159</v>
+        <v>226</v>
       </c>
       <c r="AW47" s="13">
-        <v>226</v>
+        <v>475</v>
       </c>
       <c r="AX47" s="13">
-        <v>475</v>
+        <v>323</v>
       </c>
       <c r="AY47" s="13">
-        <v>323</v>
+        <v>342</v>
       </c>
       <c r="AZ47" s="13">
-        <v>342</v>
+        <v>414</v>
       </c>
       <c r="BA47" s="13">
-        <v>414</v>
+        <v>209</v>
       </c>
       <c r="BB47" s="13">
-        <v>209</v>
+        <v>332</v>
       </c>
     </row>
     <row r="48" spans="2:54" x14ac:dyDescent="0.3">
@@ -6670,95 +6670,95 @@
       <c r="X48" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y48" s="11" t="s">
-        <v>58</v>
+      <c r="Y48" s="11">
+        <v>1752</v>
       </c>
       <c r="Z48" s="11">
-        <v>1752</v>
+        <v>1685</v>
       </c>
       <c r="AA48" s="11">
-        <v>1685</v>
+        <v>1619</v>
       </c>
       <c r="AB48" s="11">
-        <v>1619</v>
+        <v>1348</v>
       </c>
       <c r="AC48" s="11">
-        <v>1348</v>
+        <v>1274</v>
       </c>
       <c r="AD48" s="11">
-        <v>1274</v>
+        <v>1285</v>
       </c>
       <c r="AE48" s="11">
-        <v>1285</v>
+        <v>1300</v>
       </c>
       <c r="AF48" s="11">
-        <v>1300</v>
+        <v>1431</v>
       </c>
       <c r="AG48" s="11">
-        <v>1431</v>
+        <v>1630</v>
       </c>
       <c r="AH48" s="11">
-        <v>1630</v>
+        <v>1915</v>
       </c>
       <c r="AI48" s="11">
-        <v>1915</v>
+        <v>1664</v>
       </c>
       <c r="AJ48" s="11">
-        <v>1664</v>
+        <v>1879</v>
       </c>
       <c r="AK48" s="11">
-        <v>1879</v>
+        <v>1786</v>
       </c>
       <c r="AL48" s="11">
-        <v>1786</v>
+        <v>1410</v>
       </c>
       <c r="AM48" s="11">
-        <v>1410</v>
+        <v>1420</v>
       </c>
       <c r="AN48" s="11">
-        <v>1420</v>
+        <v>1189</v>
       </c>
       <c r="AO48" s="11">
-        <v>1189</v>
+        <v>1122</v>
       </c>
       <c r="AP48" s="11">
-        <v>1122</v>
+        <v>1029</v>
       </c>
       <c r="AQ48" s="11">
-        <v>1029</v>
+        <v>988</v>
       </c>
       <c r="AR48" s="11">
-        <v>988</v>
+        <v>1139</v>
       </c>
       <c r="AS48" s="11">
-        <v>1139</v>
+        <v>1353</v>
       </c>
       <c r="AT48" s="11">
-        <v>1353</v>
+        <v>1501</v>
       </c>
       <c r="AU48" s="11">
-        <v>1501</v>
+        <v>1243</v>
       </c>
       <c r="AV48" s="11">
-        <v>1243</v>
+        <v>1318</v>
       </c>
       <c r="AW48" s="11">
-        <v>1318</v>
+        <v>1222</v>
       </c>
       <c r="AX48" s="11">
-        <v>1222</v>
+        <v>1297</v>
       </c>
       <c r="AY48" s="11">
-        <v>1297</v>
+        <v>1221</v>
       </c>
       <c r="AZ48" s="11">
-        <v>1221</v>
+        <v>1111</v>
       </c>
       <c r="BA48" s="11">
-        <v>1111</v>
+        <v>1197</v>
       </c>
       <c r="BB48" s="11">
-        <v>1197</v>
+        <v>934</v>
       </c>
     </row>
     <row r="49" spans="2:54" x14ac:dyDescent="0.3">
@@ -6829,95 +6829,95 @@
       <c r="X49" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y49" s="13" t="s">
-        <v>58</v>
+      <c r="Y49" s="13">
+        <v>609</v>
       </c>
       <c r="Z49" s="13">
-        <v>609</v>
+        <v>534</v>
       </c>
       <c r="AA49" s="13">
-        <v>534</v>
+        <v>504</v>
       </c>
       <c r="AB49" s="13">
-        <v>504</v>
+        <v>304</v>
       </c>
       <c r="AC49" s="13">
-        <v>304</v>
+        <v>370</v>
       </c>
       <c r="AD49" s="13">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="AE49" s="13">
-        <v>358</v>
+        <v>402</v>
       </c>
       <c r="AF49" s="13">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="AG49" s="13">
-        <v>409</v>
+        <v>486</v>
       </c>
       <c r="AH49" s="13">
-        <v>486</v>
+        <v>447</v>
       </c>
       <c r="AI49" s="13">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="AJ49" s="13">
-        <v>450</v>
+        <v>378</v>
       </c>
       <c r="AK49" s="13">
-        <v>378</v>
+        <v>477</v>
       </c>
       <c r="AL49" s="13">
-        <v>477</v>
+        <v>369</v>
       </c>
       <c r="AM49" s="13">
-        <v>369</v>
+        <v>446</v>
       </c>
       <c r="AN49" s="13">
-        <v>446</v>
+        <v>385</v>
       </c>
       <c r="AO49" s="13">
-        <v>385</v>
+        <v>426</v>
       </c>
       <c r="AP49" s="13">
-        <v>426</v>
+        <v>377</v>
       </c>
       <c r="AQ49" s="13">
-        <v>377</v>
+        <v>329</v>
       </c>
       <c r="AR49" s="13">
-        <v>329</v>
+        <v>289</v>
       </c>
       <c r="AS49" s="13">
-        <v>289</v>
+        <v>400</v>
       </c>
       <c r="AT49" s="13">
-        <v>400</v>
+        <v>333</v>
       </c>
       <c r="AU49" s="13">
-        <v>333</v>
+        <v>403</v>
       </c>
       <c r="AV49" s="13">
-        <v>403</v>
+        <v>356</v>
       </c>
       <c r="AW49" s="13">
-        <v>356</v>
+        <v>328</v>
       </c>
       <c r="AX49" s="13">
-        <v>328</v>
+        <v>384</v>
       </c>
       <c r="AY49" s="13">
-        <v>384</v>
+        <v>364</v>
       </c>
       <c r="AZ49" s="13">
-        <v>364</v>
+        <v>338</v>
       </c>
       <c r="BA49" s="13">
-        <v>338</v>
+        <v>249</v>
       </c>
       <c r="BB49" s="13">
-        <v>249</v>
+        <v>270</v>
       </c>
     </row>
     <row r="50" spans="2:54" x14ac:dyDescent="0.3">
@@ -6988,95 +6988,95 @@
       <c r="X50" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y50" s="11" t="s">
-        <v>58</v>
+      <c r="Y50" s="11">
+        <v>47</v>
       </c>
       <c r="Z50" s="11">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="AA50" s="11">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="AB50" s="11">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="AC50" s="11">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="AD50" s="11">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="AE50" s="11">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="AF50" s="11">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="AG50" s="11">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="AH50" s="11">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="AI50" s="11">
         <v>26</v>
       </c>
       <c r="AJ50" s="11">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="AK50" s="11">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AL50" s="11">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="AM50" s="11">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="AN50" s="11">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="AO50" s="11">
+        <v>37</v>
+      </c>
+      <c r="AP50" s="11">
+        <v>58</v>
+      </c>
+      <c r="AQ50" s="11">
+        <v>34</v>
+      </c>
+      <c r="AR50" s="11">
+        <v>8</v>
+      </c>
+      <c r="AS50" s="11">
+        <v>84</v>
+      </c>
+      <c r="AT50" s="11">
+        <v>323</v>
+      </c>
+      <c r="AU50" s="11">
+        <v>143</v>
+      </c>
+      <c r="AV50" s="11">
         <v>30</v>
       </c>
-      <c r="AP50" s="11">
-        <v>37</v>
-      </c>
-      <c r="AQ50" s="11">
-        <v>58</v>
-      </c>
-      <c r="AR50" s="11">
-        <v>34</v>
-      </c>
-      <c r="AS50" s="11">
-        <v>8</v>
-      </c>
-      <c r="AT50" s="11">
-        <v>84</v>
-      </c>
-      <c r="AU50" s="11">
-        <v>323</v>
-      </c>
-      <c r="AV50" s="11">
-        <v>143</v>
-      </c>
       <c r="AW50" s="11">
-        <v>30</v>
+        <v>226</v>
       </c>
       <c r="AX50" s="11">
-        <v>226</v>
+        <v>65</v>
       </c>
       <c r="AY50" s="11">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="AZ50" s="11">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="BA50" s="11">
-        <v>130</v>
+        <v>45</v>
       </c>
       <c r="BB50" s="11">
-        <v>45</v>
+        <v>140</v>
       </c>
     </row>
     <row r="51" spans="2:54" x14ac:dyDescent="0.3">
@@ -7147,95 +7147,95 @@
       <c r="X51" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y51" s="13" t="s">
-        <v>58</v>
+      <c r="Y51" s="13">
+        <v>264</v>
       </c>
       <c r="Z51" s="13">
-        <v>264</v>
+        <v>351</v>
       </c>
       <c r="AA51" s="13">
-        <v>351</v>
+        <v>117</v>
       </c>
       <c r="AB51" s="13">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="AC51" s="13">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AD51" s="13">
-        <v>148</v>
+        <v>227</v>
       </c>
       <c r="AE51" s="13">
-        <v>227</v>
+        <v>188</v>
       </c>
       <c r="AF51" s="13">
-        <v>188</v>
+        <v>149</v>
       </c>
       <c r="AG51" s="13">
-        <v>149</v>
+        <v>437</v>
       </c>
       <c r="AH51" s="13">
-        <v>437</v>
+        <v>247</v>
       </c>
       <c r="AI51" s="13">
-        <v>247</v>
+        <v>208</v>
       </c>
       <c r="AJ51" s="13">
-        <v>208</v>
+        <v>370</v>
       </c>
       <c r="AK51" s="13">
-        <v>370</v>
+        <v>404</v>
       </c>
       <c r="AL51" s="13">
-        <v>404</v>
+        <v>172</v>
       </c>
       <c r="AM51" s="13">
+        <v>232</v>
+      </c>
+      <c r="AN51" s="13">
+        <v>273</v>
+      </c>
+      <c r="AO51" s="13">
+        <v>285</v>
+      </c>
+      <c r="AP51" s="13">
+        <v>187</v>
+      </c>
+      <c r="AQ51" s="13">
+        <v>183</v>
+      </c>
+      <c r="AR51" s="13">
+        <v>199</v>
+      </c>
+      <c r="AS51" s="13">
+        <v>489</v>
+      </c>
+      <c r="AT51" s="13">
+        <v>372</v>
+      </c>
+      <c r="AU51" s="13">
+        <v>142</v>
+      </c>
+      <c r="AV51" s="13">
+        <v>71</v>
+      </c>
+      <c r="AW51" s="13">
+        <v>56</v>
+      </c>
+      <c r="AX51" s="13">
+        <v>488</v>
+      </c>
+      <c r="AY51" s="13">
         <v>172</v>
       </c>
-      <c r="AN51" s="13">
-        <v>232</v>
-      </c>
-      <c r="AO51" s="13">
-        <v>273</v>
-      </c>
-      <c r="AP51" s="13">
-        <v>285</v>
-      </c>
-      <c r="AQ51" s="13">
-        <v>187</v>
-      </c>
-      <c r="AR51" s="13">
-        <v>183</v>
-      </c>
-      <c r="AS51" s="13">
-        <v>199</v>
-      </c>
-      <c r="AT51" s="13">
-        <v>489</v>
-      </c>
-      <c r="AU51" s="13">
-        <v>372</v>
-      </c>
-      <c r="AV51" s="13">
-        <v>142</v>
-      </c>
-      <c r="AW51" s="13">
-        <v>71</v>
-      </c>
-      <c r="AX51" s="13">
-        <v>56</v>
-      </c>
-      <c r="AY51" s="13">
-        <v>488</v>
-      </c>
       <c r="AZ51" s="13">
-        <v>172</v>
+        <v>129</v>
       </c>
       <c r="BA51" s="13">
-        <v>129</v>
+        <v>62</v>
       </c>
       <c r="BB51" s="13">
-        <v>62</v>
+        <v>315</v>
       </c>
     </row>
     <row r="52" spans="2:54" x14ac:dyDescent="0.3">
@@ -7305,94 +7305,94 @@
         <v>0</v>
       </c>
       <c r="Y52" s="15">
-        <v>0</v>
+        <v>6396</v>
       </c>
       <c r="Z52" s="15">
-        <v>6396</v>
+        <v>6318</v>
       </c>
       <c r="AA52" s="15">
-        <v>6318</v>
+        <v>5983</v>
       </c>
       <c r="AB52" s="15">
-        <v>5983</v>
+        <v>5730</v>
       </c>
       <c r="AC52" s="15">
-        <v>5730</v>
+        <v>6649</v>
       </c>
       <c r="AD52" s="15">
-        <v>6649</v>
+        <v>5745</v>
       </c>
       <c r="AE52" s="15">
-        <v>5745</v>
+        <v>5713</v>
       </c>
       <c r="AF52" s="15">
-        <v>5713</v>
+        <v>6174</v>
       </c>
       <c r="AG52" s="15">
-        <v>6174</v>
+        <v>7158</v>
       </c>
       <c r="AH52" s="15">
-        <v>7158</v>
+        <v>6921</v>
       </c>
       <c r="AI52" s="15">
-        <v>6921</v>
+        <v>6117</v>
       </c>
       <c r="AJ52" s="15">
-        <v>6117</v>
+        <v>6350</v>
       </c>
       <c r="AK52" s="15">
-        <v>6350</v>
+        <v>6162</v>
       </c>
       <c r="AL52" s="15">
-        <v>6162</v>
+        <v>5099</v>
       </c>
       <c r="AM52" s="15">
-        <v>5099</v>
+        <v>5558</v>
       </c>
       <c r="AN52" s="15">
-        <v>5558</v>
+        <v>4983</v>
       </c>
       <c r="AO52" s="15">
-        <v>4983</v>
+        <v>5449</v>
       </c>
       <c r="AP52" s="15">
-        <v>5449</v>
+        <v>5289</v>
       </c>
       <c r="AQ52" s="15">
-        <v>5289</v>
+        <v>5020</v>
       </c>
       <c r="AR52" s="15">
-        <v>5020</v>
+        <v>4840</v>
       </c>
       <c r="AS52" s="15">
-        <v>4840</v>
+        <v>5699</v>
       </c>
       <c r="AT52" s="15">
-        <v>5699</v>
+        <v>6080</v>
       </c>
       <c r="AU52" s="15">
-        <v>6080</v>
+        <v>4847</v>
       </c>
       <c r="AV52" s="15">
-        <v>4847</v>
+        <v>4857</v>
       </c>
       <c r="AW52" s="15">
-        <v>4857</v>
+        <v>5286</v>
       </c>
       <c r="AX52" s="15">
-        <v>5286</v>
+        <v>5431</v>
       </c>
       <c r="AY52" s="15">
-        <v>5431</v>
+        <v>5123</v>
       </c>
       <c r="AZ52" s="15">
-        <v>5123</v>
+        <v>5287</v>
       </c>
       <c r="BA52" s="15">
-        <v>5287</v>
+        <v>5146</v>
       </c>
       <c r="BB52" s="15">
-        <v>5146</v>
+        <v>5519</v>
       </c>
     </row>
     <row r="53" spans="2:54" x14ac:dyDescent="0.3">
@@ -7583,8 +7583,8 @@
       <c r="AS54" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT54" s="11" t="s">
-        <v>58</v>
+      <c r="AT54" s="11">
+        <v>0</v>
       </c>
       <c r="AU54" s="11">
         <v>0</v>
@@ -7706,11 +7706,11 @@
       <c r="AG55" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH55" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI55" s="13">
-        <v>0</v>
+      <c r="AH55" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI55" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AJ55" s="13" t="s">
         <v>58</v>
@@ -7739,8 +7739,8 @@
       <c r="AR55" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS55" s="13" t="s">
-        <v>58</v>
+      <c r="AS55" s="13">
+        <v>0</v>
       </c>
       <c r="AT55" s="13">
         <v>0</v>
@@ -7767,7 +7767,7 @@
         <v>0</v>
       </c>
       <c r="BB55" s="13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="2:54" x14ac:dyDescent="0.3">
@@ -7838,8 +7838,8 @@
       <c r="X56" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y56" s="11" t="s">
-        <v>58</v>
+      <c r="Y56" s="11">
+        <v>0</v>
       </c>
       <c r="Z56" s="11">
         <v>0</v>
@@ -7865,8 +7865,8 @@
       <c r="AG56" s="11">
         <v>0</v>
       </c>
-      <c r="AH56" s="11">
-        <v>0</v>
+      <c r="AH56" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI56" s="11" t="s">
         <v>58</v>
@@ -7898,8 +7898,8 @@
       <c r="AR56" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS56" s="11" t="s">
-        <v>58</v>
+      <c r="AS56" s="11">
+        <v>0</v>
       </c>
       <c r="AT56" s="11">
         <v>0</v>
@@ -8060,8 +8060,8 @@
       <c r="AS57" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT57" s="13" t="s">
-        <v>58</v>
+      <c r="AT57" s="13">
+        <v>0</v>
       </c>
       <c r="AU57" s="13">
         <v>0</v>
@@ -8082,10 +8082,10 @@
         <v>0</v>
       </c>
       <c r="BA57" s="13">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="BB57" s="13">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="2:54" x14ac:dyDescent="0.3">
@@ -8216,11 +8216,11 @@
       <c r="AR58" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS58" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT58" s="11">
-        <v>0</v>
+      <c r="AS58" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT58" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AU58" s="11" t="s">
         <v>58</v>
@@ -8375,8 +8375,8 @@
       <c r="AR59" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS59" s="13" t="s">
-        <v>58</v>
+      <c r="AS59" s="13">
+        <v>0</v>
       </c>
       <c r="AT59" s="13">
         <v>0</v>
@@ -8555,14 +8555,14 @@
       <c r="AY60" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AZ60" s="11" t="s">
-        <v>58</v>
+      <c r="AZ60" s="11">
+        <v>160</v>
       </c>
       <c r="BA60" s="11">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="BB60" s="11">
-        <v>172</v>
+        <v>100</v>
       </c>
     </row>
     <row r="61" spans="2:54" x14ac:dyDescent="0.3">
@@ -8633,8 +8633,8 @@
       <c r="X61" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y61" s="13" t="s">
-        <v>58</v>
+      <c r="Y61" s="13">
+        <v>0</v>
       </c>
       <c r="Z61" s="13">
         <v>0</v>
@@ -8660,8 +8660,8 @@
       <c r="AG61" s="13">
         <v>0</v>
       </c>
-      <c r="AH61" s="13">
-        <v>0</v>
+      <c r="AH61" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI61" s="13" t="s">
         <v>58</v>
@@ -8693,11 +8693,11 @@
       <c r="AR61" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS61" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT61" s="13">
-        <v>0</v>
+      <c r="AS61" s="13">
+        <v>0</v>
+      </c>
+      <c r="AT61" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU61" s="13" t="s">
         <v>58</v>
@@ -8714,14 +8714,14 @@
       <c r="AY61" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AZ61" s="13" t="s">
-        <v>58</v>
+      <c r="AZ61" s="13">
+        <v>225</v>
       </c>
       <c r="BA61" s="13">
-        <v>225</v>
+        <v>325</v>
       </c>
       <c r="BB61" s="13">
-        <v>325</v>
+        <v>106</v>
       </c>
     </row>
     <row r="62" spans="2:54" x14ac:dyDescent="0.3">
@@ -8819,11 +8819,11 @@
       <c r="AG62" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH62" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI62" s="11">
-        <v>0</v>
+      <c r="AH62" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI62" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ62" s="11" t="s">
         <v>58</v>
@@ -8978,11 +8978,11 @@
       <c r="AG63" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH63" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI63" s="13">
-        <v>0</v>
+      <c r="AH63" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI63" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AJ63" s="13" t="s">
         <v>58</v>
@@ -9137,11 +9137,11 @@
       <c r="AG64" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH64" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI64" s="11">
-        <v>0</v>
+      <c r="AH64" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI64" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ64" s="11" t="s">
         <v>58</v>
@@ -9296,11 +9296,11 @@
       <c r="AG65" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH65" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI65" s="13">
-        <v>0</v>
+      <c r="AH65" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI65" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AJ65" s="13" t="s">
         <v>58</v>
@@ -9508,13 +9508,13 @@
         <v>0</v>
       </c>
       <c r="AZ66" s="15">
-        <v>0</v>
+        <v>385</v>
       </c>
       <c r="BA66" s="15">
-        <v>385</v>
+        <v>516</v>
       </c>
       <c r="BB66" s="15">
-        <v>516</v>
+        <v>208</v>
       </c>
     </row>
     <row r="67" spans="2:54" x14ac:dyDescent="0.3">
@@ -9669,11 +9669,11 @@
       <c r="AG68" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH68" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI68" s="11">
-        <v>0</v>
+      <c r="AH68" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI68" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ68" s="11" t="s">
         <v>58</v>
@@ -9705,8 +9705,8 @@
       <c r="AS68" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT68" s="11" t="s">
-        <v>58</v>
+      <c r="AT68" s="11">
+        <v>0</v>
       </c>
       <c r="AU68" s="11">
         <v>0</v>
@@ -9714,23 +9714,23 @@
       <c r="AV68" s="11">
         <v>0</v>
       </c>
-      <c r="AW68" s="11">
-        <v>0</v>
+      <c r="AW68" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AX68" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AY68" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ68" s="11">
-        <v>0</v>
-      </c>
-      <c r="BA68" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="BB68" s="11">
-        <v>0</v>
+      <c r="AY68" s="11">
+        <v>0</v>
+      </c>
+      <c r="AZ68" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA68" s="11">
+        <v>0</v>
+      </c>
+      <c r="BB68" s="11" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="69" spans="2:54" x14ac:dyDescent="0.3">
@@ -9799,8 +9799,8 @@
       <c r="X69" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="Y69" s="17" t="s">
-        <v>58</v>
+      <c r="Y69" s="17">
+        <v>0</v>
       </c>
       <c r="Z69" s="17">
         <v>0</v>
@@ -10078,8 +10078,8 @@
       <c r="AS71" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT71" s="11" t="s">
-        <v>58</v>
+      <c r="AT71" s="11">
+        <v>0</v>
       </c>
       <c r="AU71" s="11">
         <v>0</v>
@@ -10087,23 +10087,23 @@
       <c r="AV71" s="11">
         <v>0</v>
       </c>
-      <c r="AW71" s="11">
-        <v>0</v>
+      <c r="AW71" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AX71" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AY71" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ71" s="11">
-        <v>0</v>
-      </c>
-      <c r="BA71" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="BB71" s="11">
-        <v>0</v>
+      <c r="AY71" s="11">
+        <v>0</v>
+      </c>
+      <c r="AZ71" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA71" s="11">
+        <v>0</v>
+      </c>
+      <c r="BB71" s="11" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="72" spans="2:54" x14ac:dyDescent="0.3">
@@ -10172,8 +10172,8 @@
       <c r="X72" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="Y72" s="17" t="s">
-        <v>58</v>
+      <c r="Y72" s="17">
+        <v>0</v>
       </c>
       <c r="Z72" s="17">
         <v>0</v>
@@ -10330,94 +10330,94 @@
         <v>0</v>
       </c>
       <c r="Y73" s="15">
-        <v>0</v>
+        <v>6396</v>
       </c>
       <c r="Z73" s="15">
-        <v>6396</v>
+        <v>6318</v>
       </c>
       <c r="AA73" s="15">
-        <v>6318</v>
+        <v>5983</v>
       </c>
       <c r="AB73" s="15">
-        <v>5983</v>
+        <v>5730</v>
       </c>
       <c r="AC73" s="15">
-        <v>5730</v>
+        <v>6649</v>
       </c>
       <c r="AD73" s="15">
-        <v>6649</v>
+        <v>5745</v>
       </c>
       <c r="AE73" s="15">
-        <v>5745</v>
+        <v>5713</v>
       </c>
       <c r="AF73" s="15">
-        <v>5713</v>
+        <v>6174</v>
       </c>
       <c r="AG73" s="15">
-        <v>6174</v>
+        <v>7158</v>
       </c>
       <c r="AH73" s="15">
-        <v>7158</v>
+        <v>6921</v>
       </c>
       <c r="AI73" s="15">
-        <v>6921</v>
+        <v>6117</v>
       </c>
       <c r="AJ73" s="15">
-        <v>6117</v>
+        <v>6350</v>
       </c>
       <c r="AK73" s="15">
-        <v>6350</v>
+        <v>6162</v>
       </c>
       <c r="AL73" s="15">
-        <v>6162</v>
+        <v>5099</v>
       </c>
       <c r="AM73" s="15">
-        <v>5099</v>
+        <v>5558</v>
       </c>
       <c r="AN73" s="15">
-        <v>5558</v>
+        <v>4983</v>
       </c>
       <c r="AO73" s="15">
-        <v>4983</v>
+        <v>5449</v>
       </c>
       <c r="AP73" s="15">
-        <v>5449</v>
+        <v>5289</v>
       </c>
       <c r="AQ73" s="15">
-        <v>5289</v>
+        <v>5020</v>
       </c>
       <c r="AR73" s="15">
-        <v>5020</v>
+        <v>4840</v>
       </c>
       <c r="AS73" s="15">
-        <v>4840</v>
+        <v>5699</v>
       </c>
       <c r="AT73" s="15">
-        <v>5699</v>
+        <v>6080</v>
       </c>
       <c r="AU73" s="15">
-        <v>6080</v>
+        <v>4847</v>
       </c>
       <c r="AV73" s="15">
-        <v>4847</v>
+        <v>4857</v>
       </c>
       <c r="AW73" s="15">
-        <v>4857</v>
+        <v>5286</v>
       </c>
       <c r="AX73" s="15">
-        <v>5286</v>
+        <v>5431</v>
       </c>
       <c r="AY73" s="15">
-        <v>5431</v>
+        <v>5123</v>
       </c>
       <c r="AZ73" s="15">
-        <v>5123</v>
+        <v>5672</v>
       </c>
       <c r="BA73" s="15">
-        <v>5672</v>
+        <v>5662</v>
       </c>
       <c r="BB73" s="15">
-        <v>5662</v>
+        <v>5727</v>
       </c>
     </row>
     <row r="74" spans="2:54" x14ac:dyDescent="0.3">
@@ -10922,95 +10922,95 @@
       <c r="X80" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y80" s="11" t="s">
-        <v>58</v>
+      <c r="Y80" s="11">
+        <v>38785</v>
       </c>
       <c r="Z80" s="11">
-        <v>38785</v>
+        <v>43113</v>
       </c>
       <c r="AA80" s="11">
-        <v>43113</v>
+        <v>40291</v>
       </c>
       <c r="AB80" s="11">
-        <v>40291</v>
+        <v>27438</v>
       </c>
       <c r="AC80" s="11">
-        <v>27438</v>
+        <v>26664</v>
       </c>
       <c r="AD80" s="11">
-        <v>26664</v>
+        <v>30851</v>
       </c>
       <c r="AE80" s="11">
-        <v>30851</v>
+        <v>35225</v>
       </c>
       <c r="AF80" s="11">
-        <v>35225</v>
+        <v>37469</v>
       </c>
       <c r="AG80" s="11">
-        <v>37469</v>
+        <v>47172</v>
       </c>
       <c r="AH80" s="11">
-        <v>47172</v>
+        <v>54250</v>
       </c>
       <c r="AI80" s="11">
-        <v>54250</v>
+        <v>46828</v>
       </c>
       <c r="AJ80" s="11">
-        <v>46828</v>
+        <v>47051</v>
       </c>
       <c r="AK80" s="11">
-        <v>47051</v>
+        <v>63130</v>
       </c>
       <c r="AL80" s="11">
-        <v>63130</v>
+        <v>45245</v>
       </c>
       <c r="AM80" s="11">
-        <v>45245</v>
+        <v>52279</v>
       </c>
       <c r="AN80" s="11">
-        <v>52279</v>
+        <v>36911</v>
       </c>
       <c r="AO80" s="11">
-        <v>36911</v>
+        <v>44912</v>
       </c>
       <c r="AP80" s="11">
-        <v>44912</v>
+        <v>36669</v>
       </c>
       <c r="AQ80" s="11">
-        <v>36669</v>
+        <v>39775</v>
       </c>
       <c r="AR80" s="11">
-        <v>39775</v>
+        <v>39040</v>
       </c>
       <c r="AS80" s="11">
-        <v>39040</v>
+        <v>44815</v>
       </c>
       <c r="AT80" s="11">
-        <v>44815</v>
+        <v>66346</v>
       </c>
       <c r="AU80" s="11">
-        <v>66346</v>
+        <v>47689</v>
       </c>
       <c r="AV80" s="11">
-        <v>47689</v>
+        <v>94269</v>
       </c>
       <c r="AW80" s="11">
-        <v>94269</v>
+        <v>75662</v>
       </c>
       <c r="AX80" s="11">
-        <v>75662</v>
+        <v>88218</v>
       </c>
       <c r="AY80" s="11">
-        <v>88218</v>
+        <v>80680</v>
       </c>
       <c r="AZ80" s="11">
-        <v>80680</v>
+        <v>67454</v>
       </c>
       <c r="BA80" s="11">
-        <v>67454</v>
+        <v>65471</v>
       </c>
       <c r="BB80" s="11">
-        <v>65471</v>
+        <v>64946</v>
       </c>
     </row>
     <row r="81" spans="2:54" x14ac:dyDescent="0.3">
@@ -11081,95 +11081,95 @@
       <c r="X81" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y81" s="13" t="s">
-        <v>58</v>
+      <c r="Y81" s="13">
+        <v>2697</v>
       </c>
       <c r="Z81" s="13">
-        <v>2697</v>
+        <v>3596</v>
       </c>
       <c r="AA81" s="13">
-        <v>3596</v>
+        <v>3573</v>
       </c>
       <c r="AB81" s="13">
-        <v>3573</v>
+        <v>3323</v>
       </c>
       <c r="AC81" s="13">
-        <v>3323</v>
+        <v>3981</v>
       </c>
       <c r="AD81" s="13">
-        <v>3981</v>
+        <v>4572</v>
       </c>
       <c r="AE81" s="13">
-        <v>4572</v>
+        <v>5883</v>
       </c>
       <c r="AF81" s="13">
-        <v>5883</v>
+        <v>3920</v>
       </c>
       <c r="AG81" s="13">
-        <v>3920</v>
+        <v>632</v>
       </c>
       <c r="AH81" s="13">
-        <v>632</v>
+        <v>4547</v>
       </c>
       <c r="AI81" s="13">
-        <v>4547</v>
+        <v>7168</v>
       </c>
       <c r="AJ81" s="13">
-        <v>7168</v>
+        <v>60738</v>
       </c>
       <c r="AK81" s="13">
-        <v>60738</v>
+        <v>5312</v>
       </c>
       <c r="AL81" s="13">
-        <v>5312</v>
+        <v>4772</v>
       </c>
       <c r="AM81" s="13">
-        <v>4772</v>
+        <v>4780</v>
       </c>
       <c r="AN81" s="13">
-        <v>4780</v>
+        <v>6978</v>
       </c>
       <c r="AO81" s="13">
-        <v>6978</v>
+        <v>2488</v>
       </c>
       <c r="AP81" s="13">
-        <v>2488</v>
+        <v>5440</v>
       </c>
       <c r="AQ81" s="13">
-        <v>5440</v>
+        <v>3026</v>
       </c>
       <c r="AR81" s="13">
-        <v>3026</v>
+        <v>7998</v>
       </c>
       <c r="AS81" s="13">
-        <v>7998</v>
+        <v>5923</v>
       </c>
       <c r="AT81" s="13">
-        <v>5923</v>
+        <v>3354</v>
       </c>
       <c r="AU81" s="13">
-        <v>3354</v>
+        <v>5118</v>
       </c>
       <c r="AV81" s="13">
-        <v>5118</v>
+        <v>9112</v>
       </c>
       <c r="AW81" s="13">
-        <v>9112</v>
+        <v>5711</v>
       </c>
       <c r="AX81" s="13">
-        <v>5711</v>
+        <v>7885</v>
       </c>
       <c r="AY81" s="13">
-        <v>7885</v>
+        <v>7531</v>
       </c>
       <c r="AZ81" s="13">
-        <v>7531</v>
+        <v>8214</v>
       </c>
       <c r="BA81" s="13">
-        <v>8214</v>
+        <v>8030</v>
       </c>
       <c r="BB81" s="13">
-        <v>8030</v>
+        <v>7724</v>
       </c>
     </row>
     <row r="82" spans="2:54" x14ac:dyDescent="0.3">
@@ -11240,95 +11240,95 @@
       <c r="X82" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y82" s="11" t="s">
-        <v>58</v>
+      <c r="Y82" s="11">
+        <v>121887</v>
       </c>
       <c r="Z82" s="11">
-        <v>121887</v>
+        <v>132660</v>
       </c>
       <c r="AA82" s="11">
-        <v>132660</v>
+        <v>145124</v>
       </c>
       <c r="AB82" s="11">
-        <v>145124</v>
+        <v>167809</v>
       </c>
       <c r="AC82" s="11">
-        <v>167809</v>
+        <v>185579</v>
       </c>
       <c r="AD82" s="11">
-        <v>185579</v>
+        <v>185852</v>
       </c>
       <c r="AE82" s="11">
-        <v>185852</v>
+        <v>237485</v>
       </c>
       <c r="AF82" s="11">
-        <v>237485</v>
+        <v>185541</v>
       </c>
       <c r="AG82" s="11">
-        <v>185541</v>
+        <v>288955</v>
       </c>
       <c r="AH82" s="11">
-        <v>288955</v>
+        <v>173889</v>
       </c>
       <c r="AI82" s="11">
-        <v>173889</v>
+        <v>176230</v>
       </c>
       <c r="AJ82" s="11">
-        <v>176230</v>
+        <v>176151</v>
       </c>
       <c r="AK82" s="11">
-        <v>176151</v>
+        <v>173479</v>
       </c>
       <c r="AL82" s="11">
-        <v>173479</v>
+        <v>194080</v>
       </c>
       <c r="AM82" s="11">
-        <v>194080</v>
+        <v>234992</v>
       </c>
       <c r="AN82" s="11">
-        <v>234992</v>
+        <v>253784</v>
       </c>
       <c r="AO82" s="11">
-        <v>253784</v>
+        <v>307531</v>
       </c>
       <c r="AP82" s="11">
-        <v>307531</v>
+        <v>369184</v>
       </c>
       <c r="AQ82" s="11">
-        <v>369184</v>
+        <v>271129</v>
       </c>
       <c r="AR82" s="11">
-        <v>271129</v>
+        <v>246789</v>
       </c>
       <c r="AS82" s="11">
-        <v>246789</v>
+        <v>236627</v>
       </c>
       <c r="AT82" s="11">
-        <v>236627</v>
+        <v>237213</v>
       </c>
       <c r="AU82" s="11">
-        <v>237213</v>
+        <v>269696</v>
       </c>
       <c r="AV82" s="11">
-        <v>269696</v>
+        <v>369703</v>
       </c>
       <c r="AW82" s="11">
-        <v>369703</v>
+        <v>434957</v>
       </c>
       <c r="AX82" s="11">
-        <v>434957</v>
+        <v>389340</v>
       </c>
       <c r="AY82" s="11">
-        <v>389340</v>
+        <v>394070</v>
       </c>
       <c r="AZ82" s="11">
-        <v>394070</v>
+        <v>459721</v>
       </c>
       <c r="BA82" s="11">
-        <v>459721</v>
+        <v>523819</v>
       </c>
       <c r="BB82" s="11">
-        <v>523819</v>
+        <v>541941</v>
       </c>
     </row>
     <row r="83" spans="2:54" x14ac:dyDescent="0.3">
@@ -11399,95 +11399,95 @@
       <c r="X83" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y83" s="13" t="s">
-        <v>58</v>
+      <c r="Y83" s="13">
+        <v>62147</v>
       </c>
       <c r="Z83" s="13">
-        <v>62147</v>
+        <v>69917</v>
       </c>
       <c r="AA83" s="13">
-        <v>69917</v>
+        <v>93762</v>
       </c>
       <c r="AB83" s="13">
-        <v>93762</v>
+        <v>86896</v>
       </c>
       <c r="AC83" s="13">
-        <v>86896</v>
+        <v>108932</v>
       </c>
       <c r="AD83" s="13">
-        <v>108932</v>
+        <v>155633</v>
       </c>
       <c r="AE83" s="13">
-        <v>155633</v>
+        <v>121928</v>
       </c>
       <c r="AF83" s="13">
-        <v>121928</v>
+        <v>116762</v>
       </c>
       <c r="AG83" s="13">
-        <v>116762</v>
+        <v>89482</v>
       </c>
       <c r="AH83" s="13">
-        <v>89482</v>
+        <v>80919</v>
       </c>
       <c r="AI83" s="13">
-        <v>80919</v>
+        <v>61813</v>
       </c>
       <c r="AJ83" s="13">
-        <v>61813</v>
+        <v>47100</v>
       </c>
       <c r="AK83" s="13">
-        <v>47100</v>
+        <v>75672</v>
       </c>
       <c r="AL83" s="13">
-        <v>75672</v>
+        <v>53939</v>
       </c>
       <c r="AM83" s="13">
-        <v>53939</v>
+        <v>76395</v>
       </c>
       <c r="AN83" s="13">
-        <v>76395</v>
+        <v>86474</v>
       </c>
       <c r="AO83" s="13">
-        <v>86474</v>
+        <v>66704</v>
       </c>
       <c r="AP83" s="13">
-        <v>66704</v>
+        <v>91018</v>
       </c>
       <c r="AQ83" s="13">
-        <v>91018</v>
+        <v>104048</v>
       </c>
       <c r="AR83" s="13">
-        <v>104048</v>
+        <v>61267</v>
       </c>
       <c r="AS83" s="13">
-        <v>61267</v>
+        <v>154567</v>
       </c>
       <c r="AT83" s="13">
-        <v>154567</v>
+        <v>119681</v>
       </c>
       <c r="AU83" s="13">
-        <v>119681</v>
+        <v>71394</v>
       </c>
       <c r="AV83" s="13">
-        <v>71394</v>
+        <v>128928</v>
       </c>
       <c r="AW83" s="13">
-        <v>128928</v>
+        <v>274221</v>
       </c>
       <c r="AX83" s="13">
-        <v>274221</v>
+        <v>205927</v>
       </c>
       <c r="AY83" s="13">
-        <v>205927</v>
+        <v>213230</v>
       </c>
       <c r="AZ83" s="13">
-        <v>213230</v>
+        <v>239480</v>
       </c>
       <c r="BA83" s="13">
-        <v>239480</v>
+        <v>140261</v>
       </c>
       <c r="BB83" s="13">
-        <v>140261</v>
+        <v>201781</v>
       </c>
     </row>
     <row r="84" spans="2:54" x14ac:dyDescent="0.3">
@@ -11558,95 +11558,95 @@
       <c r="X84" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y84" s="11" t="s">
-        <v>58</v>
+      <c r="Y84" s="11">
+        <v>94957</v>
       </c>
       <c r="Z84" s="11">
-        <v>94957</v>
+        <v>96407</v>
       </c>
       <c r="AA84" s="11">
-        <v>96407</v>
+        <v>93149</v>
       </c>
       <c r="AB84" s="11">
-        <v>93149</v>
+        <v>79445</v>
       </c>
       <c r="AC84" s="11">
-        <v>79445</v>
+        <v>76264</v>
       </c>
       <c r="AD84" s="11">
-        <v>76264</v>
+        <v>92072</v>
       </c>
       <c r="AE84" s="11">
-        <v>92072</v>
+        <v>96517</v>
       </c>
       <c r="AF84" s="11">
-        <v>96517</v>
+        <v>103839</v>
       </c>
       <c r="AG84" s="11">
-        <v>103839</v>
+        <v>115312</v>
       </c>
       <c r="AH84" s="11">
-        <v>115312</v>
+        <v>140015</v>
       </c>
       <c r="AI84" s="11">
-        <v>140015</v>
+        <v>129872</v>
       </c>
       <c r="AJ84" s="11">
-        <v>129872</v>
+        <v>154105</v>
       </c>
       <c r="AK84" s="11">
-        <v>154105</v>
+        <v>162073</v>
       </c>
       <c r="AL84" s="11">
-        <v>162073</v>
+        <v>149926</v>
       </c>
       <c r="AM84" s="11">
-        <v>149926</v>
+        <v>177580</v>
       </c>
       <c r="AN84" s="11">
-        <v>177580</v>
+        <v>149679</v>
       </c>
       <c r="AO84" s="11">
-        <v>149679</v>
+        <v>141875</v>
       </c>
       <c r="AP84" s="11">
-        <v>141875</v>
+        <v>129102</v>
       </c>
       <c r="AQ84" s="11">
-        <v>129102</v>
+        <v>124947</v>
       </c>
       <c r="AR84" s="11">
-        <v>124947</v>
+        <v>145480</v>
       </c>
       <c r="AS84" s="11">
-        <v>145480</v>
+        <v>174302</v>
       </c>
       <c r="AT84" s="11">
-        <v>174302</v>
+        <v>196260</v>
       </c>
       <c r="AU84" s="11">
-        <v>196260</v>
+        <v>181695</v>
       </c>
       <c r="AV84" s="11">
-        <v>181695</v>
+        <v>308028</v>
       </c>
       <c r="AW84" s="11">
-        <v>308028</v>
+        <v>270018</v>
       </c>
       <c r="AX84" s="11">
-        <v>270018</v>
+        <v>297226</v>
       </c>
       <c r="AY84" s="11">
-        <v>297226</v>
+        <v>278729</v>
       </c>
       <c r="AZ84" s="11">
-        <v>278729</v>
+        <v>250866</v>
       </c>
       <c r="BA84" s="11">
-        <v>250866</v>
+        <v>270141</v>
       </c>
       <c r="BB84" s="11">
-        <v>270141</v>
+        <v>206575</v>
       </c>
     </row>
     <row r="85" spans="2:54" x14ac:dyDescent="0.3">
@@ -11717,95 +11717,95 @@
       <c r="X85" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y85" s="13" t="s">
-        <v>58</v>
+      <c r="Y85" s="13">
+        <v>129740</v>
       </c>
       <c r="Z85" s="13">
-        <v>129740</v>
+        <v>130365</v>
       </c>
       <c r="AA85" s="13">
-        <v>130365</v>
+        <v>118621</v>
       </c>
       <c r="AB85" s="13">
-        <v>118621</v>
+        <v>73158</v>
       </c>
       <c r="AC85" s="13">
-        <v>73158</v>
+        <v>94857</v>
       </c>
       <c r="AD85" s="13">
-        <v>94857</v>
+        <v>116023</v>
       </c>
       <c r="AE85" s="13">
-        <v>116023</v>
+        <v>147835</v>
       </c>
       <c r="AF85" s="13">
-        <v>147835</v>
+        <v>128504</v>
       </c>
       <c r="AG85" s="13">
-        <v>128504</v>
+        <v>118801</v>
       </c>
       <c r="AH85" s="13">
-        <v>118801</v>
+        <v>139778</v>
       </c>
       <c r="AI85" s="13">
-        <v>139778</v>
+        <v>139942</v>
       </c>
       <c r="AJ85" s="13">
-        <v>139942</v>
+        <v>127350</v>
       </c>
       <c r="AK85" s="13">
-        <v>127350</v>
+        <v>173600</v>
       </c>
       <c r="AL85" s="13">
-        <v>173600</v>
+        <v>145011</v>
       </c>
       <c r="AM85" s="13">
-        <v>145011</v>
+        <v>195894</v>
       </c>
       <c r="AN85" s="13">
-        <v>195894</v>
+        <v>168720</v>
       </c>
       <c r="AO85" s="13">
-        <v>168720</v>
+        <v>186597</v>
       </c>
       <c r="AP85" s="13">
-        <v>186597</v>
+        <v>167854</v>
       </c>
       <c r="AQ85" s="13">
-        <v>167854</v>
+        <v>145656</v>
       </c>
       <c r="AR85" s="13">
-        <v>145656</v>
+        <v>125182</v>
       </c>
       <c r="AS85" s="13">
-        <v>125182</v>
+        <v>173774</v>
       </c>
       <c r="AT85" s="13">
-        <v>173774</v>
+        <v>143584</v>
       </c>
       <c r="AU85" s="13">
-        <v>143584</v>
+        <v>211745</v>
       </c>
       <c r="AV85" s="13">
-        <v>211745</v>
+        <v>301171</v>
       </c>
       <c r="AW85" s="13">
-        <v>301171</v>
+        <v>253232</v>
       </c>
       <c r="AX85" s="13">
-        <v>253232</v>
+        <v>311621</v>
       </c>
       <c r="AY85" s="13">
-        <v>311621</v>
+        <v>287745</v>
       </c>
       <c r="AZ85" s="13">
-        <v>287745</v>
+        <v>272354</v>
       </c>
       <c r="BA85" s="13">
-        <v>272354</v>
+        <v>188880</v>
       </c>
       <c r="BB85" s="13">
-        <v>188880</v>
+        <v>208403</v>
       </c>
     </row>
     <row r="86" spans="2:54" x14ac:dyDescent="0.3">
@@ -11876,95 +11876,95 @@
       <c r="X86" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y86" s="11" t="s">
-        <v>58</v>
+      <c r="Y86" s="11">
+        <v>16173</v>
       </c>
       <c r="Z86" s="11">
-        <v>16173</v>
+        <v>6410</v>
       </c>
       <c r="AA86" s="11">
-        <v>6410</v>
+        <v>31436</v>
       </c>
       <c r="AB86" s="11">
-        <v>31436</v>
+        <v>31557</v>
       </c>
       <c r="AC86" s="11">
-        <v>31557</v>
+        <v>36592</v>
       </c>
       <c r="AD86" s="11">
-        <v>36592</v>
+        <v>56165</v>
       </c>
       <c r="AE86" s="11">
-        <v>56165</v>
+        <v>15284</v>
       </c>
       <c r="AF86" s="11">
-        <v>15284</v>
+        <v>21132</v>
       </c>
       <c r="AG86" s="11">
-        <v>21132</v>
+        <v>28971</v>
       </c>
       <c r="AH86" s="11">
-        <v>28971</v>
+        <v>17678</v>
       </c>
       <c r="AI86" s="11">
-        <v>17678</v>
+        <v>18837</v>
       </c>
       <c r="AJ86" s="11">
-        <v>18837</v>
+        <v>8561</v>
       </c>
       <c r="AK86" s="11">
-        <v>8561</v>
+        <v>15527</v>
       </c>
       <c r="AL86" s="11">
-        <v>15527</v>
+        <v>45634</v>
       </c>
       <c r="AM86" s="11">
-        <v>45634</v>
+        <v>53651</v>
       </c>
       <c r="AN86" s="11">
-        <v>53651</v>
+        <v>23614</v>
       </c>
       <c r="AO86" s="11">
-        <v>23614</v>
+        <v>32109</v>
       </c>
       <c r="AP86" s="11">
-        <v>32109</v>
+        <v>50298</v>
       </c>
       <c r="AQ86" s="11">
-        <v>50298</v>
+        <v>28196</v>
       </c>
       <c r="AR86" s="11">
-        <v>28196</v>
+        <v>6560</v>
       </c>
       <c r="AS86" s="11">
-        <v>6560</v>
+        <v>65469</v>
       </c>
       <c r="AT86" s="11">
-        <v>65469</v>
+        <v>229861</v>
       </c>
       <c r="AU86" s="11">
-        <v>229861</v>
+        <v>111435</v>
       </c>
       <c r="AV86" s="11">
-        <v>111435</v>
+        <v>39228</v>
       </c>
       <c r="AW86" s="11">
-        <v>39228</v>
+        <v>304620</v>
       </c>
       <c r="AX86" s="11">
-        <v>304620</v>
+        <v>106890</v>
       </c>
       <c r="AY86" s="11">
-        <v>106890</v>
+        <v>170034</v>
       </c>
       <c r="AZ86" s="11">
-        <v>170034</v>
+        <v>183436</v>
       </c>
       <c r="BA86" s="11">
-        <v>183436</v>
+        <v>79961</v>
       </c>
       <c r="BB86" s="11">
-        <v>79961</v>
+        <v>193020</v>
       </c>
     </row>
     <row r="87" spans="2:54" x14ac:dyDescent="0.3">
@@ -12035,95 +12035,95 @@
       <c r="X87" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y87" s="13" t="s">
-        <v>58</v>
+      <c r="Y87" s="13">
+        <v>67098</v>
       </c>
       <c r="Z87" s="13">
-        <v>67098</v>
+        <v>95674</v>
       </c>
       <c r="AA87" s="13">
-        <v>95674</v>
+        <v>28362</v>
       </c>
       <c r="AB87" s="13">
-        <v>28362</v>
+        <v>25380</v>
       </c>
       <c r="AC87" s="13">
-        <v>25380</v>
+        <v>26199</v>
       </c>
       <c r="AD87" s="13">
-        <v>26199</v>
+        <v>46704</v>
       </c>
       <c r="AE87" s="13">
-        <v>46704</v>
+        <v>50627</v>
       </c>
       <c r="AF87" s="13">
-        <v>50627</v>
+        <v>22594</v>
       </c>
       <c r="AG87" s="13">
-        <v>22594</v>
+        <v>138934</v>
       </c>
       <c r="AH87" s="13">
-        <v>138934</v>
+        <v>34153</v>
       </c>
       <c r="AI87" s="13">
-        <v>34153</v>
+        <v>41723</v>
       </c>
       <c r="AJ87" s="13">
-        <v>41723</v>
+        <v>86498</v>
       </c>
       <c r="AK87" s="13">
-        <v>86498</v>
+        <v>144255</v>
       </c>
       <c r="AL87" s="13">
-        <v>144255</v>
+        <v>89327</v>
       </c>
       <c r="AM87" s="13">
-        <v>89327</v>
+        <v>98615</v>
       </c>
       <c r="AN87" s="13">
-        <v>98615</v>
+        <v>131104</v>
       </c>
       <c r="AO87" s="13">
-        <v>131104</v>
+        <v>139543</v>
       </c>
       <c r="AP87" s="13">
-        <v>139543</v>
+        <v>114893</v>
       </c>
       <c r="AQ87" s="13">
-        <v>114893</v>
+        <v>120711</v>
       </c>
       <c r="AR87" s="13">
-        <v>120711</v>
+        <v>115427</v>
       </c>
       <c r="AS87" s="13">
-        <v>115427</v>
+        <v>272339</v>
       </c>
       <c r="AT87" s="13">
-        <v>272339</v>
+        <v>221316</v>
       </c>
       <c r="AU87" s="13">
-        <v>221316</v>
+        <v>106861</v>
       </c>
       <c r="AV87" s="13">
-        <v>106861</v>
+        <v>69614</v>
       </c>
       <c r="AW87" s="13">
-        <v>69614</v>
+        <v>69078</v>
       </c>
       <c r="AX87" s="13">
-        <v>69078</v>
+        <v>344727</v>
       </c>
       <c r="AY87" s="13">
-        <v>344727</v>
+        <v>165773</v>
       </c>
       <c r="AZ87" s="13">
-        <v>165773</v>
+        <v>104155</v>
       </c>
       <c r="BA87" s="13">
-        <v>104155</v>
+        <v>61725</v>
       </c>
       <c r="BB87" s="13">
-        <v>61725</v>
+        <v>281615</v>
       </c>
     </row>
     <row r="88" spans="2:54" x14ac:dyDescent="0.3">
@@ -12193,94 +12193,94 @@
         <v>0</v>
       </c>
       <c r="Y88" s="15">
-        <v>0</v>
+        <v>533484</v>
       </c>
       <c r="Z88" s="15">
-        <v>533484</v>
+        <v>578142</v>
       </c>
       <c r="AA88" s="15">
-        <v>578142</v>
+        <v>554318</v>
       </c>
       <c r="AB88" s="15">
-        <v>554318</v>
+        <v>495006</v>
       </c>
       <c r="AC88" s="15">
-        <v>495006</v>
+        <v>559068</v>
       </c>
       <c r="AD88" s="15">
-        <v>559068</v>
+        <v>687872</v>
       </c>
       <c r="AE88" s="15">
-        <v>687872</v>
+        <v>710784</v>
       </c>
       <c r="AF88" s="15">
-        <v>710784</v>
+        <v>619761</v>
       </c>
       <c r="AG88" s="15">
-        <v>619761</v>
+        <v>828259</v>
       </c>
       <c r="AH88" s="15">
-        <v>828259</v>
+        <v>645229</v>
       </c>
       <c r="AI88" s="15">
-        <v>645229</v>
+        <v>622413</v>
       </c>
       <c r="AJ88" s="15">
-        <v>622413</v>
+        <v>707554</v>
       </c>
       <c r="AK88" s="15">
-        <v>707554</v>
+        <v>813048</v>
       </c>
       <c r="AL88" s="15">
-        <v>813048</v>
+        <v>727934</v>
       </c>
       <c r="AM88" s="15">
-        <v>727934</v>
+        <v>894186</v>
       </c>
       <c r="AN88" s="15">
-        <v>894186</v>
+        <v>857264</v>
       </c>
       <c r="AO88" s="15">
-        <v>857264</v>
+        <v>921759</v>
       </c>
       <c r="AP88" s="15">
-        <v>921759</v>
+        <v>964458</v>
       </c>
       <c r="AQ88" s="15">
-        <v>964458</v>
+        <v>837488</v>
       </c>
       <c r="AR88" s="15">
-        <v>837488</v>
+        <v>747743</v>
       </c>
       <c r="AS88" s="15">
-        <v>747743</v>
+        <v>1127816</v>
       </c>
       <c r="AT88" s="15">
-        <v>1127816</v>
+        <v>1217615</v>
       </c>
       <c r="AU88" s="15">
-        <v>1217615</v>
+        <v>1005633</v>
       </c>
       <c r="AV88" s="15">
-        <v>1005633</v>
+        <v>1320053</v>
       </c>
       <c r="AW88" s="15">
-        <v>1320053</v>
+        <v>1687499</v>
       </c>
       <c r="AX88" s="15">
-        <v>1687499</v>
+        <v>1751834</v>
       </c>
       <c r="AY88" s="15">
-        <v>1751834</v>
+        <v>1597792</v>
       </c>
       <c r="AZ88" s="15">
-        <v>1597792</v>
+        <v>1585680</v>
       </c>
       <c r="BA88" s="15">
-        <v>1585680</v>
+        <v>1338288</v>
       </c>
       <c r="BB88" s="15">
-        <v>1338288</v>
+        <v>1706005</v>
       </c>
     </row>
     <row r="89" spans="2:54" x14ac:dyDescent="0.3">
@@ -12471,8 +12471,8 @@
       <c r="AS90" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT90" s="11" t="s">
-        <v>58</v>
+      <c r="AT90" s="11">
+        <v>0</v>
       </c>
       <c r="AU90" s="11">
         <v>0</v>
@@ -12594,8 +12594,8 @@
       <c r="AG91" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH91" s="13" t="s">
-        <v>58</v>
+      <c r="AH91" s="13">
+        <v>0</v>
       </c>
       <c r="AI91" s="13">
         <v>0</v>
@@ -12655,7 +12655,7 @@
         <v>0</v>
       </c>
       <c r="BB91" s="13">
-        <v>0</v>
+        <v>3609</v>
       </c>
     </row>
     <row r="92" spans="2:54" x14ac:dyDescent="0.3">
@@ -12726,8 +12726,8 @@
       <c r="X92" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y92" s="11" t="s">
-        <v>58</v>
+      <c r="Y92" s="11">
+        <v>0</v>
       </c>
       <c r="Z92" s="11">
         <v>0</v>
@@ -12753,8 +12753,8 @@
       <c r="AG92" s="11">
         <v>0</v>
       </c>
-      <c r="AH92" s="11">
-        <v>0</v>
+      <c r="AH92" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI92" s="11" t="s">
         <v>58</v>
@@ -12786,8 +12786,8 @@
       <c r="AR92" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS92" s="11" t="s">
-        <v>58</v>
+      <c r="AS92" s="11">
+        <v>0</v>
       </c>
       <c r="AT92" s="11">
         <v>0</v>
@@ -12948,8 +12948,8 @@
       <c r="AS93" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT93" s="13" t="s">
-        <v>58</v>
+      <c r="AT93" s="13">
+        <v>0</v>
       </c>
       <c r="AU93" s="13">
         <v>0</v>
@@ -12970,10 +12970,10 @@
         <v>0</v>
       </c>
       <c r="BA93" s="13">
-        <v>0</v>
+        <v>17952</v>
       </c>
       <c r="BB93" s="13">
-        <v>17952</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="2:54" x14ac:dyDescent="0.3">
@@ -13104,11 +13104,11 @@
       <c r="AR94" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS94" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT94" s="11">
-        <v>0</v>
+      <c r="AS94" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT94" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AU94" s="11" t="s">
         <v>58</v>
@@ -13263,8 +13263,8 @@
       <c r="AR95" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS95" s="13" t="s">
-        <v>58</v>
+      <c r="AS95" s="13">
+        <v>0</v>
       </c>
       <c r="AT95" s="13">
         <v>0</v>
@@ -13443,14 +13443,14 @@
       <c r="AY96" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AZ96" s="11" t="s">
-        <v>58</v>
+      <c r="AZ96" s="11">
+        <v>218400</v>
       </c>
       <c r="BA96" s="11">
-        <v>218400</v>
+        <v>235595</v>
       </c>
       <c r="BB96" s="11">
-        <v>235595</v>
+        <v>144798</v>
       </c>
     </row>
     <row r="97" spans="2:54" x14ac:dyDescent="0.3">
@@ -13521,8 +13521,8 @@
       <c r="X97" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y97" s="13" t="s">
-        <v>58</v>
+      <c r="Y97" s="13">
+        <v>0</v>
       </c>
       <c r="Z97" s="13">
         <v>0</v>
@@ -13548,14 +13548,14 @@
       <c r="AG97" s="13">
         <v>0</v>
       </c>
-      <c r="AH97" s="13">
-        <v>0</v>
+      <c r="AH97" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI97" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AJ97" s="13" t="s">
-        <v>58</v>
+      <c r="AJ97" s="13">
+        <v>0</v>
       </c>
       <c r="AK97" s="13">
         <v>0</v>
@@ -13584,8 +13584,8 @@
       <c r="AS97" s="13">
         <v>0</v>
       </c>
-      <c r="AT97" s="13">
-        <v>0</v>
+      <c r="AT97" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU97" s="13" t="s">
         <v>58</v>
@@ -13602,14 +13602,14 @@
       <c r="AY97" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AZ97" s="13" t="s">
-        <v>58</v>
+      <c r="AZ97" s="13">
+        <v>194625</v>
       </c>
       <c r="BA97" s="13">
-        <v>194625</v>
+        <v>236125</v>
       </c>
       <c r="BB97" s="13">
-        <v>236125</v>
+        <v>87000</v>
       </c>
     </row>
     <row r="98" spans="2:54" x14ac:dyDescent="0.3">
@@ -13707,8 +13707,8 @@
       <c r="AG98" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH98" s="11" t="s">
-        <v>58</v>
+      <c r="AH98" s="11">
+        <v>0</v>
       </c>
       <c r="AI98" s="11">
         <v>0</v>
@@ -13740,8 +13740,8 @@
       <c r="AR98" s="11">
         <v>0</v>
       </c>
-      <c r="AS98" s="11">
-        <v>0</v>
+      <c r="AS98" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AT98" s="11" t="s">
         <v>58</v>
@@ -13866,14 +13866,14 @@
       <c r="AG99" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH99" s="13" t="s">
-        <v>58</v>
+      <c r="AH99" s="13">
+        <v>0</v>
       </c>
       <c r="AI99" s="13">
         <v>0</v>
       </c>
-      <c r="AJ99" s="13">
-        <v>0</v>
+      <c r="AJ99" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AK99" s="13" t="s">
         <v>58</v>
@@ -14025,8 +14025,8 @@
       <c r="AG100" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH100" s="11" t="s">
-        <v>58</v>
+      <c r="AH100" s="11">
+        <v>0</v>
       </c>
       <c r="AI100" s="11">
         <v>0</v>
@@ -14058,8 +14058,8 @@
       <c r="AR100" s="11">
         <v>0</v>
       </c>
-      <c r="AS100" s="11">
-        <v>0</v>
+      <c r="AS100" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AT100" s="11" t="s">
         <v>58</v>
@@ -14184,8 +14184,8 @@
       <c r="AG101" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH101" s="13" t="s">
-        <v>58</v>
+      <c r="AH101" s="13">
+        <v>0</v>
       </c>
       <c r="AI101" s="13">
         <v>0</v>
@@ -14217,8 +14217,8 @@
       <c r="AR101" s="13">
         <v>0</v>
       </c>
-      <c r="AS101" s="13">
-        <v>0</v>
+      <c r="AS101" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AT101" s="13" t="s">
         <v>58</v>
@@ -14396,13 +14396,13 @@
         <v>0</v>
       </c>
       <c r="AZ102" s="15">
-        <v>0</v>
+        <v>413025</v>
       </c>
       <c r="BA102" s="15">
-        <v>413025</v>
+        <v>489672</v>
       </c>
       <c r="BB102" s="15">
-        <v>489672</v>
+        <v>235407</v>
       </c>
     </row>
     <row r="103" spans="2:54" x14ac:dyDescent="0.3">
@@ -14557,8 +14557,8 @@
       <c r="AG104" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH104" s="11" t="s">
-        <v>58</v>
+      <c r="AH104" s="11">
+        <v>0</v>
       </c>
       <c r="AI104" s="11">
         <v>0</v>
@@ -14689,8 +14689,8 @@
       <c r="X105" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="Y105" s="17" t="s">
-        <v>58</v>
+      <c r="Y105" s="17">
+        <v>0</v>
       </c>
       <c r="Z105" s="17">
         <v>0</v>
@@ -14968,8 +14968,8 @@
       <c r="AS107" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT107" s="11" t="s">
-        <v>58</v>
+      <c r="AT107" s="11">
+        <v>0</v>
       </c>
       <c r="AU107" s="11">
         <v>0</v>
@@ -15064,8 +15064,8 @@
       <c r="X108" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="Y108" s="17" t="s">
-        <v>58</v>
+      <c r="Y108" s="17">
+        <v>0</v>
       </c>
       <c r="Z108" s="17">
         <v>0</v>
@@ -15280,8 +15280,8 @@
       <c r="X110" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y110" s="11" t="s">
-        <v>58</v>
+      <c r="Y110" s="11">
+        <v>0</v>
       </c>
       <c r="Z110" s="11">
         <v>0</v>
@@ -15438,94 +15438,94 @@
         <v>0</v>
       </c>
       <c r="Y111" s="17">
-        <v>0</v>
+        <v>533484</v>
       </c>
       <c r="Z111" s="17">
-        <v>533484</v>
+        <v>578142</v>
       </c>
       <c r="AA111" s="17">
-        <v>578142</v>
+        <v>554318</v>
       </c>
       <c r="AB111" s="17">
-        <v>554318</v>
+        <v>495006</v>
       </c>
       <c r="AC111" s="17">
-        <v>495006</v>
+        <v>559068</v>
       </c>
       <c r="AD111" s="17">
-        <v>559068</v>
+        <v>687872</v>
       </c>
       <c r="AE111" s="17">
-        <v>687872</v>
+        <v>710784</v>
       </c>
       <c r="AF111" s="17">
-        <v>710784</v>
+        <v>619761</v>
       </c>
       <c r="AG111" s="17">
-        <v>619761</v>
+        <v>828259</v>
       </c>
       <c r="AH111" s="17">
-        <v>828259</v>
+        <v>645229</v>
       </c>
       <c r="AI111" s="17">
-        <v>645229</v>
+        <v>622413</v>
       </c>
       <c r="AJ111" s="17">
-        <v>622413</v>
+        <v>707554</v>
       </c>
       <c r="AK111" s="17">
-        <v>707554</v>
+        <v>813048</v>
       </c>
       <c r="AL111" s="17">
-        <v>813048</v>
+        <v>727934</v>
       </c>
       <c r="AM111" s="17">
-        <v>727934</v>
+        <v>894186</v>
       </c>
       <c r="AN111" s="17">
-        <v>894186</v>
+        <v>857264</v>
       </c>
       <c r="AO111" s="17">
-        <v>857264</v>
+        <v>921759</v>
       </c>
       <c r="AP111" s="17">
-        <v>921759</v>
+        <v>964458</v>
       </c>
       <c r="AQ111" s="17">
-        <v>964458</v>
+        <v>837488</v>
       </c>
       <c r="AR111" s="17">
-        <v>837488</v>
+        <v>747743</v>
       </c>
       <c r="AS111" s="17">
-        <v>747743</v>
+        <v>1127816</v>
       </c>
       <c r="AT111" s="17">
-        <v>1127816</v>
+        <v>1217615</v>
       </c>
       <c r="AU111" s="17">
-        <v>1217615</v>
+        <v>1005633</v>
       </c>
       <c r="AV111" s="17">
-        <v>1005633</v>
+        <v>1320053</v>
       </c>
       <c r="AW111" s="17">
-        <v>1320053</v>
+        <v>1687499</v>
       </c>
       <c r="AX111" s="17">
-        <v>1687499</v>
+        <v>1751834</v>
       </c>
       <c r="AY111" s="17">
-        <v>1751834</v>
+        <v>1597792</v>
       </c>
       <c r="AZ111" s="17">
-        <v>1597792</v>
+        <v>1998705</v>
       </c>
       <c r="BA111" s="17">
-        <v>1998705</v>
+        <v>1827960</v>
       </c>
       <c r="BB111" s="17">
-        <v>1827960</v>
+        <v>1941412</v>
       </c>
     </row>
     <row r="112" spans="2:54" x14ac:dyDescent="0.3">
@@ -16030,95 +16030,95 @@
       <c r="X118" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y118" s="11" t="s">
-        <v>58</v>
+      <c r="Y118" s="11">
+        <v>33755440</v>
       </c>
       <c r="Z118" s="11">
-        <v>33755440</v>
+        <v>35165579</v>
       </c>
       <c r="AA118" s="11">
-        <v>35165579</v>
+        <v>35281086</v>
       </c>
       <c r="AB118" s="11">
-        <v>35281086</v>
+        <v>34426600</v>
       </c>
       <c r="AC118" s="11">
-        <v>34426600</v>
+        <v>36081191</v>
       </c>
       <c r="AD118" s="11">
-        <v>36081191</v>
+        <v>41634278</v>
       </c>
       <c r="AE118" s="11">
-        <v>41634278</v>
+        <v>45865885</v>
       </c>
       <c r="AF118" s="11">
-        <v>45865885</v>
+        <v>43721120</v>
       </c>
       <c r="AG118" s="11">
-        <v>43721120</v>
+        <v>42080285</v>
       </c>
       <c r="AH118" s="11">
-        <v>42080285</v>
+        <v>42783912</v>
       </c>
       <c r="AI118" s="11">
-        <v>42783912</v>
+        <v>46548708</v>
       </c>
       <c r="AJ118" s="11">
-        <v>46548708</v>
+        <v>51704396</v>
       </c>
       <c r="AK118" s="11">
-        <v>51704396</v>
+        <v>61650391</v>
       </c>
       <c r="AL118" s="11">
-        <v>61650391</v>
+        <v>56627034</v>
       </c>
       <c r="AM118" s="11">
-        <v>56627034</v>
+        <v>65842569</v>
       </c>
       <c r="AN118" s="11">
-        <v>65842569</v>
+        <v>62139731</v>
       </c>
       <c r="AO118" s="11">
-        <v>62139731</v>
+        <v>64436155</v>
       </c>
       <c r="AP118" s="11">
-        <v>64436155</v>
+        <v>65715054</v>
       </c>
       <c r="AQ118" s="11">
-        <v>65715054</v>
+        <v>66624791</v>
       </c>
       <c r="AR118" s="11">
-        <v>66624791</v>
+        <v>66735043</v>
       </c>
       <c r="AS118" s="11">
-        <v>66735043</v>
+        <v>66392593</v>
       </c>
       <c r="AT118" s="11">
-        <v>66392593</v>
+        <v>68327497</v>
       </c>
       <c r="AU118" s="11">
-        <v>68327497</v>
+        <v>73707883</v>
       </c>
       <c r="AV118" s="11">
-        <v>73707883</v>
+        <v>107613014</v>
       </c>
       <c r="AW118" s="11">
-        <v>107613014</v>
+        <v>104074278</v>
       </c>
       <c r="AX118" s="11">
-        <v>104074278</v>
+        <v>105021429</v>
       </c>
       <c r="AY118" s="11">
-        <v>105021429</v>
+        <v>103969072</v>
       </c>
       <c r="AZ118" s="11">
-        <v>103969072</v>
+        <v>103298622</v>
       </c>
       <c r="BA118" s="11">
-        <v>103298622</v>
+        <v>103593354</v>
       </c>
       <c r="BB118" s="11">
-        <v>103593354</v>
+        <v>105431818</v>
       </c>
     </row>
     <row r="119" spans="2:54" x14ac:dyDescent="0.3">
@@ -16189,95 +16189,95 @@
       <c r="X119" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y119" s="13" t="s">
-        <v>58</v>
+      <c r="Y119" s="13">
+        <v>141947368</v>
       </c>
       <c r="Z119" s="13">
-        <v>141947368</v>
+        <v>149833333</v>
       </c>
       <c r="AA119" s="13">
-        <v>149833333</v>
+        <v>148875000</v>
       </c>
       <c r="AB119" s="13">
-        <v>148875000</v>
+        <v>138458333</v>
       </c>
       <c r="AC119" s="13">
-        <v>138458333</v>
+        <v>189571429</v>
       </c>
       <c r="AD119" s="13">
-        <v>189571429</v>
+        <v>147483871</v>
       </c>
       <c r="AE119" s="13">
-        <v>147483871</v>
+        <v>168085714</v>
       </c>
       <c r="AF119" s="13">
-        <v>168085714</v>
+        <v>145185185</v>
       </c>
       <c r="AG119" s="13">
-        <v>145185185</v>
+        <v>5851852</v>
       </c>
       <c r="AH119" s="13">
-        <v>5851852</v>
+        <v>174884615</v>
       </c>
       <c r="AI119" s="13">
-        <v>174884615</v>
+        <v>89600000</v>
       </c>
       <c r="AJ119" s="13">
-        <v>89600000</v>
+        <v>164601626</v>
       </c>
       <c r="AK119" s="13">
-        <v>164601626</v>
+        <v>408615385</v>
       </c>
       <c r="AL119" s="13">
-        <v>408615385</v>
+        <v>238600000</v>
       </c>
       <c r="AM119" s="13">
-        <v>238600000</v>
+        <v>239000000</v>
       </c>
       <c r="AN119" s="13">
-        <v>239000000</v>
+        <v>240620690</v>
       </c>
       <c r="AO119" s="13">
-        <v>240620690</v>
+        <v>248800000</v>
       </c>
       <c r="AP119" s="13">
-        <v>248800000</v>
+        <v>247272727</v>
       </c>
       <c r="AQ119" s="13">
-        <v>247272727</v>
+        <v>216142857</v>
       </c>
       <c r="AR119" s="13">
-        <v>216142857</v>
+        <v>258000000</v>
       </c>
       <c r="AS119" s="13">
+        <v>269227273</v>
+      </c>
+      <c r="AT119" s="13">
         <v>258000000</v>
       </c>
-      <c r="AT119" s="13">
-        <v>269227273</v>
-      </c>
       <c r="AU119" s="13">
-        <v>258000000</v>
+        <v>284333333</v>
       </c>
       <c r="AV119" s="13">
-        <v>284333333</v>
+        <v>479578947</v>
       </c>
       <c r="AW119" s="13">
-        <v>479578947</v>
+        <v>407928571</v>
       </c>
       <c r="AX119" s="13">
-        <v>407928571</v>
+        <v>438055556</v>
       </c>
       <c r="AY119" s="13">
-        <v>438055556</v>
+        <v>418388889</v>
       </c>
       <c r="AZ119" s="13">
-        <v>418388889</v>
+        <v>432315789</v>
       </c>
       <c r="BA119" s="13">
-        <v>432315789</v>
+        <v>401500000</v>
       </c>
       <c r="BB119" s="13">
-        <v>401500000</v>
+        <v>429111111</v>
       </c>
     </row>
     <row r="120" spans="2:54" x14ac:dyDescent="0.3">
@@ -16348,95 +16348,95 @@
       <c r="X120" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y120" s="11" t="s">
-        <v>58</v>
+      <c r="Y120" s="11">
+        <v>53063561</v>
       </c>
       <c r="Z120" s="11">
-        <v>53063561</v>
+        <v>59568927</v>
       </c>
       <c r="AA120" s="11">
-        <v>59568927</v>
+        <v>65815873</v>
       </c>
       <c r="AB120" s="11">
-        <v>65815873</v>
+        <v>60888607</v>
       </c>
       <c r="AC120" s="11">
-        <v>60888607</v>
+        <v>50857495</v>
       </c>
       <c r="AD120" s="11">
-        <v>50857495</v>
+        <v>74549539</v>
       </c>
       <c r="AE120" s="11">
-        <v>74549539</v>
+        <v>90195594</v>
       </c>
       <c r="AF120" s="11">
-        <v>90195594</v>
+        <v>64919874</v>
       </c>
       <c r="AG120" s="11">
-        <v>64919874</v>
+        <v>95050987</v>
       </c>
       <c r="AH120" s="11">
-        <v>95050987</v>
+        <v>64714924</v>
       </c>
       <c r="AI120" s="11">
-        <v>64714924</v>
+        <v>70604968</v>
       </c>
       <c r="AJ120" s="11">
-        <v>70604968</v>
+        <v>77293111</v>
       </c>
       <c r="AK120" s="11">
-        <v>77293111</v>
+        <v>75920788</v>
       </c>
       <c r="AL120" s="11">
-        <v>75920788</v>
+        <v>91633617</v>
       </c>
       <c r="AM120" s="11">
-        <v>91633617</v>
+        <v>97709771</v>
       </c>
       <c r="AN120" s="11">
-        <v>97709771</v>
+        <v>111308772</v>
       </c>
       <c r="AO120" s="11">
-        <v>111308772</v>
+        <v>113229381</v>
       </c>
       <c r="AP120" s="11">
-        <v>113229381</v>
+        <v>129085315</v>
       </c>
       <c r="AQ120" s="11">
-        <v>129085315</v>
+        <v>104000384</v>
       </c>
       <c r="AR120" s="11">
-        <v>104000384</v>
+        <v>102190062</v>
       </c>
       <c r="AS120" s="11">
-        <v>102190062</v>
+        <v>105731457</v>
       </c>
       <c r="AT120" s="11">
-        <v>105731457</v>
+        <v>108267001</v>
       </c>
       <c r="AU120" s="11">
-        <v>108267001</v>
+        <v>128917782</v>
       </c>
       <c r="AV120" s="11">
-        <v>128917782</v>
+        <v>188527792</v>
       </c>
       <c r="AW120" s="11">
-        <v>188527792</v>
+        <v>194350760</v>
       </c>
       <c r="AX120" s="11">
-        <v>194350760</v>
+        <v>193125000</v>
       </c>
       <c r="AY120" s="11">
-        <v>193125000</v>
+        <v>186233459</v>
       </c>
       <c r="AZ120" s="11">
-        <v>186233459</v>
+        <v>184404733</v>
       </c>
       <c r="BA120" s="11">
-        <v>184404733</v>
+        <v>191734627</v>
       </c>
       <c r="BB120" s="11">
-        <v>191734627</v>
+        <v>187263649</v>
       </c>
     </row>
     <row r="121" spans="2:54" x14ac:dyDescent="0.3">
@@ -16507,95 +16507,95 @@
       <c r="X121" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y121" s="13" t="s">
-        <v>58</v>
+      <c r="Y121" s="13">
+        <v>239949807</v>
       </c>
       <c r="Z121" s="13">
-        <v>239949807</v>
+        <v>276351779</v>
       </c>
       <c r="AA121" s="13">
-        <v>276351779</v>
+        <v>307416393</v>
       </c>
       <c r="AB121" s="13">
-        <v>307416393</v>
+        <v>284904918</v>
       </c>
       <c r="AC121" s="13">
-        <v>284904918</v>
+        <v>279312821</v>
       </c>
       <c r="AD121" s="13">
-        <v>279312821</v>
+        <v>295318786</v>
       </c>
       <c r="AE121" s="13">
-        <v>295318786</v>
+        <v>335889807</v>
       </c>
       <c r="AF121" s="13">
-        <v>335889807</v>
+        <v>283402913</v>
       </c>
       <c r="AG121" s="13">
-        <v>283402913</v>
+        <v>301286195</v>
       </c>
       <c r="AH121" s="13">
-        <v>301286195</v>
+        <v>265308197</v>
       </c>
       <c r="AI121" s="13">
-        <v>265308197</v>
+        <v>330550802</v>
       </c>
       <c r="AJ121" s="13">
-        <v>330550802</v>
+        <v>305844156</v>
       </c>
       <c r="AK121" s="13">
-        <v>305844156</v>
+        <v>485076923</v>
       </c>
       <c r="AL121" s="13">
-        <v>485076923</v>
+        <v>377195804</v>
       </c>
       <c r="AM121" s="13">
-        <v>377195804</v>
+        <v>449382353</v>
       </c>
       <c r="AN121" s="13">
-        <v>449382353</v>
+        <v>425980296</v>
       </c>
       <c r="AO121" s="13">
-        <v>425980296</v>
+        <v>427589744</v>
       </c>
       <c r="AP121" s="13">
-        <v>427589744</v>
+        <v>459686869</v>
       </c>
       <c r="AQ121" s="13">
-        <v>459686869</v>
+        <v>388238806</v>
       </c>
       <c r="AR121" s="13">
-        <v>388238806</v>
+        <v>352109195</v>
       </c>
       <c r="AS121" s="13">
-        <v>352109195</v>
+        <v>352892694</v>
       </c>
       <c r="AT121" s="13">
-        <v>352892694</v>
+        <v>318300532</v>
       </c>
       <c r="AU121" s="13">
-        <v>318300532</v>
+        <v>449018868</v>
       </c>
       <c r="AV121" s="13">
-        <v>449018868</v>
+        <v>570477876</v>
       </c>
       <c r="AW121" s="13">
-        <v>570477876</v>
+        <v>577307368</v>
       </c>
       <c r="AX121" s="13">
-        <v>577307368</v>
+        <v>637544892</v>
       </c>
       <c r="AY121" s="13">
-        <v>637544892</v>
+        <v>623479532</v>
       </c>
       <c r="AZ121" s="13">
-        <v>623479532</v>
+        <v>578454106</v>
       </c>
       <c r="BA121" s="13">
-        <v>578454106</v>
+        <v>671105263</v>
       </c>
       <c r="BB121" s="13">
-        <v>671105263</v>
+        <v>607774096</v>
       </c>
     </row>
     <row r="122" spans="2:54" x14ac:dyDescent="0.3">
@@ -16666,95 +16666,95 @@
       <c r="X122" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y122" s="11" t="s">
-        <v>58</v>
+      <c r="Y122" s="11">
+        <v>54199201</v>
       </c>
       <c r="Z122" s="11">
-        <v>54199201</v>
+        <v>57214837</v>
       </c>
       <c r="AA122" s="11">
-        <v>57214837</v>
+        <v>57534898</v>
       </c>
       <c r="AB122" s="11">
-        <v>57534898</v>
+        <v>58935460</v>
       </c>
       <c r="AC122" s="11">
-        <v>58935460</v>
+        <v>59861852</v>
       </c>
       <c r="AD122" s="11">
-        <v>59861852</v>
+        <v>71651362</v>
       </c>
       <c r="AE122" s="11">
-        <v>71651362</v>
+        <v>74243846</v>
       </c>
       <c r="AF122" s="11">
-        <v>74243846</v>
+        <v>72563941</v>
       </c>
       <c r="AG122" s="11">
-        <v>72563941</v>
+        <v>70743558</v>
       </c>
       <c r="AH122" s="11">
-        <v>70743558</v>
+        <v>73114883</v>
       </c>
       <c r="AI122" s="11">
-        <v>73114883</v>
+        <v>78048077</v>
       </c>
       <c r="AJ122" s="11">
-        <v>78048077</v>
+        <v>82014369</v>
       </c>
       <c r="AK122" s="11">
-        <v>82014369</v>
+        <v>90746361</v>
       </c>
       <c r="AL122" s="11">
-        <v>90746361</v>
+        <v>106330496</v>
       </c>
       <c r="AM122" s="11">
-        <v>106330496</v>
+        <v>125056338</v>
       </c>
       <c r="AN122" s="11">
-        <v>125056338</v>
+        <v>125886459</v>
       </c>
       <c r="AO122" s="11">
-        <v>125886459</v>
+        <v>126448307</v>
       </c>
       <c r="AP122" s="11">
-        <v>126448307</v>
+        <v>125463557</v>
       </c>
       <c r="AQ122" s="11">
-        <v>125463557</v>
+        <v>126464575</v>
       </c>
       <c r="AR122" s="11">
-        <v>126464575</v>
+        <v>127726076</v>
       </c>
       <c r="AS122" s="11">
-        <v>127726076</v>
+        <v>128826312</v>
       </c>
       <c r="AT122" s="11">
-        <v>128826312</v>
+        <v>130752831</v>
       </c>
       <c r="AU122" s="11">
-        <v>130752831</v>
+        <v>146174578</v>
       </c>
       <c r="AV122" s="11">
-        <v>146174578</v>
+        <v>233708649</v>
       </c>
       <c r="AW122" s="11">
-        <v>233708649</v>
+        <v>220963993</v>
       </c>
       <c r="AX122" s="11">
-        <v>220963993</v>
+        <v>229164225</v>
       </c>
       <c r="AY122" s="11">
-        <v>229164225</v>
+        <v>228279279</v>
       </c>
       <c r="AZ122" s="11">
-        <v>228279279</v>
+        <v>225801980</v>
       </c>
       <c r="BA122" s="11">
-        <v>225801980</v>
+        <v>225681704</v>
       </c>
       <c r="BB122" s="11">
-        <v>225681704</v>
+        <v>221172377</v>
       </c>
     </row>
     <row r="123" spans="2:54" x14ac:dyDescent="0.3">
@@ -16825,95 +16825,95 @@
       <c r="X123" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y123" s="13" t="s">
-        <v>58</v>
+      <c r="Y123" s="13">
+        <v>213037767</v>
       </c>
       <c r="Z123" s="13">
-        <v>213037767</v>
+        <v>244129213</v>
       </c>
       <c r="AA123" s="13">
-        <v>244129213</v>
+        <v>235359127</v>
       </c>
       <c r="AB123" s="13">
-        <v>235359127</v>
+        <v>240651316</v>
       </c>
       <c r="AC123" s="13">
-        <v>240651316</v>
+        <v>256370270</v>
       </c>
       <c r="AD123" s="13">
-        <v>256370270</v>
+        <v>324086592</v>
       </c>
       <c r="AE123" s="13">
-        <v>324086592</v>
+        <v>367748756</v>
       </c>
       <c r="AF123" s="13">
-        <v>367748756</v>
+        <v>314190709</v>
       </c>
       <c r="AG123" s="13">
-        <v>314190709</v>
+        <v>244446502</v>
       </c>
       <c r="AH123" s="13">
-        <v>244446502</v>
+        <v>312702461</v>
       </c>
       <c r="AI123" s="13">
-        <v>312702461</v>
+        <v>310982222</v>
       </c>
       <c r="AJ123" s="13">
-        <v>310982222</v>
+        <v>336904762</v>
       </c>
       <c r="AK123" s="13">
-        <v>336904762</v>
+        <v>363941300</v>
       </c>
       <c r="AL123" s="13">
-        <v>363941300</v>
+        <v>392983740</v>
       </c>
       <c r="AM123" s="13">
-        <v>392983740</v>
+        <v>439224215</v>
       </c>
       <c r="AN123" s="13">
-        <v>439224215</v>
+        <v>438233766</v>
       </c>
       <c r="AO123" s="13">
-        <v>438233766</v>
+        <v>438021127</v>
       </c>
       <c r="AP123" s="13">
-        <v>438021127</v>
+        <v>445236074</v>
       </c>
       <c r="AQ123" s="13">
-        <v>445236074</v>
+        <v>442723404</v>
       </c>
       <c r="AR123" s="13">
-        <v>442723404</v>
+        <v>433155709</v>
       </c>
       <c r="AS123" s="13">
-        <v>433155709</v>
+        <v>434435000</v>
       </c>
       <c r="AT123" s="13">
-        <v>434435000</v>
+        <v>431183183</v>
       </c>
       <c r="AU123" s="13">
-        <v>431183183</v>
+        <v>525421836</v>
       </c>
       <c r="AV123" s="13">
-        <v>525421836</v>
+        <v>845985955</v>
       </c>
       <c r="AW123" s="13">
-        <v>845985955</v>
+        <v>772048780</v>
       </c>
       <c r="AX123" s="13">
-        <v>772048780</v>
+        <v>811513021</v>
       </c>
       <c r="AY123" s="13">
-        <v>811513021</v>
+        <v>790508242</v>
       </c>
       <c r="AZ123" s="13">
-        <v>790508242</v>
+        <v>805781065</v>
       </c>
       <c r="BA123" s="13">
-        <v>805781065</v>
+        <v>758554217</v>
       </c>
       <c r="BB123" s="13">
-        <v>758554217</v>
+        <v>771862963</v>
       </c>
     </row>
     <row r="124" spans="2:54" x14ac:dyDescent="0.3">
@@ -16984,95 +16984,95 @@
       <c r="X124" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y124" s="11" t="s">
-        <v>58</v>
+      <c r="Y124" s="11">
+        <v>344106383</v>
       </c>
       <c r="Z124" s="11">
-        <v>344106383</v>
+        <v>356111111</v>
       </c>
       <c r="AA124" s="11">
-        <v>356111111</v>
+        <v>469194030</v>
       </c>
       <c r="AB124" s="11">
-        <v>469194030</v>
+        <v>631140000</v>
       </c>
       <c r="AC124" s="11">
-        <v>631140000</v>
+        <v>630896552</v>
       </c>
       <c r="AD124" s="11">
-        <v>630896552</v>
+        <v>676686747</v>
       </c>
       <c r="AE124" s="11">
-        <v>676686747</v>
+        <v>636833333</v>
       </c>
       <c r="AF124" s="11">
-        <v>636833333</v>
+        <v>681677419</v>
       </c>
       <c r="AG124" s="11">
-        <v>681677419</v>
+        <v>742846154</v>
       </c>
       <c r="AH124" s="11">
-        <v>742846154</v>
+        <v>679923077</v>
       </c>
       <c r="AI124" s="11">
-        <v>679923077</v>
+        <v>724500000</v>
       </c>
       <c r="AJ124" s="11">
-        <v>724500000</v>
+        <v>778272727</v>
       </c>
       <c r="AK124" s="11">
-        <v>778272727</v>
+        <v>913352941</v>
       </c>
       <c r="AL124" s="11">
-        <v>913352941</v>
+        <v>671088235</v>
       </c>
       <c r="AM124" s="11">
-        <v>671088235</v>
+        <v>755647887</v>
       </c>
       <c r="AN124" s="11">
-        <v>755647887</v>
+        <v>787133333</v>
       </c>
       <c r="AO124" s="11">
-        <v>787133333</v>
+        <v>867810811</v>
       </c>
       <c r="AP124" s="11">
-        <v>867810811</v>
+        <v>867206897</v>
       </c>
       <c r="AQ124" s="11">
-        <v>867206897</v>
+        <v>829294118</v>
       </c>
       <c r="AR124" s="11">
-        <v>829294118</v>
+        <v>820000000</v>
       </c>
       <c r="AS124" s="11">
-        <v>820000000</v>
+        <v>779392857</v>
       </c>
       <c r="AT124" s="11">
-        <v>779392857</v>
+        <v>711643963</v>
       </c>
       <c r="AU124" s="11">
-        <v>711643963</v>
+        <v>779265734</v>
       </c>
       <c r="AV124" s="11">
-        <v>779265734</v>
+        <v>1307600000</v>
       </c>
       <c r="AW124" s="11">
-        <v>1307600000</v>
+        <v>1347876106</v>
       </c>
       <c r="AX124" s="11">
-        <v>1347876106</v>
+        <v>1644461538</v>
       </c>
       <c r="AY124" s="11">
-        <v>1644461538</v>
+        <v>1491526316</v>
       </c>
       <c r="AZ124" s="11">
-        <v>1491526316</v>
+        <v>1411046154</v>
       </c>
       <c r="BA124" s="11">
-        <v>1411046154</v>
+        <v>1776911111</v>
       </c>
       <c r="BB124" s="11">
-        <v>1776911111</v>
+        <v>1378714286</v>
       </c>
     </row>
     <row r="125" spans="2:54" x14ac:dyDescent="0.3">
@@ -17143,95 +17143,95 @@
       <c r="X125" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y125" s="13" t="s">
-        <v>58</v>
+      <c r="Y125" s="13">
+        <v>254159091</v>
       </c>
       <c r="Z125" s="13">
-        <v>254159091</v>
+        <v>272575499</v>
       </c>
       <c r="AA125" s="13">
-        <v>272575499</v>
+        <v>242410256</v>
       </c>
       <c r="AB125" s="13">
-        <v>242410256</v>
+        <v>173835616</v>
       </c>
       <c r="AC125" s="13">
-        <v>173835616</v>
+        <v>177020270</v>
       </c>
       <c r="AD125" s="13">
-        <v>177020270</v>
+        <v>205744493</v>
       </c>
       <c r="AE125" s="13">
-        <v>205744493</v>
+        <v>269292553</v>
       </c>
       <c r="AF125" s="13">
-        <v>269292553</v>
+        <v>151637584</v>
       </c>
       <c r="AG125" s="13">
-        <v>151637584</v>
+        <v>317926773</v>
       </c>
       <c r="AH125" s="13">
-        <v>317926773</v>
+        <v>138271255</v>
       </c>
       <c r="AI125" s="13">
-        <v>138271255</v>
+        <v>200591346</v>
       </c>
       <c r="AJ125" s="13">
-        <v>200591346</v>
+        <v>233778378</v>
       </c>
       <c r="AK125" s="13">
-        <v>233778378</v>
+        <v>357066832</v>
       </c>
       <c r="AL125" s="13">
-        <v>357066832</v>
+        <v>519343023</v>
       </c>
       <c r="AM125" s="13">
-        <v>519343023</v>
+        <v>425064655</v>
       </c>
       <c r="AN125" s="13">
-        <v>425064655</v>
+        <v>480234432</v>
       </c>
       <c r="AO125" s="13">
-        <v>480234432</v>
+        <v>489624561</v>
       </c>
       <c r="AP125" s="13">
-        <v>489624561</v>
+        <v>614401070</v>
       </c>
       <c r="AQ125" s="13">
-        <v>614401070</v>
+        <v>659622951</v>
       </c>
       <c r="AR125" s="13">
-        <v>659622951</v>
+        <v>580035176</v>
       </c>
       <c r="AS125" s="13">
-        <v>580035176</v>
+        <v>556930470</v>
       </c>
       <c r="AT125" s="13">
-        <v>556930470</v>
+        <v>594935484</v>
       </c>
       <c r="AU125" s="13">
-        <v>594935484</v>
+        <v>752542254</v>
       </c>
       <c r="AV125" s="13">
-        <v>752542254</v>
+        <v>980478873</v>
       </c>
       <c r="AW125" s="13">
-        <v>980478873</v>
+        <v>1233535714</v>
       </c>
       <c r="AX125" s="13">
-        <v>1233535714</v>
+        <v>706407787</v>
       </c>
       <c r="AY125" s="13">
-        <v>706407787</v>
+        <v>963796512</v>
       </c>
       <c r="AZ125" s="13">
-        <v>963796512</v>
+        <v>807403101</v>
       </c>
       <c r="BA125" s="13">
-        <v>807403101</v>
+        <v>995564516</v>
       </c>
       <c r="BB125" s="13">
-        <v>995564516</v>
+        <v>894015873</v>
       </c>
     </row>
     <row r="126" spans="2:54" x14ac:dyDescent="0.3">
@@ -17293,7 +17293,7 @@
     </row>
     <row r="127" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B127" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C127" s="11" t="s">
         <v>93</v>
@@ -17446,13 +17446,13 @@
       <c r="BA127" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="BB127" s="11" t="s">
-        <v>58</v>
+      <c r="BB127" s="11">
+        <v>1804500000</v>
       </c>
     </row>
     <row r="128" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B128" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C128" s="13" t="s">
         <v>93</v>
@@ -17605,13 +17605,13 @@
       <c r="BA128" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="BB128" s="13">
-        <v>944842105</v>
+      <c r="BB128" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="129" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B129" s="10" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C129" s="11" t="s">
         <v>93</v>
@@ -17762,15 +17762,15 @@
         <v>58</v>
       </c>
       <c r="BA129" s="11">
-        <v>1365000000</v>
-      </c>
-      <c r="BB129" s="11">
-        <v>1369738372</v>
+        <v>944842105</v>
+      </c>
+      <c r="BB129" s="11" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="130" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B130" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C130" s="13" t="s">
         <v>93</v>
@@ -17917,229 +17917,388 @@
       <c r="AY130" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AZ130" s="13" t="s">
-        <v>58</v>
+      <c r="AZ130" s="13">
+        <v>1365000000</v>
       </c>
       <c r="BA130" s="13">
-        <v>865000000</v>
+        <v>1369738372</v>
       </c>
       <c r="BB130" s="13">
-        <v>726538462</v>
+        <v>1447980000</v>
       </c>
     </row>
     <row r="131" spans="2:54" x14ac:dyDescent="0.3">
-      <c r="B131" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C131" s="9"/>
-      <c r="D131" s="9"/>
-      <c r="E131" s="9"/>
-      <c r="F131" s="9"/>
-      <c r="G131" s="9"/>
-      <c r="H131" s="9"/>
-      <c r="I131" s="9"/>
-      <c r="J131" s="9"/>
-      <c r="K131" s="9"/>
-      <c r="L131" s="9"/>
-      <c r="M131" s="9"/>
-      <c r="N131" s="9"/>
-      <c r="O131" s="9"/>
-      <c r="P131" s="9"/>
-      <c r="Q131" s="9"/>
-      <c r="R131" s="9"/>
-      <c r="S131" s="9"/>
-      <c r="T131" s="9"/>
-      <c r="U131" s="9"/>
-      <c r="V131" s="9"/>
-      <c r="W131" s="9"/>
-      <c r="X131" s="9"/>
-      <c r="Y131" s="9"/>
-      <c r="Z131" s="9"/>
-      <c r="AA131" s="9"/>
-      <c r="AB131" s="9"/>
-      <c r="AC131" s="9"/>
-      <c r="AD131" s="9"/>
-      <c r="AE131" s="9"/>
-      <c r="AF131" s="9"/>
-      <c r="AG131" s="9"/>
-      <c r="AH131" s="9"/>
-      <c r="AI131" s="9"/>
-      <c r="AJ131" s="9"/>
-      <c r="AK131" s="9"/>
-      <c r="AL131" s="9"/>
-      <c r="AM131" s="9"/>
-      <c r="AN131" s="9"/>
-      <c r="AO131" s="9"/>
-      <c r="AP131" s="9"/>
-      <c r="AQ131" s="9"/>
-      <c r="AR131" s="9"/>
-      <c r="AS131" s="9"/>
-      <c r="AT131" s="9"/>
-      <c r="AU131" s="9"/>
-      <c r="AV131" s="9"/>
-      <c r="AW131" s="9"/>
-      <c r="AX131" s="9"/>
-      <c r="AY131" s="9"/>
-      <c r="AZ131" s="9"/>
-      <c r="BA131" s="9"/>
-      <c r="BB131" s="9"/>
+      <c r="B131" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C131" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D131" s="11"/>
+      <c r="E131" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F131" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G131" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H131" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="I131" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J131" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="K131" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="L131" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="M131" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="N131" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="O131" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="P131" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q131" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="R131" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="S131" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="T131" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="U131" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="V131" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="W131" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="X131" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y131" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z131" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA131" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB131" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC131" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD131" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE131" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF131" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG131" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH131" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI131" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ131" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK131" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL131" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM131" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN131" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO131" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP131" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ131" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR131" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS131" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT131" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU131" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV131" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW131" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX131" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY131" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ131" s="11">
+        <v>865000000</v>
+      </c>
+      <c r="BA131" s="11">
+        <v>726538462</v>
+      </c>
+      <c r="BB131" s="11">
+        <v>820754717</v>
+      </c>
     </row>
     <row r="132" spans="2:54" x14ac:dyDescent="0.3">
-      <c r="B132" s="10" t="s">
+      <c r="B132" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C132" s="9"/>
+      <c r="D132" s="9"/>
+      <c r="E132" s="9"/>
+      <c r="F132" s="9"/>
+      <c r="G132" s="9"/>
+      <c r="H132" s="9"/>
+      <c r="I132" s="9"/>
+      <c r="J132" s="9"/>
+      <c r="K132" s="9"/>
+      <c r="L132" s="9"/>
+      <c r="M132" s="9"/>
+      <c r="N132" s="9"/>
+      <c r="O132" s="9"/>
+      <c r="P132" s="9"/>
+      <c r="Q132" s="9"/>
+      <c r="R132" s="9"/>
+      <c r="S132" s="9"/>
+      <c r="T132" s="9"/>
+      <c r="U132" s="9"/>
+      <c r="V132" s="9"/>
+      <c r="W132" s="9"/>
+      <c r="X132" s="9"/>
+      <c r="Y132" s="9"/>
+      <c r="Z132" s="9"/>
+      <c r="AA132" s="9"/>
+      <c r="AB132" s="9"/>
+      <c r="AC132" s="9"/>
+      <c r="AD132" s="9"/>
+      <c r="AE132" s="9"/>
+      <c r="AF132" s="9"/>
+      <c r="AG132" s="9"/>
+      <c r="AH132" s="9"/>
+      <c r="AI132" s="9"/>
+      <c r="AJ132" s="9"/>
+      <c r="AK132" s="9"/>
+      <c r="AL132" s="9"/>
+      <c r="AM132" s="9"/>
+      <c r="AN132" s="9"/>
+      <c r="AO132" s="9"/>
+      <c r="AP132" s="9"/>
+      <c r="AQ132" s="9"/>
+      <c r="AR132" s="9"/>
+      <c r="AS132" s="9"/>
+      <c r="AT132" s="9"/>
+      <c r="AU132" s="9"/>
+      <c r="AV132" s="9"/>
+      <c r="AW132" s="9"/>
+      <c r="AX132" s="9"/>
+      <c r="AY132" s="9"/>
+      <c r="AZ132" s="9"/>
+      <c r="BA132" s="9"/>
+      <c r="BB132" s="9"/>
+    </row>
+    <row r="133" spans="2:54" x14ac:dyDescent="0.3">
+      <c r="B133" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C132" s="11" t="s">
+      <c r="C133" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="D132" s="11"/>
-      <c r="E132" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F132" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="G132" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="H132" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="I132" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="J132" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="K132" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="L132" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="M132" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="N132" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="O132" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="P132" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q132" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="R132" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="S132" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="T132" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="U132" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="V132" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="W132" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X132" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y132" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z132" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA132" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB132" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC132" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD132" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE132" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF132" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG132" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH132" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI132" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ132" s="11">
-        <v>0</v>
-      </c>
-      <c r="AK132" s="11">
-        <v>0</v>
-      </c>
-      <c r="AL132" s="11">
-        <v>0</v>
-      </c>
-      <c r="AM132" s="11">
-        <v>0</v>
-      </c>
-      <c r="AN132" s="11">
-        <v>0</v>
-      </c>
-      <c r="AO132" s="11">
-        <v>0</v>
-      </c>
-      <c r="AP132" s="11">
-        <v>0</v>
-      </c>
-      <c r="AQ132" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR132" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS132" s="11">
-        <v>0</v>
-      </c>
-      <c r="AT132" s="11">
-        <v>0</v>
-      </c>
-      <c r="AU132" s="11">
-        <v>0</v>
-      </c>
-      <c r="AV132" s="11">
-        <v>0</v>
-      </c>
-      <c r="AW132" s="11">
-        <v>0</v>
-      </c>
-      <c r="AX132" s="11">
-        <v>0</v>
-      </c>
-      <c r="AY132" s="11">
-        <v>0</v>
-      </c>
-      <c r="AZ132" s="11">
-        <v>0</v>
-      </c>
-      <c r="BA132" s="11">
-        <v>0</v>
-      </c>
-      <c r="BB132" s="11">
+      <c r="D133" s="11"/>
+      <c r="E133" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F133" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G133" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H133" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="I133" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J133" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="K133" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="L133" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="M133" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="N133" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="O133" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="P133" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q133" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="R133" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="S133" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="T133" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="U133" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="V133" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="W133" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="X133" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y133" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z133" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA133" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB133" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC133" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD133" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE133" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF133" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG133" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH133" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI133" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ133" s="11">
+        <v>0</v>
+      </c>
+      <c r="AK133" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL133" s="11">
+        <v>0</v>
+      </c>
+      <c r="AM133" s="11">
+        <v>0</v>
+      </c>
+      <c r="AN133" s="11">
+        <v>0</v>
+      </c>
+      <c r="AO133" s="11">
+        <v>0</v>
+      </c>
+      <c r="AP133" s="11">
+        <v>0</v>
+      </c>
+      <c r="AQ133" s="11">
+        <v>0</v>
+      </c>
+      <c r="AR133" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS133" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT133" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU133" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV133" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW133" s="11">
+        <v>0</v>
+      </c>
+      <c r="AX133" s="11">
+        <v>0</v>
+      </c>
+      <c r="AY133" s="11">
+        <v>0</v>
+      </c>
+      <c r="AZ133" s="11">
+        <v>0</v>
+      </c>
+      <c r="BA133" s="11">
+        <v>0</v>
+      </c>
+      <c r="BB133" s="11">
         <v>0</v>
       </c>
     </row>

--- a/database/industries/ghaza/ghefars/product/monthly_seprated.xlsx
+++ b/database/industries/ghaza/ghefars/product/monthly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\ghaza\ghefars\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\ghaza\ghefars\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A9B2E17-8AA3-4549-8FF0-BEFDFA979D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DFBCFAD-CF86-4C5A-BC14-31B850452CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3146" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3063" uniqueCount="96">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,12 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 8 منتهی به 1397/08</t>
-  </si>
-  <si>
-    <t>ماه 9 منتهی به 1397/09</t>
   </si>
   <si>
     <t>ماه 10 منتهی به 1397/10</t>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 9 منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>ماه 10 منتهی به 1401/10</t>
+  </si>
+  <si>
+    <t>ماه 11 منتهی به 1401/11</t>
   </si>
   <si>
     <t>مقدار تولید داخلی</t>
@@ -780,16 +780,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:BB133"/>
+  <dimension ref="B1:BB134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -844,7 +844,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -901,7 +901,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -958,7 +958,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1013,7 +1013,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1070,7 +1070,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1127,7 +1127,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1182,7 +1182,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1339,7 +1339,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1394,7 +1394,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>55</v>
       </c>
@@ -1451,7 +1451,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>56</v>
       </c>
@@ -1513,104 +1513,104 @@
       <c r="V11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X11" s="11" t="s">
-        <v>58</v>
+      <c r="W11" s="11">
+        <v>1149</v>
+      </c>
+      <c r="X11" s="11">
+        <v>1185</v>
       </c>
       <c r="Y11" s="11">
-        <v>1149</v>
+        <v>1136</v>
       </c>
       <c r="Z11" s="11">
+        <v>762</v>
+      </c>
+      <c r="AA11" s="11">
+        <v>989</v>
+      </c>
+      <c r="AB11" s="11">
+        <v>633</v>
+      </c>
+      <c r="AC11" s="11">
+        <v>726</v>
+      </c>
+      <c r="AD11" s="11">
+        <v>917</v>
+      </c>
+      <c r="AE11" s="11">
         <v>1185</v>
       </c>
-      <c r="AA11" s="11">
-        <v>1136</v>
-      </c>
-      <c r="AB11" s="11">
-        <v>762</v>
-      </c>
-      <c r="AC11" s="11">
-        <v>989</v>
-      </c>
-      <c r="AD11" s="11">
-        <v>633</v>
-      </c>
-      <c r="AE11" s="11">
-        <v>726</v>
-      </c>
       <c r="AF11" s="11">
-        <v>917</v>
+        <v>1161</v>
       </c>
       <c r="AG11" s="11">
-        <v>1185</v>
+        <v>1061</v>
       </c>
       <c r="AH11" s="11">
-        <v>1161</v>
+        <v>800</v>
       </c>
       <c r="AI11" s="11">
-        <v>1061</v>
+        <v>1046</v>
       </c>
       <c r="AJ11" s="11">
-        <v>800</v>
+        <v>837</v>
       </c>
       <c r="AK11" s="11">
-        <v>1046</v>
+        <v>716</v>
       </c>
       <c r="AL11" s="11">
-        <v>837</v>
+        <v>716</v>
       </c>
       <c r="AM11" s="11">
-        <v>716</v>
+        <v>667</v>
       </c>
       <c r="AN11" s="11">
-        <v>716</v>
+        <v>494</v>
       </c>
       <c r="AO11" s="11">
-        <v>667</v>
+        <v>701</v>
       </c>
       <c r="AP11" s="11">
-        <v>494</v>
+        <v>514</v>
       </c>
       <c r="AQ11" s="11">
-        <v>701</v>
+        <v>625</v>
       </c>
       <c r="AR11" s="11">
-        <v>514</v>
+        <v>990</v>
       </c>
       <c r="AS11" s="11">
-        <v>625</v>
+        <v>581</v>
       </c>
       <c r="AT11" s="11">
-        <v>990</v>
+        <v>903</v>
       </c>
       <c r="AU11" s="11">
-        <v>581</v>
+        <v>708</v>
       </c>
       <c r="AV11" s="11">
-        <v>903</v>
+        <v>935</v>
       </c>
       <c r="AW11" s="11">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="AX11" s="11">
-        <v>935</v>
+        <v>673</v>
       </c>
       <c r="AY11" s="11">
+        <v>656</v>
+      </c>
+      <c r="AZ11" s="11">
+        <v>536</v>
+      </c>
+      <c r="BA11" s="11">
         <v>709</v>
       </c>
-      <c r="AZ11" s="11">
-        <v>673</v>
-      </c>
-      <c r="BA11" s="11">
-        <v>656</v>
-      </c>
       <c r="BB11" s="11">
-        <v>536</v>
+        <v>439</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>59</v>
       </c>
@@ -1672,104 +1672,104 @@
       <c r="V12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X12" s="13" t="s">
-        <v>58</v>
+      <c r="W12" s="13">
+        <v>18</v>
+      </c>
+      <c r="X12" s="13">
+        <v>29</v>
       </c>
       <c r="Y12" s="13">
+        <v>29</v>
+      </c>
+      <c r="Z12" s="13">
+        <v>17</v>
+      </c>
+      <c r="AA12" s="13">
+        <v>21</v>
+      </c>
+      <c r="AB12" s="13">
+        <v>38</v>
+      </c>
+      <c r="AC12" s="13">
+        <v>28</v>
+      </c>
+      <c r="AD12" s="13">
+        <v>29</v>
+      </c>
+      <c r="AE12" s="13">
+        <v>116</v>
+      </c>
+      <c r="AF12" s="13">
+        <v>182</v>
+      </c>
+      <c r="AG12" s="13">
+        <v>82</v>
+      </c>
+      <c r="AH12" s="13">
+        <v>239</v>
+      </c>
+      <c r="AI12" s="13">
         <v>18</v>
       </c>
-      <c r="Z12" s="13">
-        <v>29</v>
-      </c>
-      <c r="AA12" s="13">
-        <v>29</v>
-      </c>
-      <c r="AB12" s="13">
+      <c r="AJ12" s="13">
         <v>17</v>
       </c>
-      <c r="AC12" s="13">
-        <v>21</v>
-      </c>
-      <c r="AD12" s="13">
-        <v>38</v>
-      </c>
-      <c r="AE12" s="13">
-        <v>28</v>
-      </c>
-      <c r="AF12" s="13">
-        <v>29</v>
-      </c>
-      <c r="AG12" s="13">
-        <v>116</v>
-      </c>
-      <c r="AH12" s="13">
-        <v>182</v>
-      </c>
-      <c r="AI12" s="13">
-        <v>82</v>
-      </c>
-      <c r="AJ12" s="13">
-        <v>239</v>
-      </c>
       <c r="AK12" s="13">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AL12" s="13">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AM12" s="13">
         <v>20</v>
       </c>
       <c r="AN12" s="13">
+        <v>15</v>
+      </c>
+      <c r="AO12" s="13">
+        <v>17</v>
+      </c>
+      <c r="AP12" s="13">
+        <v>34</v>
+      </c>
+      <c r="AQ12" s="13">
+        <v>18</v>
+      </c>
+      <c r="AR12" s="13">
+        <v>17</v>
+      </c>
+      <c r="AS12" s="13">
+        <v>12</v>
+      </c>
+      <c r="AT12" s="13">
+        <v>21</v>
+      </c>
+      <c r="AU12" s="13">
+        <v>18</v>
+      </c>
+      <c r="AV12" s="13">
+        <v>16</v>
+      </c>
+      <c r="AW12" s="13">
         <v>20</v>
-      </c>
-      <c r="AO12" s="13">
-        <v>20</v>
-      </c>
-      <c r="AP12" s="13">
-        <v>15</v>
-      </c>
-      <c r="AQ12" s="13">
-        <v>17</v>
-      </c>
-      <c r="AR12" s="13">
-        <v>34</v>
-      </c>
-      <c r="AS12" s="13">
-        <v>18</v>
-      </c>
-      <c r="AT12" s="13">
-        <v>17</v>
-      </c>
-      <c r="AU12" s="13">
-        <v>12</v>
-      </c>
-      <c r="AV12" s="13">
-        <v>21</v>
-      </c>
-      <c r="AW12" s="13">
-        <v>18</v>
       </c>
       <c r="AX12" s="13">
         <v>16</v>
       </c>
       <c r="AY12" s="13">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AZ12" s="13">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="BA12" s="13">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BB12" s="13">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>60</v>
       </c>
@@ -1831,104 +1831,104 @@
       <c r="V13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W13" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X13" s="11" t="s">
-        <v>58</v>
+      <c r="W13" s="11">
+        <v>2364</v>
+      </c>
+      <c r="X13" s="11">
+        <v>2283</v>
       </c>
       <c r="Y13" s="11">
-        <v>2364</v>
+        <v>2103</v>
       </c>
       <c r="Z13" s="11">
-        <v>2283</v>
+        <v>2709</v>
       </c>
       <c r="AA13" s="11">
-        <v>2103</v>
+        <v>3188</v>
       </c>
       <c r="AB13" s="11">
-        <v>2709</v>
+        <v>2437</v>
       </c>
       <c r="AC13" s="11">
-        <v>3188</v>
+        <v>3200</v>
       </c>
       <c r="AD13" s="11">
-        <v>2437</v>
+        <v>2889</v>
       </c>
       <c r="AE13" s="11">
-        <v>3200</v>
+        <v>1917</v>
       </c>
       <c r="AF13" s="11">
-        <v>2889</v>
+        <v>2985</v>
       </c>
       <c r="AG13" s="11">
-        <v>1917</v>
+        <v>2133</v>
       </c>
       <c r="AH13" s="11">
-        <v>2985</v>
+        <v>2391</v>
       </c>
       <c r="AI13" s="11">
-        <v>2133</v>
+        <v>2371</v>
       </c>
       <c r="AJ13" s="11">
-        <v>2391</v>
+        <v>2262</v>
       </c>
       <c r="AK13" s="11">
-        <v>2371</v>
+        <v>2259</v>
       </c>
       <c r="AL13" s="11">
-        <v>2262</v>
+        <v>2259</v>
       </c>
       <c r="AM13" s="11">
-        <v>2259</v>
+        <v>2684</v>
       </c>
       <c r="AN13" s="11">
-        <v>2259</v>
+        <v>2852</v>
       </c>
       <c r="AO13" s="11">
-        <v>2684</v>
+        <v>2854</v>
       </c>
       <c r="AP13" s="11">
+        <v>2337</v>
+      </c>
+      <c r="AQ13" s="11">
+        <v>2248</v>
+      </c>
+      <c r="AR13" s="11">
+        <v>2201</v>
+      </c>
+      <c r="AS13" s="11">
+        <v>1899</v>
+      </c>
+      <c r="AT13" s="11">
+        <v>2265</v>
+      </c>
+      <c r="AU13" s="11">
+        <v>1976</v>
+      </c>
+      <c r="AV13" s="11">
+        <v>2165</v>
+      </c>
+      <c r="AW13" s="11">
+        <v>2351</v>
+      </c>
+      <c r="AX13" s="11">
+        <v>2410</v>
+      </c>
+      <c r="AY13" s="11">
+        <v>2716</v>
+      </c>
+      <c r="AZ13" s="11">
         <v>2852</v>
       </c>
-      <c r="AQ13" s="11">
-        <v>2854</v>
-      </c>
-      <c r="AR13" s="11">
-        <v>2337</v>
-      </c>
-      <c r="AS13" s="11">
-        <v>2248</v>
-      </c>
-      <c r="AT13" s="11">
-        <v>2201</v>
-      </c>
-      <c r="AU13" s="11">
-        <v>1899</v>
-      </c>
-      <c r="AV13" s="11">
-        <v>2265</v>
-      </c>
-      <c r="AW13" s="11">
-        <v>1976</v>
-      </c>
-      <c r="AX13" s="11">
-        <v>2165</v>
-      </c>
-      <c r="AY13" s="11">
-        <v>2351</v>
-      </c>
-      <c r="AZ13" s="11">
-        <v>2410</v>
-      </c>
       <c r="BA13" s="11">
-        <v>2716</v>
+        <v>2749</v>
       </c>
       <c r="BB13" s="11">
-        <v>2852</v>
+        <v>2945</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>61</v>
       </c>
@@ -1990,104 +1990,104 @@
       <c r="V14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W14" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X14" s="13" t="s">
-        <v>58</v>
+      <c r="W14" s="13">
+        <v>314</v>
+      </c>
+      <c r="X14" s="13">
+        <v>254</v>
       </c>
       <c r="Y14" s="13">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="Z14" s="13">
-        <v>254</v>
+        <v>229</v>
       </c>
       <c r="AA14" s="13">
-        <v>305</v>
+        <v>408</v>
       </c>
       <c r="AB14" s="13">
-        <v>229</v>
+        <v>510</v>
       </c>
       <c r="AC14" s="13">
-        <v>408</v>
+        <v>379</v>
       </c>
       <c r="AD14" s="13">
-        <v>510</v>
+        <v>365</v>
       </c>
       <c r="AE14" s="13">
-        <v>379</v>
+        <v>558</v>
       </c>
       <c r="AF14" s="13">
-        <v>365</v>
+        <v>290</v>
       </c>
       <c r="AG14" s="13">
-        <v>558</v>
+        <v>187</v>
       </c>
       <c r="AH14" s="13">
+        <v>167</v>
+      </c>
+      <c r="AI14" s="13">
+        <v>186</v>
+      </c>
+      <c r="AJ14" s="13">
+        <v>263</v>
+      </c>
+      <c r="AK14" s="13">
+        <v>282</v>
+      </c>
+      <c r="AL14" s="13">
+        <v>282</v>
+      </c>
+      <c r="AM14" s="13">
+        <v>195</v>
+      </c>
+      <c r="AN14" s="13">
+        <v>188</v>
+      </c>
+      <c r="AO14" s="13">
+        <v>320</v>
+      </c>
+      <c r="AP14" s="13">
+        <v>296</v>
+      </c>
+      <c r="AQ14" s="13">
+        <v>427</v>
+      </c>
+      <c r="AR14" s="13">
+        <v>375</v>
+      </c>
+      <c r="AS14" s="13">
+        <v>179</v>
+      </c>
+      <c r="AT14" s="13">
+        <v>201</v>
+      </c>
+      <c r="AU14" s="13">
+        <v>476</v>
+      </c>
+      <c r="AV14" s="13">
+        <v>416</v>
+      </c>
+      <c r="AW14" s="13">
+        <v>289</v>
+      </c>
+      <c r="AX14" s="13">
+        <v>376</v>
+      </c>
+      <c r="AY14" s="13">
+        <v>257</v>
+      </c>
+      <c r="AZ14" s="13">
         <v>290</v>
       </c>
-      <c r="AI14" s="13">
-        <v>187</v>
-      </c>
-      <c r="AJ14" s="13">
-        <v>167</v>
-      </c>
-      <c r="AK14" s="13">
-        <v>186</v>
-      </c>
-      <c r="AL14" s="13">
-        <v>263</v>
-      </c>
-      <c r="AM14" s="13">
-        <v>282</v>
-      </c>
-      <c r="AN14" s="13">
-        <v>282</v>
-      </c>
-      <c r="AO14" s="13">
-        <v>195</v>
-      </c>
-      <c r="AP14" s="13">
-        <v>188</v>
-      </c>
-      <c r="AQ14" s="13">
-        <v>320</v>
-      </c>
-      <c r="AR14" s="13">
-        <v>296</v>
-      </c>
-      <c r="AS14" s="13">
-        <v>427</v>
-      </c>
-      <c r="AT14" s="13">
-        <v>375</v>
-      </c>
-      <c r="AU14" s="13">
-        <v>179</v>
-      </c>
-      <c r="AV14" s="13">
-        <v>201</v>
-      </c>
-      <c r="AW14" s="13">
-        <v>476</v>
-      </c>
-      <c r="AX14" s="13">
-        <v>416</v>
-      </c>
-      <c r="AY14" s="13">
-        <v>289</v>
-      </c>
-      <c r="AZ14" s="13">
-        <v>376</v>
-      </c>
       <c r="BA14" s="13">
-        <v>257</v>
+        <v>490</v>
       </c>
       <c r="BB14" s="13">
-        <v>290</v>
+        <v>471</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>62</v>
       </c>
@@ -2149,104 +2149,104 @@
       <c r="V15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W15" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X15" s="11" t="s">
-        <v>58</v>
+      <c r="W15" s="11">
+        <v>1783</v>
+      </c>
+      <c r="X15" s="11">
+        <v>1640</v>
       </c>
       <c r="Y15" s="11">
-        <v>1783</v>
+        <v>1638</v>
       </c>
       <c r="Z15" s="11">
+        <v>1296</v>
+      </c>
+      <c r="AA15" s="11">
+        <v>1336</v>
+      </c>
+      <c r="AB15" s="11">
+        <v>1317</v>
+      </c>
+      <c r="AC15" s="11">
+        <v>1255</v>
+      </c>
+      <c r="AD15" s="11">
+        <v>1480</v>
+      </c>
+      <c r="AE15" s="11">
+        <v>1610</v>
+      </c>
+      <c r="AF15" s="11">
+        <v>1909</v>
+      </c>
+      <c r="AG15" s="11">
         <v>1640</v>
       </c>
-      <c r="AA15" s="11">
-        <v>1638</v>
-      </c>
-      <c r="AB15" s="11">
-        <v>1296</v>
-      </c>
-      <c r="AC15" s="11">
-        <v>1336</v>
-      </c>
-      <c r="AD15" s="11">
-        <v>1317</v>
-      </c>
-      <c r="AE15" s="11">
-        <v>1255</v>
-      </c>
-      <c r="AF15" s="11">
-        <v>1480</v>
-      </c>
-      <c r="AG15" s="11">
-        <v>1610</v>
-      </c>
       <c r="AH15" s="11">
-        <v>1909</v>
+        <v>1824</v>
       </c>
       <c r="AI15" s="11">
-        <v>1640</v>
+        <v>1831</v>
       </c>
       <c r="AJ15" s="11">
-        <v>1824</v>
+        <v>1347</v>
       </c>
       <c r="AK15" s="11">
-        <v>1831</v>
+        <v>1494</v>
       </c>
       <c r="AL15" s="11">
-        <v>1347</v>
+        <v>1494</v>
       </c>
       <c r="AM15" s="11">
-        <v>1494</v>
+        <v>1139</v>
       </c>
       <c r="AN15" s="11">
-        <v>1494</v>
+        <v>1017</v>
       </c>
       <c r="AO15" s="11">
-        <v>1139</v>
+        <v>1009</v>
       </c>
       <c r="AP15" s="11">
-        <v>1017</v>
+        <v>1138</v>
       </c>
       <c r="AQ15" s="11">
-        <v>1009</v>
+        <v>1043</v>
       </c>
       <c r="AR15" s="11">
-        <v>1138</v>
+        <v>1583</v>
       </c>
       <c r="AS15" s="11">
-        <v>1043</v>
+        <v>1176</v>
       </c>
       <c r="AT15" s="11">
-        <v>1583</v>
+        <v>1338</v>
       </c>
       <c r="AU15" s="11">
-        <v>1176</v>
+        <v>1226</v>
       </c>
       <c r="AV15" s="11">
-        <v>1338</v>
+        <v>1276</v>
       </c>
       <c r="AW15" s="11">
-        <v>1226</v>
+        <v>1247</v>
       </c>
       <c r="AX15" s="11">
-        <v>1276</v>
+        <v>1127</v>
       </c>
       <c r="AY15" s="11">
-        <v>1247</v>
+        <v>1113</v>
       </c>
       <c r="AZ15" s="11">
-        <v>1127</v>
+        <v>1033</v>
       </c>
       <c r="BA15" s="11">
-        <v>1113</v>
+        <v>946</v>
       </c>
       <c r="BB15" s="11">
-        <v>1033</v>
+        <v>1112</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
         <v>63</v>
       </c>
@@ -2308,104 +2308,104 @@
       <c r="V16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W16" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X16" s="13" t="s">
-        <v>58</v>
+      <c r="W16" s="13">
+        <v>580</v>
+      </c>
+      <c r="X16" s="13">
+        <v>527</v>
       </c>
       <c r="Y16" s="13">
-        <v>580</v>
+        <v>440</v>
       </c>
       <c r="Z16" s="13">
-        <v>527</v>
+        <v>376</v>
       </c>
       <c r="AA16" s="13">
+        <v>357</v>
+      </c>
+      <c r="AB16" s="13">
+        <v>414</v>
+      </c>
+      <c r="AC16" s="13">
+        <v>473</v>
+      </c>
+      <c r="AD16" s="13">
         <v>440</v>
       </c>
-      <c r="AB16" s="13">
-        <v>376</v>
-      </c>
-      <c r="AC16" s="13">
+      <c r="AE16" s="13">
+        <v>408</v>
+      </c>
+      <c r="AF16" s="13">
+        <v>427</v>
+      </c>
+      <c r="AG16" s="13">
+        <v>425</v>
+      </c>
+      <c r="AH16" s="13">
+        <v>347</v>
+      </c>
+      <c r="AI16" s="13">
+        <v>473</v>
+      </c>
+      <c r="AJ16" s="13">
+        <v>400</v>
+      </c>
+      <c r="AK16" s="13">
+        <v>412</v>
+      </c>
+      <c r="AL16" s="13">
+        <v>412</v>
+      </c>
+      <c r="AM16" s="13">
         <v>357</v>
       </c>
-      <c r="AD16" s="13">
-        <v>414</v>
-      </c>
-      <c r="AE16" s="13">
-        <v>473</v>
-      </c>
-      <c r="AF16" s="13">
-        <v>440</v>
-      </c>
-      <c r="AG16" s="13">
-        <v>408</v>
-      </c>
-      <c r="AH16" s="13">
-        <v>427</v>
-      </c>
-      <c r="AI16" s="13">
-        <v>425</v>
-      </c>
-      <c r="AJ16" s="13">
-        <v>347</v>
-      </c>
-      <c r="AK16" s="13">
-        <v>473</v>
-      </c>
-      <c r="AL16" s="13">
-        <v>400</v>
-      </c>
-      <c r="AM16" s="13">
-        <v>412</v>
-      </c>
       <c r="AN16" s="13">
-        <v>412</v>
+        <v>365</v>
       </c>
       <c r="AO16" s="13">
-        <v>357</v>
+        <v>335</v>
       </c>
       <c r="AP16" s="13">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="AQ16" s="13">
-        <v>335</v>
+        <v>466</v>
       </c>
       <c r="AR16" s="13">
-        <v>359</v>
+        <v>332</v>
       </c>
       <c r="AS16" s="13">
-        <v>466</v>
+        <v>339</v>
       </c>
       <c r="AT16" s="13">
-        <v>332</v>
+        <v>381</v>
       </c>
       <c r="AU16" s="13">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="AV16" s="13">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="AW16" s="13">
-        <v>344</v>
+        <v>445</v>
       </c>
       <c r="AX16" s="13">
-        <v>394</v>
+        <v>350</v>
       </c>
       <c r="AY16" s="13">
-        <v>445</v>
+        <v>330</v>
       </c>
       <c r="AZ16" s="13">
-        <v>350</v>
+        <v>294</v>
       </c>
       <c r="BA16" s="13">
-        <v>330</v>
+        <v>261</v>
       </c>
       <c r="BB16" s="13">
-        <v>294</v>
+        <v>275</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>64</v>
       </c>
@@ -2467,104 +2467,104 @@
       <c r="V17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X17" s="11" t="s">
-        <v>58</v>
+      <c r="W17" s="11">
+        <v>73</v>
+      </c>
+      <c r="X17" s="11">
+        <v>22</v>
       </c>
       <c r="Y17" s="11">
-        <v>73</v>
+        <v>138</v>
       </c>
       <c r="Z17" s="11">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="AA17" s="11">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="AB17" s="11">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="AC17" s="11">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AD17" s="11">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="AE17" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AF17" s="11">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="AG17" s="11">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="AH17" s="11">
         <v>18</v>
       </c>
       <c r="AI17" s="11">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="AJ17" s="11">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="AK17" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AL17" s="11">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="AM17" s="11">
-        <v>61</v>
+        <v>145</v>
       </c>
       <c r="AN17" s="11">
-        <v>39</v>
+        <v>111</v>
       </c>
       <c r="AO17" s="11">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="AP17" s="11">
-        <v>111</v>
+        <v>140</v>
       </c>
       <c r="AQ17" s="11">
-        <v>151</v>
+        <v>47</v>
       </c>
       <c r="AR17" s="11">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="AS17" s="11">
-        <v>47</v>
+        <v>195</v>
       </c>
       <c r="AT17" s="11">
-        <v>127</v>
+        <v>181</v>
       </c>
       <c r="AU17" s="11">
+        <v>228</v>
+      </c>
+      <c r="AV17" s="11">
+        <v>194</v>
+      </c>
+      <c r="AW17" s="11">
         <v>195</v>
       </c>
-      <c r="AV17" s="11">
-        <v>181</v>
-      </c>
-      <c r="AW17" s="11">
-        <v>228</v>
-      </c>
       <c r="AX17" s="11">
-        <v>194</v>
+        <v>156</v>
       </c>
       <c r="AY17" s="11">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="AZ17" s="11">
-        <v>156</v>
+        <v>227</v>
       </c>
       <c r="BA17" s="11">
-        <v>218</v>
+        <v>92</v>
       </c>
       <c r="BB17" s="11">
-        <v>227</v>
+        <v>105</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
         <v>65</v>
       </c>
@@ -2626,104 +2626,104 @@
       <c r="V18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W18" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X18" s="13" t="s">
-        <v>58</v>
+      <c r="W18" s="13">
+        <v>257</v>
+      </c>
+      <c r="X18" s="13">
+        <v>265</v>
       </c>
       <c r="Y18" s="13">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="Z18" s="13">
+        <v>742</v>
+      </c>
+      <c r="AA18" s="13">
         <v>265</v>
       </c>
-      <c r="AA18" s="13">
-        <v>237</v>
-      </c>
       <c r="AB18" s="13">
-        <v>742</v>
+        <v>431</v>
       </c>
       <c r="AC18" s="13">
-        <v>265</v>
+        <v>315</v>
       </c>
       <c r="AD18" s="13">
-        <v>431</v>
+        <v>373</v>
       </c>
       <c r="AE18" s="13">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="AF18" s="13">
-        <v>373</v>
+        <v>491</v>
       </c>
       <c r="AG18" s="13">
-        <v>0</v>
+        <v>460</v>
       </c>
       <c r="AH18" s="13">
-        <v>491</v>
+        <v>293</v>
       </c>
       <c r="AI18" s="13">
-        <v>460</v>
+        <v>203</v>
       </c>
       <c r="AJ18" s="13">
-        <v>293</v>
+        <v>266</v>
       </c>
       <c r="AK18" s="13">
-        <v>203</v>
+        <v>264</v>
       </c>
       <c r="AL18" s="13">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AM18" s="13">
-        <v>264</v>
+        <v>301</v>
       </c>
       <c r="AN18" s="13">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="AO18" s="13">
-        <v>301</v>
+        <v>360</v>
       </c>
       <c r="AP18" s="13">
-        <v>273</v>
+        <v>331</v>
       </c>
       <c r="AQ18" s="13">
-        <v>360</v>
+        <v>332</v>
       </c>
       <c r="AR18" s="13">
-        <v>331</v>
+        <v>303</v>
       </c>
       <c r="AS18" s="13">
-        <v>332</v>
+        <v>405</v>
       </c>
       <c r="AT18" s="13">
-        <v>303</v>
+        <v>352</v>
       </c>
       <c r="AU18" s="13">
-        <v>405</v>
+        <v>372</v>
       </c>
       <c r="AV18" s="13">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="AW18" s="13">
-        <v>372</v>
+        <v>298</v>
       </c>
       <c r="AX18" s="13">
-        <v>349</v>
+        <v>389</v>
       </c>
       <c r="AY18" s="13">
-        <v>298</v>
+        <v>475</v>
       </c>
       <c r="AZ18" s="13">
-        <v>389</v>
+        <v>425</v>
       </c>
       <c r="BA18" s="13">
-        <v>475</v>
+        <v>403</v>
       </c>
       <c r="BB18" s="13">
-        <v>425</v>
+        <v>322</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B19" s="14" t="s">
         <v>66</v>
       </c>
@@ -2784,103 +2784,103 @@
         <v>0</v>
       </c>
       <c r="W19" s="15">
-        <v>0</v>
+        <v>6538</v>
       </c>
       <c r="X19" s="15">
-        <v>0</v>
+        <v>6205</v>
       </c>
       <c r="Y19" s="15">
-        <v>6538</v>
+        <v>6026</v>
       </c>
       <c r="Z19" s="15">
-        <v>6205</v>
+        <v>6231</v>
       </c>
       <c r="AA19" s="15">
-        <v>6026</v>
+        <v>6641</v>
       </c>
       <c r="AB19" s="15">
-        <v>6231</v>
+        <v>5817</v>
       </c>
       <c r="AC19" s="15">
-        <v>6641</v>
+        <v>6416</v>
       </c>
       <c r="AD19" s="15">
-        <v>5817</v>
+        <v>6523</v>
       </c>
       <c r="AE19" s="15">
-        <v>6416</v>
+        <v>5835</v>
       </c>
       <c r="AF19" s="15">
-        <v>6523</v>
+        <v>7463</v>
       </c>
       <c r="AG19" s="15">
-        <v>5835</v>
+        <v>6001</v>
       </c>
       <c r="AH19" s="15">
-        <v>7463</v>
+        <v>6079</v>
       </c>
       <c r="AI19" s="15">
-        <v>6001</v>
+        <v>6190</v>
       </c>
       <c r="AJ19" s="15">
-        <v>6079</v>
+        <v>5475</v>
       </c>
       <c r="AK19" s="15">
-        <v>6190</v>
+        <v>5508</v>
       </c>
       <c r="AL19" s="15">
-        <v>5475</v>
+        <v>5486</v>
       </c>
       <c r="AM19" s="15">
         <v>5508</v>
       </c>
       <c r="AN19" s="15">
-        <v>5486</v>
+        <v>5315</v>
       </c>
       <c r="AO19" s="15">
-        <v>5508</v>
+        <v>5747</v>
       </c>
       <c r="AP19" s="15">
-        <v>5315</v>
+        <v>5149</v>
       </c>
       <c r="AQ19" s="15">
-        <v>5747</v>
+        <v>5206</v>
       </c>
       <c r="AR19" s="15">
-        <v>5149</v>
+        <v>5928</v>
       </c>
       <c r="AS19" s="15">
-        <v>5206</v>
+        <v>4786</v>
       </c>
       <c r="AT19" s="15">
-        <v>5928</v>
+        <v>5642</v>
       </c>
       <c r="AU19" s="15">
-        <v>4786</v>
+        <v>5348</v>
       </c>
       <c r="AV19" s="15">
-        <v>5642</v>
+        <v>5745</v>
       </c>
       <c r="AW19" s="15">
-        <v>5348</v>
+        <v>5554</v>
       </c>
       <c r="AX19" s="15">
-        <v>5745</v>
+        <v>5497</v>
       </c>
       <c r="AY19" s="15">
-        <v>5554</v>
+        <v>5788</v>
       </c>
       <c r="AZ19" s="15">
-        <v>5497</v>
+        <v>5676</v>
       </c>
       <c r="BA19" s="15">
-        <v>5788</v>
+        <v>5672</v>
       </c>
       <c r="BB19" s="15">
-        <v>5676</v>
+        <v>5690</v>
       </c>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
         <v>67</v>
       </c>
@@ -2937,7 +2937,7 @@
       <c r="BA20" s="9"/>
       <c r="BB20" s="9"/>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
         <v>56</v>
       </c>
@@ -3062,11 +3062,11 @@
       <c r="AQ21" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR21" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS21" s="11" t="s">
-        <v>58</v>
+      <c r="AR21" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS21" s="11">
+        <v>0</v>
       </c>
       <c r="AT21" s="11">
         <v>0</v>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B22" s="12" t="s">
         <v>59</v>
       </c>
@@ -3185,14 +3185,14 @@
       <c r="AE22" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF22" s="13" t="s">
-        <v>58</v>
+      <c r="AF22" s="13">
+        <v>0</v>
       </c>
       <c r="AG22" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH22" s="13">
-        <v>0</v>
+      <c r="AH22" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI22" s="13" t="s">
         <v>58</v>
@@ -3218,11 +3218,11 @@
       <c r="AP22" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ22" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR22" s="13" t="s">
-        <v>58</v>
+      <c r="AQ22" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR22" s="13">
+        <v>0</v>
       </c>
       <c r="AS22" s="13">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
         <v>60</v>
       </c>
@@ -3317,11 +3317,11 @@
       <c r="V23" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W23" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X23" s="11" t="s">
-        <v>58</v>
+      <c r="W23" s="11">
+        <v>0</v>
+      </c>
+      <c r="X23" s="11">
+        <v>0</v>
       </c>
       <c r="Y23" s="11">
         <v>0</v>
@@ -3344,11 +3344,11 @@
       <c r="AE23" s="11">
         <v>0</v>
       </c>
-      <c r="AF23" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG23" s="11">
-        <v>0</v>
+      <c r="AF23" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG23" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH23" s="11" t="s">
         <v>58</v>
@@ -3377,11 +3377,11 @@
       <c r="AP23" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ23" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR23" s="11" t="s">
-        <v>58</v>
+      <c r="AQ23" s="11">
+        <v>0</v>
+      </c>
+      <c r="AR23" s="11">
+        <v>0</v>
       </c>
       <c r="AS23" s="11">
         <v>0</v>
@@ -3414,7 +3414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B24" s="12" t="s">
         <v>61</v>
       </c>
@@ -3539,11 +3539,11 @@
       <c r="AQ24" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR24" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS24" s="13" t="s">
-        <v>58</v>
+      <c r="AR24" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS24" s="13">
+        <v>0</v>
       </c>
       <c r="AT24" s="13">
         <v>0</v>
@@ -3573,7 +3573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
         <v>62</v>
       </c>
@@ -3695,14 +3695,14 @@
       <c r="AP25" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ25" s="11" t="s">
-        <v>58</v>
+      <c r="AQ25" s="11">
+        <v>0</v>
       </c>
       <c r="AR25" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS25" s="11">
-        <v>0</v>
+      <c r="AS25" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AT25" s="11" t="s">
         <v>58</v>
@@ -3728,11 +3728,11 @@
       <c r="BA25" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="BB25" s="11" t="s">
-        <v>58</v>
+      <c r="BB25" s="11">
+        <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B26" s="12" t="s">
         <v>63</v>
       </c>
@@ -3854,11 +3854,11 @@
       <c r="AP26" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ26" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR26" s="13" t="s">
-        <v>58</v>
+      <c r="AQ26" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR26" s="13">
+        <v>0</v>
       </c>
       <c r="AS26" s="13">
         <v>0</v>
@@ -3891,7 +3891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
         <v>64</v>
       </c>
@@ -4034,11 +4034,11 @@
       <c r="AW27" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AX27" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY27" s="11" t="s">
-        <v>58</v>
+      <c r="AX27" s="11">
+        <v>0</v>
+      </c>
+      <c r="AY27" s="11">
+        <v>0</v>
       </c>
       <c r="AZ27" s="11">
         <v>0</v>
@@ -4050,7 +4050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B28" s="12" t="s">
         <v>65</v>
       </c>
@@ -4112,11 +4112,11 @@
       <c r="V28" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W28" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X28" s="13" t="s">
-        <v>58</v>
+      <c r="W28" s="13">
+        <v>0</v>
+      </c>
+      <c r="X28" s="13">
+        <v>0</v>
       </c>
       <c r="Y28" s="13">
         <v>0</v>
@@ -4139,11 +4139,11 @@
       <c r="AE28" s="13">
         <v>0</v>
       </c>
-      <c r="AF28" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG28" s="13">
-        <v>0</v>
+      <c r="AF28" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG28" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AH28" s="13" t="s">
         <v>58</v>
@@ -4172,14 +4172,14 @@
       <c r="AP28" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ28" s="13" t="s">
-        <v>58</v>
+      <c r="AQ28" s="13">
+        <v>0</v>
       </c>
       <c r="AR28" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS28" s="13">
-        <v>0</v>
+      <c r="AS28" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AT28" s="13" t="s">
         <v>58</v>
@@ -4193,11 +4193,11 @@
       <c r="AW28" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AX28" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY28" s="13" t="s">
-        <v>58</v>
+      <c r="AX28" s="13">
+        <v>0</v>
+      </c>
+      <c r="AY28" s="13">
+        <v>0</v>
       </c>
       <c r="AZ28" s="13">
         <v>0</v>
@@ -4209,7 +4209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
         <v>68</v>
       </c>
@@ -4298,14 +4298,14 @@
       <c r="AE29" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF29" s="11" t="s">
-        <v>58</v>
+      <c r="AF29" s="11">
+        <v>0</v>
       </c>
       <c r="AG29" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH29" s="11">
-        <v>0</v>
+      <c r="AH29" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI29" s="11" t="s">
         <v>58</v>
@@ -4368,7 +4368,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B30" s="12" t="s">
         <v>69</v>
       </c>
@@ -4457,14 +4457,14 @@
       <c r="AE30" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF30" s="13" t="s">
-        <v>58</v>
+      <c r="AF30" s="13">
+        <v>0</v>
       </c>
       <c r="AG30" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH30" s="13">
-        <v>0</v>
+      <c r="AH30" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI30" s="13" t="s">
         <v>58</v>
@@ -4527,7 +4527,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
         <v>70</v>
       </c>
@@ -4616,14 +4616,14 @@
       <c r="AE31" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF31" s="11" t="s">
-        <v>58</v>
+      <c r="AF31" s="11">
+        <v>0</v>
       </c>
       <c r="AG31" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH31" s="11">
-        <v>0</v>
+      <c r="AH31" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI31" s="11" t="s">
         <v>58</v>
@@ -4686,7 +4686,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B32" s="12" t="s">
         <v>71</v>
       </c>
@@ -4775,14 +4775,14 @@
       <c r="AE32" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF32" s="13" t="s">
-        <v>58</v>
+      <c r="AF32" s="13">
+        <v>0</v>
       </c>
       <c r="AG32" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH32" s="13">
-        <v>0</v>
+      <c r="AH32" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI32" s="13" t="s">
         <v>58</v>
@@ -4845,7 +4845,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B33" s="14" t="s">
         <v>72</v>
       </c>
@@ -5002,7 +5002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
         <v>73</v>
       </c>
@@ -5059,7 +5059,7 @@
       <c r="BA34" s="9"/>
       <c r="BB34" s="9"/>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B35" s="10" t="s">
         <v>59</v>
       </c>
@@ -5148,14 +5148,14 @@
       <c r="AE35" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF35" s="11" t="s">
-        <v>58</v>
+      <c r="AF35" s="11">
+        <v>0</v>
       </c>
       <c r="AG35" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH35" s="11">
-        <v>0</v>
+      <c r="AH35" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI35" s="11" t="s">
         <v>58</v>
@@ -5184,23 +5184,23 @@
       <c r="AQ35" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR35" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS35" s="11" t="s">
-        <v>58</v>
+      <c r="AR35" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS35" s="11">
+        <v>0</v>
       </c>
       <c r="AT35" s="11">
         <v>0</v>
       </c>
-      <c r="AU35" s="11">
-        <v>0</v>
-      </c>
-      <c r="AV35" s="11">
-        <v>0</v>
-      </c>
-      <c r="AW35" s="11" t="s">
-        <v>58</v>
+      <c r="AU35" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV35" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW35" s="11">
+        <v>0</v>
       </c>
       <c r="AX35" s="11" t="s">
         <v>58</v>
@@ -5211,14 +5211,14 @@
       <c r="AZ35" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="BA35" s="11">
-        <v>0</v>
-      </c>
-      <c r="BB35" s="11" t="s">
-        <v>58</v>
+      <c r="BA35" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB35" s="11">
+        <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B36" s="16" t="s">
         <v>74</v>
       </c>
@@ -5278,11 +5278,11 @@
       <c r="V36" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="W36" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="X36" s="17" t="s">
-        <v>58</v>
+      <c r="W36" s="17">
+        <v>0</v>
+      </c>
+      <c r="X36" s="17">
+        <v>0</v>
       </c>
       <c r="Y36" s="17">
         <v>0</v>
@@ -5375,7 +5375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B37" s="14" t="s">
         <v>75</v>
       </c>
@@ -5436,103 +5436,103 @@
         <v>0</v>
       </c>
       <c r="W37" s="15">
-        <v>0</v>
+        <v>6538</v>
       </c>
       <c r="X37" s="15">
-        <v>0</v>
+        <v>6205</v>
       </c>
       <c r="Y37" s="15">
-        <v>6538</v>
+        <v>6026</v>
       </c>
       <c r="Z37" s="15">
-        <v>6205</v>
+        <v>6231</v>
       </c>
       <c r="AA37" s="15">
-        <v>6026</v>
+        <v>6641</v>
       </c>
       <c r="AB37" s="15">
-        <v>6231</v>
+        <v>5817</v>
       </c>
       <c r="AC37" s="15">
-        <v>6641</v>
+        <v>6416</v>
       </c>
       <c r="AD37" s="15">
-        <v>5817</v>
+        <v>6523</v>
       </c>
       <c r="AE37" s="15">
-        <v>6416</v>
+        <v>5835</v>
       </c>
       <c r="AF37" s="15">
-        <v>6523</v>
+        <v>7463</v>
       </c>
       <c r="AG37" s="15">
-        <v>5835</v>
+        <v>6001</v>
       </c>
       <c r="AH37" s="15">
-        <v>7463</v>
+        <v>6079</v>
       </c>
       <c r="AI37" s="15">
-        <v>6001</v>
+        <v>6190</v>
       </c>
       <c r="AJ37" s="15">
-        <v>6079</v>
+        <v>5475</v>
       </c>
       <c r="AK37" s="15">
-        <v>6190</v>
+        <v>5508</v>
       </c>
       <c r="AL37" s="15">
-        <v>5475</v>
+        <v>5486</v>
       </c>
       <c r="AM37" s="15">
         <v>5508</v>
       </c>
       <c r="AN37" s="15">
-        <v>5486</v>
+        <v>5315</v>
       </c>
       <c r="AO37" s="15">
-        <v>5508</v>
+        <v>5747</v>
       </c>
       <c r="AP37" s="15">
-        <v>5315</v>
+        <v>5149</v>
       </c>
       <c r="AQ37" s="15">
-        <v>5747</v>
+        <v>5206</v>
       </c>
       <c r="AR37" s="15">
-        <v>5149</v>
+        <v>5928</v>
       </c>
       <c r="AS37" s="15">
-        <v>5206</v>
+        <v>4786</v>
       </c>
       <c r="AT37" s="15">
-        <v>5928</v>
+        <v>5642</v>
       </c>
       <c r="AU37" s="15">
-        <v>4786</v>
+        <v>5348</v>
       </c>
       <c r="AV37" s="15">
-        <v>5642</v>
+        <v>5745</v>
       </c>
       <c r="AW37" s="15">
-        <v>5348</v>
+        <v>5554</v>
       </c>
       <c r="AX37" s="15">
-        <v>5745</v>
+        <v>5497</v>
       </c>
       <c r="AY37" s="15">
-        <v>5554</v>
+        <v>5788</v>
       </c>
       <c r="AZ37" s="15">
-        <v>5497</v>
+        <v>5676</v>
       </c>
       <c r="BA37" s="15">
-        <v>5788</v>
+        <v>5672</v>
       </c>
       <c r="BB37" s="15">
-        <v>5676</v>
+        <v>5690</v>
       </c>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -5587,7 +5587,7 @@
       <c r="BA38" s="1"/>
       <c r="BB38" s="1"/>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -5642,7 +5642,7 @@
       <c r="BA39" s="1"/>
       <c r="BB39" s="1"/>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -5697,7 +5697,7 @@
       <c r="BA40" s="1"/>
       <c r="BB40" s="1"/>
     </row>
-    <row r="41" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B41" s="7" t="s">
         <v>76</v>
       </c>
@@ -5854,7 +5854,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -5909,7 +5909,7 @@
       <c r="BA42" s="1"/>
       <c r="BB42" s="1"/>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B43" s="8" t="s">
         <v>77</v>
       </c>
@@ -5966,7 +5966,7 @@
       <c r="BA43" s="9"/>
       <c r="BB43" s="9"/>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B44" s="10" t="s">
         <v>56</v>
       </c>
@@ -6028,104 +6028,104 @@
       <c r="V44" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W44" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X44" s="11" t="s">
-        <v>58</v>
+      <c r="W44" s="11">
+        <v>1149</v>
+      </c>
+      <c r="X44" s="11">
+        <v>1226</v>
       </c>
       <c r="Y44" s="11">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="Z44" s="11">
-        <v>1226</v>
+        <v>797</v>
       </c>
       <c r="AA44" s="11">
-        <v>1142</v>
+        <v>739</v>
       </c>
       <c r="AB44" s="11">
-        <v>797</v>
+        <v>741</v>
       </c>
       <c r="AC44" s="11">
-        <v>739</v>
+        <v>768</v>
       </c>
       <c r="AD44" s="11">
-        <v>741</v>
+        <v>857</v>
       </c>
       <c r="AE44" s="11">
-        <v>768</v>
+        <v>1121</v>
       </c>
       <c r="AF44" s="11">
-        <v>857</v>
+        <v>1268</v>
       </c>
       <c r="AG44" s="11">
-        <v>1121</v>
+        <v>1006</v>
       </c>
       <c r="AH44" s="11">
-        <v>1268</v>
+        <v>910</v>
       </c>
       <c r="AI44" s="11">
-        <v>1006</v>
+        <v>1024</v>
       </c>
       <c r="AJ44" s="11">
-        <v>910</v>
+        <v>799</v>
       </c>
       <c r="AK44" s="11">
-        <v>1024</v>
+        <v>794</v>
       </c>
       <c r="AL44" s="11">
-        <v>799</v>
+        <v>594</v>
       </c>
       <c r="AM44" s="11">
-        <v>794</v>
+        <v>697</v>
       </c>
       <c r="AN44" s="11">
-        <v>594</v>
+        <v>558</v>
       </c>
       <c r="AO44" s="11">
-        <v>697</v>
+        <v>597</v>
       </c>
       <c r="AP44" s="11">
-        <v>558</v>
+        <v>585</v>
       </c>
       <c r="AQ44" s="11">
-        <v>597</v>
+        <v>675</v>
       </c>
       <c r="AR44" s="11">
-        <v>585</v>
+        <v>971</v>
       </c>
       <c r="AS44" s="11">
-        <v>675</v>
+        <v>647</v>
       </c>
       <c r="AT44" s="11">
-        <v>971</v>
+        <v>876</v>
       </c>
       <c r="AU44" s="11">
-        <v>647</v>
+        <v>727</v>
       </c>
       <c r="AV44" s="11">
-        <v>876</v>
+        <v>840</v>
       </c>
       <c r="AW44" s="11">
-        <v>727</v>
+        <v>776</v>
       </c>
       <c r="AX44" s="11">
-        <v>840</v>
+        <v>653</v>
       </c>
       <c r="AY44" s="11">
-        <v>776</v>
+        <v>632</v>
       </c>
       <c r="AZ44" s="11">
-        <v>653</v>
+        <v>616</v>
       </c>
       <c r="BA44" s="11">
-        <v>632</v>
+        <v>595</v>
       </c>
       <c r="BB44" s="11">
-        <v>616</v>
+        <v>569</v>
       </c>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B45" s="12" t="s">
         <v>59</v>
       </c>
@@ -6187,104 +6187,104 @@
       <c r="V45" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W45" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X45" s="13" t="s">
-        <v>58</v>
+      <c r="W45" s="13">
+        <v>19</v>
+      </c>
+      <c r="X45" s="13">
+        <v>24</v>
       </c>
       <c r="Y45" s="13">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Z45" s="13">
         <v>24</v>
       </c>
       <c r="AA45" s="13">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AB45" s="13">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="AC45" s="13">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="AD45" s="13">
+        <v>27</v>
+      </c>
+      <c r="AE45" s="13">
+        <v>108</v>
+      </c>
+      <c r="AF45" s="13">
+        <v>26</v>
+      </c>
+      <c r="AG45" s="13">
+        <v>80</v>
+      </c>
+      <c r="AH45" s="13">
+        <v>369</v>
+      </c>
+      <c r="AI45" s="13">
+        <v>13</v>
+      </c>
+      <c r="AJ45" s="13">
+        <v>20</v>
+      </c>
+      <c r="AK45" s="13">
+        <v>20</v>
+      </c>
+      <c r="AL45" s="13">
+        <v>29</v>
+      </c>
+      <c r="AM45" s="13">
+        <v>10</v>
+      </c>
+      <c r="AN45" s="13">
+        <v>22</v>
+      </c>
+      <c r="AO45" s="13">
+        <v>14</v>
+      </c>
+      <c r="AP45" s="13">
         <v>31</v>
       </c>
-      <c r="AE45" s="13">
-        <v>35</v>
-      </c>
-      <c r="AF45" s="13">
-        <v>27</v>
-      </c>
-      <c r="AG45" s="13">
-        <v>108</v>
-      </c>
-      <c r="AH45" s="13">
-        <v>26</v>
-      </c>
-      <c r="AI45" s="13">
-        <v>80</v>
-      </c>
-      <c r="AJ45" s="13">
-        <v>369</v>
-      </c>
-      <c r="AK45" s="13">
+      <c r="AQ45" s="13">
+        <v>22</v>
+      </c>
+      <c r="AR45" s="13">
         <v>13</v>
       </c>
-      <c r="AL45" s="13">
+      <c r="AS45" s="13">
+        <v>18</v>
+      </c>
+      <c r="AT45" s="13">
+        <v>19</v>
+      </c>
+      <c r="AU45" s="13">
+        <v>14</v>
+      </c>
+      <c r="AV45" s="13">
+        <v>18</v>
+      </c>
+      <c r="AW45" s="13">
+        <v>18</v>
+      </c>
+      <c r="AX45" s="13">
+        <v>19</v>
+      </c>
+      <c r="AY45" s="13">
         <v>20</v>
       </c>
-      <c r="AM45" s="13">
-        <v>20</v>
-      </c>
-      <c r="AN45" s="13">
-        <v>29</v>
-      </c>
-      <c r="AO45" s="13">
-        <v>10</v>
-      </c>
-      <c r="AP45" s="13">
-        <v>22</v>
-      </c>
-      <c r="AQ45" s="13">
-        <v>14</v>
-      </c>
-      <c r="AR45" s="13">
-        <v>31</v>
-      </c>
-      <c r="AS45" s="13">
-        <v>22</v>
-      </c>
-      <c r="AT45" s="13">
-        <v>13</v>
-      </c>
-      <c r="AU45" s="13">
+      <c r="AZ45" s="13">
         <v>18</v>
-      </c>
-      <c r="AV45" s="13">
-        <v>19</v>
-      </c>
-      <c r="AW45" s="13">
-        <v>14</v>
-      </c>
-      <c r="AX45" s="13">
-        <v>18</v>
-      </c>
-      <c r="AY45" s="13">
-        <v>18</v>
-      </c>
-      <c r="AZ45" s="13">
-        <v>19</v>
       </c>
       <c r="BA45" s="13">
         <v>20</v>
       </c>
       <c r="BB45" s="13">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
         <v>60</v>
       </c>
@@ -6346,104 +6346,104 @@
       <c r="V46" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W46" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X46" s="11" t="s">
-        <v>58</v>
+      <c r="W46" s="11">
+        <v>2297</v>
+      </c>
+      <c r="X46" s="11">
+        <v>2227</v>
       </c>
       <c r="Y46" s="11">
-        <v>2297</v>
+        <v>2205</v>
       </c>
       <c r="Z46" s="11">
-        <v>2227</v>
+        <v>2756</v>
       </c>
       <c r="AA46" s="11">
-        <v>2205</v>
+        <v>3649</v>
       </c>
       <c r="AB46" s="11">
-        <v>2756</v>
+        <v>2493</v>
       </c>
       <c r="AC46" s="11">
-        <v>3649</v>
+        <v>2633</v>
       </c>
       <c r="AD46" s="11">
+        <v>2858</v>
+      </c>
+      <c r="AE46" s="11">
+        <v>3040</v>
+      </c>
+      <c r="AF46" s="11">
+        <v>2687</v>
+      </c>
+      <c r="AG46" s="11">
+        <v>2496</v>
+      </c>
+      <c r="AH46" s="11">
+        <v>2279</v>
+      </c>
+      <c r="AI46" s="11">
+        <v>2285</v>
+      </c>
+      <c r="AJ46" s="11">
+        <v>2118</v>
+      </c>
+      <c r="AK46" s="11">
+        <v>2405</v>
+      </c>
+      <c r="AL46" s="11">
+        <v>2280</v>
+      </c>
+      <c r="AM46" s="11">
+        <v>2716</v>
+      </c>
+      <c r="AN46" s="11">
+        <v>2860</v>
+      </c>
+      <c r="AO46" s="11">
+        <v>2607</v>
+      </c>
+      <c r="AP46" s="11">
+        <v>2415</v>
+      </c>
+      <c r="AQ46" s="11">
+        <v>2238</v>
+      </c>
+      <c r="AR46" s="11">
+        <v>2191</v>
+      </c>
+      <c r="AS46" s="11">
+        <v>2092</v>
+      </c>
+      <c r="AT46" s="11">
+        <v>1961</v>
+      </c>
+      <c r="AU46" s="11">
+        <v>2238</v>
+      </c>
+      <c r="AV46" s="11">
+        <v>2016</v>
+      </c>
+      <c r="AW46" s="11">
+        <v>2116</v>
+      </c>
+      <c r="AX46" s="11">
         <v>2493</v>
       </c>
-      <c r="AE46" s="11">
-        <v>2633</v>
-      </c>
-      <c r="AF46" s="11">
-        <v>2858</v>
-      </c>
-      <c r="AG46" s="11">
-        <v>3040</v>
-      </c>
-      <c r="AH46" s="11">
-        <v>2687</v>
-      </c>
-      <c r="AI46" s="11">
-        <v>2496</v>
-      </c>
-      <c r="AJ46" s="11">
-        <v>2279</v>
-      </c>
-      <c r="AK46" s="11">
-        <v>2285</v>
-      </c>
-      <c r="AL46" s="11">
-        <v>2118</v>
-      </c>
-      <c r="AM46" s="11">
-        <v>2405</v>
-      </c>
-      <c r="AN46" s="11">
-        <v>2280</v>
-      </c>
-      <c r="AO46" s="11">
-        <v>2716</v>
-      </c>
-      <c r="AP46" s="11">
-        <v>2860</v>
-      </c>
-      <c r="AQ46" s="11">
-        <v>2607</v>
-      </c>
-      <c r="AR46" s="11">
-        <v>2415</v>
-      </c>
-      <c r="AS46" s="11">
-        <v>2238</v>
-      </c>
-      <c r="AT46" s="11">
-        <v>2191</v>
-      </c>
-      <c r="AU46" s="11">
-        <v>2092</v>
-      </c>
-      <c r="AV46" s="11">
-        <v>1961</v>
-      </c>
-      <c r="AW46" s="11">
-        <v>2238</v>
-      </c>
-      <c r="AX46" s="11">
-        <v>2016</v>
-      </c>
       <c r="AY46" s="11">
-        <v>2116</v>
+        <v>2732</v>
       </c>
       <c r="AZ46" s="11">
-        <v>2493</v>
+        <v>2894</v>
       </c>
       <c r="BA46" s="11">
-        <v>2732</v>
+        <v>2838</v>
       </c>
       <c r="BB46" s="11">
-        <v>2894</v>
+        <v>2911</v>
       </c>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B47" s="12" t="s">
         <v>61</v>
       </c>
@@ -6505,104 +6505,104 @@
       <c r="V47" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W47" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X47" s="13" t="s">
-        <v>58</v>
+      <c r="W47" s="13">
+        <v>259</v>
+      </c>
+      <c r="X47" s="13">
+        <v>253</v>
       </c>
       <c r="Y47" s="13">
-        <v>259</v>
+        <v>305</v>
       </c>
       <c r="Z47" s="13">
-        <v>253</v>
+        <v>305</v>
       </c>
       <c r="AA47" s="13">
+        <v>390</v>
+      </c>
+      <c r="AB47" s="13">
+        <v>527</v>
+      </c>
+      <c r="AC47" s="13">
+        <v>363</v>
+      </c>
+      <c r="AD47" s="13">
+        <v>412</v>
+      </c>
+      <c r="AE47" s="13">
+        <v>297</v>
+      </c>
+      <c r="AF47" s="13">
         <v>305</v>
       </c>
-      <c r="AB47" s="13">
-        <v>305</v>
-      </c>
-      <c r="AC47" s="13">
-        <v>390</v>
-      </c>
-      <c r="AD47" s="13">
-        <v>527</v>
-      </c>
-      <c r="AE47" s="13">
-        <v>363</v>
-      </c>
-      <c r="AF47" s="13">
-        <v>412</v>
-      </c>
       <c r="AG47" s="13">
-        <v>297</v>
+        <v>187</v>
       </c>
       <c r="AH47" s="13">
-        <v>305</v>
+        <v>154</v>
       </c>
       <c r="AI47" s="13">
-        <v>187</v>
+        <v>156</v>
       </c>
       <c r="AJ47" s="13">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="AK47" s="13">
+        <v>170</v>
+      </c>
+      <c r="AL47" s="13">
+        <v>203</v>
+      </c>
+      <c r="AM47" s="13">
         <v>156</v>
       </c>
-      <c r="AL47" s="13">
-        <v>143</v>
-      </c>
-      <c r="AM47" s="13">
-        <v>170</v>
-      </c>
       <c r="AN47" s="13">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="AO47" s="13">
-        <v>156</v>
+        <v>268</v>
       </c>
       <c r="AP47" s="13">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="AQ47" s="13">
-        <v>268</v>
+        <v>438</v>
       </c>
       <c r="AR47" s="13">
-        <v>174</v>
+        <v>376</v>
       </c>
       <c r="AS47" s="13">
-        <v>438</v>
+        <v>159</v>
       </c>
       <c r="AT47" s="13">
-        <v>376</v>
+        <v>226</v>
       </c>
       <c r="AU47" s="13">
-        <v>159</v>
+        <v>475</v>
       </c>
       <c r="AV47" s="13">
-        <v>226</v>
+        <v>323</v>
       </c>
       <c r="AW47" s="13">
-        <v>475</v>
+        <v>342</v>
       </c>
       <c r="AX47" s="13">
-        <v>323</v>
+        <v>414</v>
       </c>
       <c r="AY47" s="13">
-        <v>342</v>
+        <v>209</v>
       </c>
       <c r="AZ47" s="13">
-        <v>414</v>
+        <v>332</v>
       </c>
       <c r="BA47" s="13">
-        <v>209</v>
+        <v>375</v>
       </c>
       <c r="BB47" s="13">
-        <v>332</v>
+        <v>409</v>
       </c>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
         <v>62</v>
       </c>
@@ -6664,104 +6664,104 @@
       <c r="V48" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W48" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X48" s="11" t="s">
-        <v>58</v>
+      <c r="W48" s="11">
+        <v>1752</v>
+      </c>
+      <c r="X48" s="11">
+        <v>1685</v>
       </c>
       <c r="Y48" s="11">
-        <v>1752</v>
+        <v>1619</v>
       </c>
       <c r="Z48" s="11">
-        <v>1685</v>
+        <v>1348</v>
       </c>
       <c r="AA48" s="11">
-        <v>1619</v>
+        <v>1274</v>
       </c>
       <c r="AB48" s="11">
-        <v>1348</v>
+        <v>1285</v>
       </c>
       <c r="AC48" s="11">
-        <v>1274</v>
+        <v>1300</v>
       </c>
       <c r="AD48" s="11">
-        <v>1285</v>
+        <v>1431</v>
       </c>
       <c r="AE48" s="11">
-        <v>1300</v>
+        <v>1630</v>
       </c>
       <c r="AF48" s="11">
-        <v>1431</v>
+        <v>1915</v>
       </c>
       <c r="AG48" s="11">
-        <v>1630</v>
+        <v>1664</v>
       </c>
       <c r="AH48" s="11">
-        <v>1915</v>
+        <v>1879</v>
       </c>
       <c r="AI48" s="11">
-        <v>1664</v>
+        <v>1786</v>
       </c>
       <c r="AJ48" s="11">
-        <v>1879</v>
+        <v>1410</v>
       </c>
       <c r="AK48" s="11">
-        <v>1786</v>
+        <v>1420</v>
       </c>
       <c r="AL48" s="11">
-        <v>1410</v>
+        <v>1189</v>
       </c>
       <c r="AM48" s="11">
-        <v>1420</v>
+        <v>1122</v>
       </c>
       <c r="AN48" s="11">
-        <v>1189</v>
+        <v>1029</v>
       </c>
       <c r="AO48" s="11">
-        <v>1122</v>
+        <v>988</v>
       </c>
       <c r="AP48" s="11">
-        <v>1029</v>
+        <v>1139</v>
       </c>
       <c r="AQ48" s="11">
-        <v>988</v>
+        <v>1353</v>
       </c>
       <c r="AR48" s="11">
-        <v>1139</v>
+        <v>1501</v>
       </c>
       <c r="AS48" s="11">
-        <v>1353</v>
+        <v>1243</v>
       </c>
       <c r="AT48" s="11">
-        <v>1501</v>
+        <v>1318</v>
       </c>
       <c r="AU48" s="11">
-        <v>1243</v>
+        <v>1222</v>
       </c>
       <c r="AV48" s="11">
-        <v>1318</v>
+        <v>1297</v>
       </c>
       <c r="AW48" s="11">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="AX48" s="11">
-        <v>1297</v>
+        <v>1111</v>
       </c>
       <c r="AY48" s="11">
-        <v>1221</v>
+        <v>1197</v>
       </c>
       <c r="AZ48" s="11">
-        <v>1111</v>
+        <v>934</v>
       </c>
       <c r="BA48" s="11">
-        <v>1197</v>
+        <v>958</v>
       </c>
       <c r="BB48" s="11">
-        <v>934</v>
+        <v>1183</v>
       </c>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B49" s="12" t="s">
         <v>63</v>
       </c>
@@ -6823,104 +6823,104 @@
       <c r="V49" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W49" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X49" s="13" t="s">
-        <v>58</v>
+      <c r="W49" s="13">
+        <v>609</v>
+      </c>
+      <c r="X49" s="13">
+        <v>534</v>
       </c>
       <c r="Y49" s="13">
-        <v>609</v>
+        <v>504</v>
       </c>
       <c r="Z49" s="13">
-        <v>534</v>
+        <v>304</v>
       </c>
       <c r="AA49" s="13">
-        <v>504</v>
+        <v>370</v>
       </c>
       <c r="AB49" s="13">
-        <v>304</v>
+        <v>358</v>
       </c>
       <c r="AC49" s="13">
-        <v>370</v>
+        <v>402</v>
       </c>
       <c r="AD49" s="13">
-        <v>358</v>
+        <v>409</v>
       </c>
       <c r="AE49" s="13">
-        <v>402</v>
+        <v>486</v>
       </c>
       <c r="AF49" s="13">
-        <v>409</v>
+        <v>447</v>
       </c>
       <c r="AG49" s="13">
-        <v>486</v>
+        <v>450</v>
       </c>
       <c r="AH49" s="13">
-        <v>447</v>
+        <v>378</v>
       </c>
       <c r="AI49" s="13">
-        <v>450</v>
+        <v>477</v>
       </c>
       <c r="AJ49" s="13">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="AK49" s="13">
-        <v>477</v>
+        <v>446</v>
       </c>
       <c r="AL49" s="13">
-        <v>369</v>
+        <v>385</v>
       </c>
       <c r="AM49" s="13">
-        <v>446</v>
+        <v>426</v>
       </c>
       <c r="AN49" s="13">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="AO49" s="13">
-        <v>426</v>
+        <v>329</v>
       </c>
       <c r="AP49" s="13">
-        <v>377</v>
+        <v>289</v>
       </c>
       <c r="AQ49" s="13">
-        <v>329</v>
+        <v>400</v>
       </c>
       <c r="AR49" s="13">
-        <v>289</v>
+        <v>333</v>
       </c>
       <c r="AS49" s="13">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="AT49" s="13">
-        <v>333</v>
+        <v>356</v>
       </c>
       <c r="AU49" s="13">
-        <v>403</v>
+        <v>328</v>
       </c>
       <c r="AV49" s="13">
-        <v>356</v>
+        <v>384</v>
       </c>
       <c r="AW49" s="13">
-        <v>328</v>
+        <v>364</v>
       </c>
       <c r="AX49" s="13">
-        <v>384</v>
+        <v>338</v>
       </c>
       <c r="AY49" s="13">
-        <v>364</v>
+        <v>249</v>
       </c>
       <c r="AZ49" s="13">
-        <v>338</v>
+        <v>270</v>
       </c>
       <c r="BA49" s="13">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="BB49" s="13">
-        <v>270</v>
+        <v>310</v>
       </c>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
         <v>64</v>
       </c>
@@ -6982,104 +6982,104 @@
       <c r="V50" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W50" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X50" s="11" t="s">
-        <v>58</v>
+      <c r="W50" s="11">
+        <v>47</v>
+      </c>
+      <c r="X50" s="11">
+        <v>18</v>
       </c>
       <c r="Y50" s="11">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="Z50" s="11">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="AA50" s="11">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="AB50" s="11">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="AC50" s="11">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="AD50" s="11">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="AE50" s="11">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="AF50" s="11">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="AG50" s="11">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="AH50" s="11">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="AI50" s="11">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AJ50" s="11">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="AK50" s="11">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="AL50" s="11">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="AM50" s="11">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="AN50" s="11">
+        <v>58</v>
+      </c>
+      <c r="AO50" s="11">
+        <v>34</v>
+      </c>
+      <c r="AP50" s="11">
+        <v>8</v>
+      </c>
+      <c r="AQ50" s="11">
+        <v>84</v>
+      </c>
+      <c r="AR50" s="11">
+        <v>323</v>
+      </c>
+      <c r="AS50" s="11">
+        <v>143</v>
+      </c>
+      <c r="AT50" s="11">
         <v>30</v>
       </c>
-      <c r="AO50" s="11">
-        <v>37</v>
-      </c>
-      <c r="AP50" s="11">
-        <v>58</v>
-      </c>
-      <c r="AQ50" s="11">
-        <v>34</v>
-      </c>
-      <c r="AR50" s="11">
-        <v>8</v>
-      </c>
-      <c r="AS50" s="11">
-        <v>84</v>
-      </c>
-      <c r="AT50" s="11">
-        <v>323</v>
-      </c>
       <c r="AU50" s="11">
-        <v>143</v>
+        <v>226</v>
       </c>
       <c r="AV50" s="11">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="AW50" s="11">
-        <v>226</v>
+        <v>114</v>
       </c>
       <c r="AX50" s="11">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="AY50" s="11">
-        <v>114</v>
+        <v>45</v>
       </c>
       <c r="AZ50" s="11">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="BA50" s="11">
-        <v>45</v>
+        <v>107</v>
       </c>
       <c r="BB50" s="11">
-        <v>140</v>
+        <v>110</v>
       </c>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B51" s="12" t="s">
         <v>65</v>
       </c>
@@ -7141,104 +7141,104 @@
       <c r="V51" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W51" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X51" s="13" t="s">
-        <v>58</v>
+      <c r="W51" s="13">
+        <v>264</v>
+      </c>
+      <c r="X51" s="13">
+        <v>351</v>
       </c>
       <c r="Y51" s="13">
-        <v>264</v>
+        <v>117</v>
       </c>
       <c r="Z51" s="13">
-        <v>351</v>
+        <v>146</v>
       </c>
       <c r="AA51" s="13">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="AB51" s="13">
-        <v>146</v>
+        <v>227</v>
       </c>
       <c r="AC51" s="13">
-        <v>148</v>
+        <v>188</v>
       </c>
       <c r="AD51" s="13">
-        <v>227</v>
+        <v>149</v>
       </c>
       <c r="AE51" s="13">
-        <v>188</v>
+        <v>437</v>
       </c>
       <c r="AF51" s="13">
-        <v>149</v>
+        <v>247</v>
       </c>
       <c r="AG51" s="13">
-        <v>437</v>
+        <v>208</v>
       </c>
       <c r="AH51" s="13">
-        <v>247</v>
+        <v>370</v>
       </c>
       <c r="AI51" s="13">
-        <v>208</v>
+        <v>404</v>
       </c>
       <c r="AJ51" s="13">
-        <v>370</v>
+        <v>172</v>
       </c>
       <c r="AK51" s="13">
-        <v>404</v>
+        <v>232</v>
       </c>
       <c r="AL51" s="13">
+        <v>273</v>
+      </c>
+      <c r="AM51" s="13">
+        <v>285</v>
+      </c>
+      <c r="AN51" s="13">
+        <v>187</v>
+      </c>
+      <c r="AO51" s="13">
+        <v>183</v>
+      </c>
+      <c r="AP51" s="13">
+        <v>199</v>
+      </c>
+      <c r="AQ51" s="13">
+        <v>489</v>
+      </c>
+      <c r="AR51" s="13">
+        <v>372</v>
+      </c>
+      <c r="AS51" s="13">
+        <v>142</v>
+      </c>
+      <c r="AT51" s="13">
+        <v>71</v>
+      </c>
+      <c r="AU51" s="13">
+        <v>56</v>
+      </c>
+      <c r="AV51" s="13">
+        <v>488</v>
+      </c>
+      <c r="AW51" s="13">
         <v>172</v>
       </c>
-      <c r="AM51" s="13">
-        <v>232</v>
-      </c>
-      <c r="AN51" s="13">
-        <v>273</v>
-      </c>
-      <c r="AO51" s="13">
-        <v>285</v>
-      </c>
-      <c r="AP51" s="13">
-        <v>187</v>
-      </c>
-      <c r="AQ51" s="13">
-        <v>183</v>
-      </c>
-      <c r="AR51" s="13">
-        <v>199</v>
-      </c>
-      <c r="AS51" s="13">
-        <v>489</v>
-      </c>
-      <c r="AT51" s="13">
-        <v>372</v>
-      </c>
-      <c r="AU51" s="13">
-        <v>142</v>
-      </c>
-      <c r="AV51" s="13">
-        <v>71</v>
-      </c>
-      <c r="AW51" s="13">
-        <v>56</v>
-      </c>
       <c r="AX51" s="13">
-        <v>488</v>
+        <v>129</v>
       </c>
       <c r="AY51" s="13">
-        <v>172</v>
+        <v>62</v>
       </c>
       <c r="AZ51" s="13">
-        <v>129</v>
+        <v>315</v>
       </c>
       <c r="BA51" s="13">
-        <v>62</v>
+        <v>200</v>
       </c>
       <c r="BB51" s="13">
-        <v>315</v>
+        <v>233</v>
       </c>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B52" s="14" t="s">
         <v>78</v>
       </c>
@@ -7299,103 +7299,103 @@
         <v>0</v>
       </c>
       <c r="W52" s="15">
-        <v>0</v>
+        <v>6396</v>
       </c>
       <c r="X52" s="15">
-        <v>0</v>
+        <v>6318</v>
       </c>
       <c r="Y52" s="15">
-        <v>6396</v>
+        <v>5983</v>
       </c>
       <c r="Z52" s="15">
-        <v>6318</v>
+        <v>5730</v>
       </c>
       <c r="AA52" s="15">
-        <v>5983</v>
+        <v>6649</v>
       </c>
       <c r="AB52" s="15">
-        <v>5730</v>
+        <v>5745</v>
       </c>
       <c r="AC52" s="15">
-        <v>6649</v>
+        <v>5713</v>
       </c>
       <c r="AD52" s="15">
-        <v>5745</v>
+        <v>6174</v>
       </c>
       <c r="AE52" s="15">
-        <v>5713</v>
+        <v>7158</v>
       </c>
       <c r="AF52" s="15">
-        <v>6174</v>
+        <v>6921</v>
       </c>
       <c r="AG52" s="15">
-        <v>7158</v>
+        <v>6117</v>
       </c>
       <c r="AH52" s="15">
-        <v>6921</v>
+        <v>6350</v>
       </c>
       <c r="AI52" s="15">
-        <v>6117</v>
+        <v>6162</v>
       </c>
       <c r="AJ52" s="15">
-        <v>6350</v>
+        <v>5099</v>
       </c>
       <c r="AK52" s="15">
-        <v>6162</v>
+        <v>5558</v>
       </c>
       <c r="AL52" s="15">
-        <v>5099</v>
+        <v>4983</v>
       </c>
       <c r="AM52" s="15">
-        <v>5558</v>
+        <v>5449</v>
       </c>
       <c r="AN52" s="15">
-        <v>4983</v>
+        <v>5289</v>
       </c>
       <c r="AO52" s="15">
-        <v>5449</v>
+        <v>5020</v>
       </c>
       <c r="AP52" s="15">
-        <v>5289</v>
+        <v>4840</v>
       </c>
       <c r="AQ52" s="15">
-        <v>5020</v>
+        <v>5699</v>
       </c>
       <c r="AR52" s="15">
-        <v>4840</v>
+        <v>6080</v>
       </c>
       <c r="AS52" s="15">
-        <v>5699</v>
+        <v>4847</v>
       </c>
       <c r="AT52" s="15">
-        <v>6080</v>
+        <v>4857</v>
       </c>
       <c r="AU52" s="15">
-        <v>4847</v>
+        <v>5286</v>
       </c>
       <c r="AV52" s="15">
-        <v>4857</v>
+        <v>5431</v>
       </c>
       <c r="AW52" s="15">
-        <v>5286</v>
+        <v>5123</v>
       </c>
       <c r="AX52" s="15">
-        <v>5431</v>
+        <v>5287</v>
       </c>
       <c r="AY52" s="15">
-        <v>5123</v>
+        <v>5146</v>
       </c>
       <c r="AZ52" s="15">
-        <v>5287</v>
+        <v>5519</v>
       </c>
       <c r="BA52" s="15">
-        <v>5146</v>
+        <v>5344</v>
       </c>
       <c r="BB52" s="15">
-        <v>5519</v>
+        <v>5747</v>
       </c>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B53" s="8" t="s">
         <v>79</v>
       </c>
@@ -7452,7 +7452,7 @@
       <c r="BA53" s="9"/>
       <c r="BB53" s="9"/>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
         <v>56</v>
       </c>
@@ -7577,11 +7577,11 @@
       <c r="AQ54" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR54" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS54" s="11" t="s">
-        <v>58</v>
+      <c r="AR54" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS54" s="11">
+        <v>0</v>
       </c>
       <c r="AT54" s="11">
         <v>0</v>
@@ -7611,7 +7611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B55" s="12" t="s">
         <v>59</v>
       </c>
@@ -7700,14 +7700,14 @@
       <c r="AE55" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF55" s="13" t="s">
-        <v>58</v>
+      <c r="AF55" s="13">
+        <v>0</v>
       </c>
       <c r="AG55" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH55" s="13">
-        <v>0</v>
+      <c r="AH55" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI55" s="13" t="s">
         <v>58</v>
@@ -7733,11 +7733,11 @@
       <c r="AP55" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ55" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR55" s="13" t="s">
-        <v>58</v>
+      <c r="AQ55" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR55" s="13">
+        <v>0</v>
       </c>
       <c r="AS55" s="13">
         <v>0</v>
@@ -7761,16 +7761,16 @@
         <v>0</v>
       </c>
       <c r="AZ55" s="13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BA55" s="13">
         <v>0</v>
       </c>
       <c r="BB55" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
         <v>60</v>
       </c>
@@ -7832,11 +7832,11 @@
       <c r="V56" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W56" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X56" s="11" t="s">
-        <v>58</v>
+      <c r="W56" s="11">
+        <v>0</v>
+      </c>
+      <c r="X56" s="11">
+        <v>0</v>
       </c>
       <c r="Y56" s="11">
         <v>0</v>
@@ -7859,11 +7859,11 @@
       <c r="AE56" s="11">
         <v>0</v>
       </c>
-      <c r="AF56" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG56" s="11">
-        <v>0</v>
+      <c r="AF56" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG56" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH56" s="11" t="s">
         <v>58</v>
@@ -7892,11 +7892,11 @@
       <c r="AP56" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ56" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR56" s="11" t="s">
-        <v>58</v>
+      <c r="AQ56" s="11">
+        <v>0</v>
+      </c>
+      <c r="AR56" s="11">
+        <v>0</v>
       </c>
       <c r="AS56" s="11">
         <v>0</v>
@@ -7929,7 +7929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B57" s="12" t="s">
         <v>61</v>
       </c>
@@ -8054,11 +8054,11 @@
       <c r="AQ57" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR57" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS57" s="13" t="s">
-        <v>58</v>
+      <c r="AR57" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS57" s="13">
+        <v>0</v>
       </c>
       <c r="AT57" s="13">
         <v>0</v>
@@ -8076,19 +8076,19 @@
         <v>0</v>
       </c>
       <c r="AY57" s="13">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AZ57" s="13">
         <v>0</v>
       </c>
       <c r="BA57" s="13">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="BB57" s="13">
-        <v>0</v>
+        <v>120</v>
       </c>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
         <v>62</v>
       </c>
@@ -8210,14 +8210,14 @@
       <c r="AP58" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ58" s="11" t="s">
-        <v>58</v>
+      <c r="AQ58" s="11">
+        <v>0</v>
       </c>
       <c r="AR58" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS58" s="11">
-        <v>0</v>
+      <c r="AS58" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AT58" s="11" t="s">
         <v>58</v>
@@ -8243,11 +8243,11 @@
       <c r="BA58" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="BB58" s="11" t="s">
-        <v>58</v>
+      <c r="BB58" s="11">
+        <v>7</v>
       </c>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B59" s="12" t="s">
         <v>63</v>
       </c>
@@ -8369,11 +8369,11 @@
       <c r="AP59" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ59" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR59" s="13" t="s">
-        <v>58</v>
+      <c r="AQ59" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR59" s="13">
+        <v>0</v>
       </c>
       <c r="AS59" s="13">
         <v>0</v>
@@ -8406,7 +8406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B60" s="10" t="s">
         <v>64</v>
       </c>
@@ -8549,23 +8549,23 @@
       <c r="AW60" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AX60" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY60" s="11" t="s">
-        <v>58</v>
+      <c r="AX60" s="11">
+        <v>160</v>
+      </c>
+      <c r="AY60" s="11">
+        <v>172</v>
       </c>
       <c r="AZ60" s="11">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="BA60" s="11">
-        <v>172</v>
+        <v>0</v>
       </c>
       <c r="BB60" s="11">
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B61" s="12" t="s">
         <v>65</v>
       </c>
@@ -8627,11 +8627,11 @@
       <c r="V61" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W61" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X61" s="13" t="s">
-        <v>58</v>
+      <c r="W61" s="13">
+        <v>0</v>
+      </c>
+      <c r="X61" s="13">
+        <v>0</v>
       </c>
       <c r="Y61" s="13">
         <v>0</v>
@@ -8654,11 +8654,11 @@
       <c r="AE61" s="13">
         <v>0</v>
       </c>
-      <c r="AF61" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG61" s="13">
-        <v>0</v>
+      <c r="AF61" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG61" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AH61" s="13" t="s">
         <v>58</v>
@@ -8687,14 +8687,14 @@
       <c r="AP61" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ61" s="13" t="s">
-        <v>58</v>
+      <c r="AQ61" s="13">
+        <v>0</v>
       </c>
       <c r="AR61" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS61" s="13">
-        <v>0</v>
+      <c r="AS61" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AT61" s="13" t="s">
         <v>58</v>
@@ -8708,23 +8708,23 @@
       <c r="AW61" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AX61" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY61" s="13" t="s">
-        <v>58</v>
+      <c r="AX61" s="13">
+        <v>225</v>
+      </c>
+      <c r="AY61" s="13">
+        <v>325</v>
       </c>
       <c r="AZ61" s="13">
-        <v>225</v>
+        <v>106</v>
       </c>
       <c r="BA61" s="13">
-        <v>325</v>
+        <v>100</v>
       </c>
       <c r="BB61" s="13">
-        <v>106</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="62" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B62" s="10" t="s">
         <v>68</v>
       </c>
@@ -8813,14 +8813,14 @@
       <c r="AE62" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF62" s="11" t="s">
-        <v>58</v>
+      <c r="AF62" s="11">
+        <v>0</v>
       </c>
       <c r="AG62" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH62" s="11">
-        <v>0</v>
+      <c r="AH62" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI62" s="11" t="s">
         <v>58</v>
@@ -8883,7 +8883,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B63" s="12" t="s">
         <v>69</v>
       </c>
@@ -8972,14 +8972,14 @@
       <c r="AE63" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF63" s="13" t="s">
-        <v>58</v>
+      <c r="AF63" s="13">
+        <v>0</v>
       </c>
       <c r="AG63" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH63" s="13">
-        <v>0</v>
+      <c r="AH63" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI63" s="13" t="s">
         <v>58</v>
@@ -9042,7 +9042,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="64" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B64" s="10" t="s">
         <v>70</v>
       </c>
@@ -9131,14 +9131,14 @@
       <c r="AE64" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF64" s="11" t="s">
-        <v>58</v>
+      <c r="AF64" s="11">
+        <v>0</v>
       </c>
       <c r="AG64" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH64" s="11">
-        <v>0</v>
+      <c r="AH64" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI64" s="11" t="s">
         <v>58</v>
@@ -9201,7 +9201,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="65" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B65" s="12" t="s">
         <v>71</v>
       </c>
@@ -9290,14 +9290,14 @@
       <c r="AE65" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF65" s="13" t="s">
-        <v>58</v>
+      <c r="AF65" s="13">
+        <v>0</v>
       </c>
       <c r="AG65" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH65" s="13">
-        <v>0</v>
+      <c r="AH65" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI65" s="13" t="s">
         <v>58</v>
@@ -9360,7 +9360,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="66" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B66" s="14" t="s">
         <v>80</v>
       </c>
@@ -9502,22 +9502,22 @@
         <v>0</v>
       </c>
       <c r="AX66" s="15">
-        <v>0</v>
+        <v>385</v>
       </c>
       <c r="AY66" s="15">
-        <v>0</v>
+        <v>516</v>
       </c>
       <c r="AZ66" s="15">
-        <v>385</v>
+        <v>208</v>
       </c>
       <c r="BA66" s="15">
-        <v>516</v>
+        <v>100</v>
       </c>
       <c r="BB66" s="15">
-        <v>208</v>
+        <v>282</v>
       </c>
     </row>
-    <row r="67" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B67" s="8" t="s">
         <v>73</v>
       </c>
@@ -9574,7 +9574,7 @@
       <c r="BA67" s="9"/>
       <c r="BB67" s="9"/>
     </row>
-    <row r="68" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B68" s="10" t="s">
         <v>59</v>
       </c>
@@ -9663,14 +9663,14 @@
       <c r="AE68" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF68" s="11" t="s">
-        <v>58</v>
+      <c r="AF68" s="11">
+        <v>0</v>
       </c>
       <c r="AG68" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH68" s="11">
-        <v>0</v>
+      <c r="AH68" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI68" s="11" t="s">
         <v>58</v>
@@ -9699,23 +9699,23 @@
       <c r="AQ68" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR68" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS68" s="11" t="s">
-        <v>58</v>
+      <c r="AR68" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS68" s="11">
+        <v>0</v>
       </c>
       <c r="AT68" s="11">
         <v>0</v>
       </c>
-      <c r="AU68" s="11">
-        <v>0</v>
-      </c>
-      <c r="AV68" s="11">
-        <v>0</v>
-      </c>
-      <c r="AW68" s="11" t="s">
-        <v>58</v>
+      <c r="AU68" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV68" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW68" s="11">
+        <v>0</v>
       </c>
       <c r="AX68" s="11" t="s">
         <v>58</v>
@@ -9726,14 +9726,14 @@
       <c r="AZ68" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="BA68" s="11">
-        <v>0</v>
-      </c>
-      <c r="BB68" s="11" t="s">
-        <v>58</v>
+      <c r="BA68" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB68" s="11">
+        <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B69" s="16" t="s">
         <v>74</v>
       </c>
@@ -9793,11 +9793,11 @@
       <c r="V69" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="W69" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="X69" s="17" t="s">
-        <v>58</v>
+      <c r="W69" s="17">
+        <v>0</v>
+      </c>
+      <c r="X69" s="17">
+        <v>0</v>
       </c>
       <c r="Y69" s="17">
         <v>0</v>
@@ -9890,7 +9890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B70" s="8" t="s">
         <v>81</v>
       </c>
@@ -9947,7 +9947,7 @@
       <c r="BA70" s="9"/>
       <c r="BB70" s="9"/>
     </row>
-    <row r="71" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B71" s="10" t="s">
         <v>59</v>
       </c>
@@ -10072,23 +10072,23 @@
       <c r="AQ71" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR71" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS71" s="11" t="s">
-        <v>58</v>
+      <c r="AR71" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS71" s="11">
+        <v>0</v>
       </c>
       <c r="AT71" s="11">
         <v>0</v>
       </c>
-      <c r="AU71" s="11">
-        <v>0</v>
-      </c>
-      <c r="AV71" s="11">
-        <v>0</v>
-      </c>
-      <c r="AW71" s="11" t="s">
-        <v>58</v>
+      <c r="AU71" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV71" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW71" s="11">
+        <v>0</v>
       </c>
       <c r="AX71" s="11" t="s">
         <v>58</v>
@@ -10099,14 +10099,14 @@
       <c r="AZ71" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="BA71" s="11">
-        <v>0</v>
-      </c>
-      <c r="BB71" s="11" t="s">
-        <v>58</v>
+      <c r="BA71" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB71" s="11">
+        <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B72" s="16" t="s">
         <v>82</v>
       </c>
@@ -10166,11 +10166,11 @@
       <c r="V72" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="W72" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="X72" s="17" t="s">
-        <v>58</v>
+      <c r="W72" s="17">
+        <v>0</v>
+      </c>
+      <c r="X72" s="17">
+        <v>0</v>
       </c>
       <c r="Y72" s="17">
         <v>0</v>
@@ -10263,7 +10263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B73" s="14" t="s">
         <v>75</v>
       </c>
@@ -10324,103 +10324,103 @@
         <v>0</v>
       </c>
       <c r="W73" s="15">
-        <v>0</v>
+        <v>6396</v>
       </c>
       <c r="X73" s="15">
-        <v>0</v>
+        <v>6318</v>
       </c>
       <c r="Y73" s="15">
-        <v>6396</v>
+        <v>5983</v>
       </c>
       <c r="Z73" s="15">
-        <v>6318</v>
+        <v>5730</v>
       </c>
       <c r="AA73" s="15">
-        <v>5983</v>
+        <v>6649</v>
       </c>
       <c r="AB73" s="15">
-        <v>5730</v>
+        <v>5745</v>
       </c>
       <c r="AC73" s="15">
-        <v>6649</v>
+        <v>5713</v>
       </c>
       <c r="AD73" s="15">
-        <v>5745</v>
+        <v>6174</v>
       </c>
       <c r="AE73" s="15">
-        <v>5713</v>
+        <v>7158</v>
       </c>
       <c r="AF73" s="15">
-        <v>6174</v>
+        <v>6921</v>
       </c>
       <c r="AG73" s="15">
-        <v>7158</v>
+        <v>6117</v>
       </c>
       <c r="AH73" s="15">
-        <v>6921</v>
+        <v>6350</v>
       </c>
       <c r="AI73" s="15">
-        <v>6117</v>
+        <v>6162</v>
       </c>
       <c r="AJ73" s="15">
-        <v>6350</v>
+        <v>5099</v>
       </c>
       <c r="AK73" s="15">
-        <v>6162</v>
+        <v>5558</v>
       </c>
       <c r="AL73" s="15">
-        <v>5099</v>
+        <v>4983</v>
       </c>
       <c r="AM73" s="15">
-        <v>5558</v>
+        <v>5449</v>
       </c>
       <c r="AN73" s="15">
-        <v>4983</v>
+        <v>5289</v>
       </c>
       <c r="AO73" s="15">
-        <v>5449</v>
+        <v>5020</v>
       </c>
       <c r="AP73" s="15">
-        <v>5289</v>
+        <v>4840</v>
       </c>
       <c r="AQ73" s="15">
-        <v>5020</v>
+        <v>5699</v>
       </c>
       <c r="AR73" s="15">
-        <v>4840</v>
+        <v>6080</v>
       </c>
       <c r="AS73" s="15">
-        <v>5699</v>
+        <v>4847</v>
       </c>
       <c r="AT73" s="15">
-        <v>6080</v>
+        <v>4857</v>
       </c>
       <c r="AU73" s="15">
-        <v>4847</v>
+        <v>5286</v>
       </c>
       <c r="AV73" s="15">
-        <v>4857</v>
+        <v>5431</v>
       </c>
       <c r="AW73" s="15">
-        <v>5286</v>
+        <v>5123</v>
       </c>
       <c r="AX73" s="15">
-        <v>5431</v>
+        <v>5672</v>
       </c>
       <c r="AY73" s="15">
-        <v>5123</v>
+        <v>5662</v>
       </c>
       <c r="AZ73" s="15">
-        <v>5672</v>
+        <v>5727</v>
       </c>
       <c r="BA73" s="15">
-        <v>5662</v>
+        <v>5444</v>
       </c>
       <c r="BB73" s="15">
-        <v>5727</v>
+        <v>6029</v>
       </c>
     </row>
-    <row r="74" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -10475,7 +10475,7 @@
       <c r="BA74" s="1"/>
       <c r="BB74" s="1"/>
     </row>
-    <row r="75" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -10530,7 +10530,7 @@
       <c r="BA75" s="1"/>
       <c r="BB75" s="1"/>
     </row>
-    <row r="76" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -10585,7 +10585,7 @@
       <c r="BA76" s="1"/>
       <c r="BB76" s="1"/>
     </row>
-    <row r="77" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B77" s="7" t="s">
         <v>83</v>
       </c>
@@ -10742,7 +10742,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="78" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -10797,7 +10797,7 @@
       <c r="BA78" s="1"/>
       <c r="BB78" s="1"/>
     </row>
-    <row r="79" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B79" s="8" t="s">
         <v>84</v>
       </c>
@@ -10854,7 +10854,7 @@
       <c r="BA79" s="9"/>
       <c r="BB79" s="9"/>
     </row>
-    <row r="80" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B80" s="10" t="s">
         <v>56</v>
       </c>
@@ -10916,104 +10916,104 @@
       <c r="V80" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W80" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X80" s="11" t="s">
-        <v>58</v>
+      <c r="W80" s="11">
+        <v>38785</v>
+      </c>
+      <c r="X80" s="11">
+        <v>43113</v>
       </c>
       <c r="Y80" s="11">
-        <v>38785</v>
+        <v>40291</v>
       </c>
       <c r="Z80" s="11">
-        <v>43113</v>
+        <v>27438</v>
       </c>
       <c r="AA80" s="11">
-        <v>40291</v>
+        <v>26664</v>
       </c>
       <c r="AB80" s="11">
-        <v>27438</v>
+        <v>30851</v>
       </c>
       <c r="AC80" s="11">
-        <v>26664</v>
+        <v>35225</v>
       </c>
       <c r="AD80" s="11">
-        <v>30851</v>
+        <v>37469</v>
       </c>
       <c r="AE80" s="11">
-        <v>35225</v>
+        <v>47172</v>
       </c>
       <c r="AF80" s="11">
-        <v>37469</v>
+        <v>54250</v>
       </c>
       <c r="AG80" s="11">
-        <v>47172</v>
+        <v>46828</v>
       </c>
       <c r="AH80" s="11">
-        <v>54250</v>
+        <v>47051</v>
       </c>
       <c r="AI80" s="11">
-        <v>46828</v>
+        <v>63130</v>
       </c>
       <c r="AJ80" s="11">
-        <v>47051</v>
+        <v>45245</v>
       </c>
       <c r="AK80" s="11">
-        <v>63130</v>
+        <v>52279</v>
       </c>
       <c r="AL80" s="11">
-        <v>45245</v>
+        <v>36911</v>
       </c>
       <c r="AM80" s="11">
-        <v>52279</v>
+        <v>44912</v>
       </c>
       <c r="AN80" s="11">
-        <v>36911</v>
+        <v>36669</v>
       </c>
       <c r="AO80" s="11">
-        <v>44912</v>
+        <v>39775</v>
       </c>
       <c r="AP80" s="11">
-        <v>36669</v>
+        <v>39040</v>
       </c>
       <c r="AQ80" s="11">
-        <v>39775</v>
+        <v>44815</v>
       </c>
       <c r="AR80" s="11">
-        <v>39040</v>
+        <v>66346</v>
       </c>
       <c r="AS80" s="11">
-        <v>44815</v>
+        <v>47689</v>
       </c>
       <c r="AT80" s="11">
-        <v>66346</v>
+        <v>94269</v>
       </c>
       <c r="AU80" s="11">
-        <v>47689</v>
+        <v>75662</v>
       </c>
       <c r="AV80" s="11">
-        <v>94269</v>
+        <v>88218</v>
       </c>
       <c r="AW80" s="11">
-        <v>75662</v>
+        <v>80680</v>
       </c>
       <c r="AX80" s="11">
-        <v>88218</v>
+        <v>67454</v>
       </c>
       <c r="AY80" s="11">
-        <v>80680</v>
+        <v>65471</v>
       </c>
       <c r="AZ80" s="11">
-        <v>67454</v>
+        <v>64946</v>
       </c>
       <c r="BA80" s="11">
-        <v>65471</v>
+        <v>59945</v>
       </c>
       <c r="BB80" s="11">
-        <v>64946</v>
+        <v>58401</v>
       </c>
     </row>
-    <row r="81" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B81" s="12" t="s">
         <v>59</v>
       </c>
@@ -11075,104 +11075,104 @@
       <c r="V81" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W81" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X81" s="13" t="s">
-        <v>58</v>
+      <c r="W81" s="13">
+        <v>2697</v>
+      </c>
+      <c r="X81" s="13">
+        <v>3596</v>
       </c>
       <c r="Y81" s="13">
-        <v>2697</v>
+        <v>3573</v>
       </c>
       <c r="Z81" s="13">
-        <v>3596</v>
+        <v>3323</v>
       </c>
       <c r="AA81" s="13">
-        <v>3573</v>
+        <v>3981</v>
       </c>
       <c r="AB81" s="13">
-        <v>3323</v>
+        <v>4572</v>
       </c>
       <c r="AC81" s="13">
-        <v>3981</v>
+        <v>5883</v>
       </c>
       <c r="AD81" s="13">
-        <v>4572</v>
+        <v>3920</v>
       </c>
       <c r="AE81" s="13">
-        <v>5883</v>
+        <v>632</v>
       </c>
       <c r="AF81" s="13">
-        <v>3920</v>
+        <v>4547</v>
       </c>
       <c r="AG81" s="13">
-        <v>632</v>
+        <v>7168</v>
       </c>
       <c r="AH81" s="13">
-        <v>4547</v>
+        <v>60738</v>
       </c>
       <c r="AI81" s="13">
-        <v>7168</v>
+        <v>5312</v>
       </c>
       <c r="AJ81" s="13">
-        <v>60738</v>
+        <v>4772</v>
       </c>
       <c r="AK81" s="13">
-        <v>5312</v>
+        <v>4780</v>
       </c>
       <c r="AL81" s="13">
-        <v>4772</v>
+        <v>6978</v>
       </c>
       <c r="AM81" s="13">
-        <v>4780</v>
+        <v>2488</v>
       </c>
       <c r="AN81" s="13">
-        <v>6978</v>
+        <v>5440</v>
       </c>
       <c r="AO81" s="13">
-        <v>2488</v>
+        <v>3026</v>
       </c>
       <c r="AP81" s="13">
-        <v>5440</v>
+        <v>7998</v>
       </c>
       <c r="AQ81" s="13">
-        <v>3026</v>
+        <v>5923</v>
       </c>
       <c r="AR81" s="13">
-        <v>7998</v>
+        <v>3354</v>
       </c>
       <c r="AS81" s="13">
-        <v>5923</v>
+        <v>5118</v>
       </c>
       <c r="AT81" s="13">
-        <v>3354</v>
+        <v>9112</v>
       </c>
       <c r="AU81" s="13">
-        <v>5118</v>
+        <v>5711</v>
       </c>
       <c r="AV81" s="13">
-        <v>9112</v>
+        <v>7885</v>
       </c>
       <c r="AW81" s="13">
-        <v>5711</v>
+        <v>7531</v>
       </c>
       <c r="AX81" s="13">
-        <v>7885</v>
+        <v>8214</v>
       </c>
       <c r="AY81" s="13">
-        <v>7531</v>
+        <v>8030</v>
       </c>
       <c r="AZ81" s="13">
-        <v>8214</v>
+        <v>7724</v>
       </c>
       <c r="BA81" s="13">
-        <v>8030</v>
+        <v>8275</v>
       </c>
       <c r="BB81" s="13">
-        <v>7724</v>
+        <v>9311</v>
       </c>
     </row>
-    <row r="82" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B82" s="10" t="s">
         <v>60</v>
       </c>
@@ -11234,104 +11234,104 @@
       <c r="V82" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W82" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X82" s="11" t="s">
-        <v>58</v>
+      <c r="W82" s="11">
+        <v>121887</v>
+      </c>
+      <c r="X82" s="11">
+        <v>132660</v>
       </c>
       <c r="Y82" s="11">
-        <v>121887</v>
+        <v>145124</v>
       </c>
       <c r="Z82" s="11">
-        <v>132660</v>
+        <v>167809</v>
       </c>
       <c r="AA82" s="11">
-        <v>145124</v>
+        <v>185579</v>
       </c>
       <c r="AB82" s="11">
-        <v>167809</v>
+        <v>185852</v>
       </c>
       <c r="AC82" s="11">
-        <v>185579</v>
+        <v>237485</v>
       </c>
       <c r="AD82" s="11">
-        <v>185852</v>
+        <v>185541</v>
       </c>
       <c r="AE82" s="11">
-        <v>237485</v>
+        <v>288955</v>
       </c>
       <c r="AF82" s="11">
-        <v>185541</v>
+        <v>173889</v>
       </c>
       <c r="AG82" s="11">
-        <v>288955</v>
+        <v>176230</v>
       </c>
       <c r="AH82" s="11">
-        <v>173889</v>
+        <v>176151</v>
       </c>
       <c r="AI82" s="11">
-        <v>176230</v>
+        <v>173479</v>
       </c>
       <c r="AJ82" s="11">
-        <v>176151</v>
+        <v>194080</v>
       </c>
       <c r="AK82" s="11">
-        <v>173479</v>
+        <v>234992</v>
       </c>
       <c r="AL82" s="11">
-        <v>194080</v>
+        <v>253784</v>
       </c>
       <c r="AM82" s="11">
-        <v>234992</v>
+        <v>307531</v>
       </c>
       <c r="AN82" s="11">
-        <v>253784</v>
+        <v>369184</v>
       </c>
       <c r="AO82" s="11">
-        <v>307531</v>
+        <v>271129</v>
       </c>
       <c r="AP82" s="11">
-        <v>369184</v>
+        <v>246789</v>
       </c>
       <c r="AQ82" s="11">
-        <v>271129</v>
+        <v>236627</v>
       </c>
       <c r="AR82" s="11">
-        <v>246789</v>
+        <v>237213</v>
       </c>
       <c r="AS82" s="11">
-        <v>236627</v>
+        <v>269696</v>
       </c>
       <c r="AT82" s="11">
-        <v>237213</v>
+        <v>369703</v>
       </c>
       <c r="AU82" s="11">
-        <v>269696</v>
+        <v>434957</v>
       </c>
       <c r="AV82" s="11">
-        <v>369703</v>
+        <v>389340</v>
       </c>
       <c r="AW82" s="11">
-        <v>434957</v>
+        <v>394070</v>
       </c>
       <c r="AX82" s="11">
-        <v>389340</v>
+        <v>459721</v>
       </c>
       <c r="AY82" s="11">
-        <v>394070</v>
+        <v>523819</v>
       </c>
       <c r="AZ82" s="11">
-        <v>459721</v>
+        <v>541941</v>
       </c>
       <c r="BA82" s="11">
-        <v>523819</v>
+        <v>525099</v>
       </c>
       <c r="BB82" s="11">
-        <v>541941</v>
+        <v>550048</v>
       </c>
     </row>
-    <row r="83" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B83" s="12" t="s">
         <v>61</v>
       </c>
@@ -11393,104 +11393,104 @@
       <c r="V83" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W83" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X83" s="13" t="s">
-        <v>58</v>
+      <c r="W83" s="13">
+        <v>62147</v>
+      </c>
+      <c r="X83" s="13">
+        <v>69917</v>
       </c>
       <c r="Y83" s="13">
-        <v>62147</v>
+        <v>93762</v>
       </c>
       <c r="Z83" s="13">
-        <v>69917</v>
+        <v>86896</v>
       </c>
       <c r="AA83" s="13">
-        <v>93762</v>
+        <v>108932</v>
       </c>
       <c r="AB83" s="13">
-        <v>86896</v>
+        <v>155633</v>
       </c>
       <c r="AC83" s="13">
-        <v>108932</v>
+        <v>121928</v>
       </c>
       <c r="AD83" s="13">
-        <v>155633</v>
+        <v>116762</v>
       </c>
       <c r="AE83" s="13">
-        <v>121928</v>
+        <v>89482</v>
       </c>
       <c r="AF83" s="13">
-        <v>116762</v>
+        <v>80919</v>
       </c>
       <c r="AG83" s="13">
-        <v>89482</v>
+        <v>61813</v>
       </c>
       <c r="AH83" s="13">
-        <v>80919</v>
+        <v>47100</v>
       </c>
       <c r="AI83" s="13">
-        <v>61813</v>
+        <v>75672</v>
       </c>
       <c r="AJ83" s="13">
-        <v>47100</v>
+        <v>53939</v>
       </c>
       <c r="AK83" s="13">
-        <v>75672</v>
+        <v>76395</v>
       </c>
       <c r="AL83" s="13">
-        <v>53939</v>
+        <v>86474</v>
       </c>
       <c r="AM83" s="13">
-        <v>76395</v>
+        <v>66704</v>
       </c>
       <c r="AN83" s="13">
-        <v>86474</v>
+        <v>91018</v>
       </c>
       <c r="AO83" s="13">
-        <v>66704</v>
+        <v>104048</v>
       </c>
       <c r="AP83" s="13">
-        <v>91018</v>
+        <v>61267</v>
       </c>
       <c r="AQ83" s="13">
-        <v>104048</v>
+        <v>154567</v>
       </c>
       <c r="AR83" s="13">
-        <v>61267</v>
+        <v>119681</v>
       </c>
       <c r="AS83" s="13">
-        <v>154567</v>
+        <v>71394</v>
       </c>
       <c r="AT83" s="13">
-        <v>119681</v>
+        <v>128928</v>
       </c>
       <c r="AU83" s="13">
-        <v>71394</v>
+        <v>274221</v>
       </c>
       <c r="AV83" s="13">
-        <v>128928</v>
+        <v>205927</v>
       </c>
       <c r="AW83" s="13">
-        <v>274221</v>
+        <v>213230</v>
       </c>
       <c r="AX83" s="13">
-        <v>205927</v>
+        <v>239480</v>
       </c>
       <c r="AY83" s="13">
-        <v>213230</v>
+        <v>140261</v>
       </c>
       <c r="AZ83" s="13">
-        <v>239480</v>
+        <v>201781</v>
       </c>
       <c r="BA83" s="13">
-        <v>140261</v>
+        <v>262202</v>
       </c>
       <c r="BB83" s="13">
-        <v>201781</v>
+        <v>279098</v>
       </c>
     </row>
-    <row r="84" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B84" s="10" t="s">
         <v>62</v>
       </c>
@@ -11552,104 +11552,104 @@
       <c r="V84" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W84" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X84" s="11" t="s">
-        <v>58</v>
+      <c r="W84" s="11">
+        <v>94957</v>
+      </c>
+      <c r="X84" s="11">
+        <v>96407</v>
       </c>
       <c r="Y84" s="11">
-        <v>94957</v>
+        <v>93149</v>
       </c>
       <c r="Z84" s="11">
-        <v>96407</v>
+        <v>79445</v>
       </c>
       <c r="AA84" s="11">
-        <v>93149</v>
+        <v>76264</v>
       </c>
       <c r="AB84" s="11">
-        <v>79445</v>
+        <v>92072</v>
       </c>
       <c r="AC84" s="11">
-        <v>76264</v>
+        <v>96517</v>
       </c>
       <c r="AD84" s="11">
-        <v>92072</v>
+        <v>103839</v>
       </c>
       <c r="AE84" s="11">
-        <v>96517</v>
+        <v>115312</v>
       </c>
       <c r="AF84" s="11">
-        <v>103839</v>
+        <v>140015</v>
       </c>
       <c r="AG84" s="11">
-        <v>115312</v>
+        <v>129872</v>
       </c>
       <c r="AH84" s="11">
-        <v>140015</v>
+        <v>154105</v>
       </c>
       <c r="AI84" s="11">
-        <v>129872</v>
+        <v>162073</v>
       </c>
       <c r="AJ84" s="11">
-        <v>154105</v>
+        <v>149926</v>
       </c>
       <c r="AK84" s="11">
-        <v>162073</v>
+        <v>177580</v>
       </c>
       <c r="AL84" s="11">
-        <v>149926</v>
+        <v>149679</v>
       </c>
       <c r="AM84" s="11">
-        <v>177580</v>
+        <v>141875</v>
       </c>
       <c r="AN84" s="11">
-        <v>149679</v>
+        <v>129102</v>
       </c>
       <c r="AO84" s="11">
-        <v>141875</v>
+        <v>124947</v>
       </c>
       <c r="AP84" s="11">
-        <v>129102</v>
+        <v>145480</v>
       </c>
       <c r="AQ84" s="11">
-        <v>124947</v>
+        <v>174302</v>
       </c>
       <c r="AR84" s="11">
-        <v>145480</v>
+        <v>196260</v>
       </c>
       <c r="AS84" s="11">
-        <v>174302</v>
+        <v>181695</v>
       </c>
       <c r="AT84" s="11">
-        <v>196260</v>
+        <v>308028</v>
       </c>
       <c r="AU84" s="11">
-        <v>181695</v>
+        <v>270018</v>
       </c>
       <c r="AV84" s="11">
-        <v>308028</v>
+        <v>297226</v>
       </c>
       <c r="AW84" s="11">
-        <v>270018</v>
+        <v>278729</v>
       </c>
       <c r="AX84" s="11">
-        <v>297226</v>
+        <v>250866</v>
       </c>
       <c r="AY84" s="11">
-        <v>278729</v>
+        <v>270141</v>
       </c>
       <c r="AZ84" s="11">
-        <v>250866</v>
+        <v>206575</v>
       </c>
       <c r="BA84" s="11">
-        <v>270141</v>
+        <v>213462</v>
       </c>
       <c r="BB84" s="11">
-        <v>206575</v>
+        <v>263686</v>
       </c>
     </row>
-    <row r="85" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B85" s="12" t="s">
         <v>63</v>
       </c>
@@ -11711,104 +11711,104 @@
       <c r="V85" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W85" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X85" s="13" t="s">
-        <v>58</v>
+      <c r="W85" s="13">
+        <v>129740</v>
+      </c>
+      <c r="X85" s="13">
+        <v>130365</v>
       </c>
       <c r="Y85" s="13">
-        <v>129740</v>
+        <v>118621</v>
       </c>
       <c r="Z85" s="13">
-        <v>130365</v>
+        <v>73158</v>
       </c>
       <c r="AA85" s="13">
-        <v>118621</v>
+        <v>94857</v>
       </c>
       <c r="AB85" s="13">
-        <v>73158</v>
+        <v>116023</v>
       </c>
       <c r="AC85" s="13">
-        <v>94857</v>
+        <v>147835</v>
       </c>
       <c r="AD85" s="13">
-        <v>116023</v>
+        <v>128504</v>
       </c>
       <c r="AE85" s="13">
-        <v>147835</v>
+        <v>118801</v>
       </c>
       <c r="AF85" s="13">
-        <v>128504</v>
+        <v>139778</v>
       </c>
       <c r="AG85" s="13">
-        <v>118801</v>
+        <v>139942</v>
       </c>
       <c r="AH85" s="13">
-        <v>139778</v>
+        <v>127350</v>
       </c>
       <c r="AI85" s="13">
-        <v>139942</v>
+        <v>173600</v>
       </c>
       <c r="AJ85" s="13">
-        <v>127350</v>
+        <v>145011</v>
       </c>
       <c r="AK85" s="13">
-        <v>173600</v>
+        <v>195894</v>
       </c>
       <c r="AL85" s="13">
-        <v>145011</v>
+        <v>168720</v>
       </c>
       <c r="AM85" s="13">
-        <v>195894</v>
+        <v>186597</v>
       </c>
       <c r="AN85" s="13">
-        <v>168720</v>
+        <v>167854</v>
       </c>
       <c r="AO85" s="13">
-        <v>186597</v>
+        <v>145656</v>
       </c>
       <c r="AP85" s="13">
-        <v>167854</v>
+        <v>125182</v>
       </c>
       <c r="AQ85" s="13">
-        <v>145656</v>
+        <v>173774</v>
       </c>
       <c r="AR85" s="13">
-        <v>125182</v>
+        <v>143584</v>
       </c>
       <c r="AS85" s="13">
-        <v>173774</v>
+        <v>211745</v>
       </c>
       <c r="AT85" s="13">
-        <v>143584</v>
+        <v>301171</v>
       </c>
       <c r="AU85" s="13">
-        <v>211745</v>
+        <v>253232</v>
       </c>
       <c r="AV85" s="13">
-        <v>301171</v>
+        <v>311621</v>
       </c>
       <c r="AW85" s="13">
-        <v>253232</v>
+        <v>287745</v>
       </c>
       <c r="AX85" s="13">
-        <v>311621</v>
+        <v>272354</v>
       </c>
       <c r="AY85" s="13">
-        <v>287745</v>
+        <v>188880</v>
       </c>
       <c r="AZ85" s="13">
-        <v>272354</v>
+        <v>208403</v>
       </c>
       <c r="BA85" s="13">
-        <v>188880</v>
+        <v>183119</v>
       </c>
       <c r="BB85" s="13">
-        <v>208403</v>
+        <v>225210</v>
       </c>
     </row>
-    <row r="86" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B86" s="10" t="s">
         <v>64</v>
       </c>
@@ -11870,104 +11870,104 @@
       <c r="V86" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W86" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X86" s="11" t="s">
-        <v>58</v>
+      <c r="W86" s="11">
+        <v>16173</v>
+      </c>
+      <c r="X86" s="11">
+        <v>6410</v>
       </c>
       <c r="Y86" s="11">
-        <v>16173</v>
+        <v>31436</v>
       </c>
       <c r="Z86" s="11">
-        <v>6410</v>
+        <v>31557</v>
       </c>
       <c r="AA86" s="11">
-        <v>31436</v>
+        <v>36592</v>
       </c>
       <c r="AB86" s="11">
-        <v>31557</v>
+        <v>56165</v>
       </c>
       <c r="AC86" s="11">
-        <v>36592</v>
+        <v>15284</v>
       </c>
       <c r="AD86" s="11">
-        <v>56165</v>
+        <v>21132</v>
       </c>
       <c r="AE86" s="11">
-        <v>15284</v>
+        <v>28971</v>
       </c>
       <c r="AF86" s="11">
-        <v>21132</v>
+        <v>17678</v>
       </c>
       <c r="AG86" s="11">
-        <v>28971</v>
+        <v>18837</v>
       </c>
       <c r="AH86" s="11">
-        <v>17678</v>
+        <v>8561</v>
       </c>
       <c r="AI86" s="11">
-        <v>18837</v>
+        <v>15527</v>
       </c>
       <c r="AJ86" s="11">
-        <v>8561</v>
+        <v>45634</v>
       </c>
       <c r="AK86" s="11">
-        <v>15527</v>
+        <v>53651</v>
       </c>
       <c r="AL86" s="11">
-        <v>45634</v>
+        <v>23614</v>
       </c>
       <c r="AM86" s="11">
-        <v>53651</v>
+        <v>32109</v>
       </c>
       <c r="AN86" s="11">
-        <v>23614</v>
+        <v>50298</v>
       </c>
       <c r="AO86" s="11">
-        <v>32109</v>
+        <v>28196</v>
       </c>
       <c r="AP86" s="11">
-        <v>50298</v>
+        <v>6560</v>
       </c>
       <c r="AQ86" s="11">
-        <v>28196</v>
+        <v>65469</v>
       </c>
       <c r="AR86" s="11">
-        <v>6560</v>
+        <v>229861</v>
       </c>
       <c r="AS86" s="11">
-        <v>65469</v>
+        <v>111435</v>
       </c>
       <c r="AT86" s="11">
-        <v>229861</v>
+        <v>39228</v>
       </c>
       <c r="AU86" s="11">
-        <v>111435</v>
+        <v>304620</v>
       </c>
       <c r="AV86" s="11">
-        <v>39228</v>
+        <v>106890</v>
       </c>
       <c r="AW86" s="11">
-        <v>304620</v>
+        <v>170034</v>
       </c>
       <c r="AX86" s="11">
-        <v>106890</v>
+        <v>183436</v>
       </c>
       <c r="AY86" s="11">
-        <v>170034</v>
+        <v>79961</v>
       </c>
       <c r="AZ86" s="11">
-        <v>183436</v>
+        <v>193020</v>
       </c>
       <c r="BA86" s="11">
-        <v>79961</v>
+        <v>158336</v>
       </c>
       <c r="BB86" s="11">
-        <v>193020</v>
+        <v>165583</v>
       </c>
     </row>
-    <row r="87" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B87" s="12" t="s">
         <v>65</v>
       </c>
@@ -12029,104 +12029,104 @@
       <c r="V87" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W87" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X87" s="13" t="s">
-        <v>58</v>
+      <c r="W87" s="13">
+        <v>67098</v>
+      </c>
+      <c r="X87" s="13">
+        <v>95674</v>
       </c>
       <c r="Y87" s="13">
-        <v>67098</v>
+        <v>28362</v>
       </c>
       <c r="Z87" s="13">
-        <v>95674</v>
+        <v>25380</v>
       </c>
       <c r="AA87" s="13">
-        <v>28362</v>
+        <v>26199</v>
       </c>
       <c r="AB87" s="13">
-        <v>25380</v>
+        <v>46704</v>
       </c>
       <c r="AC87" s="13">
-        <v>26199</v>
+        <v>50627</v>
       </c>
       <c r="AD87" s="13">
-        <v>46704</v>
+        <v>22594</v>
       </c>
       <c r="AE87" s="13">
-        <v>50627</v>
+        <v>138934</v>
       </c>
       <c r="AF87" s="13">
-        <v>22594</v>
+        <v>34153</v>
       </c>
       <c r="AG87" s="13">
-        <v>138934</v>
+        <v>41723</v>
       </c>
       <c r="AH87" s="13">
-        <v>34153</v>
+        <v>86498</v>
       </c>
       <c r="AI87" s="13">
-        <v>41723</v>
+        <v>144255</v>
       </c>
       <c r="AJ87" s="13">
-        <v>86498</v>
+        <v>89327</v>
       </c>
       <c r="AK87" s="13">
-        <v>144255</v>
+        <v>98615</v>
       </c>
       <c r="AL87" s="13">
-        <v>89327</v>
+        <v>131104</v>
       </c>
       <c r="AM87" s="13">
-        <v>98615</v>
+        <v>139543</v>
       </c>
       <c r="AN87" s="13">
-        <v>131104</v>
+        <v>114893</v>
       </c>
       <c r="AO87" s="13">
-        <v>139543</v>
+        <v>120711</v>
       </c>
       <c r="AP87" s="13">
-        <v>114893</v>
+        <v>115427</v>
       </c>
       <c r="AQ87" s="13">
-        <v>120711</v>
+        <v>272339</v>
       </c>
       <c r="AR87" s="13">
-        <v>115427</v>
+        <v>221316</v>
       </c>
       <c r="AS87" s="13">
-        <v>272339</v>
+        <v>106861</v>
       </c>
       <c r="AT87" s="13">
-        <v>221316</v>
+        <v>69614</v>
       </c>
       <c r="AU87" s="13">
-        <v>106861</v>
+        <v>69078</v>
       </c>
       <c r="AV87" s="13">
-        <v>69614</v>
+        <v>344727</v>
       </c>
       <c r="AW87" s="13">
-        <v>69078</v>
+        <v>165773</v>
       </c>
       <c r="AX87" s="13">
-        <v>344727</v>
+        <v>104155</v>
       </c>
       <c r="AY87" s="13">
-        <v>165773</v>
+        <v>61725</v>
       </c>
       <c r="AZ87" s="13">
-        <v>104155</v>
+        <v>281615</v>
       </c>
       <c r="BA87" s="13">
-        <v>61725</v>
+        <v>188439</v>
       </c>
       <c r="BB87" s="13">
-        <v>281615</v>
+        <v>246788</v>
       </c>
     </row>
-    <row r="88" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B88" s="14" t="s">
         <v>78</v>
       </c>
@@ -12187,103 +12187,103 @@
         <v>0</v>
       </c>
       <c r="W88" s="15">
-        <v>0</v>
+        <v>533484</v>
       </c>
       <c r="X88" s="15">
-        <v>0</v>
+        <v>578142</v>
       </c>
       <c r="Y88" s="15">
-        <v>533484</v>
+        <v>554318</v>
       </c>
       <c r="Z88" s="15">
-        <v>578142</v>
+        <v>495006</v>
       </c>
       <c r="AA88" s="15">
-        <v>554318</v>
+        <v>559068</v>
       </c>
       <c r="AB88" s="15">
-        <v>495006</v>
+        <v>687872</v>
       </c>
       <c r="AC88" s="15">
-        <v>559068</v>
+        <v>710784</v>
       </c>
       <c r="AD88" s="15">
-        <v>687872</v>
+        <v>619761</v>
       </c>
       <c r="AE88" s="15">
-        <v>710784</v>
+        <v>828259</v>
       </c>
       <c r="AF88" s="15">
-        <v>619761</v>
+        <v>645229</v>
       </c>
       <c r="AG88" s="15">
-        <v>828259</v>
+        <v>622413</v>
       </c>
       <c r="AH88" s="15">
-        <v>645229</v>
+        <v>707554</v>
       </c>
       <c r="AI88" s="15">
-        <v>622413</v>
+        <v>813048</v>
       </c>
       <c r="AJ88" s="15">
-        <v>707554</v>
+        <v>727934</v>
       </c>
       <c r="AK88" s="15">
-        <v>813048</v>
+        <v>894186</v>
       </c>
       <c r="AL88" s="15">
-        <v>727934</v>
+        <v>857264</v>
       </c>
       <c r="AM88" s="15">
-        <v>894186</v>
+        <v>921759</v>
       </c>
       <c r="AN88" s="15">
-        <v>857264</v>
+        <v>964458</v>
       </c>
       <c r="AO88" s="15">
-        <v>921759</v>
+        <v>837488</v>
       </c>
       <c r="AP88" s="15">
-        <v>964458</v>
+        <v>747743</v>
       </c>
       <c r="AQ88" s="15">
-        <v>837488</v>
+        <v>1127816</v>
       </c>
       <c r="AR88" s="15">
-        <v>747743</v>
+        <v>1217615</v>
       </c>
       <c r="AS88" s="15">
-        <v>1127816</v>
+        <v>1005633</v>
       </c>
       <c r="AT88" s="15">
-        <v>1217615</v>
+        <v>1320053</v>
       </c>
       <c r="AU88" s="15">
-        <v>1005633</v>
+        <v>1687499</v>
       </c>
       <c r="AV88" s="15">
-        <v>1320053</v>
+        <v>1751834</v>
       </c>
       <c r="AW88" s="15">
-        <v>1687499</v>
+        <v>1597792</v>
       </c>
       <c r="AX88" s="15">
-        <v>1751834</v>
+        <v>1585680</v>
       </c>
       <c r="AY88" s="15">
-        <v>1597792</v>
+        <v>1338288</v>
       </c>
       <c r="AZ88" s="15">
-        <v>1585680</v>
+        <v>1706005</v>
       </c>
       <c r="BA88" s="15">
-        <v>1338288</v>
+        <v>1598877</v>
       </c>
       <c r="BB88" s="15">
-        <v>1706005</v>
+        <v>1798125</v>
       </c>
     </row>
-    <row r="89" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B89" s="8" t="s">
         <v>86</v>
       </c>
@@ -12340,7 +12340,7 @@
       <c r="BA89" s="9"/>
       <c r="BB89" s="9"/>
     </row>
-    <row r="90" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B90" s="10" t="s">
         <v>56</v>
       </c>
@@ -12465,11 +12465,11 @@
       <c r="AQ90" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR90" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS90" s="11" t="s">
-        <v>58</v>
+      <c r="AR90" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS90" s="11">
+        <v>0</v>
       </c>
       <c r="AT90" s="11">
         <v>0</v>
@@ -12499,7 +12499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B91" s="12" t="s">
         <v>59</v>
       </c>
@@ -12588,11 +12588,11 @@
       <c r="AE91" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF91" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG91" s="13" t="s">
-        <v>58</v>
+      <c r="AF91" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG91" s="13">
+        <v>0</v>
       </c>
       <c r="AH91" s="13">
         <v>0</v>
@@ -12649,16 +12649,16 @@
         <v>0</v>
       </c>
       <c r="AZ91" s="13">
-        <v>0</v>
+        <v>3609</v>
       </c>
       <c r="BA91" s="13">
         <v>0</v>
       </c>
       <c r="BB91" s="13">
-        <v>3609</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B92" s="10" t="s">
         <v>60</v>
       </c>
@@ -12720,11 +12720,11 @@
       <c r="V92" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W92" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X92" s="11" t="s">
-        <v>58</v>
+      <c r="W92" s="11">
+        <v>0</v>
+      </c>
+      <c r="X92" s="11">
+        <v>0</v>
       </c>
       <c r="Y92" s="11">
         <v>0</v>
@@ -12747,11 +12747,11 @@
       <c r="AE92" s="11">
         <v>0</v>
       </c>
-      <c r="AF92" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG92" s="11">
-        <v>0</v>
+      <c r="AF92" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG92" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH92" s="11" t="s">
         <v>58</v>
@@ -12780,11 +12780,11 @@
       <c r="AP92" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ92" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR92" s="11" t="s">
-        <v>58</v>
+      <c r="AQ92" s="11">
+        <v>0</v>
+      </c>
+      <c r="AR92" s="11">
+        <v>0</v>
       </c>
       <c r="AS92" s="11">
         <v>0</v>
@@ -12817,7 +12817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B93" s="12" t="s">
         <v>61</v>
       </c>
@@ -12942,11 +12942,11 @@
       <c r="AQ93" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR93" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS93" s="13" t="s">
-        <v>58</v>
+      <c r="AR93" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS93" s="13">
+        <v>0</v>
       </c>
       <c r="AT93" s="13">
         <v>0</v>
@@ -12964,19 +12964,19 @@
         <v>0</v>
       </c>
       <c r="AY93" s="13">
-        <v>0</v>
+        <v>17952</v>
       </c>
       <c r="AZ93" s="13">
         <v>0</v>
       </c>
       <c r="BA93" s="13">
-        <v>17952</v>
+        <v>0</v>
       </c>
       <c r="BB93" s="13">
-        <v>0</v>
+        <v>49800</v>
       </c>
     </row>
-    <row r="94" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B94" s="10" t="s">
         <v>62</v>
       </c>
@@ -13098,14 +13098,14 @@
       <c r="AP94" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ94" s="11" t="s">
-        <v>58</v>
+      <c r="AQ94" s="11">
+        <v>0</v>
       </c>
       <c r="AR94" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS94" s="11">
-        <v>0</v>
+      <c r="AS94" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AT94" s="11" t="s">
         <v>58</v>
@@ -13131,11 +13131,11 @@
       <c r="BA94" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="BB94" s="11" t="s">
-        <v>58</v>
+      <c r="BB94" s="11">
+        <v>1944</v>
       </c>
     </row>
-    <row r="95" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B95" s="12" t="s">
         <v>63</v>
       </c>
@@ -13257,11 +13257,11 @@
       <c r="AP95" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ95" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR95" s="13" t="s">
-        <v>58</v>
+      <c r="AQ95" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR95" s="13">
+        <v>0</v>
       </c>
       <c r="AS95" s="13">
         <v>0</v>
@@ -13294,7 +13294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B96" s="10" t="s">
         <v>64</v>
       </c>
@@ -13437,23 +13437,23 @@
       <c r="AW96" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AX96" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY96" s="11" t="s">
-        <v>58</v>
+      <c r="AX96" s="11">
+        <v>218400</v>
+      </c>
+      <c r="AY96" s="11">
+        <v>235595</v>
       </c>
       <c r="AZ96" s="11">
-        <v>218400</v>
+        <v>144798</v>
       </c>
       <c r="BA96" s="11">
-        <v>235595</v>
+        <v>0</v>
       </c>
       <c r="BB96" s="11">
-        <v>144798</v>
+        <v>147000</v>
       </c>
     </row>
-    <row r="97" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B97" s="12" t="s">
         <v>65</v>
       </c>
@@ -13515,11 +13515,11 @@
       <c r="V97" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W97" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X97" s="13" t="s">
-        <v>58</v>
+      <c r="W97" s="13">
+        <v>0</v>
+      </c>
+      <c r="X97" s="13">
+        <v>0</v>
       </c>
       <c r="Y97" s="13">
         <v>0</v>
@@ -13542,17 +13542,17 @@
       <c r="AE97" s="13">
         <v>0</v>
       </c>
-      <c r="AF97" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG97" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH97" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI97" s="13" t="s">
-        <v>58</v>
+      <c r="AF97" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG97" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH97" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI97" s="13">
+        <v>0</v>
       </c>
       <c r="AJ97" s="13">
         <v>0</v>
@@ -13578,11 +13578,11 @@
       <c r="AQ97" s="13">
         <v>0</v>
       </c>
-      <c r="AR97" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS97" s="13">
-        <v>0</v>
+      <c r="AR97" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS97" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AT97" s="13" t="s">
         <v>58</v>
@@ -13596,23 +13596,23 @@
       <c r="AW97" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AX97" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY97" s="13" t="s">
-        <v>58</v>
+      <c r="AX97" s="13">
+        <v>194625</v>
+      </c>
+      <c r="AY97" s="13">
+        <v>236125</v>
       </c>
       <c r="AZ97" s="13">
-        <v>194625</v>
+        <v>87000</v>
       </c>
       <c r="BA97" s="13">
-        <v>236125</v>
+        <v>87500</v>
       </c>
       <c r="BB97" s="13">
-        <v>87000</v>
+        <v>24140</v>
       </c>
     </row>
-    <row r="98" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B98" s="10" t="s">
         <v>68</v>
       </c>
@@ -13701,11 +13701,11 @@
       <c r="AE98" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF98" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG98" s="11" t="s">
-        <v>58</v>
+      <c r="AF98" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG98" s="11">
+        <v>0</v>
       </c>
       <c r="AH98" s="11">
         <v>0</v>
@@ -13734,11 +13734,11 @@
       <c r="AP98" s="11">
         <v>0</v>
       </c>
-      <c r="AQ98" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR98" s="11">
-        <v>0</v>
+      <c r="AQ98" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR98" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AS98" s="11" t="s">
         <v>58</v>
@@ -13771,7 +13771,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="99" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B99" s="12" t="s">
         <v>69</v>
       </c>
@@ -13860,17 +13860,17 @@
       <c r="AE99" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF99" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG99" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH99" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI99" s="13">
-        <v>0</v>
+      <c r="AF99" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG99" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH99" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI99" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AJ99" s="13" t="s">
         <v>58</v>
@@ -13930,7 +13930,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="100" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B100" s="10" t="s">
         <v>70</v>
       </c>
@@ -14019,11 +14019,11 @@
       <c r="AE100" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF100" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG100" s="11" t="s">
-        <v>58</v>
+      <c r="AF100" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG100" s="11">
+        <v>0</v>
       </c>
       <c r="AH100" s="11">
         <v>0</v>
@@ -14052,11 +14052,11 @@
       <c r="AP100" s="11">
         <v>0</v>
       </c>
-      <c r="AQ100" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR100" s="11">
-        <v>0</v>
+      <c r="AQ100" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR100" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AS100" s="11" t="s">
         <v>58</v>
@@ -14089,7 +14089,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="101" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B101" s="12" t="s">
         <v>71</v>
       </c>
@@ -14178,11 +14178,11 @@
       <c r="AE101" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF101" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG101" s="13" t="s">
-        <v>58</v>
+      <c r="AF101" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG101" s="13">
+        <v>0</v>
       </c>
       <c r="AH101" s="13">
         <v>0</v>
@@ -14211,11 +14211,11 @@
       <c r="AP101" s="13">
         <v>0</v>
       </c>
-      <c r="AQ101" s="13">
-        <v>0</v>
-      </c>
-      <c r="AR101" s="13">
-        <v>0</v>
+      <c r="AQ101" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR101" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AS101" s="13" t="s">
         <v>58</v>
@@ -14248,7 +14248,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="102" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B102" s="14" t="s">
         <v>80</v>
       </c>
@@ -14390,22 +14390,22 @@
         <v>0</v>
       </c>
       <c r="AX102" s="15">
-        <v>0</v>
+        <v>413025</v>
       </c>
       <c r="AY102" s="15">
-        <v>0</v>
+        <v>489672</v>
       </c>
       <c r="AZ102" s="15">
-        <v>413025</v>
+        <v>235407</v>
       </c>
       <c r="BA102" s="15">
-        <v>489672</v>
+        <v>87500</v>
       </c>
       <c r="BB102" s="15">
-        <v>235407</v>
+        <v>222884</v>
       </c>
     </row>
-    <row r="103" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B103" s="8" t="s">
         <v>87</v>
       </c>
@@ -14462,7 +14462,7 @@
       <c r="BA103" s="9"/>
       <c r="BB103" s="9"/>
     </row>
-    <row r="104" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B104" s="10" t="s">
         <v>59</v>
       </c>
@@ -14551,11 +14551,11 @@
       <c r="AE104" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF104" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG104" s="11" t="s">
-        <v>58</v>
+      <c r="AF104" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG104" s="11">
+        <v>0</v>
       </c>
       <c r="AH104" s="11">
         <v>0</v>
@@ -14621,7 +14621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B105" s="16" t="s">
         <v>74</v>
       </c>
@@ -14683,11 +14683,11 @@
       <c r="V105" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="W105" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="X105" s="17" t="s">
-        <v>58</v>
+      <c r="W105" s="17">
+        <v>0</v>
+      </c>
+      <c r="X105" s="17">
+        <v>0</v>
       </c>
       <c r="Y105" s="17">
         <v>0</v>
@@ -14780,7 +14780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B106" s="8" t="s">
         <v>88</v>
       </c>
@@ -14837,7 +14837,7 @@
       <c r="BA106" s="9"/>
       <c r="BB106" s="9"/>
     </row>
-    <row r="107" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B107" s="10" t="s">
         <v>59</v>
       </c>
@@ -14962,11 +14962,11 @@
       <c r="AQ107" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR107" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS107" s="11" t="s">
-        <v>58</v>
+      <c r="AR107" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS107" s="11">
+        <v>0</v>
       </c>
       <c r="AT107" s="11">
         <v>0</v>
@@ -14996,7 +14996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B108" s="16" t="s">
         <v>82</v>
       </c>
@@ -15058,11 +15058,11 @@
       <c r="V108" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="W108" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="X108" s="17" t="s">
-        <v>58</v>
+      <c r="W108" s="17">
+        <v>0</v>
+      </c>
+      <c r="X108" s="17">
+        <v>0</v>
       </c>
       <c r="Y108" s="17">
         <v>0</v>
@@ -15155,7 +15155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B109" s="8" t="s">
         <v>89</v>
       </c>
@@ -15212,7 +15212,7 @@
       <c r="BA109" s="9"/>
       <c r="BB109" s="9"/>
     </row>
-    <row r="110" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B110" s="10" t="s">
         <v>90</v>
       </c>
@@ -15274,11 +15274,11 @@
       <c r="V110" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W110" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X110" s="11" t="s">
-        <v>58</v>
+      <c r="W110" s="11">
+        <v>0</v>
+      </c>
+      <c r="X110" s="11">
+        <v>0</v>
       </c>
       <c r="Y110" s="11">
         <v>0</v>
@@ -15371,7 +15371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B111" s="16" t="s">
         <v>75</v>
       </c>
@@ -15432,103 +15432,103 @@
         <v>0</v>
       </c>
       <c r="W111" s="17">
-        <v>0</v>
+        <v>533484</v>
       </c>
       <c r="X111" s="17">
-        <v>0</v>
+        <v>578142</v>
       </c>
       <c r="Y111" s="17">
-        <v>533484</v>
+        <v>554318</v>
       </c>
       <c r="Z111" s="17">
-        <v>578142</v>
+        <v>495006</v>
       </c>
       <c r="AA111" s="17">
-        <v>554318</v>
+        <v>559068</v>
       </c>
       <c r="AB111" s="17">
-        <v>495006</v>
+        <v>687872</v>
       </c>
       <c r="AC111" s="17">
-        <v>559068</v>
+        <v>710784</v>
       </c>
       <c r="AD111" s="17">
-        <v>687872</v>
+        <v>619761</v>
       </c>
       <c r="AE111" s="17">
-        <v>710784</v>
+        <v>828259</v>
       </c>
       <c r="AF111" s="17">
-        <v>619761</v>
+        <v>645229</v>
       </c>
       <c r="AG111" s="17">
-        <v>828259</v>
+        <v>622413</v>
       </c>
       <c r="AH111" s="17">
-        <v>645229</v>
+        <v>707554</v>
       </c>
       <c r="AI111" s="17">
-        <v>622413</v>
+        <v>813048</v>
       </c>
       <c r="AJ111" s="17">
-        <v>707554</v>
+        <v>727934</v>
       </c>
       <c r="AK111" s="17">
-        <v>813048</v>
+        <v>894186</v>
       </c>
       <c r="AL111" s="17">
-        <v>727934</v>
+        <v>857264</v>
       </c>
       <c r="AM111" s="17">
-        <v>894186</v>
+        <v>921759</v>
       </c>
       <c r="AN111" s="17">
-        <v>857264</v>
+        <v>964458</v>
       </c>
       <c r="AO111" s="17">
-        <v>921759</v>
+        <v>837488</v>
       </c>
       <c r="AP111" s="17">
-        <v>964458</v>
+        <v>747743</v>
       </c>
       <c r="AQ111" s="17">
-        <v>837488</v>
+        <v>1127816</v>
       </c>
       <c r="AR111" s="17">
-        <v>747743</v>
+        <v>1217615</v>
       </c>
       <c r="AS111" s="17">
-        <v>1127816</v>
+        <v>1005633</v>
       </c>
       <c r="AT111" s="17">
-        <v>1217615</v>
+        <v>1320053</v>
       </c>
       <c r="AU111" s="17">
-        <v>1005633</v>
+        <v>1687499</v>
       </c>
       <c r="AV111" s="17">
-        <v>1320053</v>
+        <v>1751834</v>
       </c>
       <c r="AW111" s="17">
-        <v>1687499</v>
+        <v>1597792</v>
       </c>
       <c r="AX111" s="17">
-        <v>1751834</v>
+        <v>1998705</v>
       </c>
       <c r="AY111" s="17">
-        <v>1597792</v>
+        <v>1827960</v>
       </c>
       <c r="AZ111" s="17">
-        <v>1998705</v>
+        <v>1941412</v>
       </c>
       <c r="BA111" s="17">
-        <v>1827960</v>
+        <v>1686377</v>
       </c>
       <c r="BB111" s="17">
-        <v>1941412</v>
+        <v>2021009</v>
       </c>
     </row>
-    <row r="112" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -15583,7 +15583,7 @@
       <c r="BA112" s="1"/>
       <c r="BB112" s="1"/>
     </row>
-    <row r="113" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -15638,7 +15638,7 @@
       <c r="BA113" s="1"/>
       <c r="BB113" s="1"/>
     </row>
-    <row r="114" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -15693,7 +15693,7 @@
       <c r="BA114" s="1"/>
       <c r="BB114" s="1"/>
     </row>
-    <row r="115" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B115" s="7" t="s">
         <v>91</v>
       </c>
@@ -15850,7 +15850,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="116" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -15905,7 +15905,7 @@
       <c r="BA116" s="1"/>
       <c r="BB116" s="1"/>
     </row>
-    <row r="117" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B117" s="8" t="s">
         <v>92</v>
       </c>
@@ -15962,7 +15962,7 @@
       <c r="BA117" s="9"/>
       <c r="BB117" s="9"/>
     </row>
-    <row r="118" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B118" s="10" t="s">
         <v>56</v>
       </c>
@@ -16024,104 +16024,104 @@
       <c r="V118" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W118" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X118" s="11" t="s">
-        <v>58</v>
+      <c r="W118" s="11">
+        <v>33755440</v>
+      </c>
+      <c r="X118" s="11">
+        <v>35165579</v>
       </c>
       <c r="Y118" s="11">
-        <v>33755440</v>
+        <v>35281086</v>
       </c>
       <c r="Z118" s="11">
-        <v>35165579</v>
+        <v>34426600</v>
       </c>
       <c r="AA118" s="11">
-        <v>35281086</v>
+        <v>36081191</v>
       </c>
       <c r="AB118" s="11">
-        <v>34426600</v>
+        <v>41634278</v>
       </c>
       <c r="AC118" s="11">
-        <v>36081191</v>
+        <v>45865885</v>
       </c>
       <c r="AD118" s="11">
-        <v>41634278</v>
+        <v>43721120</v>
       </c>
       <c r="AE118" s="11">
-        <v>45865885</v>
+        <v>42080285</v>
       </c>
       <c r="AF118" s="11">
-        <v>43721120</v>
+        <v>42783912</v>
       </c>
       <c r="AG118" s="11">
-        <v>42080285</v>
+        <v>46548708</v>
       </c>
       <c r="AH118" s="11">
-        <v>42783912</v>
+        <v>51704396</v>
       </c>
       <c r="AI118" s="11">
-        <v>46548708</v>
+        <v>61650391</v>
       </c>
       <c r="AJ118" s="11">
-        <v>51704396</v>
+        <v>56627034</v>
       </c>
       <c r="AK118" s="11">
-        <v>61650391</v>
+        <v>65842569</v>
       </c>
       <c r="AL118" s="11">
-        <v>56627034</v>
+        <v>62139731</v>
       </c>
       <c r="AM118" s="11">
-        <v>65842569</v>
+        <v>64436155</v>
       </c>
       <c r="AN118" s="11">
-        <v>62139731</v>
+        <v>65715054</v>
       </c>
       <c r="AO118" s="11">
-        <v>64436155</v>
+        <v>66624791</v>
       </c>
       <c r="AP118" s="11">
-        <v>65715054</v>
+        <v>66735043</v>
       </c>
       <c r="AQ118" s="11">
-        <v>66624791</v>
+        <v>66392593</v>
       </c>
       <c r="AR118" s="11">
-        <v>66735043</v>
+        <v>68327497</v>
       </c>
       <c r="AS118" s="11">
-        <v>66392593</v>
+        <v>73707883</v>
       </c>
       <c r="AT118" s="11">
-        <v>68327497</v>
+        <v>107613014</v>
       </c>
       <c r="AU118" s="11">
-        <v>73707883</v>
+        <v>104074278</v>
       </c>
       <c r="AV118" s="11">
-        <v>107613014</v>
+        <v>105021429</v>
       </c>
       <c r="AW118" s="11">
-        <v>104074278</v>
+        <v>103969072</v>
       </c>
       <c r="AX118" s="11">
-        <v>105021429</v>
+        <v>103298622</v>
       </c>
       <c r="AY118" s="11">
-        <v>103969072</v>
+        <v>103593354</v>
       </c>
       <c r="AZ118" s="11">
-        <v>103298622</v>
+        <v>105431818</v>
       </c>
       <c r="BA118" s="11">
-        <v>103593354</v>
+        <v>100747899</v>
       </c>
       <c r="BB118" s="11">
-        <v>105431818</v>
+        <v>102637961</v>
       </c>
     </row>
-    <row r="119" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B119" s="12" t="s">
         <v>59</v>
       </c>
@@ -16183,104 +16183,104 @@
       <c r="V119" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W119" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X119" s="13" t="s">
-        <v>58</v>
+      <c r="W119" s="13">
+        <v>141947368</v>
+      </c>
+      <c r="X119" s="13">
+        <v>149833333</v>
       </c>
       <c r="Y119" s="13">
-        <v>141947368</v>
+        <v>148875000</v>
       </c>
       <c r="Z119" s="13">
-        <v>149833333</v>
+        <v>138458333</v>
       </c>
       <c r="AA119" s="13">
-        <v>148875000</v>
+        <v>189571429</v>
       </c>
       <c r="AB119" s="13">
-        <v>138458333</v>
+        <v>147483871</v>
       </c>
       <c r="AC119" s="13">
-        <v>189571429</v>
+        <v>168085714</v>
       </c>
       <c r="AD119" s="13">
-        <v>147483871</v>
+        <v>145185185</v>
       </c>
       <c r="AE119" s="13">
-        <v>168085714</v>
+        <v>5851852</v>
       </c>
       <c r="AF119" s="13">
-        <v>145185185</v>
+        <v>174884615</v>
       </c>
       <c r="AG119" s="13">
-        <v>5851852</v>
+        <v>89600000</v>
       </c>
       <c r="AH119" s="13">
-        <v>174884615</v>
+        <v>164601626</v>
       </c>
       <c r="AI119" s="13">
-        <v>89600000</v>
+        <v>408615385</v>
       </c>
       <c r="AJ119" s="13">
-        <v>164601626</v>
+        <v>238600000</v>
       </c>
       <c r="AK119" s="13">
-        <v>408615385</v>
+        <v>239000000</v>
       </c>
       <c r="AL119" s="13">
-        <v>238600000</v>
+        <v>240620690</v>
       </c>
       <c r="AM119" s="13">
-        <v>239000000</v>
+        <v>248800000</v>
       </c>
       <c r="AN119" s="13">
-        <v>240620690</v>
+        <v>247272727</v>
       </c>
       <c r="AO119" s="13">
-        <v>248800000</v>
+        <v>216142857</v>
       </c>
       <c r="AP119" s="13">
-        <v>247272727</v>
+        <v>258000000</v>
       </c>
       <c r="AQ119" s="13">
-        <v>216142857</v>
+        <v>269227273</v>
       </c>
       <c r="AR119" s="13">
         <v>258000000</v>
       </c>
       <c r="AS119" s="13">
-        <v>269227273</v>
+        <v>284333333</v>
       </c>
       <c r="AT119" s="13">
-        <v>258000000</v>
+        <v>479578947</v>
       </c>
       <c r="AU119" s="13">
-        <v>284333333</v>
+        <v>407928571</v>
       </c>
       <c r="AV119" s="13">
-        <v>479578947</v>
+        <v>438055556</v>
       </c>
       <c r="AW119" s="13">
-        <v>407928571</v>
+        <v>418388889</v>
       </c>
       <c r="AX119" s="13">
-        <v>438055556</v>
+        <v>432315789</v>
       </c>
       <c r="AY119" s="13">
-        <v>418388889</v>
+        <v>401500000</v>
       </c>
       <c r="AZ119" s="13">
-        <v>432315789</v>
+        <v>429111111</v>
       </c>
       <c r="BA119" s="13">
-        <v>401500000</v>
+        <v>413750000</v>
       </c>
       <c r="BB119" s="13">
-        <v>429111111</v>
+        <v>423227273</v>
       </c>
     </row>
-    <row r="120" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B120" s="10" t="s">
         <v>60</v>
       </c>
@@ -16342,104 +16342,104 @@
       <c r="V120" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W120" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X120" s="11" t="s">
-        <v>58</v>
+      <c r="W120" s="11">
+        <v>53063561</v>
+      </c>
+      <c r="X120" s="11">
+        <v>59568927</v>
       </c>
       <c r="Y120" s="11">
-        <v>53063561</v>
+        <v>65815873</v>
       </c>
       <c r="Z120" s="11">
-        <v>59568927</v>
+        <v>60888607</v>
       </c>
       <c r="AA120" s="11">
-        <v>65815873</v>
+        <v>50857495</v>
       </c>
       <c r="AB120" s="11">
-        <v>60888607</v>
+        <v>74549539</v>
       </c>
       <c r="AC120" s="11">
-        <v>50857495</v>
+        <v>90195594</v>
       </c>
       <c r="AD120" s="11">
-        <v>74549539</v>
+        <v>64919874</v>
       </c>
       <c r="AE120" s="11">
-        <v>90195594</v>
+        <v>95050987</v>
       </c>
       <c r="AF120" s="11">
-        <v>64919874</v>
+        <v>64714924</v>
       </c>
       <c r="AG120" s="11">
-        <v>95050987</v>
+        <v>70604968</v>
       </c>
       <c r="AH120" s="11">
-        <v>64714924</v>
+        <v>77293111</v>
       </c>
       <c r="AI120" s="11">
-        <v>70604968</v>
+        <v>75920788</v>
       </c>
       <c r="AJ120" s="11">
-        <v>77293111</v>
+        <v>91633617</v>
       </c>
       <c r="AK120" s="11">
-        <v>75920788</v>
+        <v>97709771</v>
       </c>
       <c r="AL120" s="11">
-        <v>91633617</v>
+        <v>111308772</v>
       </c>
       <c r="AM120" s="11">
-        <v>97709771</v>
+        <v>113229381</v>
       </c>
       <c r="AN120" s="11">
-        <v>111308772</v>
+        <v>129085315</v>
       </c>
       <c r="AO120" s="11">
-        <v>113229381</v>
+        <v>104000384</v>
       </c>
       <c r="AP120" s="11">
-        <v>129085315</v>
+        <v>102190062</v>
       </c>
       <c r="AQ120" s="11">
-        <v>104000384</v>
+        <v>105731457</v>
       </c>
       <c r="AR120" s="11">
-        <v>102190062</v>
+        <v>108267001</v>
       </c>
       <c r="AS120" s="11">
-        <v>105731457</v>
+        <v>128917782</v>
       </c>
       <c r="AT120" s="11">
-        <v>108267001</v>
+        <v>188527792</v>
       </c>
       <c r="AU120" s="11">
-        <v>128917782</v>
+        <v>194350760</v>
       </c>
       <c r="AV120" s="11">
-        <v>188527792</v>
+        <v>193125000</v>
       </c>
       <c r="AW120" s="11">
-        <v>194350760</v>
+        <v>186233459</v>
       </c>
       <c r="AX120" s="11">
-        <v>193125000</v>
+        <v>184404733</v>
       </c>
       <c r="AY120" s="11">
-        <v>186233459</v>
+        <v>191734627</v>
       </c>
       <c r="AZ120" s="11">
-        <v>184404733</v>
+        <v>187263649</v>
       </c>
       <c r="BA120" s="11">
-        <v>191734627</v>
+        <v>185024313</v>
       </c>
       <c r="BB120" s="11">
-        <v>187263649</v>
+        <v>188954998</v>
       </c>
     </row>
-    <row r="121" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B121" s="12" t="s">
         <v>61</v>
       </c>
@@ -16501,104 +16501,104 @@
       <c r="V121" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W121" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X121" s="13" t="s">
-        <v>58</v>
+      <c r="W121" s="13">
+        <v>239949807</v>
+      </c>
+      <c r="X121" s="13">
+        <v>276351779</v>
       </c>
       <c r="Y121" s="13">
-        <v>239949807</v>
+        <v>307416393</v>
       </c>
       <c r="Z121" s="13">
-        <v>276351779</v>
+        <v>284904918</v>
       </c>
       <c r="AA121" s="13">
-        <v>307416393</v>
+        <v>279312821</v>
       </c>
       <c r="AB121" s="13">
-        <v>284904918</v>
+        <v>295318786</v>
       </c>
       <c r="AC121" s="13">
-        <v>279312821</v>
+        <v>335889807</v>
       </c>
       <c r="AD121" s="13">
-        <v>295318786</v>
+        <v>283402913</v>
       </c>
       <c r="AE121" s="13">
-        <v>335889807</v>
+        <v>301286195</v>
       </c>
       <c r="AF121" s="13">
-        <v>283402913</v>
+        <v>265308197</v>
       </c>
       <c r="AG121" s="13">
-        <v>301286195</v>
+        <v>330550802</v>
       </c>
       <c r="AH121" s="13">
-        <v>265308197</v>
+        <v>305844156</v>
       </c>
       <c r="AI121" s="13">
-        <v>330550802</v>
+        <v>485076923</v>
       </c>
       <c r="AJ121" s="13">
-        <v>305844156</v>
+        <v>377195804</v>
       </c>
       <c r="AK121" s="13">
-        <v>485076923</v>
+        <v>449382353</v>
       </c>
       <c r="AL121" s="13">
-        <v>377195804</v>
+        <v>425980296</v>
       </c>
       <c r="AM121" s="13">
-        <v>449382353</v>
+        <v>427589744</v>
       </c>
       <c r="AN121" s="13">
-        <v>425980296</v>
+        <v>459686869</v>
       </c>
       <c r="AO121" s="13">
-        <v>427589744</v>
+        <v>388238806</v>
       </c>
       <c r="AP121" s="13">
-        <v>459686869</v>
+        <v>352109195</v>
       </c>
       <c r="AQ121" s="13">
-        <v>388238806</v>
+        <v>352892694</v>
       </c>
       <c r="AR121" s="13">
-        <v>352109195</v>
+        <v>318300532</v>
       </c>
       <c r="AS121" s="13">
-        <v>352892694</v>
+        <v>449018868</v>
       </c>
       <c r="AT121" s="13">
-        <v>318300532</v>
+        <v>570477876</v>
       </c>
       <c r="AU121" s="13">
-        <v>449018868</v>
+        <v>577307368</v>
       </c>
       <c r="AV121" s="13">
-        <v>570477876</v>
+        <v>637544892</v>
       </c>
       <c r="AW121" s="13">
-        <v>577307368</v>
+        <v>623479532</v>
       </c>
       <c r="AX121" s="13">
-        <v>637544892</v>
+        <v>578454106</v>
       </c>
       <c r="AY121" s="13">
-        <v>623479532</v>
+        <v>671105263</v>
       </c>
       <c r="AZ121" s="13">
-        <v>578454106</v>
+        <v>607774096</v>
       </c>
       <c r="BA121" s="13">
-        <v>671105263</v>
+        <v>699205333</v>
       </c>
       <c r="BB121" s="13">
-        <v>607774096</v>
+        <v>682391198</v>
       </c>
     </row>
-    <row r="122" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B122" s="10" t="s">
         <v>62</v>
       </c>
@@ -16660,104 +16660,104 @@
       <c r="V122" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W122" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X122" s="11" t="s">
-        <v>58</v>
+      <c r="W122" s="11">
+        <v>54199201</v>
+      </c>
+      <c r="X122" s="11">
+        <v>57214837</v>
       </c>
       <c r="Y122" s="11">
-        <v>54199201</v>
+        <v>57534898</v>
       </c>
       <c r="Z122" s="11">
-        <v>57214837</v>
+        <v>58935460</v>
       </c>
       <c r="AA122" s="11">
-        <v>57534898</v>
+        <v>59861852</v>
       </c>
       <c r="AB122" s="11">
-        <v>58935460</v>
+        <v>71651362</v>
       </c>
       <c r="AC122" s="11">
-        <v>59861852</v>
+        <v>74243846</v>
       </c>
       <c r="AD122" s="11">
-        <v>71651362</v>
+        <v>72563941</v>
       </c>
       <c r="AE122" s="11">
-        <v>74243846</v>
+        <v>70743558</v>
       </c>
       <c r="AF122" s="11">
-        <v>72563941</v>
+        <v>73114883</v>
       </c>
       <c r="AG122" s="11">
-        <v>70743558</v>
+        <v>78048077</v>
       </c>
       <c r="AH122" s="11">
-        <v>73114883</v>
+        <v>82014369</v>
       </c>
       <c r="AI122" s="11">
-        <v>78048077</v>
+        <v>90746361</v>
       </c>
       <c r="AJ122" s="11">
-        <v>82014369</v>
+        <v>106330496</v>
       </c>
       <c r="AK122" s="11">
-        <v>90746361</v>
+        <v>125056338</v>
       </c>
       <c r="AL122" s="11">
-        <v>106330496</v>
+        <v>125886459</v>
       </c>
       <c r="AM122" s="11">
-        <v>125056338</v>
+        <v>126448307</v>
       </c>
       <c r="AN122" s="11">
-        <v>125886459</v>
+        <v>125463557</v>
       </c>
       <c r="AO122" s="11">
-        <v>126448307</v>
+        <v>126464575</v>
       </c>
       <c r="AP122" s="11">
-        <v>125463557</v>
+        <v>127726076</v>
       </c>
       <c r="AQ122" s="11">
-        <v>126464575</v>
+        <v>128826312</v>
       </c>
       <c r="AR122" s="11">
-        <v>127726076</v>
+        <v>130752831</v>
       </c>
       <c r="AS122" s="11">
-        <v>128826312</v>
+        <v>146174578</v>
       </c>
       <c r="AT122" s="11">
-        <v>130752831</v>
+        <v>233708649</v>
       </c>
       <c r="AU122" s="11">
-        <v>146174578</v>
+        <v>220963993</v>
       </c>
       <c r="AV122" s="11">
-        <v>233708649</v>
+        <v>229164225</v>
       </c>
       <c r="AW122" s="11">
-        <v>220963993</v>
+        <v>228279279</v>
       </c>
       <c r="AX122" s="11">
-        <v>229164225</v>
+        <v>225801980</v>
       </c>
       <c r="AY122" s="11">
-        <v>228279279</v>
+        <v>225681704</v>
       </c>
       <c r="AZ122" s="11">
-        <v>225801980</v>
+        <v>221172377</v>
       </c>
       <c r="BA122" s="11">
-        <v>225681704</v>
+        <v>222820459</v>
       </c>
       <c r="BB122" s="11">
-        <v>221172377</v>
+        <v>222896027</v>
       </c>
     </row>
-    <row r="123" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B123" s="12" t="s">
         <v>63</v>
       </c>
@@ -16819,104 +16819,104 @@
       <c r="V123" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W123" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X123" s="13" t="s">
-        <v>58</v>
+      <c r="W123" s="13">
+        <v>213037767</v>
+      </c>
+      <c r="X123" s="13">
+        <v>244129213</v>
       </c>
       <c r="Y123" s="13">
-        <v>213037767</v>
+        <v>235359127</v>
       </c>
       <c r="Z123" s="13">
-        <v>244129213</v>
+        <v>240651316</v>
       </c>
       <c r="AA123" s="13">
-        <v>235359127</v>
+        <v>256370270</v>
       </c>
       <c r="AB123" s="13">
-        <v>240651316</v>
+        <v>324086592</v>
       </c>
       <c r="AC123" s="13">
-        <v>256370270</v>
+        <v>367748756</v>
       </c>
       <c r="AD123" s="13">
-        <v>324086592</v>
+        <v>314190709</v>
       </c>
       <c r="AE123" s="13">
-        <v>367748756</v>
+        <v>244446502</v>
       </c>
       <c r="AF123" s="13">
-        <v>314190709</v>
+        <v>312702461</v>
       </c>
       <c r="AG123" s="13">
-        <v>244446502</v>
+        <v>310982222</v>
       </c>
       <c r="AH123" s="13">
-        <v>312702461</v>
+        <v>336904762</v>
       </c>
       <c r="AI123" s="13">
-        <v>310982222</v>
+        <v>363941300</v>
       </c>
       <c r="AJ123" s="13">
-        <v>336904762</v>
+        <v>392983740</v>
       </c>
       <c r="AK123" s="13">
-        <v>363941300</v>
+        <v>439224215</v>
       </c>
       <c r="AL123" s="13">
-        <v>392983740</v>
+        <v>438233766</v>
       </c>
       <c r="AM123" s="13">
-        <v>439224215</v>
+        <v>438021127</v>
       </c>
       <c r="AN123" s="13">
-        <v>438233766</v>
+        <v>445236074</v>
       </c>
       <c r="AO123" s="13">
-        <v>438021127</v>
+        <v>442723404</v>
       </c>
       <c r="AP123" s="13">
-        <v>445236074</v>
+        <v>433155709</v>
       </c>
       <c r="AQ123" s="13">
-        <v>442723404</v>
+        <v>434435000</v>
       </c>
       <c r="AR123" s="13">
-        <v>433155709</v>
+        <v>431183183</v>
       </c>
       <c r="AS123" s="13">
-        <v>434435000</v>
+        <v>525421836</v>
       </c>
       <c r="AT123" s="13">
-        <v>431183183</v>
+        <v>845985955</v>
       </c>
       <c r="AU123" s="13">
-        <v>525421836</v>
+        <v>772048780</v>
       </c>
       <c r="AV123" s="13">
-        <v>845985955</v>
+        <v>811513021</v>
       </c>
       <c r="AW123" s="13">
-        <v>772048780</v>
+        <v>790508242</v>
       </c>
       <c r="AX123" s="13">
-        <v>811513021</v>
+        <v>805781065</v>
       </c>
       <c r="AY123" s="13">
-        <v>790508242</v>
+        <v>758554217</v>
       </c>
       <c r="AZ123" s="13">
-        <v>805781065</v>
+        <v>771862963</v>
       </c>
       <c r="BA123" s="13">
-        <v>758554217</v>
+        <v>729557769</v>
       </c>
       <c r="BB123" s="13">
-        <v>771862963</v>
+        <v>726483871</v>
       </c>
     </row>
-    <row r="124" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B124" s="10" t="s">
         <v>64</v>
       </c>
@@ -16978,104 +16978,104 @@
       <c r="V124" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W124" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X124" s="11" t="s">
-        <v>58</v>
+      <c r="W124" s="11">
+        <v>344106383</v>
+      </c>
+      <c r="X124" s="11">
+        <v>356111111</v>
       </c>
       <c r="Y124" s="11">
-        <v>344106383</v>
+        <v>469194030</v>
       </c>
       <c r="Z124" s="11">
-        <v>356111111</v>
+        <v>631140000</v>
       </c>
       <c r="AA124" s="11">
-        <v>469194030</v>
+        <v>630896552</v>
       </c>
       <c r="AB124" s="11">
-        <v>631140000</v>
+        <v>676686747</v>
       </c>
       <c r="AC124" s="11">
-        <v>630896552</v>
+        <v>636833333</v>
       </c>
       <c r="AD124" s="11">
-        <v>676686747</v>
+        <v>681677419</v>
       </c>
       <c r="AE124" s="11">
-        <v>636833333</v>
+        <v>742846154</v>
       </c>
       <c r="AF124" s="11">
-        <v>681677419</v>
+        <v>679923077</v>
       </c>
       <c r="AG124" s="11">
-        <v>742846154</v>
+        <v>724500000</v>
       </c>
       <c r="AH124" s="11">
-        <v>679923077</v>
+        <v>778272727</v>
       </c>
       <c r="AI124" s="11">
-        <v>724500000</v>
+        <v>913352941</v>
       </c>
       <c r="AJ124" s="11">
-        <v>778272727</v>
+        <v>671088235</v>
       </c>
       <c r="AK124" s="11">
-        <v>913352941</v>
+        <v>755647887</v>
       </c>
       <c r="AL124" s="11">
-        <v>671088235</v>
+        <v>787133333</v>
       </c>
       <c r="AM124" s="11">
-        <v>755647887</v>
+        <v>867810811</v>
       </c>
       <c r="AN124" s="11">
-        <v>787133333</v>
+        <v>867206897</v>
       </c>
       <c r="AO124" s="11">
-        <v>867810811</v>
+        <v>829294118</v>
       </c>
       <c r="AP124" s="11">
-        <v>867206897</v>
+        <v>820000000</v>
       </c>
       <c r="AQ124" s="11">
-        <v>829294118</v>
+        <v>779392857</v>
       </c>
       <c r="AR124" s="11">
-        <v>820000000</v>
+        <v>711643963</v>
       </c>
       <c r="AS124" s="11">
-        <v>779392857</v>
+        <v>779265734</v>
       </c>
       <c r="AT124" s="11">
-        <v>711643963</v>
+        <v>1307600000</v>
       </c>
       <c r="AU124" s="11">
-        <v>779265734</v>
+        <v>1347876106</v>
       </c>
       <c r="AV124" s="11">
-        <v>1307600000</v>
+        <v>1644461538</v>
       </c>
       <c r="AW124" s="11">
-        <v>1347876106</v>
+        <v>1491526316</v>
       </c>
       <c r="AX124" s="11">
-        <v>1644461538</v>
+        <v>1411046154</v>
       </c>
       <c r="AY124" s="11">
-        <v>1491526316</v>
+        <v>1776911111</v>
       </c>
       <c r="AZ124" s="11">
-        <v>1411046154</v>
+        <v>1378714286</v>
       </c>
       <c r="BA124" s="11">
-        <v>1776911111</v>
+        <v>1479775701</v>
       </c>
       <c r="BB124" s="11">
-        <v>1378714286</v>
+        <v>1505300000</v>
       </c>
     </row>
-    <row r="125" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B125" s="12" t="s">
         <v>65</v>
       </c>
@@ -17137,104 +17137,104 @@
       <c r="V125" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W125" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X125" s="13" t="s">
-        <v>58</v>
+      <c r="W125" s="13">
+        <v>254159091</v>
+      </c>
+      <c r="X125" s="13">
+        <v>272575499</v>
       </c>
       <c r="Y125" s="13">
-        <v>254159091</v>
+        <v>242410256</v>
       </c>
       <c r="Z125" s="13">
-        <v>272575499</v>
+        <v>173835616</v>
       </c>
       <c r="AA125" s="13">
-        <v>242410256</v>
+        <v>177020270</v>
       </c>
       <c r="AB125" s="13">
-        <v>173835616</v>
+        <v>205744493</v>
       </c>
       <c r="AC125" s="13">
-        <v>177020270</v>
+        <v>269292553</v>
       </c>
       <c r="AD125" s="13">
-        <v>205744493</v>
+        <v>151637584</v>
       </c>
       <c r="AE125" s="13">
-        <v>269292553</v>
+        <v>317926773</v>
       </c>
       <c r="AF125" s="13">
-        <v>151637584</v>
+        <v>138271255</v>
       </c>
       <c r="AG125" s="13">
-        <v>317926773</v>
+        <v>200591346</v>
       </c>
       <c r="AH125" s="13">
-        <v>138271255</v>
+        <v>233778378</v>
       </c>
       <c r="AI125" s="13">
-        <v>200591346</v>
+        <v>357066832</v>
       </c>
       <c r="AJ125" s="13">
-        <v>233778378</v>
+        <v>519343023</v>
       </c>
       <c r="AK125" s="13">
-        <v>357066832</v>
+        <v>425064655</v>
       </c>
       <c r="AL125" s="13">
-        <v>519343023</v>
+        <v>480234432</v>
       </c>
       <c r="AM125" s="13">
-        <v>425064655</v>
+        <v>489624561</v>
       </c>
       <c r="AN125" s="13">
-        <v>480234432</v>
+        <v>614401070</v>
       </c>
       <c r="AO125" s="13">
-        <v>489624561</v>
+        <v>659622951</v>
       </c>
       <c r="AP125" s="13">
-        <v>614401070</v>
+        <v>580035176</v>
       </c>
       <c r="AQ125" s="13">
-        <v>659622951</v>
+        <v>556930470</v>
       </c>
       <c r="AR125" s="13">
-        <v>580035176</v>
+        <v>594935484</v>
       </c>
       <c r="AS125" s="13">
-        <v>556930470</v>
+        <v>752542254</v>
       </c>
       <c r="AT125" s="13">
-        <v>594935484</v>
+        <v>980478873</v>
       </c>
       <c r="AU125" s="13">
-        <v>752542254</v>
+        <v>1233535714</v>
       </c>
       <c r="AV125" s="13">
-        <v>980478873</v>
+        <v>706407787</v>
       </c>
       <c r="AW125" s="13">
-        <v>1233535714</v>
+        <v>963796512</v>
       </c>
       <c r="AX125" s="13">
-        <v>706407787</v>
+        <v>807403101</v>
       </c>
       <c r="AY125" s="13">
-        <v>963796512</v>
+        <v>995564516</v>
       </c>
       <c r="AZ125" s="13">
-        <v>807403101</v>
+        <v>894015873</v>
       </c>
       <c r="BA125" s="13">
-        <v>995564516</v>
+        <v>942195000</v>
       </c>
       <c r="BB125" s="13">
-        <v>894015873</v>
+        <v>1059175966</v>
       </c>
     </row>
-    <row r="126" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B126" s="8" t="s">
         <v>94</v>
       </c>
@@ -17291,7 +17291,7 @@
       <c r="BA126" s="9"/>
       <c r="BB126" s="9"/>
     </row>
-    <row r="127" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B127" s="10" t="s">
         <v>59</v>
       </c>
@@ -17440,17 +17440,17 @@
       <c r="AY127" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AZ127" s="11" t="s">
-        <v>58</v>
+      <c r="AZ127" s="11">
+        <v>1804500000</v>
       </c>
       <c r="BA127" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="BB127" s="11">
-        <v>1804500000</v>
+      <c r="BB127" s="11" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="128" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B128" s="12" t="s">
         <v>60</v>
       </c>
@@ -17609,7 +17609,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="129" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B129" s="10" t="s">
         <v>61</v>
       </c>
@@ -17755,22 +17755,22 @@
       <c r="AX129" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AY129" s="11" t="s">
-        <v>58</v>
+      <c r="AY129" s="11">
+        <v>944842105</v>
       </c>
       <c r="AZ129" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="BA129" s="11">
-        <v>944842105</v>
-      </c>
-      <c r="BB129" s="11" t="s">
-        <v>58</v>
+      <c r="BA129" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB129" s="11">
+        <v>415000000</v>
       </c>
     </row>
-    <row r="130" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B130" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C130" s="13" t="s">
         <v>93</v>
@@ -17917,19 +17917,19 @@
       <c r="AY130" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AZ130" s="13">
-        <v>1365000000</v>
-      </c>
-      <c r="BA130" s="13">
-        <v>1369738372</v>
+      <c r="AZ130" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA130" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="BB130" s="13">
-        <v>1447980000</v>
+        <v>277714286</v>
       </c>
     </row>
-    <row r="131" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B131" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C131" s="11" t="s">
         <v>93</v>
@@ -18070,235 +18070,394 @@
       <c r="AW131" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AX131" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY131" s="11" t="s">
-        <v>58</v>
+      <c r="AX131" s="11">
+        <v>1365000000</v>
+      </c>
+      <c r="AY131" s="11">
+        <v>1369738372</v>
       </c>
       <c r="AZ131" s="11">
+        <v>1447980000</v>
+      </c>
+      <c r="BA131" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB131" s="11">
+        <v>1470000000</v>
+      </c>
+    </row>
+    <row r="132" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="B132" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C132" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D132" s="13"/>
+      <c r="E132" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F132" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="G132" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H132" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="I132" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="J132" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="K132" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="L132" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="M132" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="N132" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="O132" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="P132" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q132" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="R132" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="S132" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="T132" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="U132" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="V132" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="W132" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="X132" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y132" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z132" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA132" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB132" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC132" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD132" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE132" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF132" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG132" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH132" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI132" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ132" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK132" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL132" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM132" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN132" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO132" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP132" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ132" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR132" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS132" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT132" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU132" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV132" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW132" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX132" s="13">
         <v>865000000</v>
       </c>
-      <c r="BA131" s="11">
+      <c r="AY132" s="13">
         <v>726538462</v>
       </c>
-      <c r="BB131" s="11">
+      <c r="AZ132" s="13">
         <v>820754717</v>
       </c>
+      <c r="BA132" s="13">
+        <v>875000000</v>
+      </c>
+      <c r="BB132" s="13">
+        <v>438909091</v>
+      </c>
     </row>
-    <row r="132" spans="2:54" x14ac:dyDescent="0.3">
-      <c r="B132" s="8" t="s">
+    <row r="133" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="B133" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C132" s="9"/>
-      <c r="D132" s="9"/>
-      <c r="E132" s="9"/>
-      <c r="F132" s="9"/>
-      <c r="G132" s="9"/>
-      <c r="H132" s="9"/>
-      <c r="I132" s="9"/>
-      <c r="J132" s="9"/>
-      <c r="K132" s="9"/>
-      <c r="L132" s="9"/>
-      <c r="M132" s="9"/>
-      <c r="N132" s="9"/>
-      <c r="O132" s="9"/>
-      <c r="P132" s="9"/>
-      <c r="Q132" s="9"/>
-      <c r="R132" s="9"/>
-      <c r="S132" s="9"/>
-      <c r="T132" s="9"/>
-      <c r="U132" s="9"/>
-      <c r="V132" s="9"/>
-      <c r="W132" s="9"/>
-      <c r="X132" s="9"/>
-      <c r="Y132" s="9"/>
-      <c r="Z132" s="9"/>
-      <c r="AA132" s="9"/>
-      <c r="AB132" s="9"/>
-      <c r="AC132" s="9"/>
-      <c r="AD132" s="9"/>
-      <c r="AE132" s="9"/>
-      <c r="AF132" s="9"/>
-      <c r="AG132" s="9"/>
-      <c r="AH132" s="9"/>
-      <c r="AI132" s="9"/>
-      <c r="AJ132" s="9"/>
-      <c r="AK132" s="9"/>
-      <c r="AL132" s="9"/>
-      <c r="AM132" s="9"/>
-      <c r="AN132" s="9"/>
-      <c r="AO132" s="9"/>
-      <c r="AP132" s="9"/>
-      <c r="AQ132" s="9"/>
-      <c r="AR132" s="9"/>
-      <c r="AS132" s="9"/>
-      <c r="AT132" s="9"/>
-      <c r="AU132" s="9"/>
-      <c r="AV132" s="9"/>
-      <c r="AW132" s="9"/>
-      <c r="AX132" s="9"/>
-      <c r="AY132" s="9"/>
-      <c r="AZ132" s="9"/>
-      <c r="BA132" s="9"/>
-      <c r="BB132" s="9"/>
+      <c r="C133" s="9"/>
+      <c r="D133" s="9"/>
+      <c r="E133" s="9"/>
+      <c r="F133" s="9"/>
+      <c r="G133" s="9"/>
+      <c r="H133" s="9"/>
+      <c r="I133" s="9"/>
+      <c r="J133" s="9"/>
+      <c r="K133" s="9"/>
+      <c r="L133" s="9"/>
+      <c r="M133" s="9"/>
+      <c r="N133" s="9"/>
+      <c r="O133" s="9"/>
+      <c r="P133" s="9"/>
+      <c r="Q133" s="9"/>
+      <c r="R133" s="9"/>
+      <c r="S133" s="9"/>
+      <c r="T133" s="9"/>
+      <c r="U133" s="9"/>
+      <c r="V133" s="9"/>
+      <c r="W133" s="9"/>
+      <c r="X133" s="9"/>
+      <c r="Y133" s="9"/>
+      <c r="Z133" s="9"/>
+      <c r="AA133" s="9"/>
+      <c r="AB133" s="9"/>
+      <c r="AC133" s="9"/>
+      <c r="AD133" s="9"/>
+      <c r="AE133" s="9"/>
+      <c r="AF133" s="9"/>
+      <c r="AG133" s="9"/>
+      <c r="AH133" s="9"/>
+      <c r="AI133" s="9"/>
+      <c r="AJ133" s="9"/>
+      <c r="AK133" s="9"/>
+      <c r="AL133" s="9"/>
+      <c r="AM133" s="9"/>
+      <c r="AN133" s="9"/>
+      <c r="AO133" s="9"/>
+      <c r="AP133" s="9"/>
+      <c r="AQ133" s="9"/>
+      <c r="AR133" s="9"/>
+      <c r="AS133" s="9"/>
+      <c r="AT133" s="9"/>
+      <c r="AU133" s="9"/>
+      <c r="AV133" s="9"/>
+      <c r="AW133" s="9"/>
+      <c r="AX133" s="9"/>
+      <c r="AY133" s="9"/>
+      <c r="AZ133" s="9"/>
+      <c r="BA133" s="9"/>
+      <c r="BB133" s="9"/>
     </row>
-    <row r="133" spans="2:54" x14ac:dyDescent="0.3">
-      <c r="B133" s="10" t="s">
+    <row r="134" spans="2:54" x14ac:dyDescent="0.25">
+      <c r="B134" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C133" s="11" t="s">
+      <c r="C134" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="D133" s="11"/>
-      <c r="E133" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F133" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="G133" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="H133" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="I133" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="J133" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="K133" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="L133" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="M133" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="N133" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="O133" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="P133" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q133" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="R133" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="S133" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="T133" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="U133" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="V133" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="W133" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X133" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y133" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z133" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA133" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB133" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC133" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD133" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE133" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF133" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG133" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH133" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI133" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ133" s="11">
-        <v>0</v>
-      </c>
-      <c r="AK133" s="11">
-        <v>0</v>
-      </c>
-      <c r="AL133" s="11">
-        <v>0</v>
-      </c>
-      <c r="AM133" s="11">
-        <v>0</v>
-      </c>
-      <c r="AN133" s="11">
-        <v>0</v>
-      </c>
-      <c r="AO133" s="11">
-        <v>0</v>
-      </c>
-      <c r="AP133" s="11">
-        <v>0</v>
-      </c>
-      <c r="AQ133" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR133" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS133" s="11">
-        <v>0</v>
-      </c>
-      <c r="AT133" s="11">
-        <v>0</v>
-      </c>
-      <c r="AU133" s="11">
-        <v>0</v>
-      </c>
-      <c r="AV133" s="11">
-        <v>0</v>
-      </c>
-      <c r="AW133" s="11">
-        <v>0</v>
-      </c>
-      <c r="AX133" s="11">
-        <v>0</v>
-      </c>
-      <c r="AY133" s="11">
-        <v>0</v>
-      </c>
-      <c r="AZ133" s="11">
-        <v>0</v>
-      </c>
-      <c r="BA133" s="11">
-        <v>0</v>
-      </c>
-      <c r="BB133" s="11">
+      <c r="D134" s="11"/>
+      <c r="E134" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F134" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G134" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H134" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="I134" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J134" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="K134" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="L134" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="M134" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="N134" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="O134" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="P134" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q134" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="R134" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="S134" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="T134" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="U134" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="V134" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="W134" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="X134" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y134" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z134" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA134" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB134" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC134" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD134" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE134" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF134" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG134" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH134" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI134" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ134" s="11">
+        <v>0</v>
+      </c>
+      <c r="AK134" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL134" s="11">
+        <v>0</v>
+      </c>
+      <c r="AM134" s="11">
+        <v>0</v>
+      </c>
+      <c r="AN134" s="11">
+        <v>0</v>
+      </c>
+      <c r="AO134" s="11">
+        <v>0</v>
+      </c>
+      <c r="AP134" s="11">
+        <v>0</v>
+      </c>
+      <c r="AQ134" s="11">
+        <v>0</v>
+      </c>
+      <c r="AR134" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS134" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT134" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU134" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV134" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW134" s="11">
+        <v>0</v>
+      </c>
+      <c r="AX134" s="11">
+        <v>0</v>
+      </c>
+      <c r="AY134" s="11">
+        <v>0</v>
+      </c>
+      <c r="AZ134" s="11">
+        <v>0</v>
+      </c>
+      <c r="BA134" s="11">
+        <v>0</v>
+      </c>
+      <c r="BB134" s="11">
         <v>0</v>
       </c>
     </row>

--- a/database/industries/ghaza/ghefars/product/monthly_seprated.xlsx
+++ b/database/industries/ghaza/ghefars/product/monthly_seprated.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2993" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2928" uniqueCount="96">
   <si>
     <t xml:space="preserve">Pouya Finance</t>
   </si>
@@ -81,7 +81,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -100,7 +100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/11</t>
+      <t xml:space="preserve">1397/12</t>
     </r>
   </si>
   <si>
@@ -121,7 +121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -140,7 +140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/12</t>
+      <t xml:space="preserve">1398/01</t>
     </r>
   </si>
   <si>
@@ -161,7 +161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -180,7 +180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/01</t>
+      <t xml:space="preserve">1398/02</t>
     </r>
   </si>
   <si>
@@ -201,7 +201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -220,7 +220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/02</t>
+      <t xml:space="preserve">1398/03</t>
     </r>
   </si>
   <si>
@@ -241,7 +241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -260,7 +260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/03</t>
+      <t xml:space="preserve">1398/04</t>
     </r>
   </si>
   <si>
@@ -281,7 +281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -300,7 +300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/04</t>
+      <t xml:space="preserve">1398/05</t>
     </r>
   </si>
   <si>
@@ -321,7 +321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -340,7 +340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/05</t>
+      <t xml:space="preserve">1398/06</t>
     </r>
   </si>
   <si>
@@ -361,7 +361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -380,7 +380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/06</t>
+      <t xml:space="preserve">1398/07</t>
     </r>
   </si>
   <si>
@@ -401,7 +401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -420,7 +420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/07</t>
+      <t xml:space="preserve">1398/08</t>
     </r>
   </si>
   <si>
@@ -441,7 +441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -460,7 +460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/08</t>
+      <t xml:space="preserve">1398/09</t>
     </r>
   </si>
   <si>
@@ -481,7 +481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -500,7 +500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/09</t>
+      <t xml:space="preserve">1398/10</t>
     </r>
   </si>
   <si>
@@ -521,7 +521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -540,7 +540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/10</t>
+      <t xml:space="preserve">1398/11</t>
     </r>
   </si>
   <si>
@@ -561,7 +561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -580,7 +580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/11</t>
+      <t xml:space="preserve">1398/12</t>
     </r>
   </si>
   <si>
@@ -601,7 +601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -620,7 +620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/12</t>
+      <t xml:space="preserve">1399/01</t>
     </r>
   </si>
   <si>
@@ -641,7 +641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -660,7 +660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/01</t>
+      <t xml:space="preserve">1399/02</t>
     </r>
   </si>
   <si>
@@ -681,7 +681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -700,7 +700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/02</t>
+      <t xml:space="preserve">1399/03</t>
     </r>
   </si>
   <si>
@@ -721,7 +721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -740,7 +740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/03</t>
+      <t xml:space="preserve">1399/04</t>
     </r>
   </si>
   <si>
@@ -761,7 +761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -780,7 +780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/04</t>
+      <t xml:space="preserve">1399/05</t>
     </r>
   </si>
   <si>
@@ -801,7 +801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -820,7 +820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/05</t>
+      <t xml:space="preserve">1399/06</t>
     </r>
   </si>
   <si>
@@ -841,7 +841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -860,7 +860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/06</t>
+      <t xml:space="preserve">1399/07</t>
     </r>
   </si>
   <si>
@@ -881,7 +881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -900,7 +900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/07</t>
+      <t xml:space="preserve">1399/08</t>
     </r>
   </si>
   <si>
@@ -921,7 +921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -940,7 +940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/08</t>
+      <t xml:space="preserve">1399/09</t>
     </r>
   </si>
   <si>
@@ -961,7 +961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -980,7 +980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/09</t>
+      <t xml:space="preserve">1399/10</t>
     </r>
   </si>
   <si>
@@ -1001,7 +1001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1020,7 +1020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/10</t>
+      <t xml:space="preserve">1399/11</t>
     </r>
   </si>
   <si>
@@ -1041,7 +1041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1060,7 +1060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/11</t>
+      <t xml:space="preserve">1399/12</t>
     </r>
   </si>
   <si>
@@ -1081,7 +1081,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1100,7 +1100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/12</t>
+      <t xml:space="preserve">1400/01</t>
     </r>
   </si>
   <si>
@@ -1121,7 +1121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1140,7 +1140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/01</t>
+      <t xml:space="preserve">1400/02</t>
     </r>
   </si>
   <si>
@@ -1161,7 +1161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1180,7 +1180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/02</t>
+      <t xml:space="preserve">1400/03</t>
     </r>
   </si>
   <si>
@@ -1201,7 +1201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1220,7 +1220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/03</t>
+      <t xml:space="preserve">1400/04</t>
     </r>
   </si>
   <si>
@@ -1241,7 +1241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1260,7 +1260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/04</t>
+      <t xml:space="preserve">1400/05</t>
     </r>
   </si>
   <si>
@@ -1281,7 +1281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1300,7 +1300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/05</t>
+      <t xml:space="preserve">1400/06</t>
     </r>
   </si>
   <si>
@@ -1321,7 +1321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1340,7 +1340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/06</t>
+      <t xml:space="preserve">1400/07</t>
     </r>
   </si>
   <si>
@@ -1361,7 +1361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1380,7 +1380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/07</t>
+      <t xml:space="preserve">1400/08</t>
     </r>
   </si>
   <si>
@@ -1401,7 +1401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1420,7 +1420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/08</t>
+      <t xml:space="preserve">1400/09</t>
     </r>
   </si>
   <si>
@@ -1441,7 +1441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1460,7 +1460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/09</t>
+      <t xml:space="preserve">1400/10</t>
     </r>
   </si>
   <si>
@@ -1481,7 +1481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1500,7 +1500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/10</t>
+      <t xml:space="preserve">1400/11</t>
     </r>
   </si>
   <si>
@@ -1521,7 +1521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1540,7 +1540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/11</t>
+      <t xml:space="preserve">1400/12</t>
     </r>
   </si>
   <si>
@@ -1561,7 +1561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1580,7 +1580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/12</t>
+      <t xml:space="preserve">1401/01</t>
     </r>
   </si>
   <si>
@@ -1601,7 +1601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1620,7 +1620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/01</t>
+      <t xml:space="preserve">1401/02</t>
     </r>
   </si>
   <si>
@@ -1641,7 +1641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1660,7 +1660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/02</t>
+      <t xml:space="preserve">1401/03</t>
     </r>
   </si>
   <si>
@@ -1681,7 +1681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1700,7 +1700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/03</t>
+      <t xml:space="preserve">1401/04</t>
     </r>
   </si>
   <si>
@@ -1721,7 +1721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1740,7 +1740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/04</t>
+      <t xml:space="preserve">1401/05</t>
     </r>
   </si>
   <si>
@@ -1761,7 +1761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1780,7 +1780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/05</t>
+      <t xml:space="preserve">1401/06</t>
     </r>
   </si>
   <si>
@@ -1801,7 +1801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1820,7 +1820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/06</t>
+      <t xml:space="preserve">1401/07</t>
     </r>
   </si>
   <si>
@@ -1841,7 +1841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1860,7 +1860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/07</t>
+      <t xml:space="preserve">1401/08</t>
     </r>
   </si>
   <si>
@@ -1881,7 +1881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1900,7 +1900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/08</t>
+      <t xml:space="preserve">1401/09</t>
     </r>
   </si>
   <si>
@@ -1921,7 +1921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1940,7 +1940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/09</t>
+      <t xml:space="preserve">1401/10</t>
     </r>
   </si>
   <si>
@@ -1961,7 +1961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1980,7 +1980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/10</t>
+      <t xml:space="preserve">1401/11</t>
     </r>
   </si>
   <si>
@@ -2001,7 +2001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -2020,7 +2020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/11</t>
+      <t xml:space="preserve">1401/12</t>
     </r>
   </si>
   <si>
@@ -2041,7 +2041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -2060,7 +2060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/12</t>
+      <t xml:space="preserve">1402/01</t>
     </r>
   </si>
   <si>
@@ -3312,107 +3312,107 @@
       <c r="T11" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U11" s="13" t="s">
-        <v>58</v>
+      <c r="U11" s="13" t="n">
+        <v>1149</v>
       </c>
       <c r="V11" s="13" t="n">
-        <v>1149</v>
+        <v>1185</v>
       </c>
       <c r="W11" s="13" t="n">
+        <v>1136</v>
+      </c>
+      <c r="X11" s="13" t="n">
+        <v>762</v>
+      </c>
+      <c r="Y11" s="13" t="n">
+        <v>989</v>
+      </c>
+      <c r="Z11" s="13" t="n">
+        <v>633</v>
+      </c>
+      <c r="AA11" s="13" t="n">
+        <v>726</v>
+      </c>
+      <c r="AB11" s="13" t="n">
+        <v>917</v>
+      </c>
+      <c r="AC11" s="13" t="n">
         <v>1185</v>
       </c>
-      <c r="X11" s="13" t="n">
-        <v>1136</v>
-      </c>
-      <c r="Y11" s="13" t="n">
-        <v>762</v>
-      </c>
-      <c r="Z11" s="13" t="n">
-        <v>989</v>
-      </c>
-      <c r="AA11" s="13" t="n">
-        <v>633</v>
-      </c>
-      <c r="AB11" s="13" t="n">
-        <v>726</v>
-      </c>
-      <c r="AC11" s="13" t="n">
-        <v>917</v>
-      </c>
       <c r="AD11" s="13" t="n">
-        <v>1185</v>
+        <v>1161</v>
       </c>
       <c r="AE11" s="13" t="n">
-        <v>1161</v>
+        <v>1061</v>
       </c>
       <c r="AF11" s="13" t="n">
-        <v>1061</v>
+        <v>800</v>
       </c>
       <c r="AG11" s="13" t="n">
-        <v>800</v>
+        <v>1046</v>
       </c>
       <c r="AH11" s="13" t="n">
-        <v>1046</v>
+        <v>837</v>
       </c>
       <c r="AI11" s="13" t="n">
-        <v>837</v>
+        <v>716</v>
       </c>
       <c r="AJ11" s="13" t="n">
         <v>716</v>
       </c>
       <c r="AK11" s="13" t="n">
-        <v>716</v>
+        <v>667</v>
       </c>
       <c r="AL11" s="13" t="n">
-        <v>667</v>
+        <v>494</v>
       </c>
       <c r="AM11" s="13" t="n">
-        <v>494</v>
+        <v>701</v>
       </c>
       <c r="AN11" s="13" t="n">
-        <v>701</v>
+        <v>514</v>
       </c>
       <c r="AO11" s="13" t="n">
-        <v>514</v>
+        <v>625</v>
       </c>
       <c r="AP11" s="13" t="n">
-        <v>625</v>
+        <v>990</v>
       </c>
       <c r="AQ11" s="13" t="n">
-        <v>990</v>
+        <v>581</v>
       </c>
       <c r="AR11" s="13" t="n">
-        <v>581</v>
+        <v>903</v>
       </c>
       <c r="AS11" s="13" t="n">
-        <v>903</v>
+        <v>708</v>
       </c>
       <c r="AT11" s="13" t="n">
-        <v>708</v>
+        <v>935</v>
       </c>
       <c r="AU11" s="13" t="n">
-        <v>935</v>
+        <v>709</v>
       </c>
       <c r="AV11" s="13" t="n">
+        <v>673</v>
+      </c>
+      <c r="AW11" s="13" t="n">
+        <v>656</v>
+      </c>
+      <c r="AX11" s="13" t="n">
+        <v>536</v>
+      </c>
+      <c r="AY11" s="13" t="n">
         <v>709</v>
       </c>
-      <c r="AW11" s="13" t="n">
-        <v>673</v>
-      </c>
-      <c r="AX11" s="13" t="n">
-        <v>656</v>
-      </c>
-      <c r="AY11" s="13" t="n">
-        <v>536</v>
-      </c>
       <c r="AZ11" s="13" t="n">
-        <v>709</v>
+        <v>439</v>
       </c>
       <c r="BA11" s="13" t="n">
-        <v>439</v>
+        <v>966</v>
       </c>
       <c r="BB11" s="13" t="n">
-        <v>966</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3471,50 +3471,50 @@
       <c r="T12" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U12" s="16" t="s">
-        <v>58</v>
+      <c r="U12" s="16" t="n">
+        <v>18</v>
       </c>
       <c r="V12" s="16" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="W12" s="16" t="n">
         <v>29</v>
       </c>
       <c r="X12" s="16" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y12" s="16" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z12" s="16" t="n">
+        <v>38</v>
+      </c>
+      <c r="AA12" s="16" t="n">
+        <v>28</v>
+      </c>
+      <c r="AB12" s="16" t="n">
         <v>29</v>
       </c>
-      <c r="Y12" s="16" t="n">
+      <c r="AC12" s="16" t="n">
+        <v>116</v>
+      </c>
+      <c r="AD12" s="16" t="n">
+        <v>182</v>
+      </c>
+      <c r="AE12" s="16" t="n">
+        <v>82</v>
+      </c>
+      <c r="AF12" s="16" t="n">
+        <v>239</v>
+      </c>
+      <c r="AG12" s="16" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH12" s="16" t="n">
         <v>17</v>
       </c>
-      <c r="Z12" s="16" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA12" s="16" t="n">
-        <v>38</v>
-      </c>
-      <c r="AB12" s="16" t="n">
-        <v>28</v>
-      </c>
-      <c r="AC12" s="16" t="n">
-        <v>29</v>
-      </c>
-      <c r="AD12" s="16" t="n">
-        <v>116</v>
-      </c>
-      <c r="AE12" s="16" t="n">
-        <v>182</v>
-      </c>
-      <c r="AF12" s="16" t="n">
-        <v>82</v>
-      </c>
-      <c r="AG12" s="16" t="n">
-        <v>239</v>
-      </c>
-      <c r="AH12" s="16" t="n">
-        <v>18</v>
-      </c>
       <c r="AI12" s="16" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AJ12" s="16" t="n">
         <v>20</v>
@@ -3523,55 +3523,55 @@
         <v>20</v>
       </c>
       <c r="AL12" s="16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM12" s="16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AN12" s="16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AO12" s="16" t="n">
+        <v>18</v>
+      </c>
+      <c r="AP12" s="16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ12" s="16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AR12" s="16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AS12" s="16" t="n">
+        <v>18</v>
+      </c>
+      <c r="AT12" s="16" t="n">
+        <v>16</v>
+      </c>
+      <c r="AU12" s="16" t="n">
         <v>20</v>
       </c>
-      <c r="AM12" s="16" t="n">
-        <v>15</v>
-      </c>
-      <c r="AN12" s="16" t="n">
-        <v>17</v>
-      </c>
-      <c r="AO12" s="16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AP12" s="16" t="n">
-        <v>18</v>
-      </c>
-      <c r="AQ12" s="16" t="n">
-        <v>17</v>
-      </c>
-      <c r="AR12" s="16" t="n">
-        <v>12</v>
-      </c>
-      <c r="AS12" s="16" t="n">
+      <c r="AV12" s="16" t="n">
+        <v>16</v>
+      </c>
+      <c r="AW12" s="16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AX12" s="16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY12" s="16" t="n">
+        <v>22</v>
+      </c>
+      <c r="AZ12" s="16" t="n">
         <v>21</v>
       </c>
-      <c r="AT12" s="16" t="n">
-        <v>18</v>
-      </c>
-      <c r="AU12" s="16" t="n">
-        <v>16</v>
-      </c>
-      <c r="AV12" s="16" t="n">
+      <c r="BA12" s="16" t="n">
         <v>20</v>
       </c>
-      <c r="AW12" s="16" t="n">
-        <v>16</v>
-      </c>
-      <c r="AX12" s="16" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY12" s="16" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ12" s="16" t="n">
-        <v>22</v>
-      </c>
-      <c r="BA12" s="16" t="n">
-        <v>21</v>
-      </c>
       <c r="BB12" s="16" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3630,107 +3630,107 @@
       <c r="T13" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U13" s="13" t="s">
-        <v>58</v>
+      <c r="U13" s="13" t="n">
+        <v>2364</v>
       </c>
       <c r="V13" s="13" t="n">
-        <v>2364</v>
+        <v>2283</v>
       </c>
       <c r="W13" s="13" t="n">
-        <v>2283</v>
+        <v>2103</v>
       </c>
       <c r="X13" s="13" t="n">
-        <v>2103</v>
+        <v>2709</v>
       </c>
       <c r="Y13" s="13" t="n">
-        <v>2709</v>
+        <v>3188</v>
       </c>
       <c r="Z13" s="13" t="n">
-        <v>3188</v>
+        <v>2437</v>
       </c>
       <c r="AA13" s="13" t="n">
-        <v>2437</v>
+        <v>3200</v>
       </c>
       <c r="AB13" s="13" t="n">
-        <v>3200</v>
+        <v>2889</v>
       </c>
       <c r="AC13" s="13" t="n">
-        <v>2889</v>
+        <v>1917</v>
       </c>
       <c r="AD13" s="13" t="n">
-        <v>1917</v>
+        <v>2985</v>
       </c>
       <c r="AE13" s="13" t="n">
-        <v>2985</v>
+        <v>2133</v>
       </c>
       <c r="AF13" s="13" t="n">
-        <v>2133</v>
+        <v>2391</v>
       </c>
       <c r="AG13" s="13" t="n">
-        <v>2391</v>
+        <v>2371</v>
       </c>
       <c r="AH13" s="13" t="n">
-        <v>2371</v>
+        <v>2262</v>
       </c>
       <c r="AI13" s="13" t="n">
-        <v>2262</v>
+        <v>2259</v>
       </c>
       <c r="AJ13" s="13" t="n">
         <v>2259</v>
       </c>
       <c r="AK13" s="13" t="n">
-        <v>2259</v>
+        <v>2684</v>
       </c>
       <c r="AL13" s="13" t="n">
-        <v>2684</v>
+        <v>2852</v>
       </c>
       <c r="AM13" s="13" t="n">
+        <v>2854</v>
+      </c>
+      <c r="AN13" s="13" t="n">
+        <v>2337</v>
+      </c>
+      <c r="AO13" s="13" t="n">
+        <v>2248</v>
+      </c>
+      <c r="AP13" s="13" t="n">
+        <v>2201</v>
+      </c>
+      <c r="AQ13" s="13" t="n">
+        <v>1899</v>
+      </c>
+      <c r="AR13" s="13" t="n">
+        <v>2265</v>
+      </c>
+      <c r="AS13" s="13" t="n">
+        <v>1976</v>
+      </c>
+      <c r="AT13" s="13" t="n">
+        <v>2165</v>
+      </c>
+      <c r="AU13" s="13" t="n">
+        <v>2351</v>
+      </c>
+      <c r="AV13" s="13" t="n">
+        <v>2410</v>
+      </c>
+      <c r="AW13" s="13" t="n">
+        <v>2716</v>
+      </c>
+      <c r="AX13" s="13" t="n">
         <v>2852</v>
       </c>
-      <c r="AN13" s="13" t="n">
-        <v>2854</v>
-      </c>
-      <c r="AO13" s="13" t="n">
-        <v>2337</v>
-      </c>
-      <c r="AP13" s="13" t="n">
-        <v>2248</v>
-      </c>
-      <c r="AQ13" s="13" t="n">
-        <v>2201</v>
-      </c>
-      <c r="AR13" s="13" t="n">
-        <v>1899</v>
-      </c>
-      <c r="AS13" s="13" t="n">
-        <v>2265</v>
-      </c>
-      <c r="AT13" s="13" t="n">
-        <v>1976</v>
-      </c>
-      <c r="AU13" s="13" t="n">
-        <v>2165</v>
-      </c>
-      <c r="AV13" s="13" t="n">
-        <v>2351</v>
-      </c>
-      <c r="AW13" s="13" t="n">
-        <v>2410</v>
-      </c>
-      <c r="AX13" s="13" t="n">
-        <v>2716</v>
-      </c>
       <c r="AY13" s="13" t="n">
-        <v>2852</v>
+        <v>2749</v>
       </c>
       <c r="AZ13" s="13" t="n">
-        <v>2749</v>
+        <v>2945</v>
       </c>
       <c r="BA13" s="13" t="n">
-        <v>2945</v>
+        <v>2461</v>
       </c>
       <c r="BB13" s="13" t="n">
-        <v>2461</v>
+        <v>2416</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3789,107 +3789,107 @@
       <c r="T14" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U14" s="16" t="s">
-        <v>58</v>
+      <c r="U14" s="16" t="n">
+        <v>314</v>
       </c>
       <c r="V14" s="16" t="n">
-        <v>314</v>
+        <v>254</v>
       </c>
       <c r="W14" s="16" t="n">
-        <v>254</v>
+        <v>305</v>
       </c>
       <c r="X14" s="16" t="n">
-        <v>305</v>
+        <v>229</v>
       </c>
       <c r="Y14" s="16" t="n">
-        <v>229</v>
+        <v>408</v>
       </c>
       <c r="Z14" s="16" t="n">
-        <v>408</v>
+        <v>510</v>
       </c>
       <c r="AA14" s="16" t="n">
-        <v>510</v>
+        <v>379</v>
       </c>
       <c r="AB14" s="16" t="n">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="AC14" s="16" t="n">
-        <v>365</v>
+        <v>558</v>
       </c>
       <c r="AD14" s="16" t="n">
-        <v>558</v>
+        <v>290</v>
       </c>
       <c r="AE14" s="16" t="n">
-        <v>290</v>
+        <v>187</v>
       </c>
       <c r="AF14" s="16" t="n">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="AG14" s="16" t="n">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="AH14" s="16" t="n">
-        <v>186</v>
+        <v>263</v>
       </c>
       <c r="AI14" s="16" t="n">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="AJ14" s="16" t="n">
         <v>282</v>
       </c>
       <c r="AK14" s="16" t="n">
-        <v>282</v>
+        <v>195</v>
       </c>
       <c r="AL14" s="16" t="n">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="AM14" s="16" t="n">
-        <v>188</v>
+        <v>320</v>
       </c>
       <c r="AN14" s="16" t="n">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="AO14" s="16" t="n">
-        <v>296</v>
+        <v>427</v>
       </c>
       <c r="AP14" s="16" t="n">
-        <v>427</v>
+        <v>375</v>
       </c>
       <c r="AQ14" s="16" t="n">
-        <v>375</v>
+        <v>179</v>
       </c>
       <c r="AR14" s="16" t="n">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="AS14" s="16" t="n">
-        <v>201</v>
+        <v>476</v>
       </c>
       <c r="AT14" s="16" t="n">
-        <v>476</v>
+        <v>416</v>
       </c>
       <c r="AU14" s="16" t="n">
-        <v>416</v>
+        <v>289</v>
       </c>
       <c r="AV14" s="16" t="n">
-        <v>289</v>
+        <v>376</v>
       </c>
       <c r="AW14" s="16" t="n">
-        <v>376</v>
+        <v>257</v>
       </c>
       <c r="AX14" s="16" t="n">
-        <v>257</v>
+        <v>290</v>
       </c>
       <c r="AY14" s="16" t="n">
-        <v>290</v>
+        <v>490</v>
       </c>
       <c r="AZ14" s="16" t="n">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="BA14" s="16" t="n">
-        <v>471</v>
+        <v>189</v>
       </c>
       <c r="BB14" s="16" t="n">
-        <v>189</v>
+        <v>345</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3948,107 +3948,107 @@
       <c r="T15" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U15" s="13" t="s">
-        <v>58</v>
+      <c r="U15" s="13" t="n">
+        <v>1783</v>
       </c>
       <c r="V15" s="13" t="n">
-        <v>1783</v>
+        <v>1640</v>
       </c>
       <c r="W15" s="13" t="n">
+        <v>1638</v>
+      </c>
+      <c r="X15" s="13" t="n">
+        <v>1296</v>
+      </c>
+      <c r="Y15" s="13" t="n">
+        <v>1336</v>
+      </c>
+      <c r="Z15" s="13" t="n">
+        <v>1317</v>
+      </c>
+      <c r="AA15" s="13" t="n">
+        <v>1255</v>
+      </c>
+      <c r="AB15" s="13" t="n">
+        <v>1480</v>
+      </c>
+      <c r="AC15" s="13" t="n">
+        <v>1610</v>
+      </c>
+      <c r="AD15" s="13" t="n">
+        <v>1909</v>
+      </c>
+      <c r="AE15" s="13" t="n">
         <v>1640</v>
       </c>
-      <c r="X15" s="13" t="n">
-        <v>1638</v>
-      </c>
-      <c r="Y15" s="13" t="n">
-        <v>1296</v>
-      </c>
-      <c r="Z15" s="13" t="n">
-        <v>1336</v>
-      </c>
-      <c r="AA15" s="13" t="n">
-        <v>1317</v>
-      </c>
-      <c r="AB15" s="13" t="n">
-        <v>1255</v>
-      </c>
-      <c r="AC15" s="13" t="n">
-        <v>1480</v>
-      </c>
-      <c r="AD15" s="13" t="n">
-        <v>1610</v>
-      </c>
-      <c r="AE15" s="13" t="n">
-        <v>1909</v>
-      </c>
       <c r="AF15" s="13" t="n">
-        <v>1640</v>
+        <v>1824</v>
       </c>
       <c r="AG15" s="13" t="n">
-        <v>1824</v>
+        <v>1831</v>
       </c>
       <c r="AH15" s="13" t="n">
-        <v>1831</v>
+        <v>1347</v>
       </c>
       <c r="AI15" s="13" t="n">
-        <v>1347</v>
+        <v>1494</v>
       </c>
       <c r="AJ15" s="13" t="n">
         <v>1494</v>
       </c>
       <c r="AK15" s="13" t="n">
-        <v>1494</v>
+        <v>1139</v>
       </c>
       <c r="AL15" s="13" t="n">
-        <v>1139</v>
+        <v>1017</v>
       </c>
       <c r="AM15" s="13" t="n">
-        <v>1017</v>
+        <v>1009</v>
       </c>
       <c r="AN15" s="13" t="n">
-        <v>1009</v>
+        <v>1138</v>
       </c>
       <c r="AO15" s="13" t="n">
-        <v>1138</v>
+        <v>1043</v>
       </c>
       <c r="AP15" s="13" t="n">
-        <v>1043</v>
+        <v>1583</v>
       </c>
       <c r="AQ15" s="13" t="n">
-        <v>1583</v>
+        <v>1176</v>
       </c>
       <c r="AR15" s="13" t="n">
-        <v>1176</v>
+        <v>1338</v>
       </c>
       <c r="AS15" s="13" t="n">
-        <v>1338</v>
+        <v>1226</v>
       </c>
       <c r="AT15" s="13" t="n">
-        <v>1226</v>
+        <v>1276</v>
       </c>
       <c r="AU15" s="13" t="n">
-        <v>1276</v>
+        <v>1247</v>
       </c>
       <c r="AV15" s="13" t="n">
-        <v>1247</v>
+        <v>1127</v>
       </c>
       <c r="AW15" s="13" t="n">
-        <v>1127</v>
+        <v>1113</v>
       </c>
       <c r="AX15" s="13" t="n">
-        <v>1113</v>
+        <v>1033</v>
       </c>
       <c r="AY15" s="13" t="n">
-        <v>1033</v>
+        <v>946</v>
       </c>
       <c r="AZ15" s="13" t="n">
-        <v>946</v>
+        <v>1112</v>
       </c>
       <c r="BA15" s="13" t="n">
-        <v>1112</v>
+        <v>1212</v>
       </c>
       <c r="BB15" s="13" t="n">
-        <v>1212</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4107,107 +4107,107 @@
       <c r="T16" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U16" s="16" t="s">
-        <v>58</v>
+      <c r="U16" s="16" t="n">
+        <v>580</v>
       </c>
       <c r="V16" s="16" t="n">
-        <v>580</v>
+        <v>527</v>
       </c>
       <c r="W16" s="16" t="n">
-        <v>527</v>
+        <v>440</v>
       </c>
       <c r="X16" s="16" t="n">
+        <v>376</v>
+      </c>
+      <c r="Y16" s="16" t="n">
+        <v>357</v>
+      </c>
+      <c r="Z16" s="16" t="n">
+        <v>414</v>
+      </c>
+      <c r="AA16" s="16" t="n">
+        <v>473</v>
+      </c>
+      <c r="AB16" s="16" t="n">
         <v>440</v>
       </c>
-      <c r="Y16" s="16" t="n">
-        <v>376</v>
-      </c>
-      <c r="Z16" s="16" t="n">
-        <v>357</v>
-      </c>
-      <c r="AA16" s="16" t="n">
-        <v>414</v>
-      </c>
-      <c r="AB16" s="16" t="n">
+      <c r="AC16" s="16" t="n">
+        <v>408</v>
+      </c>
+      <c r="AD16" s="16" t="n">
+        <v>427</v>
+      </c>
+      <c r="AE16" s="16" t="n">
+        <v>425</v>
+      </c>
+      <c r="AF16" s="16" t="n">
+        <v>347</v>
+      </c>
+      <c r="AG16" s="16" t="n">
         <v>473</v>
       </c>
-      <c r="AC16" s="16" t="n">
-        <v>440</v>
-      </c>
-      <c r="AD16" s="16" t="n">
-        <v>408</v>
-      </c>
-      <c r="AE16" s="16" t="n">
-        <v>427</v>
-      </c>
-      <c r="AF16" s="16" t="n">
-        <v>425</v>
-      </c>
-      <c r="AG16" s="16" t="n">
-        <v>347</v>
-      </c>
       <c r="AH16" s="16" t="n">
-        <v>473</v>
+        <v>400</v>
       </c>
       <c r="AI16" s="16" t="n">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="AJ16" s="16" t="n">
         <v>412</v>
       </c>
       <c r="AK16" s="16" t="n">
-        <v>412</v>
+        <v>357</v>
       </c>
       <c r="AL16" s="16" t="n">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="AM16" s="16" t="n">
-        <v>365</v>
+        <v>335</v>
       </c>
       <c r="AN16" s="16" t="n">
-        <v>335</v>
+        <v>359</v>
       </c>
       <c r="AO16" s="16" t="n">
-        <v>359</v>
+        <v>466</v>
       </c>
       <c r="AP16" s="16" t="n">
-        <v>466</v>
+        <v>332</v>
       </c>
       <c r="AQ16" s="16" t="n">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="AR16" s="16" t="n">
-        <v>339</v>
+        <v>381</v>
       </c>
       <c r="AS16" s="16" t="n">
-        <v>381</v>
+        <v>344</v>
       </c>
       <c r="AT16" s="16" t="n">
-        <v>344</v>
+        <v>394</v>
       </c>
       <c r="AU16" s="16" t="n">
-        <v>394</v>
+        <v>445</v>
       </c>
       <c r="AV16" s="16" t="n">
-        <v>445</v>
+        <v>350</v>
       </c>
       <c r="AW16" s="16" t="n">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="AX16" s="16" t="n">
-        <v>330</v>
+        <v>294</v>
       </c>
       <c r="AY16" s="16" t="n">
-        <v>294</v>
+        <v>261</v>
       </c>
       <c r="AZ16" s="16" t="n">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="BA16" s="16" t="n">
-        <v>275</v>
+        <v>347</v>
       </c>
       <c r="BB16" s="16" t="n">
-        <v>347</v>
+        <v>283</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4266,107 +4266,107 @@
       <c r="T17" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U17" s="13" t="s">
-        <v>58</v>
+      <c r="U17" s="13" t="n">
+        <v>73</v>
       </c>
       <c r="V17" s="13" t="n">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="W17" s="13" t="n">
-        <v>22</v>
+        <v>138</v>
       </c>
       <c r="X17" s="13" t="n">
-        <v>138</v>
+        <v>100</v>
       </c>
       <c r="Y17" s="13" t="n">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="Z17" s="13" t="n">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="AA17" s="13" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AB17" s="13" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="AC17" s="13" t="n">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="AD17" s="13" t="n">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="AE17" s="13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF17" s="13" t="n">
         <v>18</v>
       </c>
-      <c r="AF17" s="13" t="n">
-        <v>13</v>
-      </c>
       <c r="AG17" s="13" t="n">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="AH17" s="13" t="n">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="AI17" s="13" t="n">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="AJ17" s="13" t="n">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="AK17" s="13" t="n">
-        <v>39</v>
+        <v>145</v>
       </c>
       <c r="AL17" s="13" t="n">
-        <v>145</v>
+        <v>111</v>
       </c>
       <c r="AM17" s="13" t="n">
-        <v>111</v>
+        <v>151</v>
       </c>
       <c r="AN17" s="13" t="n">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="AO17" s="13" t="n">
-        <v>140</v>
+        <v>47</v>
       </c>
       <c r="AP17" s="13" t="n">
-        <v>47</v>
+        <v>127</v>
       </c>
       <c r="AQ17" s="13" t="n">
-        <v>127</v>
+        <v>195</v>
       </c>
       <c r="AR17" s="13" t="n">
+        <v>181</v>
+      </c>
+      <c r="AS17" s="13" t="n">
+        <v>228</v>
+      </c>
+      <c r="AT17" s="13" t="n">
+        <v>194</v>
+      </c>
+      <c r="AU17" s="13" t="n">
         <v>195</v>
       </c>
-      <c r="AS17" s="13" t="n">
-        <v>181</v>
-      </c>
-      <c r="AT17" s="13" t="n">
-        <v>228</v>
-      </c>
-      <c r="AU17" s="13" t="n">
-        <v>194</v>
-      </c>
       <c r="AV17" s="13" t="n">
-        <v>195</v>
+        <v>156</v>
       </c>
       <c r="AW17" s="13" t="n">
-        <v>156</v>
+        <v>218</v>
       </c>
       <c r="AX17" s="13" t="n">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="AY17" s="13" t="n">
-        <v>227</v>
+        <v>92</v>
       </c>
       <c r="AZ17" s="13" t="n">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="BA17" s="13" t="n">
-        <v>105</v>
+        <v>166</v>
       </c>
       <c r="BB17" s="13" t="n">
-        <v>166</v>
+        <v>273</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4425,107 +4425,107 @@
       <c r="T18" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U18" s="16" t="s">
-        <v>58</v>
+      <c r="U18" s="16" t="n">
+        <v>257</v>
       </c>
       <c r="V18" s="16" t="n">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="W18" s="16" t="n">
+        <v>237</v>
+      </c>
+      <c r="X18" s="16" t="n">
+        <v>742</v>
+      </c>
+      <c r="Y18" s="16" t="n">
         <v>265</v>
       </c>
-      <c r="X18" s="16" t="n">
-        <v>237</v>
-      </c>
-      <c r="Y18" s="16" t="n">
-        <v>742</v>
-      </c>
       <c r="Z18" s="16" t="n">
-        <v>265</v>
+        <v>431</v>
       </c>
       <c r="AA18" s="16" t="n">
-        <v>431</v>
+        <v>315</v>
       </c>
       <c r="AB18" s="16" t="n">
-        <v>315</v>
+        <v>373</v>
       </c>
       <c r="AC18" s="16" t="n">
-        <v>373</v>
+        <v>0</v>
       </c>
       <c r="AD18" s="16" t="n">
-        <v>0</v>
+        <v>491</v>
       </c>
       <c r="AE18" s="16" t="n">
-        <v>491</v>
+        <v>460</v>
       </c>
       <c r="AF18" s="16" t="n">
-        <v>460</v>
+        <v>293</v>
       </c>
       <c r="AG18" s="16" t="n">
-        <v>293</v>
+        <v>203</v>
       </c>
       <c r="AH18" s="16" t="n">
-        <v>203</v>
+        <v>266</v>
       </c>
       <c r="AI18" s="16" t="n">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AJ18" s="16" t="n">
         <v>264</v>
       </c>
       <c r="AK18" s="16" t="n">
-        <v>264</v>
+        <v>301</v>
       </c>
       <c r="AL18" s="16" t="n">
-        <v>301</v>
+        <v>273</v>
       </c>
       <c r="AM18" s="16" t="n">
-        <v>273</v>
+        <v>360</v>
       </c>
       <c r="AN18" s="16" t="n">
-        <v>360</v>
+        <v>331</v>
       </c>
       <c r="AO18" s="16" t="n">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AP18" s="16" t="n">
-        <v>332</v>
+        <v>303</v>
       </c>
       <c r="AQ18" s="16" t="n">
-        <v>303</v>
+        <v>405</v>
       </c>
       <c r="AR18" s="16" t="n">
-        <v>405</v>
+        <v>352</v>
       </c>
       <c r="AS18" s="16" t="n">
-        <v>352</v>
+        <v>372</v>
       </c>
       <c r="AT18" s="16" t="n">
-        <v>372</v>
+        <v>349</v>
       </c>
       <c r="AU18" s="16" t="n">
-        <v>349</v>
+        <v>298</v>
       </c>
       <c r="AV18" s="16" t="n">
-        <v>298</v>
+        <v>389</v>
       </c>
       <c r="AW18" s="16" t="n">
-        <v>389</v>
+        <v>475</v>
       </c>
       <c r="AX18" s="16" t="n">
-        <v>475</v>
+        <v>425</v>
       </c>
       <c r="AY18" s="16" t="n">
-        <v>425</v>
+        <v>403</v>
       </c>
       <c r="AZ18" s="16" t="n">
-        <v>403</v>
+        <v>322</v>
       </c>
       <c r="BA18" s="16" t="n">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="BB18" s="16" t="n">
-        <v>311</v>
+        <v>437</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4583,106 +4583,106 @@
         <v>0</v>
       </c>
       <c r="U19" s="18" t="n">
-        <v>0</v>
+        <v>6538</v>
       </c>
       <c r="V19" s="18" t="n">
-        <v>6538</v>
+        <v>6205</v>
       </c>
       <c r="W19" s="18" t="n">
-        <v>6205</v>
+        <v>6026</v>
       </c>
       <c r="X19" s="18" t="n">
-        <v>6026</v>
+        <v>6231</v>
       </c>
       <c r="Y19" s="18" t="n">
-        <v>6231</v>
+        <v>6641</v>
       </c>
       <c r="Z19" s="18" t="n">
-        <v>6641</v>
+        <v>5817</v>
       </c>
       <c r="AA19" s="18" t="n">
-        <v>5817</v>
+        <v>6416</v>
       </c>
       <c r="AB19" s="18" t="n">
-        <v>6416</v>
+        <v>6523</v>
       </c>
       <c r="AC19" s="18" t="n">
-        <v>6523</v>
+        <v>5835</v>
       </c>
       <c r="AD19" s="18" t="n">
-        <v>5835</v>
+        <v>7463</v>
       </c>
       <c r="AE19" s="18" t="n">
-        <v>7463</v>
+        <v>6001</v>
       </c>
       <c r="AF19" s="18" t="n">
-        <v>6001</v>
+        <v>6079</v>
       </c>
       <c r="AG19" s="18" t="n">
-        <v>6079</v>
+        <v>6190</v>
       </c>
       <c r="AH19" s="18" t="n">
-        <v>6190</v>
+        <v>5475</v>
       </c>
       <c r="AI19" s="18" t="n">
-        <v>5475</v>
+        <v>5508</v>
       </c>
       <c r="AJ19" s="18" t="n">
+        <v>5486</v>
+      </c>
+      <c r="AK19" s="18" t="n">
         <v>5508</v>
       </c>
-      <c r="AK19" s="18" t="n">
-        <v>5486</v>
-      </c>
       <c r="AL19" s="18" t="n">
-        <v>5508</v>
+        <v>5315</v>
       </c>
       <c r="AM19" s="18" t="n">
-        <v>5315</v>
+        <v>5747</v>
       </c>
       <c r="AN19" s="18" t="n">
-        <v>5747</v>
+        <v>5149</v>
       </c>
       <c r="AO19" s="18" t="n">
-        <v>5149</v>
+        <v>5206</v>
       </c>
       <c r="AP19" s="18" t="n">
-        <v>5206</v>
+        <v>5928</v>
       </c>
       <c r="AQ19" s="18" t="n">
-        <v>5928</v>
+        <v>4786</v>
       </c>
       <c r="AR19" s="18" t="n">
-        <v>4786</v>
+        <v>5642</v>
       </c>
       <c r="AS19" s="18" t="n">
-        <v>5642</v>
+        <v>5348</v>
       </c>
       <c r="AT19" s="18" t="n">
-        <v>5348</v>
+        <v>5745</v>
       </c>
       <c r="AU19" s="18" t="n">
-        <v>5745</v>
+        <v>5554</v>
       </c>
       <c r="AV19" s="18" t="n">
-        <v>5554</v>
+        <v>5497</v>
       </c>
       <c r="AW19" s="18" t="n">
-        <v>5497</v>
+        <v>5788</v>
       </c>
       <c r="AX19" s="18" t="n">
-        <v>5788</v>
+        <v>5676</v>
       </c>
       <c r="AY19" s="18" t="n">
-        <v>5676</v>
+        <v>5672</v>
       </c>
       <c r="AZ19" s="18" t="n">
+        <v>5690</v>
+      </c>
+      <c r="BA19" s="18" t="n">
         <v>5672</v>
       </c>
-      <c r="BA19" s="18" t="n">
-        <v>5690</v>
-      </c>
       <c r="BB19" s="18" t="n">
-        <v>5672</v>
+        <v>6270</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4861,8 +4861,8 @@
       <c r="AO21" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP21" s="13" t="s">
-        <v>58</v>
+      <c r="AP21" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AQ21" s="13" t="n">
         <v>0</v>
@@ -4984,11 +4984,11 @@
       <c r="AC22" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AD22" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE22" s="16" t="n">
-        <v>0</v>
+      <c r="AD22" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AF22" s="16" t="s">
         <v>58</v>
@@ -5017,8 +5017,8 @@
       <c r="AN22" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AO22" s="16" t="s">
-        <v>58</v>
+      <c r="AO22" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AP22" s="16" t="n">
         <v>0</v>
@@ -5116,8 +5116,8 @@
       <c r="T23" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U23" s="13" t="s">
-        <v>58</v>
+      <c r="U23" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V23" s="13" t="n">
         <v>0</v>
@@ -5143,8 +5143,8 @@
       <c r="AC23" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AD23" s="13" t="n">
-        <v>0</v>
+      <c r="AD23" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AE23" s="13" t="s">
         <v>58</v>
@@ -5176,8 +5176,8 @@
       <c r="AN23" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO23" s="13" t="s">
-        <v>58</v>
+      <c r="AO23" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AP23" s="13" t="n">
         <v>0</v>
@@ -5338,8 +5338,8 @@
       <c r="AO24" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AP24" s="16" t="s">
-        <v>58</v>
+      <c r="AP24" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AQ24" s="16" t="n">
         <v>0</v>
@@ -5494,11 +5494,11 @@
       <c r="AN25" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO25" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP25" s="13" t="n">
-        <v>0</v>
+      <c r="AO25" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP25" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AQ25" s="13" t="s">
         <v>58</v>
@@ -5527,14 +5527,14 @@
       <c r="AY25" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AZ25" s="13" t="s">
-        <v>58</v>
+      <c r="AZ25" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="BA25" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="BB25" s="13" t="n">
-        <v>0</v>
+      <c r="BB25" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5653,8 +5653,8 @@
       <c r="AN26" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AO26" s="16" t="s">
-        <v>58</v>
+      <c r="AO26" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AP26" s="16" t="n">
         <v>0</v>
@@ -5833,8 +5833,8 @@
       <c r="AU27" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AV27" s="13" t="s">
-        <v>58</v>
+      <c r="AV27" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AW27" s="13" t="n">
         <v>0</v>
@@ -5911,8 +5911,8 @@
       <c r="T28" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U28" s="16" t="s">
-        <v>58</v>
+      <c r="U28" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="V28" s="16" t="n">
         <v>0</v>
@@ -5938,8 +5938,8 @@
       <c r="AC28" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AD28" s="16" t="n">
-        <v>0</v>
+      <c r="AD28" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AE28" s="16" t="s">
         <v>58</v>
@@ -5971,11 +5971,11 @@
       <c r="AN28" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AO28" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP28" s="16" t="n">
-        <v>0</v>
+      <c r="AO28" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP28" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AQ28" s="16" t="s">
         <v>58</v>
@@ -5992,8 +5992,8 @@
       <c r="AU28" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AV28" s="16" t="s">
-        <v>58</v>
+      <c r="AV28" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AW28" s="16" t="n">
         <v>0</v>
@@ -6097,11 +6097,11 @@
       <c r="AC29" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD29" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE29" s="13" t="n">
-        <v>0</v>
+      <c r="AD29" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AF29" s="13" t="s">
         <v>58</v>
@@ -6256,11 +6256,11 @@
       <c r="AC30" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AD30" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE30" s="16" t="n">
-        <v>0</v>
+      <c r="AD30" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AF30" s="16" t="s">
         <v>58</v>
@@ -6415,11 +6415,11 @@
       <c r="AC31" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD31" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE31" s="13" t="n">
-        <v>0</v>
+      <c r="AD31" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AF31" s="13" t="s">
         <v>58</v>
@@ -6574,11 +6574,11 @@
       <c r="AC32" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AD32" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE32" s="16" t="n">
-        <v>0</v>
+      <c r="AD32" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AF32" s="16" t="s">
         <v>58</v>
@@ -6947,11 +6947,11 @@
       <c r="AC35" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD35" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE35" s="13" t="n">
-        <v>0</v>
+      <c r="AD35" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE35" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AF35" s="13" t="s">
         <v>58</v>
@@ -6983,8 +6983,8 @@
       <c r="AO35" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP35" s="13" t="s">
-        <v>58</v>
+      <c r="AP35" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AQ35" s="13" t="n">
         <v>0</v>
@@ -6992,29 +6992,29 @@
       <c r="AR35" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AS35" s="13" t="n">
-        <v>0</v>
+      <c r="AS35" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AT35" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AU35" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV35" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW35" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX35" s="13" t="n">
-        <v>0</v>
+      <c r="AU35" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV35" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW35" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX35" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AY35" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AZ35" s="13" t="s">
-        <v>58</v>
+      <c r="AZ35" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="BA35" s="13" t="n">
         <v>0</v>
@@ -7077,8 +7077,8 @@
       <c r="T36" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="U36" s="20" t="s">
-        <v>58</v>
+      <c r="U36" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="V36" s="20" t="n">
         <v>0</v>
@@ -7235,106 +7235,106 @@
         <v>0</v>
       </c>
       <c r="U37" s="18" t="n">
-        <v>0</v>
+        <v>6538</v>
       </c>
       <c r="V37" s="18" t="n">
-        <v>6538</v>
+        <v>6205</v>
       </c>
       <c r="W37" s="18" t="n">
-        <v>6205</v>
+        <v>6026</v>
       </c>
       <c r="X37" s="18" t="n">
-        <v>6026</v>
+        <v>6231</v>
       </c>
       <c r="Y37" s="18" t="n">
-        <v>6231</v>
+        <v>6641</v>
       </c>
       <c r="Z37" s="18" t="n">
-        <v>6641</v>
+        <v>5817</v>
       </c>
       <c r="AA37" s="18" t="n">
-        <v>5817</v>
+        <v>6416</v>
       </c>
       <c r="AB37" s="18" t="n">
-        <v>6416</v>
+        <v>6523</v>
       </c>
       <c r="AC37" s="18" t="n">
-        <v>6523</v>
+        <v>5835</v>
       </c>
       <c r="AD37" s="18" t="n">
-        <v>5835</v>
+        <v>7463</v>
       </c>
       <c r="AE37" s="18" t="n">
-        <v>7463</v>
+        <v>6001</v>
       </c>
       <c r="AF37" s="18" t="n">
-        <v>6001</v>
+        <v>6079</v>
       </c>
       <c r="AG37" s="18" t="n">
-        <v>6079</v>
+        <v>6190</v>
       </c>
       <c r="AH37" s="18" t="n">
-        <v>6190</v>
+        <v>5475</v>
       </c>
       <c r="AI37" s="18" t="n">
-        <v>5475</v>
+        <v>5508</v>
       </c>
       <c r="AJ37" s="18" t="n">
+        <v>5486</v>
+      </c>
+      <c r="AK37" s="18" t="n">
         <v>5508</v>
       </c>
-      <c r="AK37" s="18" t="n">
-        <v>5486</v>
-      </c>
       <c r="AL37" s="18" t="n">
-        <v>5508</v>
+        <v>5315</v>
       </c>
       <c r="AM37" s="18" t="n">
-        <v>5315</v>
+        <v>5747</v>
       </c>
       <c r="AN37" s="18" t="n">
-        <v>5747</v>
+        <v>5149</v>
       </c>
       <c r="AO37" s="18" t="n">
-        <v>5149</v>
+        <v>5206</v>
       </c>
       <c r="AP37" s="18" t="n">
-        <v>5206</v>
+        <v>5928</v>
       </c>
       <c r="AQ37" s="18" t="n">
-        <v>5928</v>
+        <v>4786</v>
       </c>
       <c r="AR37" s="18" t="n">
-        <v>4786</v>
+        <v>5642</v>
       </c>
       <c r="AS37" s="18" t="n">
-        <v>5642</v>
+        <v>5348</v>
       </c>
       <c r="AT37" s="18" t="n">
-        <v>5348</v>
+        <v>5745</v>
       </c>
       <c r="AU37" s="18" t="n">
-        <v>5745</v>
+        <v>5554</v>
       </c>
       <c r="AV37" s="18" t="n">
-        <v>5554</v>
+        <v>5497</v>
       </c>
       <c r="AW37" s="18" t="n">
-        <v>5497</v>
+        <v>5788</v>
       </c>
       <c r="AX37" s="18" t="n">
-        <v>5788</v>
+        <v>5676</v>
       </c>
       <c r="AY37" s="18" t="n">
-        <v>5676</v>
+        <v>5672</v>
       </c>
       <c r="AZ37" s="18" t="n">
+        <v>5690</v>
+      </c>
+      <c r="BA37" s="18" t="n">
         <v>5672</v>
       </c>
-      <c r="BA37" s="18" t="n">
-        <v>5690</v>
-      </c>
       <c r="BB37" s="18" t="n">
-        <v>5672</v>
+        <v>6270</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7827,107 +7827,107 @@
       <c r="T44" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U44" s="13" t="s">
-        <v>58</v>
+      <c r="U44" s="13" t="n">
+        <v>1149</v>
       </c>
       <c r="V44" s="13" t="n">
-        <v>1149</v>
+        <v>1226</v>
       </c>
       <c r="W44" s="13" t="n">
-        <v>1226</v>
+        <v>1142</v>
       </c>
       <c r="X44" s="13" t="n">
-        <v>1142</v>
+        <v>797</v>
       </c>
       <c r="Y44" s="13" t="n">
-        <v>797</v>
+        <v>739</v>
       </c>
       <c r="Z44" s="13" t="n">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="AA44" s="13" t="n">
-        <v>741</v>
+        <v>768</v>
       </c>
       <c r="AB44" s="13" t="n">
-        <v>768</v>
+        <v>857</v>
       </c>
       <c r="AC44" s="13" t="n">
-        <v>857</v>
+        <v>1121</v>
       </c>
       <c r="AD44" s="13" t="n">
-        <v>1121</v>
+        <v>1268</v>
       </c>
       <c r="AE44" s="13" t="n">
-        <v>1268</v>
+        <v>1006</v>
       </c>
       <c r="AF44" s="13" t="n">
-        <v>1006</v>
+        <v>910</v>
       </c>
       <c r="AG44" s="13" t="n">
-        <v>910</v>
+        <v>1024</v>
       </c>
       <c r="AH44" s="13" t="n">
-        <v>1024</v>
+        <v>799</v>
       </c>
       <c r="AI44" s="13" t="n">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="AJ44" s="13" t="n">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="AK44" s="13" t="n">
-        <v>594</v>
+        <v>697</v>
       </c>
       <c r="AL44" s="13" t="n">
-        <v>697</v>
+        <v>558</v>
       </c>
       <c r="AM44" s="13" t="n">
-        <v>558</v>
+        <v>597</v>
       </c>
       <c r="AN44" s="13" t="n">
-        <v>597</v>
+        <v>585</v>
       </c>
       <c r="AO44" s="13" t="n">
-        <v>585</v>
+        <v>675</v>
       </c>
       <c r="AP44" s="13" t="n">
-        <v>675</v>
+        <v>971</v>
       </c>
       <c r="AQ44" s="13" t="n">
-        <v>971</v>
+        <v>647</v>
       </c>
       <c r="AR44" s="13" t="n">
-        <v>647</v>
+        <v>876</v>
       </c>
       <c r="AS44" s="13" t="n">
-        <v>876</v>
+        <v>727</v>
       </c>
       <c r="AT44" s="13" t="n">
-        <v>727</v>
+        <v>840</v>
       </c>
       <c r="AU44" s="13" t="n">
-        <v>840</v>
+        <v>776</v>
       </c>
       <c r="AV44" s="13" t="n">
-        <v>776</v>
+        <v>653</v>
       </c>
       <c r="AW44" s="13" t="n">
-        <v>653</v>
+        <v>632</v>
       </c>
       <c r="AX44" s="13" t="n">
-        <v>632</v>
+        <v>616</v>
       </c>
       <c r="AY44" s="13" t="n">
-        <v>616</v>
+        <v>595</v>
       </c>
       <c r="AZ44" s="13" t="n">
-        <v>595</v>
+        <v>569</v>
       </c>
       <c r="BA44" s="13" t="n">
-        <v>569</v>
+        <v>989</v>
       </c>
       <c r="BB44" s="13" t="n">
-        <v>989</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7986,11 +7986,11 @@
       <c r="T45" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U45" s="16" t="s">
-        <v>58</v>
+      <c r="U45" s="16" t="n">
+        <v>19</v>
       </c>
       <c r="V45" s="16" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="W45" s="16" t="n">
         <v>24</v>
@@ -7999,94 +7999,94 @@
         <v>24</v>
       </c>
       <c r="Y45" s="16" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="Z45" s="16" t="n">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="AA45" s="16" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="AB45" s="16" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="AC45" s="16" t="n">
-        <v>27</v>
+        <v>108</v>
       </c>
       <c r="AD45" s="16" t="n">
-        <v>108</v>
+        <v>26</v>
       </c>
       <c r="AE45" s="16" t="n">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="AF45" s="16" t="n">
-        <v>80</v>
+        <v>369</v>
       </c>
       <c r="AG45" s="16" t="n">
-        <v>369</v>
+        <v>13</v>
       </c>
       <c r="AH45" s="16" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AI45" s="16" t="n">
         <v>20</v>
       </c>
       <c r="AJ45" s="16" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="AK45" s="16" t="n">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="AL45" s="16" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="AM45" s="16" t="n">
+        <v>14</v>
+      </c>
+      <c r="AN45" s="16" t="n">
+        <v>31</v>
+      </c>
+      <c r="AO45" s="16" t="n">
         <v>22</v>
       </c>
-      <c r="AN45" s="16" t="n">
+      <c r="AP45" s="16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AQ45" s="16" t="n">
+        <v>18</v>
+      </c>
+      <c r="AR45" s="16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AS45" s="16" t="n">
         <v>14</v>
       </c>
-      <c r="AO45" s="16" t="n">
-        <v>31</v>
-      </c>
-      <c r="AP45" s="16" t="n">
-        <v>22</v>
-      </c>
-      <c r="AQ45" s="16" t="n">
-        <v>13</v>
-      </c>
-      <c r="AR45" s="16" t="n">
+      <c r="AT45" s="16" t="n">
         <v>18</v>
-      </c>
-      <c r="AS45" s="16" t="n">
-        <v>19</v>
-      </c>
-      <c r="AT45" s="16" t="n">
-        <v>14</v>
       </c>
       <c r="AU45" s="16" t="n">
         <v>18</v>
       </c>
       <c r="AV45" s="16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AW45" s="16" t="n">
+        <v>20</v>
+      </c>
+      <c r="AX45" s="16" t="n">
         <v>18</v>
       </c>
-      <c r="AW45" s="16" t="n">
-        <v>19</v>
-      </c>
-      <c r="AX45" s="16" t="n">
+      <c r="AY45" s="16" t="n">
         <v>20</v>
       </c>
-      <c r="AY45" s="16" t="n">
-        <v>18</v>
-      </c>
       <c r="AZ45" s="16" t="n">
+        <v>22</v>
+      </c>
+      <c r="BA45" s="16" t="n">
         <v>20</v>
       </c>
-      <c r="BA45" s="16" t="n">
-        <v>22</v>
-      </c>
       <c r="BB45" s="16" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8145,107 +8145,107 @@
       <c r="T46" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U46" s="13" t="s">
-        <v>58</v>
+      <c r="U46" s="13" t="n">
+        <v>2297</v>
       </c>
       <c r="V46" s="13" t="n">
-        <v>2297</v>
+        <v>2227</v>
       </c>
       <c r="W46" s="13" t="n">
-        <v>2227</v>
+        <v>2205</v>
       </c>
       <c r="X46" s="13" t="n">
-        <v>2205</v>
+        <v>2756</v>
       </c>
       <c r="Y46" s="13" t="n">
-        <v>2756</v>
+        <v>3649</v>
       </c>
       <c r="Z46" s="13" t="n">
-        <v>3649</v>
+        <v>2493</v>
       </c>
       <c r="AA46" s="13" t="n">
+        <v>2633</v>
+      </c>
+      <c r="AB46" s="13" t="n">
+        <v>2858</v>
+      </c>
+      <c r="AC46" s="13" t="n">
+        <v>3040</v>
+      </c>
+      <c r="AD46" s="13" t="n">
+        <v>2687</v>
+      </c>
+      <c r="AE46" s="13" t="n">
+        <v>2496</v>
+      </c>
+      <c r="AF46" s="13" t="n">
+        <v>2279</v>
+      </c>
+      <c r="AG46" s="13" t="n">
+        <v>2285</v>
+      </c>
+      <c r="AH46" s="13" t="n">
+        <v>2118</v>
+      </c>
+      <c r="AI46" s="13" t="n">
+        <v>2405</v>
+      </c>
+      <c r="AJ46" s="13" t="n">
+        <v>2280</v>
+      </c>
+      <c r="AK46" s="13" t="n">
+        <v>2716</v>
+      </c>
+      <c r="AL46" s="13" t="n">
+        <v>2860</v>
+      </c>
+      <c r="AM46" s="13" t="n">
+        <v>2607</v>
+      </c>
+      <c r="AN46" s="13" t="n">
+        <v>2415</v>
+      </c>
+      <c r="AO46" s="13" t="n">
+        <v>2238</v>
+      </c>
+      <c r="AP46" s="13" t="n">
+        <v>2191</v>
+      </c>
+      <c r="AQ46" s="13" t="n">
+        <v>2092</v>
+      </c>
+      <c r="AR46" s="13" t="n">
+        <v>1961</v>
+      </c>
+      <c r="AS46" s="13" t="n">
+        <v>2238</v>
+      </c>
+      <c r="AT46" s="13" t="n">
+        <v>2016</v>
+      </c>
+      <c r="AU46" s="13" t="n">
+        <v>2116</v>
+      </c>
+      <c r="AV46" s="13" t="n">
         <v>2493</v>
       </c>
-      <c r="AB46" s="13" t="n">
-        <v>2633</v>
-      </c>
-      <c r="AC46" s="13" t="n">
-        <v>2858</v>
-      </c>
-      <c r="AD46" s="13" t="n">
-        <v>3040</v>
-      </c>
-      <c r="AE46" s="13" t="n">
-        <v>2687</v>
-      </c>
-      <c r="AF46" s="13" t="n">
-        <v>2496</v>
-      </c>
-      <c r="AG46" s="13" t="n">
-        <v>2279</v>
-      </c>
-      <c r="AH46" s="13" t="n">
-        <v>2285</v>
-      </c>
-      <c r="AI46" s="13" t="n">
-        <v>2118</v>
-      </c>
-      <c r="AJ46" s="13" t="n">
-        <v>2405</v>
-      </c>
-      <c r="AK46" s="13" t="n">
-        <v>2280</v>
-      </c>
-      <c r="AL46" s="13" t="n">
-        <v>2716</v>
-      </c>
-      <c r="AM46" s="13" t="n">
-        <v>2860</v>
-      </c>
-      <c r="AN46" s="13" t="n">
-        <v>2607</v>
-      </c>
-      <c r="AO46" s="13" t="n">
-        <v>2415</v>
-      </c>
-      <c r="AP46" s="13" t="n">
-        <v>2238</v>
-      </c>
-      <c r="AQ46" s="13" t="n">
-        <v>2191</v>
-      </c>
-      <c r="AR46" s="13" t="n">
-        <v>2092</v>
-      </c>
-      <c r="AS46" s="13" t="n">
-        <v>1961</v>
-      </c>
-      <c r="AT46" s="13" t="n">
-        <v>2238</v>
-      </c>
-      <c r="AU46" s="13" t="n">
-        <v>2016</v>
-      </c>
-      <c r="AV46" s="13" t="n">
-        <v>2116</v>
-      </c>
       <c r="AW46" s="13" t="n">
-        <v>2493</v>
+        <v>2732</v>
       </c>
       <c r="AX46" s="13" t="n">
-        <v>2732</v>
+        <v>2894</v>
       </c>
       <c r="AY46" s="13" t="n">
-        <v>2894</v>
+        <v>2838</v>
       </c>
       <c r="AZ46" s="13" t="n">
-        <v>2838</v>
+        <v>2911</v>
       </c>
       <c r="BA46" s="13" t="n">
-        <v>2911</v>
+        <v>2499</v>
       </c>
       <c r="BB46" s="13" t="n">
-        <v>2499</v>
+        <v>2511</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8304,107 +8304,107 @@
       <c r="T47" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U47" s="16" t="s">
-        <v>58</v>
+      <c r="U47" s="16" t="n">
+        <v>259</v>
       </c>
       <c r="V47" s="16" t="n">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="W47" s="16" t="n">
-        <v>253</v>
+        <v>305</v>
       </c>
       <c r="X47" s="16" t="n">
         <v>305</v>
       </c>
       <c r="Y47" s="16" t="n">
+        <v>390</v>
+      </c>
+      <c r="Z47" s="16" t="n">
+        <v>527</v>
+      </c>
+      <c r="AA47" s="16" t="n">
+        <v>363</v>
+      </c>
+      <c r="AB47" s="16" t="n">
+        <v>412</v>
+      </c>
+      <c r="AC47" s="16" t="n">
+        <v>297</v>
+      </c>
+      <c r="AD47" s="16" t="n">
         <v>305</v>
       </c>
-      <c r="Z47" s="16" t="n">
-        <v>390</v>
-      </c>
-      <c r="AA47" s="16" t="n">
-        <v>527</v>
-      </c>
-      <c r="AB47" s="16" t="n">
-        <v>363</v>
-      </c>
-      <c r="AC47" s="16" t="n">
-        <v>412</v>
-      </c>
-      <c r="AD47" s="16" t="n">
-        <v>297</v>
-      </c>
       <c r="AE47" s="16" t="n">
-        <v>305</v>
+        <v>187</v>
       </c>
       <c r="AF47" s="16" t="n">
-        <v>187</v>
+        <v>154</v>
       </c>
       <c r="AG47" s="16" t="n">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AH47" s="16" t="n">
+        <v>143</v>
+      </c>
+      <c r="AI47" s="16" t="n">
+        <v>170</v>
+      </c>
+      <c r="AJ47" s="16" t="n">
+        <v>203</v>
+      </c>
+      <c r="AK47" s="16" t="n">
         <v>156</v>
       </c>
-      <c r="AI47" s="16" t="n">
-        <v>143</v>
-      </c>
-      <c r="AJ47" s="16" t="n">
-        <v>170</v>
-      </c>
-      <c r="AK47" s="16" t="n">
-        <v>203</v>
-      </c>
       <c r="AL47" s="16" t="n">
-        <v>156</v>
+        <v>198</v>
       </c>
       <c r="AM47" s="16" t="n">
-        <v>198</v>
+        <v>268</v>
       </c>
       <c r="AN47" s="16" t="n">
-        <v>268</v>
+        <v>174</v>
       </c>
       <c r="AO47" s="16" t="n">
-        <v>174</v>
+        <v>438</v>
       </c>
       <c r="AP47" s="16" t="n">
-        <v>438</v>
+        <v>376</v>
       </c>
       <c r="AQ47" s="16" t="n">
-        <v>376</v>
+        <v>159</v>
       </c>
       <c r="AR47" s="16" t="n">
-        <v>159</v>
+        <v>226</v>
       </c>
       <c r="AS47" s="16" t="n">
-        <v>226</v>
+        <v>475</v>
       </c>
       <c r="AT47" s="16" t="n">
-        <v>475</v>
+        <v>323</v>
       </c>
       <c r="AU47" s="16" t="n">
-        <v>323</v>
+        <v>342</v>
       </c>
       <c r="AV47" s="16" t="n">
-        <v>342</v>
+        <v>414</v>
       </c>
       <c r="AW47" s="16" t="n">
-        <v>414</v>
+        <v>209</v>
       </c>
       <c r="AX47" s="16" t="n">
-        <v>209</v>
+        <v>332</v>
       </c>
       <c r="AY47" s="16" t="n">
-        <v>332</v>
+        <v>375</v>
       </c>
       <c r="AZ47" s="16" t="n">
-        <v>375</v>
+        <v>409</v>
       </c>
       <c r="BA47" s="16" t="n">
-        <v>409</v>
+        <v>253</v>
       </c>
       <c r="BB47" s="16" t="n">
-        <v>253</v>
+        <v>200</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8463,107 +8463,107 @@
       <c r="T48" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U48" s="13" t="s">
-        <v>58</v>
+      <c r="U48" s="13" t="n">
+        <v>1752</v>
       </c>
       <c r="V48" s="13" t="n">
-        <v>1752</v>
+        <v>1685</v>
       </c>
       <c r="W48" s="13" t="n">
-        <v>1685</v>
+        <v>1619</v>
       </c>
       <c r="X48" s="13" t="n">
-        <v>1619</v>
+        <v>1348</v>
       </c>
       <c r="Y48" s="13" t="n">
-        <v>1348</v>
+        <v>1274</v>
       </c>
       <c r="Z48" s="13" t="n">
-        <v>1274</v>
+        <v>1285</v>
       </c>
       <c r="AA48" s="13" t="n">
-        <v>1285</v>
+        <v>1300</v>
       </c>
       <c r="AB48" s="13" t="n">
-        <v>1300</v>
+        <v>1431</v>
       </c>
       <c r="AC48" s="13" t="n">
-        <v>1431</v>
+        <v>1630</v>
       </c>
       <c r="AD48" s="13" t="n">
-        <v>1630</v>
+        <v>1915</v>
       </c>
       <c r="AE48" s="13" t="n">
-        <v>1915</v>
+        <v>1664</v>
       </c>
       <c r="AF48" s="13" t="n">
-        <v>1664</v>
+        <v>1879</v>
       </c>
       <c r="AG48" s="13" t="n">
-        <v>1879</v>
+        <v>1786</v>
       </c>
       <c r="AH48" s="13" t="n">
-        <v>1786</v>
+        <v>1410</v>
       </c>
       <c r="AI48" s="13" t="n">
-        <v>1410</v>
+        <v>1420</v>
       </c>
       <c r="AJ48" s="13" t="n">
-        <v>1420</v>
+        <v>1189</v>
       </c>
       <c r="AK48" s="13" t="n">
-        <v>1189</v>
+        <v>1122</v>
       </c>
       <c r="AL48" s="13" t="n">
-        <v>1122</v>
+        <v>1029</v>
       </c>
       <c r="AM48" s="13" t="n">
-        <v>1029</v>
+        <v>988</v>
       </c>
       <c r="AN48" s="13" t="n">
-        <v>988</v>
+        <v>1139</v>
       </c>
       <c r="AO48" s="13" t="n">
-        <v>1139</v>
+        <v>1353</v>
       </c>
       <c r="AP48" s="13" t="n">
-        <v>1353</v>
+        <v>1501</v>
       </c>
       <c r="AQ48" s="13" t="n">
-        <v>1501</v>
+        <v>1243</v>
       </c>
       <c r="AR48" s="13" t="n">
-        <v>1243</v>
+        <v>1318</v>
       </c>
       <c r="AS48" s="13" t="n">
-        <v>1318</v>
+        <v>1222</v>
       </c>
       <c r="AT48" s="13" t="n">
-        <v>1222</v>
+        <v>1297</v>
       </c>
       <c r="AU48" s="13" t="n">
-        <v>1297</v>
+        <v>1221</v>
       </c>
       <c r="AV48" s="13" t="n">
-        <v>1221</v>
+        <v>1111</v>
       </c>
       <c r="AW48" s="13" t="n">
-        <v>1111</v>
+        <v>1197</v>
       </c>
       <c r="AX48" s="13" t="n">
-        <v>1197</v>
+        <v>934</v>
       </c>
       <c r="AY48" s="13" t="n">
-        <v>934</v>
+        <v>958</v>
       </c>
       <c r="AZ48" s="13" t="n">
-        <v>958</v>
+        <v>1183</v>
       </c>
       <c r="BA48" s="13" t="n">
-        <v>1183</v>
+        <v>1250</v>
       </c>
       <c r="BB48" s="13" t="n">
-        <v>1250</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8622,107 +8622,107 @@
       <c r="T49" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U49" s="16" t="s">
-        <v>58</v>
+      <c r="U49" s="16" t="n">
+        <v>609</v>
       </c>
       <c r="V49" s="16" t="n">
-        <v>609</v>
+        <v>534</v>
       </c>
       <c r="W49" s="16" t="n">
-        <v>534</v>
+        <v>504</v>
       </c>
       <c r="X49" s="16" t="n">
-        <v>504</v>
+        <v>304</v>
       </c>
       <c r="Y49" s="16" t="n">
-        <v>304</v>
+        <v>370</v>
       </c>
       <c r="Z49" s="16" t="n">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="AA49" s="16" t="n">
-        <v>358</v>
+        <v>402</v>
       </c>
       <c r="AB49" s="16" t="n">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="AC49" s="16" t="n">
-        <v>409</v>
+        <v>486</v>
       </c>
       <c r="AD49" s="16" t="n">
-        <v>486</v>
+        <v>447</v>
       </c>
       <c r="AE49" s="16" t="n">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="AF49" s="16" t="n">
-        <v>450</v>
+        <v>378</v>
       </c>
       <c r="AG49" s="16" t="n">
-        <v>378</v>
+        <v>477</v>
       </c>
       <c r="AH49" s="16" t="n">
-        <v>477</v>
+        <v>369</v>
       </c>
       <c r="AI49" s="16" t="n">
-        <v>369</v>
+        <v>446</v>
       </c>
       <c r="AJ49" s="16" t="n">
-        <v>446</v>
+        <v>385</v>
       </c>
       <c r="AK49" s="16" t="n">
-        <v>385</v>
+        <v>426</v>
       </c>
       <c r="AL49" s="16" t="n">
-        <v>426</v>
+        <v>377</v>
       </c>
       <c r="AM49" s="16" t="n">
-        <v>377</v>
+        <v>329</v>
       </c>
       <c r="AN49" s="16" t="n">
-        <v>329</v>
+        <v>289</v>
       </c>
       <c r="AO49" s="16" t="n">
-        <v>289</v>
+        <v>400</v>
       </c>
       <c r="AP49" s="16" t="n">
-        <v>400</v>
+        <v>333</v>
       </c>
       <c r="AQ49" s="16" t="n">
-        <v>333</v>
+        <v>403</v>
       </c>
       <c r="AR49" s="16" t="n">
-        <v>403</v>
+        <v>356</v>
       </c>
       <c r="AS49" s="16" t="n">
-        <v>356</v>
+        <v>328</v>
       </c>
       <c r="AT49" s="16" t="n">
-        <v>328</v>
+        <v>384</v>
       </c>
       <c r="AU49" s="16" t="n">
-        <v>384</v>
+        <v>364</v>
       </c>
       <c r="AV49" s="16" t="n">
-        <v>364</v>
+        <v>338</v>
       </c>
       <c r="AW49" s="16" t="n">
-        <v>338</v>
+        <v>249</v>
       </c>
       <c r="AX49" s="16" t="n">
-        <v>249</v>
+        <v>270</v>
       </c>
       <c r="AY49" s="16" t="n">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="AZ49" s="16" t="n">
-        <v>251</v>
+        <v>310</v>
       </c>
       <c r="BA49" s="16" t="n">
-        <v>310</v>
+        <v>428</v>
       </c>
       <c r="BB49" s="16" t="n">
-        <v>428</v>
+        <v>312</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8781,107 +8781,107 @@
       <c r="T50" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U50" s="13" t="s">
-        <v>58</v>
+      <c r="U50" s="13" t="n">
+        <v>47</v>
       </c>
       <c r="V50" s="13" t="n">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="W50" s="13" t="n">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="X50" s="13" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="Y50" s="13" t="n">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="Z50" s="13" t="n">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="AA50" s="13" t="n">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="AB50" s="13" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="AC50" s="13" t="n">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="AD50" s="13" t="n">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="AE50" s="13" t="n">
         <v>26</v>
       </c>
       <c r="AF50" s="13" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="AG50" s="13" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AH50" s="13" t="n">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="AI50" s="13" t="n">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="AJ50" s="13" t="n">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="AK50" s="13" t="n">
+        <v>37</v>
+      </c>
+      <c r="AL50" s="13" t="n">
+        <v>58</v>
+      </c>
+      <c r="AM50" s="13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN50" s="13" t="n">
+        <v>8</v>
+      </c>
+      <c r="AO50" s="13" t="n">
+        <v>84</v>
+      </c>
+      <c r="AP50" s="13" t="n">
+        <v>323</v>
+      </c>
+      <c r="AQ50" s="13" t="n">
+        <v>143</v>
+      </c>
+      <c r="AR50" s="13" t="n">
         <v>30</v>
       </c>
-      <c r="AL50" s="13" t="n">
-        <v>37</v>
-      </c>
-      <c r="AM50" s="13" t="n">
-        <v>58</v>
-      </c>
-      <c r="AN50" s="13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AO50" s="13" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP50" s="13" t="n">
-        <v>84</v>
-      </c>
-      <c r="AQ50" s="13" t="n">
-        <v>323</v>
-      </c>
-      <c r="AR50" s="13" t="n">
-        <v>143</v>
-      </c>
       <c r="AS50" s="13" t="n">
-        <v>30</v>
+        <v>226</v>
       </c>
       <c r="AT50" s="13" t="n">
-        <v>226</v>
+        <v>65</v>
       </c>
       <c r="AU50" s="13" t="n">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="AV50" s="13" t="n">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="AW50" s="13" t="n">
-        <v>130</v>
+        <v>45</v>
       </c>
       <c r="AX50" s="13" t="n">
-        <v>45</v>
+        <v>140</v>
       </c>
       <c r="AY50" s="13" t="n">
-        <v>140</v>
+        <v>107</v>
       </c>
       <c r="AZ50" s="13" t="n">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="BA50" s="13" t="n">
-        <v>110</v>
+        <v>35</v>
       </c>
       <c r="BB50" s="13" t="n">
-        <v>35</v>
+        <v>127</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8940,107 +8940,107 @@
       <c r="T51" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U51" s="16" t="s">
-        <v>58</v>
+      <c r="U51" s="16" t="n">
+        <v>264</v>
       </c>
       <c r="V51" s="16" t="n">
-        <v>264</v>
+        <v>351</v>
       </c>
       <c r="W51" s="16" t="n">
-        <v>351</v>
+        <v>117</v>
       </c>
       <c r="X51" s="16" t="n">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="Y51" s="16" t="n">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Z51" s="16" t="n">
-        <v>148</v>
+        <v>227</v>
       </c>
       <c r="AA51" s="16" t="n">
-        <v>227</v>
+        <v>188</v>
       </c>
       <c r="AB51" s="16" t="n">
-        <v>188</v>
+        <v>149</v>
       </c>
       <c r="AC51" s="16" t="n">
-        <v>149</v>
+        <v>437</v>
       </c>
       <c r="AD51" s="16" t="n">
-        <v>437</v>
+        <v>247</v>
       </c>
       <c r="AE51" s="16" t="n">
-        <v>247</v>
+        <v>208</v>
       </c>
       <c r="AF51" s="16" t="n">
-        <v>208</v>
+        <v>370</v>
       </c>
       <c r="AG51" s="16" t="n">
-        <v>370</v>
+        <v>404</v>
       </c>
       <c r="AH51" s="16" t="n">
-        <v>404</v>
+        <v>172</v>
       </c>
       <c r="AI51" s="16" t="n">
+        <v>232</v>
+      </c>
+      <c r="AJ51" s="16" t="n">
+        <v>273</v>
+      </c>
+      <c r="AK51" s="16" t="n">
+        <v>285</v>
+      </c>
+      <c r="AL51" s="16" t="n">
+        <v>187</v>
+      </c>
+      <c r="AM51" s="16" t="n">
+        <v>183</v>
+      </c>
+      <c r="AN51" s="16" t="n">
+        <v>199</v>
+      </c>
+      <c r="AO51" s="16" t="n">
+        <v>489</v>
+      </c>
+      <c r="AP51" s="16" t="n">
+        <v>372</v>
+      </c>
+      <c r="AQ51" s="16" t="n">
+        <v>142</v>
+      </c>
+      <c r="AR51" s="16" t="n">
+        <v>71</v>
+      </c>
+      <c r="AS51" s="16" t="n">
+        <v>56</v>
+      </c>
+      <c r="AT51" s="16" t="n">
+        <v>488</v>
+      </c>
+      <c r="AU51" s="16" t="n">
         <v>172</v>
       </c>
-      <c r="AJ51" s="16" t="n">
-        <v>232</v>
-      </c>
-      <c r="AK51" s="16" t="n">
-        <v>273</v>
-      </c>
-      <c r="AL51" s="16" t="n">
-        <v>285</v>
-      </c>
-      <c r="AM51" s="16" t="n">
-        <v>187</v>
-      </c>
-      <c r="AN51" s="16" t="n">
-        <v>183</v>
-      </c>
-      <c r="AO51" s="16" t="n">
-        <v>199</v>
-      </c>
-      <c r="AP51" s="16" t="n">
-        <v>489</v>
-      </c>
-      <c r="AQ51" s="16" t="n">
-        <v>372</v>
-      </c>
-      <c r="AR51" s="16" t="n">
-        <v>142</v>
-      </c>
-      <c r="AS51" s="16" t="n">
-        <v>71</v>
-      </c>
-      <c r="AT51" s="16" t="n">
-        <v>56</v>
-      </c>
-      <c r="AU51" s="16" t="n">
-        <v>488</v>
-      </c>
       <c r="AV51" s="16" t="n">
-        <v>172</v>
+        <v>129</v>
       </c>
       <c r="AW51" s="16" t="n">
-        <v>129</v>
+        <v>62</v>
       </c>
       <c r="AX51" s="16" t="n">
-        <v>62</v>
+        <v>315</v>
       </c>
       <c r="AY51" s="16" t="n">
-        <v>315</v>
+        <v>200</v>
       </c>
       <c r="AZ51" s="16" t="n">
-        <v>200</v>
+        <v>233</v>
       </c>
       <c r="BA51" s="16" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BB51" s="16" t="n">
-        <v>234</v>
+        <v>495</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9098,106 +9098,106 @@
         <v>0</v>
       </c>
       <c r="U52" s="18" t="n">
-        <v>0</v>
+        <v>6396</v>
       </c>
       <c r="V52" s="18" t="n">
-        <v>6396</v>
+        <v>6318</v>
       </c>
       <c r="W52" s="18" t="n">
-        <v>6318</v>
+        <v>5983</v>
       </c>
       <c r="X52" s="18" t="n">
-        <v>5983</v>
+        <v>5730</v>
       </c>
       <c r="Y52" s="18" t="n">
-        <v>5730</v>
+        <v>6649</v>
       </c>
       <c r="Z52" s="18" t="n">
-        <v>6649</v>
+        <v>5745</v>
       </c>
       <c r="AA52" s="18" t="n">
-        <v>5745</v>
+        <v>5713</v>
       </c>
       <c r="AB52" s="18" t="n">
-        <v>5713</v>
+        <v>6174</v>
       </c>
       <c r="AC52" s="18" t="n">
-        <v>6174</v>
+        <v>7158</v>
       </c>
       <c r="AD52" s="18" t="n">
-        <v>7158</v>
+        <v>6921</v>
       </c>
       <c r="AE52" s="18" t="n">
-        <v>6921</v>
+        <v>6117</v>
       </c>
       <c r="AF52" s="18" t="n">
-        <v>6117</v>
+        <v>6350</v>
       </c>
       <c r="AG52" s="18" t="n">
-        <v>6350</v>
+        <v>6162</v>
       </c>
       <c r="AH52" s="18" t="n">
-        <v>6162</v>
+        <v>5099</v>
       </c>
       <c r="AI52" s="18" t="n">
-        <v>5099</v>
+        <v>5558</v>
       </c>
       <c r="AJ52" s="18" t="n">
-        <v>5558</v>
+        <v>4983</v>
       </c>
       <c r="AK52" s="18" t="n">
-        <v>4983</v>
+        <v>5449</v>
       </c>
       <c r="AL52" s="18" t="n">
-        <v>5449</v>
+        <v>5289</v>
       </c>
       <c r="AM52" s="18" t="n">
-        <v>5289</v>
+        <v>5020</v>
       </c>
       <c r="AN52" s="18" t="n">
-        <v>5020</v>
+        <v>4840</v>
       </c>
       <c r="AO52" s="18" t="n">
-        <v>4840</v>
+        <v>5699</v>
       </c>
       <c r="AP52" s="18" t="n">
-        <v>5699</v>
+        <v>6080</v>
       </c>
       <c r="AQ52" s="18" t="n">
-        <v>6080</v>
+        <v>4847</v>
       </c>
       <c r="AR52" s="18" t="n">
-        <v>4847</v>
+        <v>4857</v>
       </c>
       <c r="AS52" s="18" t="n">
-        <v>4857</v>
+        <v>5286</v>
       </c>
       <c r="AT52" s="18" t="n">
-        <v>5286</v>
+        <v>5431</v>
       </c>
       <c r="AU52" s="18" t="n">
-        <v>5431</v>
+        <v>5123</v>
       </c>
       <c r="AV52" s="18" t="n">
-        <v>5123</v>
+        <v>5287</v>
       </c>
       <c r="AW52" s="18" t="n">
-        <v>5287</v>
+        <v>5146</v>
       </c>
       <c r="AX52" s="18" t="n">
-        <v>5146</v>
+        <v>5519</v>
       </c>
       <c r="AY52" s="18" t="n">
-        <v>5519</v>
+        <v>5344</v>
       </c>
       <c r="AZ52" s="18" t="n">
-        <v>5344</v>
+        <v>5747</v>
       </c>
       <c r="BA52" s="18" t="n">
-        <v>5747</v>
+        <v>5708</v>
       </c>
       <c r="BB52" s="18" t="n">
-        <v>5708</v>
+        <v>6158</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9376,8 +9376,8 @@
       <c r="AO54" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP54" s="13" t="s">
-        <v>58</v>
+      <c r="AP54" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AQ54" s="13" t="n">
         <v>0</v>
@@ -9499,11 +9499,11 @@
       <c r="AC55" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AD55" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE55" s="16" t="n">
-        <v>0</v>
+      <c r="AD55" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE55" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AF55" s="16" t="s">
         <v>58</v>
@@ -9532,8 +9532,8 @@
       <c r="AN55" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AO55" s="16" t="s">
-        <v>58</v>
+      <c r="AO55" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AP55" s="16" t="n">
         <v>0</v>
@@ -9560,10 +9560,10 @@
         <v>0</v>
       </c>
       <c r="AX55" s="16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY55" s="16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AZ55" s="16" t="n">
         <v>0</v>
@@ -9631,8 +9631,8 @@
       <c r="T56" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U56" s="13" t="s">
-        <v>58</v>
+      <c r="U56" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V56" s="13" t="n">
         <v>0</v>
@@ -9658,8 +9658,8 @@
       <c r="AC56" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AD56" s="13" t="n">
-        <v>0</v>
+      <c r="AD56" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AE56" s="13" t="s">
         <v>58</v>
@@ -9691,8 +9691,8 @@
       <c r="AN56" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO56" s="13" t="s">
-        <v>58</v>
+      <c r="AO56" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AP56" s="13" t="n">
         <v>0</v>
@@ -9853,8 +9853,8 @@
       <c r="AO57" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AP57" s="16" t="s">
-        <v>58</v>
+      <c r="AP57" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AQ57" s="16" t="n">
         <v>0</v>
@@ -9875,22 +9875,22 @@
         <v>0</v>
       </c>
       <c r="AW57" s="16" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AX57" s="16" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AY57" s="16" t="n">
         <v>0</v>
       </c>
       <c r="AZ57" s="16" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="BA57" s="16" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="BB57" s="16" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10009,11 +10009,11 @@
       <c r="AN58" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO58" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP58" s="13" t="n">
-        <v>0</v>
+      <c r="AO58" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP58" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AQ58" s="13" t="s">
         <v>58</v>
@@ -10042,14 +10042,14 @@
       <c r="AY58" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AZ58" s="13" t="s">
-        <v>58</v>
+      <c r="AZ58" s="13" t="n">
+        <v>7</v>
       </c>
       <c r="BA58" s="13" t="n">
-        <v>7</v>
-      </c>
-      <c r="BB58" s="13" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="BB58" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10168,8 +10168,8 @@
       <c r="AN59" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AO59" s="16" t="s">
-        <v>58</v>
+      <c r="AO59" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AP59" s="16" t="n">
         <v>0</v>
@@ -10348,26 +10348,26 @@
       <c r="AU60" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AV60" s="13" t="s">
-        <v>58</v>
+      <c r="AV60" s="13" t="n">
+        <v>160</v>
       </c>
       <c r="AW60" s="13" t="n">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="AX60" s="13" t="n">
-        <v>172</v>
+        <v>100</v>
       </c>
       <c r="AY60" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ60" s="13" t="n">
         <v>100</v>
       </c>
-      <c r="AZ60" s="13" t="n">
-        <v>0</v>
-      </c>
       <c r="BA60" s="13" t="n">
-        <v>100</v>
+        <v>176</v>
       </c>
       <c r="BB60" s="13" t="n">
-        <v>176</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10426,8 +10426,8 @@
       <c r="T61" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U61" s="16" t="s">
-        <v>58</v>
+      <c r="U61" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="V61" s="16" t="n">
         <v>0</v>
@@ -10453,8 +10453,8 @@
       <c r="AC61" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AD61" s="16" t="n">
-        <v>0</v>
+      <c r="AD61" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AE61" s="16" t="s">
         <v>58</v>
@@ -10486,11 +10486,11 @@
       <c r="AN61" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AO61" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP61" s="16" t="n">
-        <v>0</v>
+      <c r="AO61" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP61" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AQ61" s="16" t="s">
         <v>58</v>
@@ -10507,26 +10507,26 @@
       <c r="AU61" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AV61" s="16" t="s">
-        <v>58</v>
+      <c r="AV61" s="16" t="n">
+        <v>225</v>
       </c>
       <c r="AW61" s="16" t="n">
-        <v>225</v>
+        <v>325</v>
       </c>
       <c r="AX61" s="16" t="n">
-        <v>325</v>
+        <v>106</v>
       </c>
       <c r="AY61" s="16" t="n">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="AZ61" s="16" t="n">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="BA61" s="16" t="n">
-        <v>55</v>
+        <v>113</v>
       </c>
       <c r="BB61" s="16" t="n">
-        <v>113</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10612,11 +10612,11 @@
       <c r="AC62" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD62" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE62" s="13" t="n">
-        <v>0</v>
+      <c r="AD62" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE62" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AF62" s="13" t="s">
         <v>58</v>
@@ -10771,11 +10771,11 @@
       <c r="AC63" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AD63" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE63" s="16" t="n">
-        <v>0</v>
+      <c r="AD63" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AF63" s="16" t="s">
         <v>58</v>
@@ -10930,11 +10930,11 @@
       <c r="AC64" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD64" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE64" s="13" t="n">
-        <v>0</v>
+      <c r="AD64" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AF64" s="13" t="s">
         <v>58</v>
@@ -11089,11 +11089,11 @@
       <c r="AC65" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AD65" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE65" s="16" t="n">
-        <v>0</v>
+      <c r="AD65" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AF65" s="16" t="s">
         <v>58</v>
@@ -11301,25 +11301,25 @@
         <v>0</v>
       </c>
       <c r="AV66" s="18" t="n">
-        <v>0</v>
+        <v>385</v>
       </c>
       <c r="AW66" s="18" t="n">
-        <v>385</v>
+        <v>516</v>
       </c>
       <c r="AX66" s="18" t="n">
-        <v>516</v>
+        <v>208</v>
       </c>
       <c r="AY66" s="18" t="n">
-        <v>208</v>
+        <v>100</v>
       </c>
       <c r="AZ66" s="18" t="n">
-        <v>100</v>
+        <v>282</v>
       </c>
       <c r="BA66" s="18" t="n">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="BB66" s="18" t="n">
-        <v>289</v>
+        <v>69</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11462,11 +11462,11 @@
       <c r="AC68" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD68" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE68" s="13" t="n">
-        <v>0</v>
+      <c r="AD68" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AF68" s="13" t="s">
         <v>58</v>
@@ -11498,8 +11498,8 @@
       <c r="AO68" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP68" s="13" t="s">
-        <v>58</v>
+      <c r="AP68" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AQ68" s="13" t="n">
         <v>0</v>
@@ -11507,29 +11507,29 @@
       <c r="AR68" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AS68" s="13" t="n">
-        <v>0</v>
+      <c r="AS68" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AT68" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AU68" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV68" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW68" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX68" s="13" t="n">
-        <v>0</v>
+      <c r="AU68" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV68" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW68" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX68" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AY68" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AZ68" s="13" t="s">
-        <v>58</v>
+      <c r="AZ68" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="BA68" s="13" t="n">
         <v>0</v>
@@ -11592,8 +11592,8 @@
       <c r="T69" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="U69" s="20" t="s">
-        <v>58</v>
+      <c r="U69" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="V69" s="20" t="n">
         <v>0</v>
@@ -11871,8 +11871,8 @@
       <c r="AO71" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP71" s="13" t="s">
-        <v>58</v>
+      <c r="AP71" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AQ71" s="13" t="n">
         <v>0</v>
@@ -11880,35 +11880,35 @@
       <c r="AR71" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AS71" s="13" t="n">
-        <v>0</v>
+      <c r="AS71" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AT71" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AU71" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV71" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW71" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX71" s="13" t="n">
-        <v>0</v>
+      <c r="AU71" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV71" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW71" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX71" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AY71" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AZ71" s="13" t="s">
-        <v>58</v>
+      <c r="AZ71" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="BA71" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="BB71" s="13" t="n">
-        <v>0</v>
+      <c r="BB71" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11965,8 +11965,8 @@
       <c r="T72" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="U72" s="20" t="s">
-        <v>58</v>
+      <c r="U72" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="V72" s="20" t="n">
         <v>0</v>
@@ -12123,106 +12123,106 @@
         <v>0</v>
       </c>
       <c r="U73" s="18" t="n">
-        <v>0</v>
+        <v>6396</v>
       </c>
       <c r="V73" s="18" t="n">
-        <v>6396</v>
+        <v>6318</v>
       </c>
       <c r="W73" s="18" t="n">
-        <v>6318</v>
+        <v>5983</v>
       </c>
       <c r="X73" s="18" t="n">
-        <v>5983</v>
+        <v>5730</v>
       </c>
       <c r="Y73" s="18" t="n">
-        <v>5730</v>
+        <v>6649</v>
       </c>
       <c r="Z73" s="18" t="n">
-        <v>6649</v>
+        <v>5745</v>
       </c>
       <c r="AA73" s="18" t="n">
-        <v>5745</v>
+        <v>5713</v>
       </c>
       <c r="AB73" s="18" t="n">
-        <v>5713</v>
+        <v>6174</v>
       </c>
       <c r="AC73" s="18" t="n">
-        <v>6174</v>
+        <v>7158</v>
       </c>
       <c r="AD73" s="18" t="n">
-        <v>7158</v>
+        <v>6921</v>
       </c>
       <c r="AE73" s="18" t="n">
-        <v>6921</v>
+        <v>6117</v>
       </c>
       <c r="AF73" s="18" t="n">
-        <v>6117</v>
+        <v>6350</v>
       </c>
       <c r="AG73" s="18" t="n">
-        <v>6350</v>
+        <v>6162</v>
       </c>
       <c r="AH73" s="18" t="n">
-        <v>6162</v>
+        <v>5099</v>
       </c>
       <c r="AI73" s="18" t="n">
-        <v>5099</v>
+        <v>5558</v>
       </c>
       <c r="AJ73" s="18" t="n">
-        <v>5558</v>
+        <v>4983</v>
       </c>
       <c r="AK73" s="18" t="n">
-        <v>4983</v>
+        <v>5449</v>
       </c>
       <c r="AL73" s="18" t="n">
-        <v>5449</v>
+        <v>5289</v>
       </c>
       <c r="AM73" s="18" t="n">
-        <v>5289</v>
+        <v>5020</v>
       </c>
       <c r="AN73" s="18" t="n">
-        <v>5020</v>
+        <v>4840</v>
       </c>
       <c r="AO73" s="18" t="n">
-        <v>4840</v>
+        <v>5699</v>
       </c>
       <c r="AP73" s="18" t="n">
-        <v>5699</v>
+        <v>6080</v>
       </c>
       <c r="AQ73" s="18" t="n">
-        <v>6080</v>
+        <v>4847</v>
       </c>
       <c r="AR73" s="18" t="n">
-        <v>4847</v>
+        <v>4857</v>
       </c>
       <c r="AS73" s="18" t="n">
-        <v>4857</v>
+        <v>5286</v>
       </c>
       <c r="AT73" s="18" t="n">
-        <v>5286</v>
+        <v>5431</v>
       </c>
       <c r="AU73" s="18" t="n">
-        <v>5431</v>
+        <v>5123</v>
       </c>
       <c r="AV73" s="18" t="n">
-        <v>5123</v>
+        <v>5672</v>
       </c>
       <c r="AW73" s="18" t="n">
-        <v>5672</v>
+        <v>5662</v>
       </c>
       <c r="AX73" s="18" t="n">
-        <v>5662</v>
+        <v>5727</v>
       </c>
       <c r="AY73" s="18" t="n">
-        <v>5727</v>
+        <v>5444</v>
       </c>
       <c r="AZ73" s="18" t="n">
-        <v>5444</v>
+        <v>6029</v>
       </c>
       <c r="BA73" s="18" t="n">
-        <v>6029</v>
+        <v>5997</v>
       </c>
       <c r="BB73" s="18" t="n">
-        <v>5997</v>
+        <v>6227</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12715,107 +12715,107 @@
       <c r="T80" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U80" s="13" t="s">
-        <v>58</v>
+      <c r="U80" s="13" t="n">
+        <v>38785</v>
       </c>
       <c r="V80" s="13" t="n">
-        <v>38785</v>
+        <v>43113</v>
       </c>
       <c r="W80" s="13" t="n">
-        <v>43113</v>
+        <v>40291</v>
       </c>
       <c r="X80" s="13" t="n">
-        <v>40291</v>
+        <v>27438</v>
       </c>
       <c r="Y80" s="13" t="n">
-        <v>27438</v>
+        <v>26664</v>
       </c>
       <c r="Z80" s="13" t="n">
-        <v>26664</v>
+        <v>30851</v>
       </c>
       <c r="AA80" s="13" t="n">
-        <v>30851</v>
+        <v>35225</v>
       </c>
       <c r="AB80" s="13" t="n">
-        <v>35225</v>
+        <v>37469</v>
       </c>
       <c r="AC80" s="13" t="n">
-        <v>37469</v>
+        <v>47172</v>
       </c>
       <c r="AD80" s="13" t="n">
-        <v>47172</v>
+        <v>54250</v>
       </c>
       <c r="AE80" s="13" t="n">
-        <v>54250</v>
+        <v>46828</v>
       </c>
       <c r="AF80" s="13" t="n">
-        <v>46828</v>
+        <v>47051</v>
       </c>
       <c r="AG80" s="13" t="n">
-        <v>47051</v>
+        <v>63130</v>
       </c>
       <c r="AH80" s="13" t="n">
-        <v>63130</v>
+        <v>45245</v>
       </c>
       <c r="AI80" s="13" t="n">
-        <v>45245</v>
+        <v>52279</v>
       </c>
       <c r="AJ80" s="13" t="n">
-        <v>52279</v>
+        <v>36911</v>
       </c>
       <c r="AK80" s="13" t="n">
-        <v>36911</v>
+        <v>44912</v>
       </c>
       <c r="AL80" s="13" t="n">
-        <v>44912</v>
+        <v>36669</v>
       </c>
       <c r="AM80" s="13" t="n">
-        <v>36669</v>
+        <v>39775</v>
       </c>
       <c r="AN80" s="13" t="n">
-        <v>39775</v>
+        <v>39040</v>
       </c>
       <c r="AO80" s="13" t="n">
-        <v>39040</v>
+        <v>44815</v>
       </c>
       <c r="AP80" s="13" t="n">
-        <v>44815</v>
+        <v>66346</v>
       </c>
       <c r="AQ80" s="13" t="n">
-        <v>66346</v>
+        <v>47689</v>
       </c>
       <c r="AR80" s="13" t="n">
-        <v>47689</v>
+        <v>94269</v>
       </c>
       <c r="AS80" s="13" t="n">
-        <v>94269</v>
+        <v>75662</v>
       </c>
       <c r="AT80" s="13" t="n">
-        <v>75662</v>
+        <v>88218</v>
       </c>
       <c r="AU80" s="13" t="n">
-        <v>88218</v>
+        <v>80680</v>
       </c>
       <c r="AV80" s="13" t="n">
-        <v>80680</v>
+        <v>67454</v>
       </c>
       <c r="AW80" s="13" t="n">
-        <v>67454</v>
+        <v>65471</v>
       </c>
       <c r="AX80" s="13" t="n">
-        <v>65471</v>
+        <v>64946</v>
       </c>
       <c r="AY80" s="13" t="n">
-        <v>64946</v>
+        <v>59945</v>
       </c>
       <c r="AZ80" s="13" t="n">
-        <v>59945</v>
+        <v>58401</v>
       </c>
       <c r="BA80" s="13" t="n">
-        <v>58401</v>
+        <v>100218</v>
       </c>
       <c r="BB80" s="13" t="n">
-        <v>100218</v>
+        <v>105061</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12874,107 +12874,107 @@
       <c r="T81" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U81" s="16" t="s">
-        <v>58</v>
+      <c r="U81" s="16" t="n">
+        <v>2697</v>
       </c>
       <c r="V81" s="16" t="n">
-        <v>2697</v>
+        <v>3596</v>
       </c>
       <c r="W81" s="16" t="n">
-        <v>3596</v>
+        <v>3573</v>
       </c>
       <c r="X81" s="16" t="n">
-        <v>3573</v>
+        <v>3323</v>
       </c>
       <c r="Y81" s="16" t="n">
-        <v>3323</v>
+        <v>3981</v>
       </c>
       <c r="Z81" s="16" t="n">
-        <v>3981</v>
+        <v>4572</v>
       </c>
       <c r="AA81" s="16" t="n">
-        <v>4572</v>
+        <v>5883</v>
       </c>
       <c r="AB81" s="16" t="n">
-        <v>5883</v>
+        <v>3920</v>
       </c>
       <c r="AC81" s="16" t="n">
-        <v>3920</v>
+        <v>632</v>
       </c>
       <c r="AD81" s="16" t="n">
-        <v>632</v>
+        <v>4547</v>
       </c>
       <c r="AE81" s="16" t="n">
-        <v>4547</v>
+        <v>7168</v>
       </c>
       <c r="AF81" s="16" t="n">
-        <v>7168</v>
+        <v>60738</v>
       </c>
       <c r="AG81" s="16" t="n">
-        <v>60738</v>
+        <v>5312</v>
       </c>
       <c r="AH81" s="16" t="n">
-        <v>5312</v>
+        <v>4772</v>
       </c>
       <c r="AI81" s="16" t="n">
-        <v>4772</v>
+        <v>4780</v>
       </c>
       <c r="AJ81" s="16" t="n">
-        <v>4780</v>
+        <v>6978</v>
       </c>
       <c r="AK81" s="16" t="n">
-        <v>6978</v>
+        <v>2488</v>
       </c>
       <c r="AL81" s="16" t="n">
-        <v>2488</v>
+        <v>5440</v>
       </c>
       <c r="AM81" s="16" t="n">
-        <v>5440</v>
+        <v>3026</v>
       </c>
       <c r="AN81" s="16" t="n">
-        <v>3026</v>
+        <v>7998</v>
       </c>
       <c r="AO81" s="16" t="n">
-        <v>7998</v>
+        <v>5923</v>
       </c>
       <c r="AP81" s="16" t="n">
-        <v>5923</v>
+        <v>3354</v>
       </c>
       <c r="AQ81" s="16" t="n">
-        <v>3354</v>
+        <v>5118</v>
       </c>
       <c r="AR81" s="16" t="n">
-        <v>5118</v>
+        <v>9112</v>
       </c>
       <c r="AS81" s="16" t="n">
-        <v>9112</v>
+        <v>5711</v>
       </c>
       <c r="AT81" s="16" t="n">
-        <v>5711</v>
+        <v>7885</v>
       </c>
       <c r="AU81" s="16" t="n">
-        <v>7885</v>
+        <v>7531</v>
       </c>
       <c r="AV81" s="16" t="n">
-        <v>7531</v>
+        <v>8214</v>
       </c>
       <c r="AW81" s="16" t="n">
-        <v>8214</v>
+        <v>8030</v>
       </c>
       <c r="AX81" s="16" t="n">
-        <v>8030</v>
+        <v>7724</v>
       </c>
       <c r="AY81" s="16" t="n">
-        <v>7724</v>
+        <v>8275</v>
       </c>
       <c r="AZ81" s="16" t="n">
-        <v>8275</v>
+        <v>9311</v>
       </c>
       <c r="BA81" s="16" t="n">
-        <v>9311</v>
+        <v>8350</v>
       </c>
       <c r="BB81" s="16" t="n">
-        <v>8350</v>
+        <v>11289</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13033,107 +13033,107 @@
       <c r="T82" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U82" s="13" t="s">
-        <v>58</v>
+      <c r="U82" s="13" t="n">
+        <v>121887</v>
       </c>
       <c r="V82" s="13" t="n">
-        <v>121887</v>
+        <v>132660</v>
       </c>
       <c r="W82" s="13" t="n">
-        <v>132660</v>
+        <v>145124</v>
       </c>
       <c r="X82" s="13" t="n">
-        <v>145124</v>
+        <v>167809</v>
       </c>
       <c r="Y82" s="13" t="n">
-        <v>167809</v>
+        <v>185579</v>
       </c>
       <c r="Z82" s="13" t="n">
-        <v>185579</v>
+        <v>185852</v>
       </c>
       <c r="AA82" s="13" t="n">
-        <v>185852</v>
+        <v>237485</v>
       </c>
       <c r="AB82" s="13" t="n">
-        <v>237485</v>
+        <v>185541</v>
       </c>
       <c r="AC82" s="13" t="n">
-        <v>185541</v>
+        <v>288955</v>
       </c>
       <c r="AD82" s="13" t="n">
-        <v>288955</v>
+        <v>173889</v>
       </c>
       <c r="AE82" s="13" t="n">
-        <v>173889</v>
+        <v>176230</v>
       </c>
       <c r="AF82" s="13" t="n">
-        <v>176230</v>
+        <v>176151</v>
       </c>
       <c r="AG82" s="13" t="n">
-        <v>176151</v>
+        <v>173479</v>
       </c>
       <c r="AH82" s="13" t="n">
-        <v>173479</v>
+        <v>194080</v>
       </c>
       <c r="AI82" s="13" t="n">
-        <v>194080</v>
+        <v>234992</v>
       </c>
       <c r="AJ82" s="13" t="n">
-        <v>234992</v>
+        <v>253784</v>
       </c>
       <c r="AK82" s="13" t="n">
-        <v>253784</v>
+        <v>307531</v>
       </c>
       <c r="AL82" s="13" t="n">
-        <v>307531</v>
+        <v>369184</v>
       </c>
       <c r="AM82" s="13" t="n">
-        <v>369184</v>
+        <v>271129</v>
       </c>
       <c r="AN82" s="13" t="n">
-        <v>271129</v>
+        <v>246789</v>
       </c>
       <c r="AO82" s="13" t="n">
-        <v>246789</v>
+        <v>236627</v>
       </c>
       <c r="AP82" s="13" t="n">
-        <v>236627</v>
+        <v>237213</v>
       </c>
       <c r="AQ82" s="13" t="n">
-        <v>237213</v>
+        <v>269696</v>
       </c>
       <c r="AR82" s="13" t="n">
-        <v>269696</v>
+        <v>369703</v>
       </c>
       <c r="AS82" s="13" t="n">
-        <v>369703</v>
+        <v>434957</v>
       </c>
       <c r="AT82" s="13" t="n">
-        <v>434957</v>
+        <v>389340</v>
       </c>
       <c r="AU82" s="13" t="n">
-        <v>389340</v>
+        <v>394070</v>
       </c>
       <c r="AV82" s="13" t="n">
-        <v>394070</v>
+        <v>459721</v>
       </c>
       <c r="AW82" s="13" t="n">
-        <v>459721</v>
+        <v>523819</v>
       </c>
       <c r="AX82" s="13" t="n">
-        <v>523819</v>
+        <v>541941</v>
       </c>
       <c r="AY82" s="13" t="n">
-        <v>541941</v>
+        <v>525099</v>
       </c>
       <c r="AZ82" s="13" t="n">
-        <v>525099</v>
+        <v>550048</v>
       </c>
       <c r="BA82" s="13" t="n">
-        <v>550048</v>
+        <v>462280</v>
       </c>
       <c r="BB82" s="13" t="n">
-        <v>462280</v>
+        <v>458987</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13192,107 +13192,107 @@
       <c r="T83" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U83" s="16" t="s">
-        <v>58</v>
+      <c r="U83" s="16" t="n">
+        <v>62147</v>
       </c>
       <c r="V83" s="16" t="n">
-        <v>62147</v>
+        <v>69917</v>
       </c>
       <c r="W83" s="16" t="n">
-        <v>69917</v>
+        <v>93762</v>
       </c>
       <c r="X83" s="16" t="n">
-        <v>93762</v>
+        <v>86896</v>
       </c>
       <c r="Y83" s="16" t="n">
-        <v>86896</v>
+        <v>108932</v>
       </c>
       <c r="Z83" s="16" t="n">
-        <v>108932</v>
+        <v>155633</v>
       </c>
       <c r="AA83" s="16" t="n">
-        <v>155633</v>
+        <v>121928</v>
       </c>
       <c r="AB83" s="16" t="n">
-        <v>121928</v>
+        <v>116762</v>
       </c>
       <c r="AC83" s="16" t="n">
-        <v>116762</v>
+        <v>89482</v>
       </c>
       <c r="AD83" s="16" t="n">
-        <v>89482</v>
+        <v>80919</v>
       </c>
       <c r="AE83" s="16" t="n">
-        <v>80919</v>
+        <v>61813</v>
       </c>
       <c r="AF83" s="16" t="n">
-        <v>61813</v>
+        <v>47100</v>
       </c>
       <c r="AG83" s="16" t="n">
-        <v>47100</v>
+        <v>75672</v>
       </c>
       <c r="AH83" s="16" t="n">
-        <v>75672</v>
+        <v>53939</v>
       </c>
       <c r="AI83" s="16" t="n">
-        <v>53939</v>
+        <v>76395</v>
       </c>
       <c r="AJ83" s="16" t="n">
-        <v>76395</v>
+        <v>86474</v>
       </c>
       <c r="AK83" s="16" t="n">
-        <v>86474</v>
+        <v>66704</v>
       </c>
       <c r="AL83" s="16" t="n">
-        <v>66704</v>
+        <v>91018</v>
       </c>
       <c r="AM83" s="16" t="n">
-        <v>91018</v>
+        <v>104048</v>
       </c>
       <c r="AN83" s="16" t="n">
-        <v>104048</v>
+        <v>61267</v>
       </c>
       <c r="AO83" s="16" t="n">
-        <v>61267</v>
+        <v>154567</v>
       </c>
       <c r="AP83" s="16" t="n">
-        <v>154567</v>
+        <v>119681</v>
       </c>
       <c r="AQ83" s="16" t="n">
-        <v>119681</v>
+        <v>71394</v>
       </c>
       <c r="AR83" s="16" t="n">
-        <v>71394</v>
+        <v>128928</v>
       </c>
       <c r="AS83" s="16" t="n">
-        <v>128928</v>
+        <v>274221</v>
       </c>
       <c r="AT83" s="16" t="n">
-        <v>274221</v>
+        <v>205927</v>
       </c>
       <c r="AU83" s="16" t="n">
-        <v>205927</v>
+        <v>213230</v>
       </c>
       <c r="AV83" s="16" t="n">
-        <v>213230</v>
+        <v>239480</v>
       </c>
       <c r="AW83" s="16" t="n">
-        <v>239480</v>
+        <v>140261</v>
       </c>
       <c r="AX83" s="16" t="n">
-        <v>140261</v>
+        <v>201781</v>
       </c>
       <c r="AY83" s="16" t="n">
-        <v>201781</v>
+        <v>262202</v>
       </c>
       <c r="AZ83" s="16" t="n">
-        <v>262202</v>
+        <v>279098</v>
       </c>
       <c r="BA83" s="16" t="n">
-        <v>279098</v>
+        <v>142668</v>
       </c>
       <c r="BB83" s="16" t="n">
-        <v>142668</v>
+        <v>125214</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13351,107 +13351,107 @@
       <c r="T84" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U84" s="13" t="s">
-        <v>58</v>
+      <c r="U84" s="13" t="n">
+        <v>94957</v>
       </c>
       <c r="V84" s="13" t="n">
-        <v>94957</v>
+        <v>96407</v>
       </c>
       <c r="W84" s="13" t="n">
-        <v>96407</v>
+        <v>93149</v>
       </c>
       <c r="X84" s="13" t="n">
-        <v>93149</v>
+        <v>79445</v>
       </c>
       <c r="Y84" s="13" t="n">
-        <v>79445</v>
+        <v>76264</v>
       </c>
       <c r="Z84" s="13" t="n">
-        <v>76264</v>
+        <v>92072</v>
       </c>
       <c r="AA84" s="13" t="n">
-        <v>92072</v>
+        <v>96517</v>
       </c>
       <c r="AB84" s="13" t="n">
-        <v>96517</v>
+        <v>103839</v>
       </c>
       <c r="AC84" s="13" t="n">
-        <v>103839</v>
+        <v>115312</v>
       </c>
       <c r="AD84" s="13" t="n">
-        <v>115312</v>
+        <v>140015</v>
       </c>
       <c r="AE84" s="13" t="n">
-        <v>140015</v>
+        <v>129872</v>
       </c>
       <c r="AF84" s="13" t="n">
-        <v>129872</v>
+        <v>154105</v>
       </c>
       <c r="AG84" s="13" t="n">
-        <v>154105</v>
+        <v>162073</v>
       </c>
       <c r="AH84" s="13" t="n">
-        <v>162073</v>
+        <v>149926</v>
       </c>
       <c r="AI84" s="13" t="n">
-        <v>149926</v>
+        <v>177580</v>
       </c>
       <c r="AJ84" s="13" t="n">
-        <v>177580</v>
+        <v>149679</v>
       </c>
       <c r="AK84" s="13" t="n">
-        <v>149679</v>
+        <v>141875</v>
       </c>
       <c r="AL84" s="13" t="n">
-        <v>141875</v>
+        <v>129102</v>
       </c>
       <c r="AM84" s="13" t="n">
-        <v>129102</v>
+        <v>124947</v>
       </c>
       <c r="AN84" s="13" t="n">
-        <v>124947</v>
+        <v>145480</v>
       </c>
       <c r="AO84" s="13" t="n">
-        <v>145480</v>
+        <v>174302</v>
       </c>
       <c r="AP84" s="13" t="n">
-        <v>174302</v>
+        <v>196260</v>
       </c>
       <c r="AQ84" s="13" t="n">
-        <v>196260</v>
+        <v>181695</v>
       </c>
       <c r="AR84" s="13" t="n">
-        <v>181695</v>
+        <v>308028</v>
       </c>
       <c r="AS84" s="13" t="n">
-        <v>308028</v>
+        <v>270018</v>
       </c>
       <c r="AT84" s="13" t="n">
-        <v>270018</v>
+        <v>297226</v>
       </c>
       <c r="AU84" s="13" t="n">
-        <v>297226</v>
+        <v>278729</v>
       </c>
       <c r="AV84" s="13" t="n">
-        <v>278729</v>
+        <v>250866</v>
       </c>
       <c r="AW84" s="13" t="n">
-        <v>250866</v>
+        <v>270141</v>
       </c>
       <c r="AX84" s="13" t="n">
-        <v>270141</v>
+        <v>206575</v>
       </c>
       <c r="AY84" s="13" t="n">
-        <v>206575</v>
+        <v>213462</v>
       </c>
       <c r="AZ84" s="13" t="n">
-        <v>213462</v>
+        <v>263686</v>
       </c>
       <c r="BA84" s="13" t="n">
-        <v>263686</v>
+        <v>278638</v>
       </c>
       <c r="BB84" s="13" t="n">
-        <v>278638</v>
+        <v>314762</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13510,107 +13510,107 @@
       <c r="T85" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U85" s="16" t="s">
-        <v>58</v>
+      <c r="U85" s="16" t="n">
+        <v>129740</v>
       </c>
       <c r="V85" s="16" t="n">
-        <v>129740</v>
+        <v>130365</v>
       </c>
       <c r="W85" s="16" t="n">
-        <v>130365</v>
+        <v>118621</v>
       </c>
       <c r="X85" s="16" t="n">
-        <v>118621</v>
+        <v>73158</v>
       </c>
       <c r="Y85" s="16" t="n">
-        <v>73158</v>
+        <v>94857</v>
       </c>
       <c r="Z85" s="16" t="n">
-        <v>94857</v>
+        <v>116023</v>
       </c>
       <c r="AA85" s="16" t="n">
-        <v>116023</v>
+        <v>147835</v>
       </c>
       <c r="AB85" s="16" t="n">
-        <v>147835</v>
+        <v>128504</v>
       </c>
       <c r="AC85" s="16" t="n">
-        <v>128504</v>
+        <v>118801</v>
       </c>
       <c r="AD85" s="16" t="n">
-        <v>118801</v>
+        <v>139778</v>
       </c>
       <c r="AE85" s="16" t="n">
-        <v>139778</v>
+        <v>139942</v>
       </c>
       <c r="AF85" s="16" t="n">
-        <v>139942</v>
+        <v>127350</v>
       </c>
       <c r="AG85" s="16" t="n">
-        <v>127350</v>
+        <v>173600</v>
       </c>
       <c r="AH85" s="16" t="n">
-        <v>173600</v>
+        <v>145011</v>
       </c>
       <c r="AI85" s="16" t="n">
-        <v>145011</v>
+        <v>195894</v>
       </c>
       <c r="AJ85" s="16" t="n">
-        <v>195894</v>
+        <v>168720</v>
       </c>
       <c r="AK85" s="16" t="n">
-        <v>168720</v>
+        <v>186597</v>
       </c>
       <c r="AL85" s="16" t="n">
-        <v>186597</v>
+        <v>167854</v>
       </c>
       <c r="AM85" s="16" t="n">
-        <v>167854</v>
+        <v>145656</v>
       </c>
       <c r="AN85" s="16" t="n">
-        <v>145656</v>
+        <v>125182</v>
       </c>
       <c r="AO85" s="16" t="n">
-        <v>125182</v>
+        <v>173774</v>
       </c>
       <c r="AP85" s="16" t="n">
-        <v>173774</v>
+        <v>143584</v>
       </c>
       <c r="AQ85" s="16" t="n">
-        <v>143584</v>
+        <v>211745</v>
       </c>
       <c r="AR85" s="16" t="n">
-        <v>211745</v>
+        <v>301171</v>
       </c>
       <c r="AS85" s="16" t="n">
-        <v>301171</v>
+        <v>253232</v>
       </c>
       <c r="AT85" s="16" t="n">
-        <v>253232</v>
+        <v>311621</v>
       </c>
       <c r="AU85" s="16" t="n">
-        <v>311621</v>
+        <v>287745</v>
       </c>
       <c r="AV85" s="16" t="n">
-        <v>287745</v>
+        <v>272354</v>
       </c>
       <c r="AW85" s="16" t="n">
-        <v>272354</v>
+        <v>188880</v>
       </c>
       <c r="AX85" s="16" t="n">
-        <v>188880</v>
+        <v>208403</v>
       </c>
       <c r="AY85" s="16" t="n">
-        <v>208403</v>
+        <v>183119</v>
       </c>
       <c r="AZ85" s="16" t="n">
-        <v>183119</v>
+        <v>225210</v>
       </c>
       <c r="BA85" s="16" t="n">
-        <v>225210</v>
+        <v>338570</v>
       </c>
       <c r="BB85" s="16" t="n">
-        <v>338570</v>
+        <v>241465</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13669,107 +13669,107 @@
       <c r="T86" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U86" s="13" t="s">
-        <v>58</v>
+      <c r="U86" s="13" t="n">
+        <v>16173</v>
       </c>
       <c r="V86" s="13" t="n">
-        <v>16173</v>
+        <v>6410</v>
       </c>
       <c r="W86" s="13" t="n">
-        <v>6410</v>
+        <v>31436</v>
       </c>
       <c r="X86" s="13" t="n">
-        <v>31436</v>
+        <v>31557</v>
       </c>
       <c r="Y86" s="13" t="n">
-        <v>31557</v>
+        <v>36592</v>
       </c>
       <c r="Z86" s="13" t="n">
-        <v>36592</v>
+        <v>56165</v>
       </c>
       <c r="AA86" s="13" t="n">
-        <v>56165</v>
+        <v>15284</v>
       </c>
       <c r="AB86" s="13" t="n">
-        <v>15284</v>
+        <v>21132</v>
       </c>
       <c r="AC86" s="13" t="n">
-        <v>21132</v>
+        <v>28971</v>
       </c>
       <c r="AD86" s="13" t="n">
-        <v>28971</v>
+        <v>17678</v>
       </c>
       <c r="AE86" s="13" t="n">
-        <v>17678</v>
+        <v>18837</v>
       </c>
       <c r="AF86" s="13" t="n">
-        <v>18837</v>
+        <v>8561</v>
       </c>
       <c r="AG86" s="13" t="n">
-        <v>8561</v>
+        <v>15527</v>
       </c>
       <c r="AH86" s="13" t="n">
-        <v>15527</v>
+        <v>45634</v>
       </c>
       <c r="AI86" s="13" t="n">
-        <v>45634</v>
+        <v>53651</v>
       </c>
       <c r="AJ86" s="13" t="n">
-        <v>53651</v>
+        <v>23614</v>
       </c>
       <c r="AK86" s="13" t="n">
-        <v>23614</v>
+        <v>32109</v>
       </c>
       <c r="AL86" s="13" t="n">
-        <v>32109</v>
+        <v>50298</v>
       </c>
       <c r="AM86" s="13" t="n">
-        <v>50298</v>
+        <v>28196</v>
       </c>
       <c r="AN86" s="13" t="n">
-        <v>28196</v>
+        <v>6560</v>
       </c>
       <c r="AO86" s="13" t="n">
-        <v>6560</v>
+        <v>65469</v>
       </c>
       <c r="AP86" s="13" t="n">
-        <v>65469</v>
+        <v>229861</v>
       </c>
       <c r="AQ86" s="13" t="n">
-        <v>229861</v>
+        <v>111435</v>
       </c>
       <c r="AR86" s="13" t="n">
-        <v>111435</v>
+        <v>39228</v>
       </c>
       <c r="AS86" s="13" t="n">
-        <v>39228</v>
+        <v>304620</v>
       </c>
       <c r="AT86" s="13" t="n">
-        <v>304620</v>
+        <v>106890</v>
       </c>
       <c r="AU86" s="13" t="n">
-        <v>106890</v>
+        <v>170034</v>
       </c>
       <c r="AV86" s="13" t="n">
-        <v>170034</v>
+        <v>183436</v>
       </c>
       <c r="AW86" s="13" t="n">
-        <v>183436</v>
+        <v>79961</v>
       </c>
       <c r="AX86" s="13" t="n">
-        <v>79961</v>
+        <v>193020</v>
       </c>
       <c r="AY86" s="13" t="n">
-        <v>193020</v>
+        <v>158336</v>
       </c>
       <c r="AZ86" s="13" t="n">
-        <v>158336</v>
+        <v>165583</v>
       </c>
       <c r="BA86" s="13" t="n">
-        <v>165583</v>
+        <v>60832</v>
       </c>
       <c r="BB86" s="13" t="n">
-        <v>60832</v>
+        <v>190571</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13828,107 +13828,107 @@
       <c r="T87" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U87" s="16" t="s">
-        <v>58</v>
+      <c r="U87" s="16" t="n">
+        <v>67098</v>
       </c>
       <c r="V87" s="16" t="n">
-        <v>67098</v>
+        <v>95674</v>
       </c>
       <c r="W87" s="16" t="n">
-        <v>95674</v>
+        <v>28362</v>
       </c>
       <c r="X87" s="16" t="n">
-        <v>28362</v>
+        <v>25380</v>
       </c>
       <c r="Y87" s="16" t="n">
-        <v>25380</v>
+        <v>26199</v>
       </c>
       <c r="Z87" s="16" t="n">
-        <v>26199</v>
+        <v>46704</v>
       </c>
       <c r="AA87" s="16" t="n">
-        <v>46704</v>
+        <v>50627</v>
       </c>
       <c r="AB87" s="16" t="n">
-        <v>50627</v>
+        <v>22594</v>
       </c>
       <c r="AC87" s="16" t="n">
-        <v>22594</v>
+        <v>138934</v>
       </c>
       <c r="AD87" s="16" t="n">
-        <v>138934</v>
+        <v>34153</v>
       </c>
       <c r="AE87" s="16" t="n">
-        <v>34153</v>
+        <v>41723</v>
       </c>
       <c r="AF87" s="16" t="n">
-        <v>41723</v>
+        <v>86498</v>
       </c>
       <c r="AG87" s="16" t="n">
-        <v>86498</v>
+        <v>144255</v>
       </c>
       <c r="AH87" s="16" t="n">
-        <v>144255</v>
+        <v>89327</v>
       </c>
       <c r="AI87" s="16" t="n">
-        <v>89327</v>
+        <v>98615</v>
       </c>
       <c r="AJ87" s="16" t="n">
-        <v>98615</v>
+        <v>131104</v>
       </c>
       <c r="AK87" s="16" t="n">
-        <v>131104</v>
+        <v>139543</v>
       </c>
       <c r="AL87" s="16" t="n">
-        <v>139543</v>
+        <v>114893</v>
       </c>
       <c r="AM87" s="16" t="n">
-        <v>114893</v>
+        <v>120711</v>
       </c>
       <c r="AN87" s="16" t="n">
-        <v>120711</v>
+        <v>115427</v>
       </c>
       <c r="AO87" s="16" t="n">
-        <v>115427</v>
+        <v>272339</v>
       </c>
       <c r="AP87" s="16" t="n">
-        <v>272339</v>
+        <v>221316</v>
       </c>
       <c r="AQ87" s="16" t="n">
-        <v>221316</v>
+        <v>106861</v>
       </c>
       <c r="AR87" s="16" t="n">
-        <v>106861</v>
+        <v>69614</v>
       </c>
       <c r="AS87" s="16" t="n">
-        <v>69614</v>
+        <v>69078</v>
       </c>
       <c r="AT87" s="16" t="n">
-        <v>69078</v>
+        <v>344727</v>
       </c>
       <c r="AU87" s="16" t="n">
-        <v>344727</v>
+        <v>165773</v>
       </c>
       <c r="AV87" s="16" t="n">
-        <v>165773</v>
+        <v>104155</v>
       </c>
       <c r="AW87" s="16" t="n">
-        <v>104155</v>
+        <v>61725</v>
       </c>
       <c r="AX87" s="16" t="n">
-        <v>61725</v>
+        <v>281615</v>
       </c>
       <c r="AY87" s="16" t="n">
-        <v>281615</v>
+        <v>188439</v>
       </c>
       <c r="AZ87" s="16" t="n">
-        <v>188439</v>
+        <v>246788</v>
       </c>
       <c r="BA87" s="16" t="n">
-        <v>246788</v>
+        <v>206460</v>
       </c>
       <c r="BB87" s="16" t="n">
-        <v>206460</v>
+        <v>474607</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13986,106 +13986,106 @@
         <v>0</v>
       </c>
       <c r="U88" s="18" t="n">
-        <v>0</v>
+        <v>533484</v>
       </c>
       <c r="V88" s="18" t="n">
-        <v>533484</v>
+        <v>578142</v>
       </c>
       <c r="W88" s="18" t="n">
-        <v>578142</v>
+        <v>554318</v>
       </c>
       <c r="X88" s="18" t="n">
-        <v>554318</v>
+        <v>495006</v>
       </c>
       <c r="Y88" s="18" t="n">
-        <v>495006</v>
+        <v>559068</v>
       </c>
       <c r="Z88" s="18" t="n">
-        <v>559068</v>
+        <v>687872</v>
       </c>
       <c r="AA88" s="18" t="n">
-        <v>687872</v>
+        <v>710784</v>
       </c>
       <c r="AB88" s="18" t="n">
-        <v>710784</v>
+        <v>619761</v>
       </c>
       <c r="AC88" s="18" t="n">
-        <v>619761</v>
+        <v>828259</v>
       </c>
       <c r="AD88" s="18" t="n">
-        <v>828259</v>
+        <v>645229</v>
       </c>
       <c r="AE88" s="18" t="n">
-        <v>645229</v>
+        <v>622413</v>
       </c>
       <c r="AF88" s="18" t="n">
-        <v>622413</v>
+        <v>707554</v>
       </c>
       <c r="AG88" s="18" t="n">
-        <v>707554</v>
+        <v>813048</v>
       </c>
       <c r="AH88" s="18" t="n">
-        <v>813048</v>
+        <v>727934</v>
       </c>
       <c r="AI88" s="18" t="n">
-        <v>727934</v>
+        <v>894186</v>
       </c>
       <c r="AJ88" s="18" t="n">
-        <v>894186</v>
+        <v>857264</v>
       </c>
       <c r="AK88" s="18" t="n">
-        <v>857264</v>
+        <v>921759</v>
       </c>
       <c r="AL88" s="18" t="n">
-        <v>921759</v>
+        <v>964458</v>
       </c>
       <c r="AM88" s="18" t="n">
-        <v>964458</v>
+        <v>837488</v>
       </c>
       <c r="AN88" s="18" t="n">
-        <v>837488</v>
+        <v>747743</v>
       </c>
       <c r="AO88" s="18" t="n">
-        <v>747743</v>
+        <v>1127816</v>
       </c>
       <c r="AP88" s="18" t="n">
-        <v>1127816</v>
+        <v>1217615</v>
       </c>
       <c r="AQ88" s="18" t="n">
-        <v>1217615</v>
+        <v>1005633</v>
       </c>
       <c r="AR88" s="18" t="n">
-        <v>1005633</v>
+        <v>1320053</v>
       </c>
       <c r="AS88" s="18" t="n">
-        <v>1320053</v>
+        <v>1687499</v>
       </c>
       <c r="AT88" s="18" t="n">
-        <v>1687499</v>
+        <v>1751834</v>
       </c>
       <c r="AU88" s="18" t="n">
-        <v>1751834</v>
+        <v>1597792</v>
       </c>
       <c r="AV88" s="18" t="n">
-        <v>1597792</v>
+        <v>1585680</v>
       </c>
       <c r="AW88" s="18" t="n">
-        <v>1585680</v>
+        <v>1338288</v>
       </c>
       <c r="AX88" s="18" t="n">
-        <v>1338288</v>
+        <v>1706005</v>
       </c>
       <c r="AY88" s="18" t="n">
-        <v>1706005</v>
+        <v>1598877</v>
       </c>
       <c r="AZ88" s="18" t="n">
-        <v>1598877</v>
+        <v>1798125</v>
       </c>
       <c r="BA88" s="18" t="n">
-        <v>1798125</v>
+        <v>1598016</v>
       </c>
       <c r="BB88" s="18" t="n">
-        <v>1598016</v>
+        <v>1921956</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14264,8 +14264,8 @@
       <c r="AO90" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP90" s="13" t="s">
-        <v>58</v>
+      <c r="AP90" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AQ90" s="13" t="n">
         <v>0</v>
@@ -14387,8 +14387,8 @@
       <c r="AC91" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AD91" s="16" t="s">
-        <v>58</v>
+      <c r="AD91" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AE91" s="16" t="n">
         <v>0</v>
@@ -14448,10 +14448,10 @@
         <v>0</v>
       </c>
       <c r="AX91" s="16" t="n">
-        <v>0</v>
+        <v>3609</v>
       </c>
       <c r="AY91" s="16" t="n">
-        <v>3609</v>
+        <v>0</v>
       </c>
       <c r="AZ91" s="16" t="n">
         <v>0</v>
@@ -14519,8 +14519,8 @@
       <c r="T92" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U92" s="13" t="s">
-        <v>58</v>
+      <c r="U92" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V92" s="13" t="n">
         <v>0</v>
@@ -14546,8 +14546,8 @@
       <c r="AC92" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AD92" s="13" t="n">
-        <v>0</v>
+      <c r="AD92" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AE92" s="13" t="s">
         <v>58</v>
@@ -14579,8 +14579,8 @@
       <c r="AN92" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO92" s="13" t="s">
-        <v>58</v>
+      <c r="AO92" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AP92" s="13" t="n">
         <v>0</v>
@@ -14741,8 +14741,8 @@
       <c r="AO93" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AP93" s="16" t="s">
-        <v>58</v>
+      <c r="AP93" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AQ93" s="16" t="n">
         <v>0</v>
@@ -14763,22 +14763,22 @@
         <v>0</v>
       </c>
       <c r="AW93" s="16" t="n">
-        <v>0</v>
+        <v>17952</v>
       </c>
       <c r="AX93" s="16" t="n">
-        <v>17952</v>
+        <v>0</v>
       </c>
       <c r="AY93" s="16" t="n">
         <v>0</v>
       </c>
       <c r="AZ93" s="16" t="n">
-        <v>0</v>
+        <v>49800</v>
       </c>
       <c r="BA93" s="16" t="n">
-        <v>49800</v>
+        <v>0</v>
       </c>
       <c r="BB93" s="16" t="n">
-        <v>0</v>
+        <v>40920</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14897,11 +14897,11 @@
       <c r="AN94" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO94" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP94" s="13" t="n">
-        <v>0</v>
+      <c r="AO94" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP94" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AQ94" s="13" t="s">
         <v>58</v>
@@ -14930,14 +14930,14 @@
       <c r="AY94" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AZ94" s="13" t="s">
-        <v>58</v>
+      <c r="AZ94" s="13" t="n">
+        <v>1944</v>
       </c>
       <c r="BA94" s="13" t="n">
-        <v>1944</v>
-      </c>
-      <c r="BB94" s="13" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="BB94" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15056,8 +15056,8 @@
       <c r="AN95" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AO95" s="16" t="s">
-        <v>58</v>
+      <c r="AO95" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AP95" s="16" t="n">
         <v>0</v>
@@ -15236,26 +15236,26 @@
       <c r="AU96" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AV96" s="13" t="s">
-        <v>58</v>
+      <c r="AV96" s="13" t="n">
+        <v>218400</v>
       </c>
       <c r="AW96" s="13" t="n">
-        <v>218400</v>
+        <v>235595</v>
       </c>
       <c r="AX96" s="13" t="n">
-        <v>235595</v>
+        <v>144798</v>
       </c>
       <c r="AY96" s="13" t="n">
-        <v>144798</v>
+        <v>0</v>
       </c>
       <c r="AZ96" s="13" t="n">
-        <v>0</v>
+        <v>147000</v>
       </c>
       <c r="BA96" s="13" t="n">
-        <v>147000</v>
+        <v>247700</v>
       </c>
       <c r="BB96" s="13" t="n">
-        <v>247700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15314,8 +15314,8 @@
       <c r="T97" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U97" s="16" t="s">
-        <v>58</v>
+      <c r="U97" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="V97" s="16" t="n">
         <v>0</v>
@@ -15341,14 +15341,14 @@
       <c r="AC97" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AD97" s="16" t="n">
-        <v>0</v>
+      <c r="AD97" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AE97" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AF97" s="16" t="s">
-        <v>58</v>
+      <c r="AF97" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AG97" s="16" t="n">
         <v>0</v>
@@ -15377,8 +15377,8 @@
       <c r="AO97" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AP97" s="16" t="n">
-        <v>0</v>
+      <c r="AP97" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AQ97" s="16" t="s">
         <v>58</v>
@@ -15395,26 +15395,26 @@
       <c r="AU97" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AV97" s="16" t="s">
-        <v>58</v>
+      <c r="AV97" s="16" t="n">
+        <v>194625</v>
       </c>
       <c r="AW97" s="16" t="n">
-        <v>194625</v>
+        <v>236125</v>
       </c>
       <c r="AX97" s="16" t="n">
-        <v>236125</v>
+        <v>87000</v>
       </c>
       <c r="AY97" s="16" t="n">
-        <v>87000</v>
+        <v>87500</v>
       </c>
       <c r="AZ97" s="16" t="n">
-        <v>87500</v>
+        <v>24140</v>
       </c>
       <c r="BA97" s="16" t="n">
-        <v>24140</v>
+        <v>116300</v>
       </c>
       <c r="BB97" s="16" t="n">
-        <v>116300</v>
+        <v>23500</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15500,8 +15500,8 @@
       <c r="AC98" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD98" s="13" t="s">
-        <v>58</v>
+      <c r="AD98" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AE98" s="13" t="n">
         <v>0</v>
@@ -15533,8 +15533,8 @@
       <c r="AN98" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AO98" s="13" t="n">
-        <v>0</v>
+      <c r="AO98" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AP98" s="13" t="s">
         <v>58</v>
@@ -15659,14 +15659,14 @@
       <c r="AC99" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AD99" s="16" t="s">
-        <v>58</v>
+      <c r="AD99" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AE99" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AF99" s="16" t="n">
-        <v>0</v>
+      <c r="AF99" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AG99" s="16" t="s">
         <v>58</v>
@@ -15818,8 +15818,8 @@
       <c r="AC100" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD100" s="13" t="s">
-        <v>58</v>
+      <c r="AD100" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AE100" s="13" t="n">
         <v>0</v>
@@ -15851,8 +15851,8 @@
       <c r="AN100" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AO100" s="13" t="n">
-        <v>0</v>
+      <c r="AO100" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AP100" s="13" t="s">
         <v>58</v>
@@ -15977,8 +15977,8 @@
       <c r="AC101" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AD101" s="16" t="s">
-        <v>58</v>
+      <c r="AD101" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AE101" s="16" t="n">
         <v>0</v>
@@ -16010,8 +16010,8 @@
       <c r="AN101" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AO101" s="16" t="n">
-        <v>0</v>
+      <c r="AO101" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AP101" s="16" t="s">
         <v>58</v>
@@ -16189,25 +16189,25 @@
         <v>0</v>
       </c>
       <c r="AV102" s="18" t="n">
-        <v>0</v>
+        <v>413025</v>
       </c>
       <c r="AW102" s="18" t="n">
-        <v>413025</v>
+        <v>489672</v>
       </c>
       <c r="AX102" s="18" t="n">
-        <v>489672</v>
+        <v>235407</v>
       </c>
       <c r="AY102" s="18" t="n">
-        <v>235407</v>
+        <v>87500</v>
       </c>
       <c r="AZ102" s="18" t="n">
-        <v>87500</v>
+        <v>222884</v>
       </c>
       <c r="BA102" s="18" t="n">
-        <v>222884</v>
+        <v>364000</v>
       </c>
       <c r="BB102" s="18" t="n">
-        <v>364000</v>
+        <v>64420</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16350,8 +16350,8 @@
       <c r="AC104" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD104" s="13" t="s">
-        <v>58</v>
+      <c r="AD104" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AE104" s="13" t="n">
         <v>0</v>
@@ -16482,8 +16482,8 @@
       <c r="T105" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="U105" s="20" t="s">
-        <v>58</v>
+      <c r="U105" s="21" t="n">
+        <v>0</v>
       </c>
       <c r="V105" s="21" t="n">
         <v>0</v>
@@ -16761,8 +16761,8 @@
       <c r="AO107" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP107" s="13" t="s">
-        <v>58</v>
+      <c r="AP107" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AQ107" s="13" t="n">
         <v>0</v>
@@ -16797,8 +16797,8 @@
       <c r="BA107" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="BB107" s="13" t="n">
-        <v>0</v>
+      <c r="BB107" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16857,8 +16857,8 @@
       <c r="T108" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="U108" s="20" t="s">
-        <v>58</v>
+      <c r="U108" s="21" t="n">
+        <v>0</v>
       </c>
       <c r="V108" s="21" t="n">
         <v>0</v>
@@ -17073,8 +17073,8 @@
       <c r="T110" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U110" s="13" t="s">
-        <v>58</v>
+      <c r="U110" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V110" s="13" t="n">
         <v>0</v>
@@ -17231,106 +17231,106 @@
         <v>0</v>
       </c>
       <c r="U111" s="21" t="n">
-        <v>0</v>
+        <v>533484</v>
       </c>
       <c r="V111" s="21" t="n">
-        <v>533484</v>
+        <v>578142</v>
       </c>
       <c r="W111" s="21" t="n">
-        <v>578142</v>
+        <v>554318</v>
       </c>
       <c r="X111" s="21" t="n">
-        <v>554318</v>
+        <v>495006</v>
       </c>
       <c r="Y111" s="21" t="n">
-        <v>495006</v>
+        <v>559068</v>
       </c>
       <c r="Z111" s="21" t="n">
-        <v>559068</v>
+        <v>687872</v>
       </c>
       <c r="AA111" s="21" t="n">
-        <v>687872</v>
+        <v>710784</v>
       </c>
       <c r="AB111" s="21" t="n">
-        <v>710784</v>
+        <v>619761</v>
       </c>
       <c r="AC111" s="21" t="n">
-        <v>619761</v>
+        <v>828259</v>
       </c>
       <c r="AD111" s="21" t="n">
-        <v>828259</v>
+        <v>645229</v>
       </c>
       <c r="AE111" s="21" t="n">
-        <v>645229</v>
+        <v>622413</v>
       </c>
       <c r="AF111" s="21" t="n">
-        <v>622413</v>
+        <v>707554</v>
       </c>
       <c r="AG111" s="21" t="n">
-        <v>707554</v>
+        <v>813048</v>
       </c>
       <c r="AH111" s="21" t="n">
-        <v>813048</v>
+        <v>727934</v>
       </c>
       <c r="AI111" s="21" t="n">
-        <v>727934</v>
+        <v>894186</v>
       </c>
       <c r="AJ111" s="21" t="n">
-        <v>894186</v>
+        <v>857264</v>
       </c>
       <c r="AK111" s="21" t="n">
-        <v>857264</v>
+        <v>921759</v>
       </c>
       <c r="AL111" s="21" t="n">
-        <v>921759</v>
+        <v>964458</v>
       </c>
       <c r="AM111" s="21" t="n">
-        <v>964458</v>
+        <v>837488</v>
       </c>
       <c r="AN111" s="21" t="n">
-        <v>837488</v>
+        <v>747743</v>
       </c>
       <c r="AO111" s="21" t="n">
-        <v>747743</v>
+        <v>1127816</v>
       </c>
       <c r="AP111" s="21" t="n">
-        <v>1127816</v>
+        <v>1217615</v>
       </c>
       <c r="AQ111" s="21" t="n">
-        <v>1217615</v>
+        <v>1005633</v>
       </c>
       <c r="AR111" s="21" t="n">
-        <v>1005633</v>
+        <v>1320053</v>
       </c>
       <c r="AS111" s="21" t="n">
-        <v>1320053</v>
+        <v>1687499</v>
       </c>
       <c r="AT111" s="21" t="n">
-        <v>1687499</v>
+        <v>1751834</v>
       </c>
       <c r="AU111" s="21" t="n">
-        <v>1751834</v>
+        <v>1597792</v>
       </c>
       <c r="AV111" s="21" t="n">
-        <v>1597792</v>
+        <v>1998705</v>
       </c>
       <c r="AW111" s="21" t="n">
-        <v>1998705</v>
+        <v>1827960</v>
       </c>
       <c r="AX111" s="21" t="n">
-        <v>1827960</v>
+        <v>1941412</v>
       </c>
       <c r="AY111" s="21" t="n">
-        <v>1941412</v>
+        <v>1686377</v>
       </c>
       <c r="AZ111" s="21" t="n">
-        <v>1686377</v>
+        <v>2021009</v>
       </c>
       <c r="BA111" s="21" t="n">
-        <v>2021009</v>
+        <v>1962016</v>
       </c>
       <c r="BB111" s="21" t="n">
-        <v>1962016</v>
+        <v>1986376</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17823,107 +17823,107 @@
       <c r="T118" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U118" s="13" t="s">
-        <v>58</v>
+      <c r="U118" s="13" t="n">
+        <v>33755440</v>
       </c>
       <c r="V118" s="13" t="n">
-        <v>33755440</v>
+        <v>35165579</v>
       </c>
       <c r="W118" s="13" t="n">
-        <v>35165579</v>
+        <v>35281086</v>
       </c>
       <c r="X118" s="13" t="n">
-        <v>35281086</v>
+        <v>34426600</v>
       </c>
       <c r="Y118" s="13" t="n">
-        <v>34426600</v>
+        <v>36081191</v>
       </c>
       <c r="Z118" s="13" t="n">
-        <v>36081191</v>
+        <v>41634278</v>
       </c>
       <c r="AA118" s="13" t="n">
-        <v>41634278</v>
+        <v>45865885</v>
       </c>
       <c r="AB118" s="13" t="n">
-        <v>45865885</v>
+        <v>43721120</v>
       </c>
       <c r="AC118" s="13" t="n">
-        <v>43721120</v>
+        <v>42080285</v>
       </c>
       <c r="AD118" s="13" t="n">
-        <v>42080285</v>
+        <v>42783912</v>
       </c>
       <c r="AE118" s="13" t="n">
-        <v>42783912</v>
+        <v>46548708</v>
       </c>
       <c r="AF118" s="13" t="n">
-        <v>46548708</v>
+        <v>51704396</v>
       </c>
       <c r="AG118" s="13" t="n">
-        <v>51704396</v>
+        <v>61650391</v>
       </c>
       <c r="AH118" s="13" t="n">
-        <v>61650391</v>
+        <v>56627034</v>
       </c>
       <c r="AI118" s="13" t="n">
-        <v>56627034</v>
+        <v>65842569</v>
       </c>
       <c r="AJ118" s="13" t="n">
-        <v>65842569</v>
+        <v>62139731</v>
       </c>
       <c r="AK118" s="13" t="n">
-        <v>62139731</v>
+        <v>64436155</v>
       </c>
       <c r="AL118" s="13" t="n">
-        <v>64436155</v>
+        <v>65715054</v>
       </c>
       <c r="AM118" s="13" t="n">
-        <v>65715054</v>
+        <v>66624791</v>
       </c>
       <c r="AN118" s="13" t="n">
-        <v>66624791</v>
+        <v>66735043</v>
       </c>
       <c r="AO118" s="13" t="n">
-        <v>66735043</v>
+        <v>66392593</v>
       </c>
       <c r="AP118" s="13" t="n">
-        <v>66392593</v>
+        <v>68327497</v>
       </c>
       <c r="AQ118" s="13" t="n">
-        <v>68327497</v>
+        <v>73707883</v>
       </c>
       <c r="AR118" s="13" t="n">
-        <v>73707883</v>
+        <v>107613014</v>
       </c>
       <c r="AS118" s="13" t="n">
-        <v>107613014</v>
+        <v>104074278</v>
       </c>
       <c r="AT118" s="13" t="n">
-        <v>104074278</v>
+        <v>105021429</v>
       </c>
       <c r="AU118" s="13" t="n">
-        <v>105021429</v>
+        <v>103969072</v>
       </c>
       <c r="AV118" s="13" t="n">
-        <v>103969072</v>
+        <v>103298622</v>
       </c>
       <c r="AW118" s="13" t="n">
-        <v>103298622</v>
+        <v>103593354</v>
       </c>
       <c r="AX118" s="13" t="n">
-        <v>103593354</v>
+        <v>105431818</v>
       </c>
       <c r="AY118" s="13" t="n">
-        <v>105431818</v>
+        <v>100747899</v>
       </c>
       <c r="AZ118" s="13" t="n">
-        <v>100747899</v>
+        <v>102637961</v>
       </c>
       <c r="BA118" s="13" t="n">
-        <v>102637961</v>
+        <v>101332659</v>
       </c>
       <c r="BB118" s="13" t="n">
-        <v>101332659</v>
+        <v>98004664</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17982,107 +17982,107 @@
       <c r="T119" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U119" s="16" t="s">
-        <v>58</v>
+      <c r="U119" s="16" t="n">
+        <v>141947368</v>
       </c>
       <c r="V119" s="16" t="n">
-        <v>141947368</v>
+        <v>149833333</v>
       </c>
       <c r="W119" s="16" t="n">
-        <v>149833333</v>
+        <v>148875000</v>
       </c>
       <c r="X119" s="16" t="n">
-        <v>148875000</v>
+        <v>138458333</v>
       </c>
       <c r="Y119" s="16" t="n">
-        <v>138458333</v>
+        <v>189571429</v>
       </c>
       <c r="Z119" s="16" t="n">
-        <v>189571429</v>
+        <v>147483871</v>
       </c>
       <c r="AA119" s="16" t="n">
-        <v>147483871</v>
+        <v>168085714</v>
       </c>
       <c r="AB119" s="16" t="n">
-        <v>168085714</v>
+        <v>145185185</v>
       </c>
       <c r="AC119" s="16" t="n">
-        <v>145185185</v>
+        <v>5851852</v>
       </c>
       <c r="AD119" s="16" t="n">
-        <v>5851852</v>
+        <v>174884615</v>
       </c>
       <c r="AE119" s="16" t="n">
-        <v>174884615</v>
+        <v>89600000</v>
       </c>
       <c r="AF119" s="16" t="n">
-        <v>89600000</v>
+        <v>164601626</v>
       </c>
       <c r="AG119" s="16" t="n">
-        <v>164601626</v>
+        <v>408615385</v>
       </c>
       <c r="AH119" s="16" t="n">
-        <v>408615385</v>
+        <v>238600000</v>
       </c>
       <c r="AI119" s="16" t="n">
-        <v>238600000</v>
+        <v>239000000</v>
       </c>
       <c r="AJ119" s="16" t="n">
-        <v>239000000</v>
+        <v>240620690</v>
       </c>
       <c r="AK119" s="16" t="n">
-        <v>240620690</v>
+        <v>248800000</v>
       </c>
       <c r="AL119" s="16" t="n">
-        <v>248800000</v>
+        <v>247272727</v>
       </c>
       <c r="AM119" s="16" t="n">
-        <v>247272727</v>
+        <v>216142857</v>
       </c>
       <c r="AN119" s="16" t="n">
-        <v>216142857</v>
+        <v>258000000</v>
       </c>
       <c r="AO119" s="16" t="n">
+        <v>269227273</v>
+      </c>
+      <c r="AP119" s="16" t="n">
         <v>258000000</v>
       </c>
-      <c r="AP119" s="16" t="n">
-        <v>269227273</v>
-      </c>
       <c r="AQ119" s="16" t="n">
-        <v>258000000</v>
+        <v>284333333</v>
       </c>
       <c r="AR119" s="16" t="n">
-        <v>284333333</v>
+        <v>479578947</v>
       </c>
       <c r="AS119" s="16" t="n">
-        <v>479578947</v>
+        <v>407928571</v>
       </c>
       <c r="AT119" s="16" t="n">
-        <v>407928571</v>
+        <v>438055556</v>
       </c>
       <c r="AU119" s="16" t="n">
-        <v>438055556</v>
+        <v>418388889</v>
       </c>
       <c r="AV119" s="16" t="n">
-        <v>418388889</v>
+        <v>432315789</v>
       </c>
       <c r="AW119" s="16" t="n">
-        <v>432315789</v>
+        <v>401500000</v>
       </c>
       <c r="AX119" s="16" t="n">
-        <v>401500000</v>
+        <v>429111111</v>
       </c>
       <c r="AY119" s="16" t="n">
-        <v>429111111</v>
+        <v>413750000</v>
       </c>
       <c r="AZ119" s="16" t="n">
-        <v>413750000</v>
+        <v>423227273</v>
       </c>
       <c r="BA119" s="16" t="n">
-        <v>423227273</v>
+        <v>417500000</v>
       </c>
       <c r="BB119" s="16" t="n">
-        <v>417500000</v>
+        <v>434192308</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18141,107 +18141,107 @@
       <c r="T120" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U120" s="13" t="s">
-        <v>58</v>
+      <c r="U120" s="13" t="n">
+        <v>53063561</v>
       </c>
       <c r="V120" s="13" t="n">
-        <v>53063561</v>
+        <v>59568927</v>
       </c>
       <c r="W120" s="13" t="n">
-        <v>59568927</v>
+        <v>65815873</v>
       </c>
       <c r="X120" s="13" t="n">
-        <v>65815873</v>
+        <v>60888607</v>
       </c>
       <c r="Y120" s="13" t="n">
-        <v>60888607</v>
+        <v>50857495</v>
       </c>
       <c r="Z120" s="13" t="n">
-        <v>50857495</v>
+        <v>74549539</v>
       </c>
       <c r="AA120" s="13" t="n">
-        <v>74549539</v>
+        <v>90195594</v>
       </c>
       <c r="AB120" s="13" t="n">
-        <v>90195594</v>
+        <v>64919874</v>
       </c>
       <c r="AC120" s="13" t="n">
-        <v>64919874</v>
+        <v>95050987</v>
       </c>
       <c r="AD120" s="13" t="n">
-        <v>95050987</v>
+        <v>64714924</v>
       </c>
       <c r="AE120" s="13" t="n">
-        <v>64714924</v>
+        <v>70604968</v>
       </c>
       <c r="AF120" s="13" t="n">
-        <v>70604968</v>
+        <v>77293111</v>
       </c>
       <c r="AG120" s="13" t="n">
-        <v>77293111</v>
+        <v>75920788</v>
       </c>
       <c r="AH120" s="13" t="n">
-        <v>75920788</v>
+        <v>91633617</v>
       </c>
       <c r="AI120" s="13" t="n">
-        <v>91633617</v>
+        <v>97709771</v>
       </c>
       <c r="AJ120" s="13" t="n">
-        <v>97709771</v>
+        <v>111308772</v>
       </c>
       <c r="AK120" s="13" t="n">
-        <v>111308772</v>
+        <v>113229381</v>
       </c>
       <c r="AL120" s="13" t="n">
-        <v>113229381</v>
+        <v>129085315</v>
       </c>
       <c r="AM120" s="13" t="n">
-        <v>129085315</v>
+        <v>104000384</v>
       </c>
       <c r="AN120" s="13" t="n">
-        <v>104000384</v>
+        <v>102190062</v>
       </c>
       <c r="AO120" s="13" t="n">
-        <v>102190062</v>
+        <v>105731457</v>
       </c>
       <c r="AP120" s="13" t="n">
-        <v>105731457</v>
+        <v>108267001</v>
       </c>
       <c r="AQ120" s="13" t="n">
-        <v>108267001</v>
+        <v>128917782</v>
       </c>
       <c r="AR120" s="13" t="n">
-        <v>128917782</v>
+        <v>188527792</v>
       </c>
       <c r="AS120" s="13" t="n">
-        <v>188527792</v>
+        <v>194350760</v>
       </c>
       <c r="AT120" s="13" t="n">
-        <v>194350760</v>
+        <v>193125000</v>
       </c>
       <c r="AU120" s="13" t="n">
-        <v>193125000</v>
+        <v>186233459</v>
       </c>
       <c r="AV120" s="13" t="n">
-        <v>186233459</v>
+        <v>184404733</v>
       </c>
       <c r="AW120" s="13" t="n">
-        <v>184404733</v>
+        <v>191734627</v>
       </c>
       <c r="AX120" s="13" t="n">
-        <v>191734627</v>
+        <v>187263649</v>
       </c>
       <c r="AY120" s="13" t="n">
-        <v>187263649</v>
+        <v>185024313</v>
       </c>
       <c r="AZ120" s="13" t="n">
-        <v>185024313</v>
+        <v>188954998</v>
       </c>
       <c r="BA120" s="13" t="n">
-        <v>188954998</v>
+        <v>184985994</v>
       </c>
       <c r="BB120" s="13" t="n">
-        <v>184985994</v>
+        <v>182790522</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18300,107 +18300,107 @@
       <c r="T121" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U121" s="16" t="s">
-        <v>58</v>
+      <c r="U121" s="16" t="n">
+        <v>239949807</v>
       </c>
       <c r="V121" s="16" t="n">
-        <v>239949807</v>
+        <v>276351779</v>
       </c>
       <c r="W121" s="16" t="n">
-        <v>276351779</v>
+        <v>307416393</v>
       </c>
       <c r="X121" s="16" t="n">
-        <v>307416393</v>
+        <v>284904918</v>
       </c>
       <c r="Y121" s="16" t="n">
-        <v>284904918</v>
+        <v>279312821</v>
       </c>
       <c r="Z121" s="16" t="n">
-        <v>279312821</v>
+        <v>295318786</v>
       </c>
       <c r="AA121" s="16" t="n">
-        <v>295318786</v>
+        <v>335889807</v>
       </c>
       <c r="AB121" s="16" t="n">
-        <v>335889807</v>
+        <v>283402913</v>
       </c>
       <c r="AC121" s="16" t="n">
-        <v>283402913</v>
+        <v>301286195</v>
       </c>
       <c r="AD121" s="16" t="n">
-        <v>301286195</v>
+        <v>265308197</v>
       </c>
       <c r="AE121" s="16" t="n">
-        <v>265308197</v>
+        <v>330550802</v>
       </c>
       <c r="AF121" s="16" t="n">
-        <v>330550802</v>
+        <v>305844156</v>
       </c>
       <c r="AG121" s="16" t="n">
-        <v>305844156</v>
+        <v>485076923</v>
       </c>
       <c r="AH121" s="16" t="n">
-        <v>485076923</v>
+        <v>377195804</v>
       </c>
       <c r="AI121" s="16" t="n">
-        <v>377195804</v>
+        <v>449382353</v>
       </c>
       <c r="AJ121" s="16" t="n">
-        <v>449382353</v>
+        <v>425980296</v>
       </c>
       <c r="AK121" s="16" t="n">
-        <v>425980296</v>
+        <v>427589744</v>
       </c>
       <c r="AL121" s="16" t="n">
-        <v>427589744</v>
+        <v>459686869</v>
       </c>
       <c r="AM121" s="16" t="n">
-        <v>459686869</v>
+        <v>388238806</v>
       </c>
       <c r="AN121" s="16" t="n">
-        <v>388238806</v>
+        <v>352109195</v>
       </c>
       <c r="AO121" s="16" t="n">
-        <v>352109195</v>
+        <v>352892694</v>
       </c>
       <c r="AP121" s="16" t="n">
-        <v>352892694</v>
+        <v>318300532</v>
       </c>
       <c r="AQ121" s="16" t="n">
-        <v>318300532</v>
+        <v>449018868</v>
       </c>
       <c r="AR121" s="16" t="n">
-        <v>449018868</v>
+        <v>570477876</v>
       </c>
       <c r="AS121" s="16" t="n">
-        <v>570477876</v>
+        <v>577307368</v>
       </c>
       <c r="AT121" s="16" t="n">
-        <v>577307368</v>
+        <v>637544892</v>
       </c>
       <c r="AU121" s="16" t="n">
-        <v>637544892</v>
+        <v>623479532</v>
       </c>
       <c r="AV121" s="16" t="n">
-        <v>623479532</v>
+        <v>578454106</v>
       </c>
       <c r="AW121" s="16" t="n">
-        <v>578454106</v>
+        <v>671105263</v>
       </c>
       <c r="AX121" s="16" t="n">
-        <v>671105263</v>
+        <v>607774096</v>
       </c>
       <c r="AY121" s="16" t="n">
-        <v>607774096</v>
+        <v>699205333</v>
       </c>
       <c r="AZ121" s="16" t="n">
-        <v>699205333</v>
+        <v>682391198</v>
       </c>
       <c r="BA121" s="16" t="n">
-        <v>682391198</v>
+        <v>563905138</v>
       </c>
       <c r="BB121" s="16" t="n">
-        <v>563905138</v>
+        <v>626070000</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18459,107 +18459,107 @@
       <c r="T122" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U122" s="13" t="s">
-        <v>58</v>
+      <c r="U122" s="13" t="n">
+        <v>54199201</v>
       </c>
       <c r="V122" s="13" t="n">
-        <v>54199201</v>
+        <v>57214837</v>
       </c>
       <c r="W122" s="13" t="n">
-        <v>57214837</v>
+        <v>57534898</v>
       </c>
       <c r="X122" s="13" t="n">
-        <v>57534898</v>
+        <v>58935460</v>
       </c>
       <c r="Y122" s="13" t="n">
-        <v>58935460</v>
+        <v>59861852</v>
       </c>
       <c r="Z122" s="13" t="n">
-        <v>59861852</v>
+        <v>71651362</v>
       </c>
       <c r="AA122" s="13" t="n">
-        <v>71651362</v>
+        <v>74243846</v>
       </c>
       <c r="AB122" s="13" t="n">
-        <v>74243846</v>
+        <v>72563941</v>
       </c>
       <c r="AC122" s="13" t="n">
-        <v>72563941</v>
+        <v>70743558</v>
       </c>
       <c r="AD122" s="13" t="n">
-        <v>70743558</v>
+        <v>73114883</v>
       </c>
       <c r="AE122" s="13" t="n">
-        <v>73114883</v>
+        <v>78048077</v>
       </c>
       <c r="AF122" s="13" t="n">
-        <v>78048077</v>
+        <v>82014369</v>
       </c>
       <c r="AG122" s="13" t="n">
-        <v>82014369</v>
+        <v>90746361</v>
       </c>
       <c r="AH122" s="13" t="n">
-        <v>90746361</v>
+        <v>106330496</v>
       </c>
       <c r="AI122" s="13" t="n">
-        <v>106330496</v>
+        <v>125056338</v>
       </c>
       <c r="AJ122" s="13" t="n">
-        <v>125056338</v>
+        <v>125886459</v>
       </c>
       <c r="AK122" s="13" t="n">
-        <v>125886459</v>
+        <v>126448307</v>
       </c>
       <c r="AL122" s="13" t="n">
-        <v>126448307</v>
+        <v>125463557</v>
       </c>
       <c r="AM122" s="13" t="n">
-        <v>125463557</v>
+        <v>126464575</v>
       </c>
       <c r="AN122" s="13" t="n">
-        <v>126464575</v>
+        <v>127726076</v>
       </c>
       <c r="AO122" s="13" t="n">
-        <v>127726076</v>
+        <v>128826312</v>
       </c>
       <c r="AP122" s="13" t="n">
-        <v>128826312</v>
+        <v>130752831</v>
       </c>
       <c r="AQ122" s="13" t="n">
-        <v>130752831</v>
+        <v>146174578</v>
       </c>
       <c r="AR122" s="13" t="n">
-        <v>146174578</v>
+        <v>233708649</v>
       </c>
       <c r="AS122" s="13" t="n">
-        <v>233708649</v>
+        <v>220963993</v>
       </c>
       <c r="AT122" s="13" t="n">
-        <v>220963993</v>
+        <v>229164225</v>
       </c>
       <c r="AU122" s="13" t="n">
-        <v>229164225</v>
+        <v>228279279</v>
       </c>
       <c r="AV122" s="13" t="n">
-        <v>228279279</v>
+        <v>225801980</v>
       </c>
       <c r="AW122" s="13" t="n">
-        <v>225801980</v>
+        <v>225681704</v>
       </c>
       <c r="AX122" s="13" t="n">
-        <v>225681704</v>
+        <v>221172377</v>
       </c>
       <c r="AY122" s="13" t="n">
-        <v>221172377</v>
+        <v>222820459</v>
       </c>
       <c r="AZ122" s="13" t="n">
-        <v>222820459</v>
+        <v>222896027</v>
       </c>
       <c r="BA122" s="13" t="n">
-        <v>222896027</v>
+        <v>222910400</v>
       </c>
       <c r="BB122" s="13" t="n">
-        <v>222910400</v>
+        <v>222446643</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18618,107 +18618,107 @@
       <c r="T123" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U123" s="16" t="s">
-        <v>58</v>
+      <c r="U123" s="16" t="n">
+        <v>213037767</v>
       </c>
       <c r="V123" s="16" t="n">
-        <v>213037767</v>
+        <v>244129213</v>
       </c>
       <c r="W123" s="16" t="n">
-        <v>244129213</v>
+        <v>235359127</v>
       </c>
       <c r="X123" s="16" t="n">
-        <v>235359127</v>
+        <v>240651316</v>
       </c>
       <c r="Y123" s="16" t="n">
-        <v>240651316</v>
+        <v>256370270</v>
       </c>
       <c r="Z123" s="16" t="n">
-        <v>256370270</v>
+        <v>324086592</v>
       </c>
       <c r="AA123" s="16" t="n">
-        <v>324086592</v>
+        <v>367748756</v>
       </c>
       <c r="AB123" s="16" t="n">
-        <v>367748756</v>
+        <v>314190709</v>
       </c>
       <c r="AC123" s="16" t="n">
-        <v>314190709</v>
+        <v>244446502</v>
       </c>
       <c r="AD123" s="16" t="n">
-        <v>244446502</v>
+        <v>312702461</v>
       </c>
       <c r="AE123" s="16" t="n">
-        <v>312702461</v>
+        <v>310982222</v>
       </c>
       <c r="AF123" s="16" t="n">
-        <v>310982222</v>
+        <v>336904762</v>
       </c>
       <c r="AG123" s="16" t="n">
-        <v>336904762</v>
+        <v>363941300</v>
       </c>
       <c r="AH123" s="16" t="n">
-        <v>363941300</v>
+        <v>392983740</v>
       </c>
       <c r="AI123" s="16" t="n">
-        <v>392983740</v>
+        <v>439224215</v>
       </c>
       <c r="AJ123" s="16" t="n">
-        <v>439224215</v>
+        <v>438233766</v>
       </c>
       <c r="AK123" s="16" t="n">
-        <v>438233766</v>
+        <v>438021127</v>
       </c>
       <c r="AL123" s="16" t="n">
-        <v>438021127</v>
+        <v>445236074</v>
       </c>
       <c r="AM123" s="16" t="n">
-        <v>445236074</v>
+        <v>442723404</v>
       </c>
       <c r="AN123" s="16" t="n">
-        <v>442723404</v>
+        <v>433155709</v>
       </c>
       <c r="AO123" s="16" t="n">
-        <v>433155709</v>
+        <v>434435000</v>
       </c>
       <c r="AP123" s="16" t="n">
-        <v>434435000</v>
+        <v>431183183</v>
       </c>
       <c r="AQ123" s="16" t="n">
-        <v>431183183</v>
+        <v>525421836</v>
       </c>
       <c r="AR123" s="16" t="n">
-        <v>525421836</v>
+        <v>845985955</v>
       </c>
       <c r="AS123" s="16" t="n">
-        <v>845985955</v>
+        <v>772048780</v>
       </c>
       <c r="AT123" s="16" t="n">
-        <v>772048780</v>
+        <v>811513021</v>
       </c>
       <c r="AU123" s="16" t="n">
-        <v>811513021</v>
+        <v>790508242</v>
       </c>
       <c r="AV123" s="16" t="n">
-        <v>790508242</v>
+        <v>805781065</v>
       </c>
       <c r="AW123" s="16" t="n">
-        <v>805781065</v>
+        <v>758554217</v>
       </c>
       <c r="AX123" s="16" t="n">
-        <v>758554217</v>
+        <v>771862963</v>
       </c>
       <c r="AY123" s="16" t="n">
-        <v>771862963</v>
+        <v>729557769</v>
       </c>
       <c r="AZ123" s="16" t="n">
-        <v>729557769</v>
+        <v>726483871</v>
       </c>
       <c r="BA123" s="16" t="n">
-        <v>726483871</v>
+        <v>791051402</v>
       </c>
       <c r="BB123" s="16" t="n">
-        <v>791051402</v>
+        <v>773926282</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18777,107 +18777,107 @@
       <c r="T124" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U124" s="13" t="s">
-        <v>58</v>
+      <c r="U124" s="13" t="n">
+        <v>344106383</v>
       </c>
       <c r="V124" s="13" t="n">
-        <v>344106383</v>
+        <v>356111111</v>
       </c>
       <c r="W124" s="13" t="n">
-        <v>356111111</v>
+        <v>469194030</v>
       </c>
       <c r="X124" s="13" t="n">
-        <v>469194030</v>
+        <v>631140000</v>
       </c>
       <c r="Y124" s="13" t="n">
-        <v>631140000</v>
+        <v>630896552</v>
       </c>
       <c r="Z124" s="13" t="n">
-        <v>630896552</v>
+        <v>676686747</v>
       </c>
       <c r="AA124" s="13" t="n">
-        <v>676686747</v>
+        <v>636833333</v>
       </c>
       <c r="AB124" s="13" t="n">
-        <v>636833333</v>
+        <v>681677419</v>
       </c>
       <c r="AC124" s="13" t="n">
-        <v>681677419</v>
+        <v>742846154</v>
       </c>
       <c r="AD124" s="13" t="n">
-        <v>742846154</v>
+        <v>679923077</v>
       </c>
       <c r="AE124" s="13" t="n">
-        <v>679923077</v>
+        <v>724500000</v>
       </c>
       <c r="AF124" s="13" t="n">
-        <v>724500000</v>
+        <v>778272727</v>
       </c>
       <c r="AG124" s="13" t="n">
-        <v>778272727</v>
+        <v>913352941</v>
       </c>
       <c r="AH124" s="13" t="n">
-        <v>913352941</v>
+        <v>671088235</v>
       </c>
       <c r="AI124" s="13" t="n">
-        <v>671088235</v>
+        <v>755647887</v>
       </c>
       <c r="AJ124" s="13" t="n">
-        <v>755647887</v>
+        <v>787133333</v>
       </c>
       <c r="AK124" s="13" t="n">
-        <v>787133333</v>
+        <v>867810811</v>
       </c>
       <c r="AL124" s="13" t="n">
-        <v>867810811</v>
+        <v>867206897</v>
       </c>
       <c r="AM124" s="13" t="n">
-        <v>867206897</v>
+        <v>829294118</v>
       </c>
       <c r="AN124" s="13" t="n">
-        <v>829294118</v>
+        <v>820000000</v>
       </c>
       <c r="AO124" s="13" t="n">
-        <v>820000000</v>
+        <v>779392857</v>
       </c>
       <c r="AP124" s="13" t="n">
-        <v>779392857</v>
+        <v>711643963</v>
       </c>
       <c r="AQ124" s="13" t="n">
-        <v>711643963</v>
+        <v>779265734</v>
       </c>
       <c r="AR124" s="13" t="n">
-        <v>779265734</v>
+        <v>1307600000</v>
       </c>
       <c r="AS124" s="13" t="n">
-        <v>1307600000</v>
+        <v>1347876106</v>
       </c>
       <c r="AT124" s="13" t="n">
-        <v>1347876106</v>
+        <v>1644461538</v>
       </c>
       <c r="AU124" s="13" t="n">
-        <v>1644461538</v>
+        <v>1491526316</v>
       </c>
       <c r="AV124" s="13" t="n">
-        <v>1491526316</v>
+        <v>1411046154</v>
       </c>
       <c r="AW124" s="13" t="n">
-        <v>1411046154</v>
+        <v>1776911111</v>
       </c>
       <c r="AX124" s="13" t="n">
-        <v>1776911111</v>
+        <v>1378714286</v>
       </c>
       <c r="AY124" s="13" t="n">
-        <v>1378714286</v>
+        <v>1479775701</v>
       </c>
       <c r="AZ124" s="13" t="n">
-        <v>1479775701</v>
+        <v>1505300000</v>
       </c>
       <c r="BA124" s="13" t="n">
-        <v>1505300000</v>
+        <v>1738057143</v>
       </c>
       <c r="BB124" s="13" t="n">
-        <v>1738057143</v>
+        <v>1500559055</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18936,107 +18936,107 @@
       <c r="T125" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U125" s="16" t="s">
-        <v>58</v>
+      <c r="U125" s="16" t="n">
+        <v>254159091</v>
       </c>
       <c r="V125" s="16" t="n">
-        <v>254159091</v>
+        <v>272575499</v>
       </c>
       <c r="W125" s="16" t="n">
-        <v>272575499</v>
+        <v>242410256</v>
       </c>
       <c r="X125" s="16" t="n">
-        <v>242410256</v>
+        <v>173835616</v>
       </c>
       <c r="Y125" s="16" t="n">
-        <v>173835616</v>
+        <v>177020270</v>
       </c>
       <c r="Z125" s="16" t="n">
-        <v>177020270</v>
+        <v>205744493</v>
       </c>
       <c r="AA125" s="16" t="n">
-        <v>205744493</v>
+        <v>269292553</v>
       </c>
       <c r="AB125" s="16" t="n">
-        <v>269292553</v>
+        <v>151637584</v>
       </c>
       <c r="AC125" s="16" t="n">
-        <v>151637584</v>
+        <v>317926773</v>
       </c>
       <c r="AD125" s="16" t="n">
-        <v>317926773</v>
+        <v>138271255</v>
       </c>
       <c r="AE125" s="16" t="n">
-        <v>138271255</v>
+        <v>200591346</v>
       </c>
       <c r="AF125" s="16" t="n">
-        <v>200591346</v>
+        <v>233778378</v>
       </c>
       <c r="AG125" s="16" t="n">
-        <v>233778378</v>
+        <v>357066832</v>
       </c>
       <c r="AH125" s="16" t="n">
-        <v>357066832</v>
+        <v>519343023</v>
       </c>
       <c r="AI125" s="16" t="n">
-        <v>519343023</v>
+        <v>425064655</v>
       </c>
       <c r="AJ125" s="16" t="n">
-        <v>425064655</v>
+        <v>480234432</v>
       </c>
       <c r="AK125" s="16" t="n">
-        <v>480234432</v>
+        <v>489624561</v>
       </c>
       <c r="AL125" s="16" t="n">
-        <v>489624561</v>
+        <v>614401070</v>
       </c>
       <c r="AM125" s="16" t="n">
-        <v>614401070</v>
+        <v>659622951</v>
       </c>
       <c r="AN125" s="16" t="n">
-        <v>659622951</v>
+        <v>580035176</v>
       </c>
       <c r="AO125" s="16" t="n">
-        <v>580035176</v>
+        <v>556930470</v>
       </c>
       <c r="AP125" s="16" t="n">
-        <v>556930470</v>
+        <v>594935484</v>
       </c>
       <c r="AQ125" s="16" t="n">
-        <v>594935484</v>
+        <v>752542254</v>
       </c>
       <c r="AR125" s="16" t="n">
-        <v>752542254</v>
+        <v>980478873</v>
       </c>
       <c r="AS125" s="16" t="n">
-        <v>980478873</v>
+        <v>1233535714</v>
       </c>
       <c r="AT125" s="16" t="n">
-        <v>1233535714</v>
+        <v>706407787</v>
       </c>
       <c r="AU125" s="16" t="n">
-        <v>706407787</v>
+        <v>963796512</v>
       </c>
       <c r="AV125" s="16" t="n">
-        <v>963796512</v>
+        <v>807403101</v>
       </c>
       <c r="AW125" s="16" t="n">
-        <v>807403101</v>
+        <v>995564516</v>
       </c>
       <c r="AX125" s="16" t="n">
-        <v>995564516</v>
+        <v>894015873</v>
       </c>
       <c r="AY125" s="16" t="n">
-        <v>894015873</v>
+        <v>942195000</v>
       </c>
       <c r="AZ125" s="16" t="n">
-        <v>942195000</v>
+        <v>1059175966</v>
       </c>
       <c r="BA125" s="16" t="n">
-        <v>1059175966</v>
+        <v>882307692</v>
       </c>
       <c r="BB125" s="16" t="n">
-        <v>882307692</v>
+        <v>958802020</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19239,11 +19239,11 @@
       <c r="AW127" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AX127" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY127" s="13" t="n">
+      <c r="AX127" s="13" t="n">
         <v>1804500000</v>
+      </c>
+      <c r="AY127" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AZ127" s="13" t="s">
         <v>58</v>
@@ -19554,23 +19554,23 @@
       <c r="AV129" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AW129" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX129" s="13" t="n">
+      <c r="AW129" s="13" t="n">
         <v>944842105</v>
       </c>
+      <c r="AX129" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AY129" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AZ129" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA129" s="13" t="n">
+      <c r="AZ129" s="13" t="n">
         <v>415000000</v>
       </c>
-      <c r="BB129" s="13" t="s">
-        <v>58</v>
+      <c r="BA129" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB129" s="13" t="n">
+        <v>930000000</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19722,11 +19722,11 @@
       <c r="AY130" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AZ130" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA130" s="16" t="n">
+      <c r="AZ130" s="16" t="n">
         <v>277714286</v>
+      </c>
+      <c r="BA130" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="BB130" s="16" t="s">
         <v>58</v>
@@ -19869,26 +19869,26 @@
       <c r="AU131" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AV131" s="13" t="s">
-        <v>58</v>
+      <c r="AV131" s="13" t="n">
+        <v>1365000000</v>
       </c>
       <c r="AW131" s="13" t="n">
-        <v>1365000000</v>
+        <v>1369738372</v>
       </c>
       <c r="AX131" s="13" t="n">
-        <v>1369738372</v>
-      </c>
-      <c r="AY131" s="13" t="n">
         <v>1447980000</v>
       </c>
-      <c r="AZ131" s="13" t="s">
-        <v>58</v>
+      <c r="AY131" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ131" s="13" t="n">
+        <v>1470000000</v>
       </c>
       <c r="BA131" s="13" t="n">
-        <v>1470000000</v>
-      </c>
-      <c r="BB131" s="13" t="n">
         <v>1407386364</v>
+      </c>
+      <c r="BB131" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20028,26 +20028,26 @@
       <c r="AU132" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AV132" s="16" t="s">
-        <v>58</v>
+      <c r="AV132" s="16" t="n">
+        <v>865000000</v>
       </c>
       <c r="AW132" s="16" t="n">
-        <v>865000000</v>
+        <v>726538462</v>
       </c>
       <c r="AX132" s="16" t="n">
-        <v>726538462</v>
+        <v>820754717</v>
       </c>
       <c r="AY132" s="16" t="n">
-        <v>820754717</v>
+        <v>875000000</v>
       </c>
       <c r="AZ132" s="16" t="n">
-        <v>875000000</v>
+        <v>438909091</v>
       </c>
       <c r="BA132" s="16" t="n">
-        <v>438909091</v>
+        <v>1029203540</v>
       </c>
       <c r="BB132" s="16" t="n">
-        <v>1029203540</v>
+        <v>940000000</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20190,8 +20190,8 @@
       <c r="AC134" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD134" s="13" t="s">
-        <v>58</v>
+      <c r="AD134" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AE134" s="13" t="n">
         <v>0</v>

--- a/database/industries/ghaza/ghefars/product/monthly_seprated.xlsx
+++ b/database/industries/ghaza/ghefars/product/monthly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\ghaza\ghefars\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VAHID\Desktop\Trade\database\industries\ghaza\ghefars\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C19AB90-1E83-4850-898B-4485F6FFB0B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{680991DB-1F55-48BF-AAF8-891AA4404478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2928" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2865" uniqueCount="96">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 12 منتهی به 1397/12</t>
   </si>
   <si>
     <t>ماه 1 منتهی به 1398/01</t>
@@ -185,6 +182,9 @@
   </si>
   <si>
     <t>ماه 1 منتهی به 1402/01</t>
+  </si>
+  <si>
+    <t>ماه 2 منتهی به 1402/02</t>
   </si>
   <si>
     <t>مقدار تولید داخلی</t>
@@ -1504,110 +1504,110 @@
       <c r="S11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="T11" s="11" t="s">
-        <v>58</v>
+      <c r="T11" s="11">
+        <v>1149</v>
       </c>
       <c r="U11" s="11">
-        <v>1149</v>
+        <v>1185</v>
       </c>
       <c r="V11" s="11">
+        <v>1136</v>
+      </c>
+      <c r="W11" s="11">
+        <v>762</v>
+      </c>
+      <c r="X11" s="11">
+        <v>989</v>
+      </c>
+      <c r="Y11" s="11">
+        <v>633</v>
+      </c>
+      <c r="Z11" s="11">
+        <v>726</v>
+      </c>
+      <c r="AA11" s="11">
+        <v>917</v>
+      </c>
+      <c r="AB11" s="11">
         <v>1185</v>
       </c>
-      <c r="W11" s="11">
-        <v>1136</v>
-      </c>
-      <c r="X11" s="11">
-        <v>762</v>
-      </c>
-      <c r="Y11" s="11">
-        <v>989</v>
-      </c>
-      <c r="Z11" s="11">
-        <v>633</v>
-      </c>
-      <c r="AA11" s="11">
-        <v>726</v>
-      </c>
-      <c r="AB11" s="11">
-        <v>917</v>
-      </c>
       <c r="AC11" s="11">
-        <v>1185</v>
+        <v>1161</v>
       </c>
       <c r="AD11" s="11">
-        <v>1161</v>
+        <v>1061</v>
       </c>
       <c r="AE11" s="11">
-        <v>1061</v>
+        <v>800</v>
       </c>
       <c r="AF11" s="11">
-        <v>800</v>
+        <v>1046</v>
       </c>
       <c r="AG11" s="11">
-        <v>1046</v>
+        <v>837</v>
       </c>
       <c r="AH11" s="11">
-        <v>837</v>
+        <v>716</v>
       </c>
       <c r="AI11" s="11">
         <v>716</v>
       </c>
       <c r="AJ11" s="11">
-        <v>716</v>
+        <v>667</v>
       </c>
       <c r="AK11" s="11">
-        <v>667</v>
+        <v>494</v>
       </c>
       <c r="AL11" s="11">
-        <v>494</v>
+        <v>701</v>
       </c>
       <c r="AM11" s="11">
-        <v>701</v>
+        <v>514</v>
       </c>
       <c r="AN11" s="11">
-        <v>514</v>
+        <v>625</v>
       </c>
       <c r="AO11" s="11">
-        <v>625</v>
+        <v>990</v>
       </c>
       <c r="AP11" s="11">
-        <v>990</v>
+        <v>581</v>
       </c>
       <c r="AQ11" s="11">
-        <v>581</v>
+        <v>903</v>
       </c>
       <c r="AR11" s="11">
-        <v>903</v>
+        <v>708</v>
       </c>
       <c r="AS11" s="11">
-        <v>708</v>
+        <v>935</v>
       </c>
       <c r="AT11" s="11">
-        <v>935</v>
+        <v>709</v>
       </c>
       <c r="AU11" s="11">
+        <v>673</v>
+      </c>
+      <c r="AV11" s="11">
+        <v>656</v>
+      </c>
+      <c r="AW11" s="11">
+        <v>536</v>
+      </c>
+      <c r="AX11" s="11">
         <v>709</v>
       </c>
-      <c r="AV11" s="11">
-        <v>673</v>
-      </c>
-      <c r="AW11" s="11">
-        <v>656</v>
-      </c>
-      <c r="AX11" s="11">
-        <v>536</v>
-      </c>
       <c r="AY11" s="11">
-        <v>709</v>
+        <v>439</v>
       </c>
       <c r="AZ11" s="11">
-        <v>439</v>
+        <v>966</v>
       </c>
       <c r="BA11" s="11">
-        <v>966</v>
+        <v>1078</v>
       </c>
       <c r="BB11" s="11">
-        <v>1078</v>
+        <v>806</v>
       </c>
     </row>
     <row r="12" spans="2:54" x14ac:dyDescent="0.3">
@@ -1663,50 +1663,50 @@
       <c r="S12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T12" s="13" t="s">
-        <v>58</v>
+      <c r="T12" s="13">
+        <v>18</v>
       </c>
       <c r="U12" s="13">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="V12" s="13">
         <v>29</v>
       </c>
       <c r="W12" s="13">
+        <v>17</v>
+      </c>
+      <c r="X12" s="13">
+        <v>21</v>
+      </c>
+      <c r="Y12" s="13">
+        <v>38</v>
+      </c>
+      <c r="Z12" s="13">
+        <v>28</v>
+      </c>
+      <c r="AA12" s="13">
         <v>29</v>
       </c>
-      <c r="X12" s="13">
+      <c r="AB12" s="13">
+        <v>116</v>
+      </c>
+      <c r="AC12" s="13">
+        <v>182</v>
+      </c>
+      <c r="AD12" s="13">
+        <v>82</v>
+      </c>
+      <c r="AE12" s="13">
+        <v>239</v>
+      </c>
+      <c r="AF12" s="13">
+        <v>18</v>
+      </c>
+      <c r="AG12" s="13">
         <v>17</v>
       </c>
-      <c r="Y12" s="13">
-        <v>21</v>
-      </c>
-      <c r="Z12" s="13">
-        <v>38</v>
-      </c>
-      <c r="AA12" s="13">
-        <v>28</v>
-      </c>
-      <c r="AB12" s="13">
-        <v>29</v>
-      </c>
-      <c r="AC12" s="13">
-        <v>116</v>
-      </c>
-      <c r="AD12" s="13">
-        <v>182</v>
-      </c>
-      <c r="AE12" s="13">
-        <v>82</v>
-      </c>
-      <c r="AF12" s="13">
-        <v>239</v>
-      </c>
-      <c r="AG12" s="13">
-        <v>18</v>
-      </c>
       <c r="AH12" s="13">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AI12" s="13">
         <v>20</v>
@@ -1715,58 +1715,58 @@
         <v>20</v>
       </c>
       <c r="AK12" s="13">
+        <v>15</v>
+      </c>
+      <c r="AL12" s="13">
+        <v>17</v>
+      </c>
+      <c r="AM12" s="13">
+        <v>34</v>
+      </c>
+      <c r="AN12" s="13">
+        <v>18</v>
+      </c>
+      <c r="AO12" s="13">
+        <v>17</v>
+      </c>
+      <c r="AP12" s="13">
+        <v>12</v>
+      </c>
+      <c r="AQ12" s="13">
+        <v>21</v>
+      </c>
+      <c r="AR12" s="13">
+        <v>18</v>
+      </c>
+      <c r="AS12" s="13">
+        <v>16</v>
+      </c>
+      <c r="AT12" s="13">
         <v>20</v>
       </c>
-      <c r="AL12" s="13">
-        <v>15</v>
-      </c>
-      <c r="AM12" s="13">
-        <v>17</v>
-      </c>
-      <c r="AN12" s="13">
-        <v>34</v>
-      </c>
-      <c r="AO12" s="13">
-        <v>18</v>
-      </c>
-      <c r="AP12" s="13">
-        <v>17</v>
-      </c>
-      <c r="AQ12" s="13">
-        <v>12</v>
-      </c>
-      <c r="AR12" s="13">
+      <c r="AU12" s="13">
+        <v>16</v>
+      </c>
+      <c r="AV12" s="13">
+        <v>23</v>
+      </c>
+      <c r="AW12" s="13">
+        <v>19</v>
+      </c>
+      <c r="AX12" s="13">
+        <v>22</v>
+      </c>
+      <c r="AY12" s="13">
         <v>21</v>
       </c>
-      <c r="AS12" s="13">
-        <v>18</v>
-      </c>
-      <c r="AT12" s="13">
+      <c r="AZ12" s="13">
+        <v>20</v>
+      </c>
+      <c r="BA12" s="13">
+        <v>24</v>
+      </c>
+      <c r="BB12" s="13">
         <v>16</v>
-      </c>
-      <c r="AU12" s="13">
-        <v>20</v>
-      </c>
-      <c r="AV12" s="13">
-        <v>16</v>
-      </c>
-      <c r="AW12" s="13">
-        <v>23</v>
-      </c>
-      <c r="AX12" s="13">
-        <v>19</v>
-      </c>
-      <c r="AY12" s="13">
-        <v>22</v>
-      </c>
-      <c r="AZ12" s="13">
-        <v>21</v>
-      </c>
-      <c r="BA12" s="13">
-        <v>20</v>
-      </c>
-      <c r="BB12" s="13">
-        <v>24</v>
       </c>
     </row>
     <row r="13" spans="2:54" x14ac:dyDescent="0.3">
@@ -1822,110 +1822,110 @@
       <c r="S13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="T13" s="11" t="s">
-        <v>58</v>
+      <c r="T13" s="11">
+        <v>2364</v>
       </c>
       <c r="U13" s="11">
-        <v>2364</v>
+        <v>2283</v>
       </c>
       <c r="V13" s="11">
-        <v>2283</v>
+        <v>2103</v>
       </c>
       <c r="W13" s="11">
-        <v>2103</v>
+        <v>2709</v>
       </c>
       <c r="X13" s="11">
-        <v>2709</v>
+        <v>3188</v>
       </c>
       <c r="Y13" s="11">
-        <v>3188</v>
+        <v>2437</v>
       </c>
       <c r="Z13" s="11">
-        <v>2437</v>
+        <v>3200</v>
       </c>
       <c r="AA13" s="11">
-        <v>3200</v>
+        <v>2889</v>
       </c>
       <c r="AB13" s="11">
-        <v>2889</v>
+        <v>1917</v>
       </c>
       <c r="AC13" s="11">
-        <v>1917</v>
+        <v>2985</v>
       </c>
       <c r="AD13" s="11">
-        <v>2985</v>
+        <v>2133</v>
       </c>
       <c r="AE13" s="11">
-        <v>2133</v>
+        <v>2391</v>
       </c>
       <c r="AF13" s="11">
-        <v>2391</v>
+        <v>2371</v>
       </c>
       <c r="AG13" s="11">
-        <v>2371</v>
+        <v>2262</v>
       </c>
       <c r="AH13" s="11">
-        <v>2262</v>
+        <v>2259</v>
       </c>
       <c r="AI13" s="11">
         <v>2259</v>
       </c>
       <c r="AJ13" s="11">
-        <v>2259</v>
+        <v>2684</v>
       </c>
       <c r="AK13" s="11">
-        <v>2684</v>
+        <v>2852</v>
       </c>
       <c r="AL13" s="11">
+        <v>2854</v>
+      </c>
+      <c r="AM13" s="11">
+        <v>2337</v>
+      </c>
+      <c r="AN13" s="11">
+        <v>2248</v>
+      </c>
+      <c r="AO13" s="11">
+        <v>2201</v>
+      </c>
+      <c r="AP13" s="11">
+        <v>1899</v>
+      </c>
+      <c r="AQ13" s="11">
+        <v>2265</v>
+      </c>
+      <c r="AR13" s="11">
+        <v>1976</v>
+      </c>
+      <c r="AS13" s="11">
+        <v>2165</v>
+      </c>
+      <c r="AT13" s="11">
+        <v>2351</v>
+      </c>
+      <c r="AU13" s="11">
+        <v>2410</v>
+      </c>
+      <c r="AV13" s="11">
+        <v>2716</v>
+      </c>
+      <c r="AW13" s="11">
         <v>2852</v>
       </c>
-      <c r="AM13" s="11">
-        <v>2854</v>
-      </c>
-      <c r="AN13" s="11">
-        <v>2337</v>
-      </c>
-      <c r="AO13" s="11">
-        <v>2248</v>
-      </c>
-      <c r="AP13" s="11">
-        <v>2201</v>
-      </c>
-      <c r="AQ13" s="11">
-        <v>1899</v>
-      </c>
-      <c r="AR13" s="11">
-        <v>2265</v>
-      </c>
-      <c r="AS13" s="11">
-        <v>1976</v>
-      </c>
-      <c r="AT13" s="11">
-        <v>2165</v>
-      </c>
-      <c r="AU13" s="11">
-        <v>2351</v>
-      </c>
-      <c r="AV13" s="11">
-        <v>2410</v>
-      </c>
-      <c r="AW13" s="11">
-        <v>2716</v>
-      </c>
       <c r="AX13" s="11">
-        <v>2852</v>
+        <v>2749</v>
       </c>
       <c r="AY13" s="11">
-        <v>2749</v>
+        <v>2945</v>
       </c>
       <c r="AZ13" s="11">
-        <v>2945</v>
+        <v>2461</v>
       </c>
       <c r="BA13" s="11">
-        <v>2461</v>
+        <v>2416</v>
       </c>
       <c r="BB13" s="11">
-        <v>2416</v>
+        <v>2478</v>
       </c>
     </row>
     <row r="14" spans="2:54" x14ac:dyDescent="0.3">
@@ -1981,110 +1981,110 @@
       <c r="S14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T14" s="13" t="s">
-        <v>58</v>
+      <c r="T14" s="13">
+        <v>314</v>
       </c>
       <c r="U14" s="13">
-        <v>314</v>
+        <v>254</v>
       </c>
       <c r="V14" s="13">
-        <v>254</v>
+        <v>305</v>
       </c>
       <c r="W14" s="13">
-        <v>305</v>
+        <v>229</v>
       </c>
       <c r="X14" s="13">
-        <v>229</v>
+        <v>408</v>
       </c>
       <c r="Y14" s="13">
-        <v>408</v>
+        <v>510</v>
       </c>
       <c r="Z14" s="13">
-        <v>510</v>
+        <v>379</v>
       </c>
       <c r="AA14" s="13">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="AB14" s="13">
-        <v>365</v>
+        <v>558</v>
       </c>
       <c r="AC14" s="13">
-        <v>558</v>
+        <v>290</v>
       </c>
       <c r="AD14" s="13">
-        <v>290</v>
+        <v>187</v>
       </c>
       <c r="AE14" s="13">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="AF14" s="13">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="AG14" s="13">
-        <v>186</v>
+        <v>263</v>
       </c>
       <c r="AH14" s="13">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="AI14" s="13">
         <v>282</v>
       </c>
       <c r="AJ14" s="13">
-        <v>282</v>
+        <v>195</v>
       </c>
       <c r="AK14" s="13">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="AL14" s="13">
-        <v>188</v>
+        <v>320</v>
       </c>
       <c r="AM14" s="13">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="AN14" s="13">
-        <v>296</v>
+        <v>427</v>
       </c>
       <c r="AO14" s="13">
-        <v>427</v>
+        <v>375</v>
       </c>
       <c r="AP14" s="13">
-        <v>375</v>
+        <v>179</v>
       </c>
       <c r="AQ14" s="13">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="AR14" s="13">
-        <v>201</v>
+        <v>476</v>
       </c>
       <c r="AS14" s="13">
-        <v>476</v>
+        <v>416</v>
       </c>
       <c r="AT14" s="13">
-        <v>416</v>
+        <v>289</v>
       </c>
       <c r="AU14" s="13">
-        <v>289</v>
+        <v>376</v>
       </c>
       <c r="AV14" s="13">
-        <v>376</v>
+        <v>257</v>
       </c>
       <c r="AW14" s="13">
-        <v>257</v>
+        <v>290</v>
       </c>
       <c r="AX14" s="13">
-        <v>290</v>
+        <v>490</v>
       </c>
       <c r="AY14" s="13">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="AZ14" s="13">
-        <v>471</v>
+        <v>189</v>
       </c>
       <c r="BA14" s="13">
-        <v>189</v>
+        <v>345</v>
       </c>
       <c r="BB14" s="13">
-        <v>345</v>
+        <v>271</v>
       </c>
     </row>
     <row r="15" spans="2:54" x14ac:dyDescent="0.3">
@@ -2140,110 +2140,110 @@
       <c r="S15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="T15" s="11" t="s">
-        <v>58</v>
+      <c r="T15" s="11">
+        <v>1783</v>
       </c>
       <c r="U15" s="11">
-        <v>1783</v>
+        <v>1640</v>
       </c>
       <c r="V15" s="11">
+        <v>1638</v>
+      </c>
+      <c r="W15" s="11">
+        <v>1296</v>
+      </c>
+      <c r="X15" s="11">
+        <v>1336</v>
+      </c>
+      <c r="Y15" s="11">
+        <v>1317</v>
+      </c>
+      <c r="Z15" s="11">
+        <v>1255</v>
+      </c>
+      <c r="AA15" s="11">
+        <v>1480</v>
+      </c>
+      <c r="AB15" s="11">
+        <v>1610</v>
+      </c>
+      <c r="AC15" s="11">
+        <v>1909</v>
+      </c>
+      <c r="AD15" s="11">
         <v>1640</v>
       </c>
-      <c r="W15" s="11">
-        <v>1638</v>
-      </c>
-      <c r="X15" s="11">
-        <v>1296</v>
-      </c>
-      <c r="Y15" s="11">
-        <v>1336</v>
-      </c>
-      <c r="Z15" s="11">
-        <v>1317</v>
-      </c>
-      <c r="AA15" s="11">
-        <v>1255</v>
-      </c>
-      <c r="AB15" s="11">
-        <v>1480</v>
-      </c>
-      <c r="AC15" s="11">
-        <v>1610</v>
-      </c>
-      <c r="AD15" s="11">
-        <v>1909</v>
-      </c>
       <c r="AE15" s="11">
-        <v>1640</v>
+        <v>1824</v>
       </c>
       <c r="AF15" s="11">
-        <v>1824</v>
+        <v>1831</v>
       </c>
       <c r="AG15" s="11">
-        <v>1831</v>
+        <v>1347</v>
       </c>
       <c r="AH15" s="11">
-        <v>1347</v>
+        <v>1494</v>
       </c>
       <c r="AI15" s="11">
         <v>1494</v>
       </c>
       <c r="AJ15" s="11">
-        <v>1494</v>
+        <v>1139</v>
       </c>
       <c r="AK15" s="11">
-        <v>1139</v>
+        <v>1017</v>
       </c>
       <c r="AL15" s="11">
-        <v>1017</v>
+        <v>1009</v>
       </c>
       <c r="AM15" s="11">
-        <v>1009</v>
+        <v>1138</v>
       </c>
       <c r="AN15" s="11">
-        <v>1138</v>
+        <v>1043</v>
       </c>
       <c r="AO15" s="11">
-        <v>1043</v>
+        <v>1583</v>
       </c>
       <c r="AP15" s="11">
-        <v>1583</v>
+        <v>1176</v>
       </c>
       <c r="AQ15" s="11">
-        <v>1176</v>
+        <v>1338</v>
       </c>
       <c r="AR15" s="11">
-        <v>1338</v>
+        <v>1226</v>
       </c>
       <c r="AS15" s="11">
-        <v>1226</v>
+        <v>1276</v>
       </c>
       <c r="AT15" s="11">
-        <v>1276</v>
+        <v>1247</v>
       </c>
       <c r="AU15" s="11">
-        <v>1247</v>
+        <v>1127</v>
       </c>
       <c r="AV15" s="11">
-        <v>1127</v>
+        <v>1113</v>
       </c>
       <c r="AW15" s="11">
-        <v>1113</v>
+        <v>1033</v>
       </c>
       <c r="AX15" s="11">
-        <v>1033</v>
+        <v>946</v>
       </c>
       <c r="AY15" s="11">
-        <v>946</v>
+        <v>1112</v>
       </c>
       <c r="AZ15" s="11">
-        <v>1112</v>
+        <v>1212</v>
       </c>
       <c r="BA15" s="11">
-        <v>1212</v>
+        <v>1414</v>
       </c>
       <c r="BB15" s="11">
-        <v>1414</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="16" spans="2:54" x14ac:dyDescent="0.3">
@@ -2299,110 +2299,110 @@
       <c r="S16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T16" s="13" t="s">
-        <v>58</v>
+      <c r="T16" s="13">
+        <v>580</v>
       </c>
       <c r="U16" s="13">
-        <v>580</v>
+        <v>527</v>
       </c>
       <c r="V16" s="13">
-        <v>527</v>
+        <v>440</v>
       </c>
       <c r="W16" s="13">
+        <v>376</v>
+      </c>
+      <c r="X16" s="13">
+        <v>357</v>
+      </c>
+      <c r="Y16" s="13">
+        <v>414</v>
+      </c>
+      <c r="Z16" s="13">
+        <v>473</v>
+      </c>
+      <c r="AA16" s="13">
         <v>440</v>
       </c>
-      <c r="X16" s="13">
-        <v>376</v>
-      </c>
-      <c r="Y16" s="13">
-        <v>357</v>
-      </c>
-      <c r="Z16" s="13">
-        <v>414</v>
-      </c>
-      <c r="AA16" s="13">
+      <c r="AB16" s="13">
+        <v>408</v>
+      </c>
+      <c r="AC16" s="13">
+        <v>427</v>
+      </c>
+      <c r="AD16" s="13">
+        <v>425</v>
+      </c>
+      <c r="AE16" s="13">
+        <v>347</v>
+      </c>
+      <c r="AF16" s="13">
         <v>473</v>
       </c>
-      <c r="AB16" s="13">
-        <v>440</v>
-      </c>
-      <c r="AC16" s="13">
-        <v>408</v>
-      </c>
-      <c r="AD16" s="13">
-        <v>427</v>
-      </c>
-      <c r="AE16" s="13">
-        <v>425</v>
-      </c>
-      <c r="AF16" s="13">
-        <v>347</v>
-      </c>
       <c r="AG16" s="13">
-        <v>473</v>
+        <v>400</v>
       </c>
       <c r="AH16" s="13">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="AI16" s="13">
         <v>412</v>
       </c>
       <c r="AJ16" s="13">
-        <v>412</v>
+        <v>357</v>
       </c>
       <c r="AK16" s="13">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="AL16" s="13">
-        <v>365</v>
+        <v>335</v>
       </c>
       <c r="AM16" s="13">
-        <v>335</v>
+        <v>359</v>
       </c>
       <c r="AN16" s="13">
-        <v>359</v>
+        <v>466</v>
       </c>
       <c r="AO16" s="13">
-        <v>466</v>
+        <v>332</v>
       </c>
       <c r="AP16" s="13">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="AQ16" s="13">
-        <v>339</v>
+        <v>381</v>
       </c>
       <c r="AR16" s="13">
-        <v>381</v>
+        <v>344</v>
       </c>
       <c r="AS16" s="13">
-        <v>344</v>
+        <v>394</v>
       </c>
       <c r="AT16" s="13">
-        <v>394</v>
+        <v>445</v>
       </c>
       <c r="AU16" s="13">
-        <v>445</v>
+        <v>350</v>
       </c>
       <c r="AV16" s="13">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="AW16" s="13">
-        <v>330</v>
+        <v>294</v>
       </c>
       <c r="AX16" s="13">
-        <v>294</v>
+        <v>261</v>
       </c>
       <c r="AY16" s="13">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="AZ16" s="13">
-        <v>275</v>
+        <v>347</v>
       </c>
       <c r="BA16" s="13">
-        <v>347</v>
+        <v>283</v>
       </c>
       <c r="BB16" s="13">
-        <v>283</v>
+        <v>315</v>
       </c>
     </row>
     <row r="17" spans="2:54" x14ac:dyDescent="0.3">
@@ -2458,110 +2458,110 @@
       <c r="S17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="T17" s="11" t="s">
-        <v>58</v>
+      <c r="T17" s="11">
+        <v>73</v>
       </c>
       <c r="U17" s="11">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="V17" s="11">
-        <v>22</v>
+        <v>138</v>
       </c>
       <c r="W17" s="11">
-        <v>138</v>
+        <v>100</v>
       </c>
       <c r="X17" s="11">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="Y17" s="11">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="Z17" s="11">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AA17" s="11">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="AB17" s="11">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="AC17" s="11">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="AD17" s="11">
+        <v>13</v>
+      </c>
+      <c r="AE17" s="11">
         <v>18</v>
       </c>
-      <c r="AE17" s="11">
-        <v>13</v>
-      </c>
       <c r="AF17" s="11">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="AG17" s="11">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="AH17" s="11">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="AI17" s="11">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="AJ17" s="11">
-        <v>39</v>
+        <v>145</v>
       </c>
       <c r="AK17" s="11">
-        <v>145</v>
+        <v>111</v>
       </c>
       <c r="AL17" s="11">
-        <v>111</v>
+        <v>151</v>
       </c>
       <c r="AM17" s="11">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="AN17" s="11">
-        <v>140</v>
+        <v>47</v>
       </c>
       <c r="AO17" s="11">
-        <v>47</v>
+        <v>127</v>
       </c>
       <c r="AP17" s="11">
-        <v>127</v>
+        <v>195</v>
       </c>
       <c r="AQ17" s="11">
+        <v>181</v>
+      </c>
+      <c r="AR17" s="11">
+        <v>228</v>
+      </c>
+      <c r="AS17" s="11">
+        <v>194</v>
+      </c>
+      <c r="AT17" s="11">
         <v>195</v>
       </c>
-      <c r="AR17" s="11">
-        <v>181</v>
-      </c>
-      <c r="AS17" s="11">
-        <v>228</v>
-      </c>
-      <c r="AT17" s="11">
-        <v>194</v>
-      </c>
       <c r="AU17" s="11">
-        <v>195</v>
+        <v>156</v>
       </c>
       <c r="AV17" s="11">
-        <v>156</v>
+        <v>218</v>
       </c>
       <c r="AW17" s="11">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="AX17" s="11">
-        <v>227</v>
+        <v>92</v>
       </c>
       <c r="AY17" s="11">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="AZ17" s="11">
-        <v>105</v>
+        <v>166</v>
       </c>
       <c r="BA17" s="11">
-        <v>166</v>
+        <v>273</v>
       </c>
       <c r="BB17" s="11">
-        <v>273</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="2:54" x14ac:dyDescent="0.3">
@@ -2617,110 +2617,110 @@
       <c r="S18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T18" s="13" t="s">
-        <v>58</v>
+      <c r="T18" s="13">
+        <v>257</v>
       </c>
       <c r="U18" s="13">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="V18" s="13">
+        <v>237</v>
+      </c>
+      <c r="W18" s="13">
+        <v>742</v>
+      </c>
+      <c r="X18" s="13">
         <v>265</v>
       </c>
-      <c r="W18" s="13">
-        <v>237</v>
-      </c>
-      <c r="X18" s="13">
-        <v>742</v>
-      </c>
       <c r="Y18" s="13">
-        <v>265</v>
+        <v>431</v>
       </c>
       <c r="Z18" s="13">
-        <v>431</v>
+        <v>315</v>
       </c>
       <c r="AA18" s="13">
-        <v>315</v>
+        <v>373</v>
       </c>
       <c r="AB18" s="13">
-        <v>373</v>
+        <v>0</v>
       </c>
       <c r="AC18" s="13">
-        <v>0</v>
+        <v>491</v>
       </c>
       <c r="AD18" s="13">
-        <v>491</v>
+        <v>460</v>
       </c>
       <c r="AE18" s="13">
-        <v>460</v>
+        <v>293</v>
       </c>
       <c r="AF18" s="13">
-        <v>293</v>
+        <v>203</v>
       </c>
       <c r="AG18" s="13">
-        <v>203</v>
+        <v>266</v>
       </c>
       <c r="AH18" s="13">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="AI18" s="13">
         <v>264</v>
       </c>
       <c r="AJ18" s="13">
-        <v>264</v>
+        <v>301</v>
       </c>
       <c r="AK18" s="13">
-        <v>301</v>
+        <v>273</v>
       </c>
       <c r="AL18" s="13">
-        <v>273</v>
+        <v>360</v>
       </c>
       <c r="AM18" s="13">
-        <v>360</v>
+        <v>331</v>
       </c>
       <c r="AN18" s="13">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AO18" s="13">
-        <v>332</v>
+        <v>303</v>
       </c>
       <c r="AP18" s="13">
-        <v>303</v>
+        <v>405</v>
       </c>
       <c r="AQ18" s="13">
-        <v>405</v>
+        <v>352</v>
       </c>
       <c r="AR18" s="13">
-        <v>352</v>
+        <v>372</v>
       </c>
       <c r="AS18" s="13">
-        <v>372</v>
+        <v>349</v>
       </c>
       <c r="AT18" s="13">
-        <v>349</v>
+        <v>298</v>
       </c>
       <c r="AU18" s="13">
-        <v>298</v>
+        <v>389</v>
       </c>
       <c r="AV18" s="13">
-        <v>389</v>
+        <v>475</v>
       </c>
       <c r="AW18" s="13">
-        <v>475</v>
+        <v>425</v>
       </c>
       <c r="AX18" s="13">
-        <v>425</v>
+        <v>403</v>
       </c>
       <c r="AY18" s="13">
-        <v>403</v>
+        <v>322</v>
       </c>
       <c r="AZ18" s="13">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="BA18" s="13">
-        <v>311</v>
+        <v>437</v>
       </c>
       <c r="BB18" s="13">
-        <v>437</v>
+        <v>419</v>
       </c>
     </row>
     <row r="19" spans="2:54" x14ac:dyDescent="0.3">
@@ -2775,109 +2775,109 @@
         <v>0</v>
       </c>
       <c r="T19" s="15">
-        <v>0</v>
+        <v>6538</v>
       </c>
       <c r="U19" s="15">
-        <v>6538</v>
+        <v>6205</v>
       </c>
       <c r="V19" s="15">
-        <v>6205</v>
+        <v>6026</v>
       </c>
       <c r="W19" s="15">
-        <v>6026</v>
+        <v>6231</v>
       </c>
       <c r="X19" s="15">
-        <v>6231</v>
+        <v>6641</v>
       </c>
       <c r="Y19" s="15">
-        <v>6641</v>
+        <v>5817</v>
       </c>
       <c r="Z19" s="15">
-        <v>5817</v>
+        <v>6416</v>
       </c>
       <c r="AA19" s="15">
-        <v>6416</v>
+        <v>6523</v>
       </c>
       <c r="AB19" s="15">
-        <v>6523</v>
+        <v>5835</v>
       </c>
       <c r="AC19" s="15">
-        <v>5835</v>
+        <v>7463</v>
       </c>
       <c r="AD19" s="15">
-        <v>7463</v>
+        <v>6001</v>
       </c>
       <c r="AE19" s="15">
-        <v>6001</v>
+        <v>6079</v>
       </c>
       <c r="AF19" s="15">
-        <v>6079</v>
+        <v>6190</v>
       </c>
       <c r="AG19" s="15">
-        <v>6190</v>
+        <v>5475</v>
       </c>
       <c r="AH19" s="15">
-        <v>5475</v>
+        <v>5508</v>
       </c>
       <c r="AI19" s="15">
+        <v>5486</v>
+      </c>
+      <c r="AJ19" s="15">
         <v>5508</v>
       </c>
-      <c r="AJ19" s="15">
-        <v>5486</v>
-      </c>
       <c r="AK19" s="15">
-        <v>5508</v>
+        <v>5315</v>
       </c>
       <c r="AL19" s="15">
-        <v>5315</v>
+        <v>5747</v>
       </c>
       <c r="AM19" s="15">
-        <v>5747</v>
+        <v>5149</v>
       </c>
       <c r="AN19" s="15">
-        <v>5149</v>
+        <v>5206</v>
       </c>
       <c r="AO19" s="15">
-        <v>5206</v>
+        <v>5928</v>
       </c>
       <c r="AP19" s="15">
-        <v>5928</v>
+        <v>4786</v>
       </c>
       <c r="AQ19" s="15">
-        <v>4786</v>
+        <v>5642</v>
       </c>
       <c r="AR19" s="15">
-        <v>5642</v>
+        <v>5348</v>
       </c>
       <c r="AS19" s="15">
-        <v>5348</v>
+        <v>5745</v>
       </c>
       <c r="AT19" s="15">
-        <v>5745</v>
+        <v>5554</v>
       </c>
       <c r="AU19" s="15">
-        <v>5554</v>
+        <v>5497</v>
       </c>
       <c r="AV19" s="15">
-        <v>5497</v>
+        <v>5788</v>
       </c>
       <c r="AW19" s="15">
-        <v>5788</v>
+        <v>5676</v>
       </c>
       <c r="AX19" s="15">
-        <v>5676</v>
+        <v>5672</v>
       </c>
       <c r="AY19" s="15">
+        <v>5690</v>
+      </c>
+      <c r="AZ19" s="15">
         <v>5672</v>
       </c>
-      <c r="AZ19" s="15">
-        <v>5690</v>
-      </c>
       <c r="BA19" s="15">
-        <v>5672</v>
+        <v>6270</v>
       </c>
       <c r="BB19" s="15">
-        <v>6270</v>
+        <v>5893</v>
       </c>
     </row>
     <row r="20" spans="2:54" x14ac:dyDescent="0.3">
@@ -3053,8 +3053,8 @@
       <c r="AN21" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AO21" s="11" t="s">
-        <v>58</v>
+      <c r="AO21" s="11">
+        <v>0</v>
       </c>
       <c r="AP21" s="11">
         <v>0</v>
@@ -3176,11 +3176,11 @@
       <c r="AB22" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AC22" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD22" s="13">
-        <v>0</v>
+      <c r="AC22" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AE22" s="13" t="s">
         <v>58</v>
@@ -3209,8 +3209,8 @@
       <c r="AM22" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AN22" s="13" t="s">
-        <v>58</v>
+      <c r="AN22" s="13">
+        <v>0</v>
       </c>
       <c r="AO22" s="13">
         <v>0</v>
@@ -3308,8 +3308,8 @@
       <c r="S23" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="T23" s="11" t="s">
-        <v>58</v>
+      <c r="T23" s="11">
+        <v>0</v>
       </c>
       <c r="U23" s="11">
         <v>0</v>
@@ -3335,8 +3335,8 @@
       <c r="AB23" s="11">
         <v>0</v>
       </c>
-      <c r="AC23" s="11">
-        <v>0</v>
+      <c r="AC23" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AD23" s="11" t="s">
         <v>58</v>
@@ -3368,8 +3368,8 @@
       <c r="AM23" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AN23" s="11" t="s">
-        <v>58</v>
+      <c r="AN23" s="11">
+        <v>0</v>
       </c>
       <c r="AO23" s="11">
         <v>0</v>
@@ -3530,8 +3530,8 @@
       <c r="AN24" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO24" s="13" t="s">
-        <v>58</v>
+      <c r="AO24" s="13">
+        <v>0</v>
       </c>
       <c r="AP24" s="13">
         <v>0</v>
@@ -3686,11 +3686,11 @@
       <c r="AM25" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AN25" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO25" s="11">
-        <v>0</v>
+      <c r="AN25" s="11">
+        <v>0</v>
+      </c>
+      <c r="AO25" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AP25" s="11" t="s">
         <v>58</v>
@@ -3719,14 +3719,14 @@
       <c r="AX25" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AY25" s="11" t="s">
-        <v>58</v>
+      <c r="AY25" s="11">
+        <v>0</v>
       </c>
       <c r="AZ25" s="11">
         <v>0</v>
       </c>
-      <c r="BA25" s="11">
-        <v>0</v>
+      <c r="BA25" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="BB25" s="11" t="s">
         <v>58</v>
@@ -3845,8 +3845,8 @@
       <c r="AM26" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AN26" s="13" t="s">
-        <v>58</v>
+      <c r="AN26" s="13">
+        <v>0</v>
       </c>
       <c r="AO26" s="13">
         <v>0</v>
@@ -4025,8 +4025,8 @@
       <c r="AT27" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AU27" s="11" t="s">
-        <v>58</v>
+      <c r="AU27" s="11">
+        <v>0</v>
       </c>
       <c r="AV27" s="11">
         <v>0</v>
@@ -4103,8 +4103,8 @@
       <c r="S28" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T28" s="13" t="s">
-        <v>58</v>
+      <c r="T28" s="13">
+        <v>0</v>
       </c>
       <c r="U28" s="13">
         <v>0</v>
@@ -4130,8 +4130,8 @@
       <c r="AB28" s="13">
         <v>0</v>
       </c>
-      <c r="AC28" s="13">
-        <v>0</v>
+      <c r="AC28" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AD28" s="13" t="s">
         <v>58</v>
@@ -4163,11 +4163,11 @@
       <c r="AM28" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AN28" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO28" s="13">
-        <v>0</v>
+      <c r="AN28" s="13">
+        <v>0</v>
+      </c>
+      <c r="AO28" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AP28" s="13" t="s">
         <v>58</v>
@@ -4184,8 +4184,8 @@
       <c r="AT28" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AU28" s="13" t="s">
-        <v>58</v>
+      <c r="AU28" s="13">
+        <v>0</v>
       </c>
       <c r="AV28" s="13">
         <v>0</v>
@@ -4289,11 +4289,11 @@
       <c r="AB29" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC29" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD29" s="11">
-        <v>0</v>
+      <c r="AC29" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AE29" s="11" t="s">
         <v>58</v>
@@ -4448,11 +4448,11 @@
       <c r="AB30" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AC30" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD30" s="13">
-        <v>0</v>
+      <c r="AC30" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AE30" s="13" t="s">
         <v>58</v>
@@ -4607,11 +4607,11 @@
       <c r="AB31" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC31" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD31" s="11">
-        <v>0</v>
+      <c r="AC31" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AE31" s="11" t="s">
         <v>58</v>
@@ -4766,11 +4766,11 @@
       <c r="AB32" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AC32" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD32" s="13">
-        <v>0</v>
+      <c r="AC32" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AE32" s="13" t="s">
         <v>58</v>
@@ -5139,11 +5139,11 @@
       <c r="AB35" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC35" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD35" s="11">
-        <v>0</v>
+      <c r="AC35" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AE35" s="11" t="s">
         <v>58</v>
@@ -5175,8 +5175,8 @@
       <c r="AN35" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AO35" s="11" t="s">
-        <v>58</v>
+      <c r="AO35" s="11">
+        <v>0</v>
       </c>
       <c r="AP35" s="11">
         <v>0</v>
@@ -5184,29 +5184,29 @@
       <c r="AQ35" s="11">
         <v>0</v>
       </c>
-      <c r="AR35" s="11">
-        <v>0</v>
+      <c r="AR35" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AS35" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT35" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU35" s="11">
-        <v>0</v>
-      </c>
-      <c r="AV35" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW35" s="11">
-        <v>0</v>
+      <c r="AT35" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU35" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV35" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW35" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AX35" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AY35" s="11" t="s">
-        <v>58</v>
+      <c r="AY35" s="11">
+        <v>0</v>
       </c>
       <c r="AZ35" s="11">
         <v>0</v>
@@ -5269,8 +5269,8 @@
       <c r="S36" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="T36" s="17" t="s">
-        <v>58</v>
+      <c r="T36" s="17">
+        <v>0</v>
       </c>
       <c r="U36" s="17">
         <v>0</v>
@@ -5427,109 +5427,109 @@
         <v>0</v>
       </c>
       <c r="T37" s="15">
-        <v>0</v>
+        <v>6538</v>
       </c>
       <c r="U37" s="15">
-        <v>6538</v>
+        <v>6205</v>
       </c>
       <c r="V37" s="15">
-        <v>6205</v>
+        <v>6026</v>
       </c>
       <c r="W37" s="15">
-        <v>6026</v>
+        <v>6231</v>
       </c>
       <c r="X37" s="15">
-        <v>6231</v>
+        <v>6641</v>
       </c>
       <c r="Y37" s="15">
-        <v>6641</v>
+        <v>5817</v>
       </c>
       <c r="Z37" s="15">
-        <v>5817</v>
+        <v>6416</v>
       </c>
       <c r="AA37" s="15">
-        <v>6416</v>
+        <v>6523</v>
       </c>
       <c r="AB37" s="15">
-        <v>6523</v>
+        <v>5835</v>
       </c>
       <c r="AC37" s="15">
-        <v>5835</v>
+        <v>7463</v>
       </c>
       <c r="AD37" s="15">
-        <v>7463</v>
+        <v>6001</v>
       </c>
       <c r="AE37" s="15">
-        <v>6001</v>
+        <v>6079</v>
       </c>
       <c r="AF37" s="15">
-        <v>6079</v>
+        <v>6190</v>
       </c>
       <c r="AG37" s="15">
-        <v>6190</v>
+        <v>5475</v>
       </c>
       <c r="AH37" s="15">
-        <v>5475</v>
+        <v>5508</v>
       </c>
       <c r="AI37" s="15">
+        <v>5486</v>
+      </c>
+      <c r="AJ37" s="15">
         <v>5508</v>
       </c>
-      <c r="AJ37" s="15">
-        <v>5486</v>
-      </c>
       <c r="AK37" s="15">
-        <v>5508</v>
+        <v>5315</v>
       </c>
       <c r="AL37" s="15">
-        <v>5315</v>
+        <v>5747</v>
       </c>
       <c r="AM37" s="15">
-        <v>5747</v>
+        <v>5149</v>
       </c>
       <c r="AN37" s="15">
-        <v>5149</v>
+        <v>5206</v>
       </c>
       <c r="AO37" s="15">
-        <v>5206</v>
+        <v>5928</v>
       </c>
       <c r="AP37" s="15">
-        <v>5928</v>
+        <v>4786</v>
       </c>
       <c r="AQ37" s="15">
-        <v>4786</v>
+        <v>5642</v>
       </c>
       <c r="AR37" s="15">
-        <v>5642</v>
+        <v>5348</v>
       </c>
       <c r="AS37" s="15">
-        <v>5348</v>
+        <v>5745</v>
       </c>
       <c r="AT37" s="15">
-        <v>5745</v>
+        <v>5554</v>
       </c>
       <c r="AU37" s="15">
-        <v>5554</v>
+        <v>5497</v>
       </c>
       <c r="AV37" s="15">
-        <v>5497</v>
+        <v>5788</v>
       </c>
       <c r="AW37" s="15">
-        <v>5788</v>
+        <v>5676</v>
       </c>
       <c r="AX37" s="15">
-        <v>5676</v>
+        <v>5672</v>
       </c>
       <c r="AY37" s="15">
+        <v>5690</v>
+      </c>
+      <c r="AZ37" s="15">
         <v>5672</v>
       </c>
-      <c r="AZ37" s="15">
-        <v>5690</v>
-      </c>
       <c r="BA37" s="15">
-        <v>5672</v>
+        <v>6270</v>
       </c>
       <c r="BB37" s="15">
-        <v>6270</v>
+        <v>5893</v>
       </c>
     </row>
     <row r="38" spans="2:54" x14ac:dyDescent="0.3">
@@ -6019,110 +6019,110 @@
       <c r="S44" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="T44" s="11" t="s">
-        <v>58</v>
+      <c r="T44" s="11">
+        <v>1149</v>
       </c>
       <c r="U44" s="11">
-        <v>1149</v>
+        <v>1226</v>
       </c>
       <c r="V44" s="11">
-        <v>1226</v>
+        <v>1142</v>
       </c>
       <c r="W44" s="11">
-        <v>1142</v>
+        <v>797</v>
       </c>
       <c r="X44" s="11">
-        <v>797</v>
+        <v>739</v>
       </c>
       <c r="Y44" s="11">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="Z44" s="11">
-        <v>741</v>
+        <v>768</v>
       </c>
       <c r="AA44" s="11">
-        <v>768</v>
+        <v>857</v>
       </c>
       <c r="AB44" s="11">
-        <v>857</v>
+        <v>1121</v>
       </c>
       <c r="AC44" s="11">
-        <v>1121</v>
+        <v>1268</v>
       </c>
       <c r="AD44" s="11">
-        <v>1268</v>
+        <v>1006</v>
       </c>
       <c r="AE44" s="11">
-        <v>1006</v>
+        <v>910</v>
       </c>
       <c r="AF44" s="11">
-        <v>910</v>
+        <v>1024</v>
       </c>
       <c r="AG44" s="11">
-        <v>1024</v>
+        <v>799</v>
       </c>
       <c r="AH44" s="11">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="AI44" s="11">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="AJ44" s="11">
-        <v>594</v>
+        <v>697</v>
       </c>
       <c r="AK44" s="11">
-        <v>697</v>
+        <v>558</v>
       </c>
       <c r="AL44" s="11">
-        <v>558</v>
+        <v>597</v>
       </c>
       <c r="AM44" s="11">
-        <v>597</v>
+        <v>585</v>
       </c>
       <c r="AN44" s="11">
-        <v>585</v>
+        <v>675</v>
       </c>
       <c r="AO44" s="11">
-        <v>675</v>
+        <v>971</v>
       </c>
       <c r="AP44" s="11">
-        <v>971</v>
+        <v>647</v>
       </c>
       <c r="AQ44" s="11">
-        <v>647</v>
+        <v>876</v>
       </c>
       <c r="AR44" s="11">
-        <v>876</v>
+        <v>727</v>
       </c>
       <c r="AS44" s="11">
-        <v>727</v>
+        <v>840</v>
       </c>
       <c r="AT44" s="11">
-        <v>840</v>
+        <v>776</v>
       </c>
       <c r="AU44" s="11">
-        <v>776</v>
+        <v>653</v>
       </c>
       <c r="AV44" s="11">
-        <v>653</v>
+        <v>632</v>
       </c>
       <c r="AW44" s="11">
-        <v>632</v>
+        <v>616</v>
       </c>
       <c r="AX44" s="11">
-        <v>616</v>
+        <v>595</v>
       </c>
       <c r="AY44" s="11">
-        <v>595</v>
+        <v>569</v>
       </c>
       <c r="AZ44" s="11">
-        <v>569</v>
+        <v>989</v>
       </c>
       <c r="BA44" s="11">
-        <v>989</v>
+        <v>1072</v>
       </c>
       <c r="BB44" s="11">
-        <v>1072</v>
+        <v>819</v>
       </c>
     </row>
     <row r="45" spans="2:54" x14ac:dyDescent="0.3">
@@ -6178,11 +6178,11 @@
       <c r="S45" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T45" s="13" t="s">
-        <v>58</v>
+      <c r="T45" s="13">
+        <v>19</v>
       </c>
       <c r="U45" s="13">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="V45" s="13">
         <v>24</v>
@@ -6191,97 +6191,97 @@
         <v>24</v>
       </c>
       <c r="X45" s="13">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="Y45" s="13">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="Z45" s="13">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="AA45" s="13">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="AB45" s="13">
-        <v>27</v>
+        <v>108</v>
       </c>
       <c r="AC45" s="13">
-        <v>108</v>
+        <v>26</v>
       </c>
       <c r="AD45" s="13">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="AE45" s="13">
-        <v>80</v>
+        <v>369</v>
       </c>
       <c r="AF45" s="13">
-        <v>369</v>
+        <v>13</v>
       </c>
       <c r="AG45" s="13">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AH45" s="13">
         <v>20</v>
       </c>
       <c r="AI45" s="13">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="AJ45" s="13">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="AK45" s="13">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="AL45" s="13">
+        <v>14</v>
+      </c>
+      <c r="AM45" s="13">
+        <v>31</v>
+      </c>
+      <c r="AN45" s="13">
         <v>22</v>
       </c>
-      <c r="AM45" s="13">
+      <c r="AO45" s="13">
+        <v>13</v>
+      </c>
+      <c r="AP45" s="13">
+        <v>18</v>
+      </c>
+      <c r="AQ45" s="13">
+        <v>19</v>
+      </c>
+      <c r="AR45" s="13">
         <v>14</v>
       </c>
-      <c r="AN45" s="13">
-        <v>31</v>
-      </c>
-      <c r="AO45" s="13">
-        <v>22</v>
-      </c>
-      <c r="AP45" s="13">
-        <v>13</v>
-      </c>
-      <c r="AQ45" s="13">
+      <c r="AS45" s="13">
         <v>18</v>
-      </c>
-      <c r="AR45" s="13">
-        <v>19</v>
-      </c>
-      <c r="AS45" s="13">
-        <v>14</v>
       </c>
       <c r="AT45" s="13">
         <v>18</v>
       </c>
       <c r="AU45" s="13">
+        <v>19</v>
+      </c>
+      <c r="AV45" s="13">
+        <v>20</v>
+      </c>
+      <c r="AW45" s="13">
         <v>18</v>
       </c>
-      <c r="AV45" s="13">
-        <v>19</v>
-      </c>
-      <c r="AW45" s="13">
+      <c r="AX45" s="13">
         <v>20</v>
       </c>
-      <c r="AX45" s="13">
-        <v>18</v>
-      </c>
       <c r="AY45" s="13">
+        <v>22</v>
+      </c>
+      <c r="AZ45" s="13">
         <v>20</v>
       </c>
-      <c r="AZ45" s="13">
-        <v>22</v>
-      </c>
       <c r="BA45" s="13">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="BB45" s="13">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="2:54" x14ac:dyDescent="0.3">
@@ -6337,110 +6337,110 @@
       <c r="S46" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="T46" s="11" t="s">
-        <v>58</v>
+      <c r="T46" s="11">
+        <v>2297</v>
       </c>
       <c r="U46" s="11">
-        <v>2297</v>
+        <v>2227</v>
       </c>
       <c r="V46" s="11">
-        <v>2227</v>
+        <v>2205</v>
       </c>
       <c r="W46" s="11">
-        <v>2205</v>
+        <v>2756</v>
       </c>
       <c r="X46" s="11">
-        <v>2756</v>
+        <v>3649</v>
       </c>
       <c r="Y46" s="11">
-        <v>3649</v>
+        <v>2493</v>
       </c>
       <c r="Z46" s="11">
+        <v>2633</v>
+      </c>
+      <c r="AA46" s="11">
+        <v>2858</v>
+      </c>
+      <c r="AB46" s="11">
+        <v>3040</v>
+      </c>
+      <c r="AC46" s="11">
+        <v>2687</v>
+      </c>
+      <c r="AD46" s="11">
+        <v>2496</v>
+      </c>
+      <c r="AE46" s="11">
+        <v>2279</v>
+      </c>
+      <c r="AF46" s="11">
+        <v>2285</v>
+      </c>
+      <c r="AG46" s="11">
+        <v>2118</v>
+      </c>
+      <c r="AH46" s="11">
+        <v>2405</v>
+      </c>
+      <c r="AI46" s="11">
+        <v>2280</v>
+      </c>
+      <c r="AJ46" s="11">
+        <v>2716</v>
+      </c>
+      <c r="AK46" s="11">
+        <v>2860</v>
+      </c>
+      <c r="AL46" s="11">
+        <v>2607</v>
+      </c>
+      <c r="AM46" s="11">
+        <v>2415</v>
+      </c>
+      <c r="AN46" s="11">
+        <v>2238</v>
+      </c>
+      <c r="AO46" s="11">
+        <v>2191</v>
+      </c>
+      <c r="AP46" s="11">
+        <v>2092</v>
+      </c>
+      <c r="AQ46" s="11">
+        <v>1961</v>
+      </c>
+      <c r="AR46" s="11">
+        <v>2238</v>
+      </c>
+      <c r="AS46" s="11">
+        <v>2016</v>
+      </c>
+      <c r="AT46" s="11">
+        <v>2116</v>
+      </c>
+      <c r="AU46" s="11">
         <v>2493</v>
       </c>
-      <c r="AA46" s="11">
-        <v>2633</v>
-      </c>
-      <c r="AB46" s="11">
-        <v>2858</v>
-      </c>
-      <c r="AC46" s="11">
-        <v>3040</v>
-      </c>
-      <c r="AD46" s="11">
-        <v>2687</v>
-      </c>
-      <c r="AE46" s="11">
-        <v>2496</v>
-      </c>
-      <c r="AF46" s="11">
-        <v>2279</v>
-      </c>
-      <c r="AG46" s="11">
-        <v>2285</v>
-      </c>
-      <c r="AH46" s="11">
-        <v>2118</v>
-      </c>
-      <c r="AI46" s="11">
-        <v>2405</v>
-      </c>
-      <c r="AJ46" s="11">
-        <v>2280</v>
-      </c>
-      <c r="AK46" s="11">
-        <v>2716</v>
-      </c>
-      <c r="AL46" s="11">
-        <v>2860</v>
-      </c>
-      <c r="AM46" s="11">
-        <v>2607</v>
-      </c>
-      <c r="AN46" s="11">
-        <v>2415</v>
-      </c>
-      <c r="AO46" s="11">
-        <v>2238</v>
-      </c>
-      <c r="AP46" s="11">
-        <v>2191</v>
-      </c>
-      <c r="AQ46" s="11">
-        <v>2092</v>
-      </c>
-      <c r="AR46" s="11">
-        <v>1961</v>
-      </c>
-      <c r="AS46" s="11">
-        <v>2238</v>
-      </c>
-      <c r="AT46" s="11">
-        <v>2016</v>
-      </c>
-      <c r="AU46" s="11">
-        <v>2116</v>
-      </c>
       <c r="AV46" s="11">
-        <v>2493</v>
+        <v>2732</v>
       </c>
       <c r="AW46" s="11">
-        <v>2732</v>
+        <v>2894</v>
       </c>
       <c r="AX46" s="11">
-        <v>2894</v>
+        <v>2838</v>
       </c>
       <c r="AY46" s="11">
-        <v>2838</v>
+        <v>2911</v>
       </c>
       <c r="AZ46" s="11">
-        <v>2911</v>
+        <v>2499</v>
       </c>
       <c r="BA46" s="11">
-        <v>2499</v>
+        <v>2511</v>
       </c>
       <c r="BB46" s="11">
-        <v>2511</v>
+        <v>2445</v>
       </c>
     </row>
     <row r="47" spans="2:54" x14ac:dyDescent="0.3">
@@ -6496,110 +6496,110 @@
       <c r="S47" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T47" s="13" t="s">
-        <v>58</v>
+      <c r="T47" s="13">
+        <v>259</v>
       </c>
       <c r="U47" s="13">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="V47" s="13">
-        <v>253</v>
+        <v>305</v>
       </c>
       <c r="W47" s="13">
         <v>305</v>
       </c>
       <c r="X47" s="13">
+        <v>390</v>
+      </c>
+      <c r="Y47" s="13">
+        <v>527</v>
+      </c>
+      <c r="Z47" s="13">
+        <v>363</v>
+      </c>
+      <c r="AA47" s="13">
+        <v>412</v>
+      </c>
+      <c r="AB47" s="13">
+        <v>297</v>
+      </c>
+      <c r="AC47" s="13">
         <v>305</v>
       </c>
-      <c r="Y47" s="13">
-        <v>390</v>
-      </c>
-      <c r="Z47" s="13">
-        <v>527</v>
-      </c>
-      <c r="AA47" s="13">
-        <v>363</v>
-      </c>
-      <c r="AB47" s="13">
-        <v>412</v>
-      </c>
-      <c r="AC47" s="13">
-        <v>297</v>
-      </c>
       <c r="AD47" s="13">
-        <v>305</v>
+        <v>187</v>
       </c>
       <c r="AE47" s="13">
-        <v>187</v>
+        <v>154</v>
       </c>
       <c r="AF47" s="13">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="AG47" s="13">
+        <v>143</v>
+      </c>
+      <c r="AH47" s="13">
+        <v>170</v>
+      </c>
+      <c r="AI47" s="13">
+        <v>203</v>
+      </c>
+      <c r="AJ47" s="13">
         <v>156</v>
       </c>
-      <c r="AH47" s="13">
-        <v>143</v>
-      </c>
-      <c r="AI47" s="13">
-        <v>170</v>
-      </c>
-      <c r="AJ47" s="13">
-        <v>203</v>
-      </c>
       <c r="AK47" s="13">
-        <v>156</v>
+        <v>198</v>
       </c>
       <c r="AL47" s="13">
-        <v>198</v>
+        <v>268</v>
       </c>
       <c r="AM47" s="13">
-        <v>268</v>
+        <v>174</v>
       </c>
       <c r="AN47" s="13">
-        <v>174</v>
+        <v>438</v>
       </c>
       <c r="AO47" s="13">
-        <v>438</v>
+        <v>376</v>
       </c>
       <c r="AP47" s="13">
-        <v>376</v>
+        <v>159</v>
       </c>
       <c r="AQ47" s="13">
-        <v>159</v>
+        <v>226</v>
       </c>
       <c r="AR47" s="13">
-        <v>226</v>
+        <v>475</v>
       </c>
       <c r="AS47" s="13">
-        <v>475</v>
+        <v>323</v>
       </c>
       <c r="AT47" s="13">
-        <v>323</v>
+        <v>342</v>
       </c>
       <c r="AU47" s="13">
-        <v>342</v>
+        <v>414</v>
       </c>
       <c r="AV47" s="13">
-        <v>414</v>
+        <v>209</v>
       </c>
       <c r="AW47" s="13">
-        <v>209</v>
+        <v>332</v>
       </c>
       <c r="AX47" s="13">
-        <v>332</v>
+        <v>375</v>
       </c>
       <c r="AY47" s="13">
-        <v>375</v>
+        <v>409</v>
       </c>
       <c r="AZ47" s="13">
-        <v>409</v>
+        <v>253</v>
       </c>
       <c r="BA47" s="13">
-        <v>253</v>
+        <v>200</v>
       </c>
       <c r="BB47" s="13">
-        <v>200</v>
+        <v>373</v>
       </c>
     </row>
     <row r="48" spans="2:54" x14ac:dyDescent="0.3">
@@ -6655,110 +6655,110 @@
       <c r="S48" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="T48" s="11" t="s">
-        <v>58</v>
+      <c r="T48" s="11">
+        <v>1752</v>
       </c>
       <c r="U48" s="11">
-        <v>1752</v>
+        <v>1685</v>
       </c>
       <c r="V48" s="11">
-        <v>1685</v>
+        <v>1619</v>
       </c>
       <c r="W48" s="11">
-        <v>1619</v>
+        <v>1348</v>
       </c>
       <c r="X48" s="11">
-        <v>1348</v>
+        <v>1274</v>
       </c>
       <c r="Y48" s="11">
-        <v>1274</v>
+        <v>1285</v>
       </c>
       <c r="Z48" s="11">
-        <v>1285</v>
+        <v>1300</v>
       </c>
       <c r="AA48" s="11">
-        <v>1300</v>
+        <v>1431</v>
       </c>
       <c r="AB48" s="11">
-        <v>1431</v>
+        <v>1630</v>
       </c>
       <c r="AC48" s="11">
-        <v>1630</v>
+        <v>1915</v>
       </c>
       <c r="AD48" s="11">
-        <v>1915</v>
+        <v>1664</v>
       </c>
       <c r="AE48" s="11">
-        <v>1664</v>
+        <v>1879</v>
       </c>
       <c r="AF48" s="11">
-        <v>1879</v>
+        <v>1786</v>
       </c>
       <c r="AG48" s="11">
-        <v>1786</v>
+        <v>1410</v>
       </c>
       <c r="AH48" s="11">
-        <v>1410</v>
+        <v>1420</v>
       </c>
       <c r="AI48" s="11">
-        <v>1420</v>
+        <v>1189</v>
       </c>
       <c r="AJ48" s="11">
-        <v>1189</v>
+        <v>1122</v>
       </c>
       <c r="AK48" s="11">
-        <v>1122</v>
+        <v>1029</v>
       </c>
       <c r="AL48" s="11">
-        <v>1029</v>
+        <v>988</v>
       </c>
       <c r="AM48" s="11">
-        <v>988</v>
+        <v>1139</v>
       </c>
       <c r="AN48" s="11">
-        <v>1139</v>
+        <v>1353</v>
       </c>
       <c r="AO48" s="11">
-        <v>1353</v>
+        <v>1501</v>
       </c>
       <c r="AP48" s="11">
-        <v>1501</v>
+        <v>1243</v>
       </c>
       <c r="AQ48" s="11">
-        <v>1243</v>
+        <v>1318</v>
       </c>
       <c r="AR48" s="11">
-        <v>1318</v>
+        <v>1222</v>
       </c>
       <c r="AS48" s="11">
-        <v>1222</v>
+        <v>1297</v>
       </c>
       <c r="AT48" s="11">
-        <v>1297</v>
+        <v>1221</v>
       </c>
       <c r="AU48" s="11">
-        <v>1221</v>
+        <v>1111</v>
       </c>
       <c r="AV48" s="11">
-        <v>1111</v>
+        <v>1197</v>
       </c>
       <c r="AW48" s="11">
-        <v>1197</v>
+        <v>934</v>
       </c>
       <c r="AX48" s="11">
-        <v>934</v>
+        <v>958</v>
       </c>
       <c r="AY48" s="11">
-        <v>958</v>
+        <v>1183</v>
       </c>
       <c r="AZ48" s="11">
-        <v>1183</v>
+        <v>1250</v>
       </c>
       <c r="BA48" s="11">
-        <v>1250</v>
+        <v>1415</v>
       </c>
       <c r="BB48" s="11">
-        <v>1415</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="49" spans="2:54" x14ac:dyDescent="0.3">
@@ -6814,110 +6814,110 @@
       <c r="S49" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T49" s="13" t="s">
-        <v>58</v>
+      <c r="T49" s="13">
+        <v>609</v>
       </c>
       <c r="U49" s="13">
-        <v>609</v>
+        <v>534</v>
       </c>
       <c r="V49" s="13">
-        <v>534</v>
+        <v>504</v>
       </c>
       <c r="W49" s="13">
-        <v>504</v>
+        <v>304</v>
       </c>
       <c r="X49" s="13">
-        <v>304</v>
+        <v>370</v>
       </c>
       <c r="Y49" s="13">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="Z49" s="13">
-        <v>358</v>
+        <v>402</v>
       </c>
       <c r="AA49" s="13">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="AB49" s="13">
-        <v>409</v>
+        <v>486</v>
       </c>
       <c r="AC49" s="13">
-        <v>486</v>
+        <v>447</v>
       </c>
       <c r="AD49" s="13">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="AE49" s="13">
-        <v>450</v>
+        <v>378</v>
       </c>
       <c r="AF49" s="13">
-        <v>378</v>
+        <v>477</v>
       </c>
       <c r="AG49" s="13">
-        <v>477</v>
+        <v>369</v>
       </c>
       <c r="AH49" s="13">
-        <v>369</v>
+        <v>446</v>
       </c>
       <c r="AI49" s="13">
-        <v>446</v>
+        <v>385</v>
       </c>
       <c r="AJ49" s="13">
-        <v>385</v>
+        <v>426</v>
       </c>
       <c r="AK49" s="13">
-        <v>426</v>
+        <v>377</v>
       </c>
       <c r="AL49" s="13">
-        <v>377</v>
+        <v>329</v>
       </c>
       <c r="AM49" s="13">
-        <v>329</v>
+        <v>289</v>
       </c>
       <c r="AN49" s="13">
-        <v>289</v>
+        <v>400</v>
       </c>
       <c r="AO49" s="13">
-        <v>400</v>
+        <v>333</v>
       </c>
       <c r="AP49" s="13">
-        <v>333</v>
+        <v>403</v>
       </c>
       <c r="AQ49" s="13">
-        <v>403</v>
+        <v>356</v>
       </c>
       <c r="AR49" s="13">
-        <v>356</v>
+        <v>328</v>
       </c>
       <c r="AS49" s="13">
-        <v>328</v>
+        <v>384</v>
       </c>
       <c r="AT49" s="13">
-        <v>384</v>
+        <v>364</v>
       </c>
       <c r="AU49" s="13">
-        <v>364</v>
+        <v>338</v>
       </c>
       <c r="AV49" s="13">
-        <v>338</v>
+        <v>249</v>
       </c>
       <c r="AW49" s="13">
-        <v>249</v>
+        <v>270</v>
       </c>
       <c r="AX49" s="13">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="AY49" s="13">
-        <v>251</v>
+        <v>310</v>
       </c>
       <c r="AZ49" s="13">
-        <v>310</v>
+        <v>428</v>
       </c>
       <c r="BA49" s="13">
-        <v>428</v>
+        <v>312</v>
       </c>
       <c r="BB49" s="13">
-        <v>312</v>
+        <v>301</v>
       </c>
     </row>
     <row r="50" spans="2:54" x14ac:dyDescent="0.3">
@@ -6973,110 +6973,110 @@
       <c r="S50" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="T50" s="11" t="s">
-        <v>58</v>
+      <c r="T50" s="11">
+        <v>47</v>
       </c>
       <c r="U50" s="11">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="V50" s="11">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="W50" s="11">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="X50" s="11">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="Y50" s="11">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="Z50" s="11">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="AA50" s="11">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="AB50" s="11">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="AC50" s="11">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="AD50" s="11">
         <v>26</v>
       </c>
       <c r="AE50" s="11">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="AF50" s="11">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AG50" s="11">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="AH50" s="11">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="AI50" s="11">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="AJ50" s="11">
+        <v>37</v>
+      </c>
+      <c r="AK50" s="11">
+        <v>58</v>
+      </c>
+      <c r="AL50" s="11">
+        <v>34</v>
+      </c>
+      <c r="AM50" s="11">
+        <v>8</v>
+      </c>
+      <c r="AN50" s="11">
+        <v>84</v>
+      </c>
+      <c r="AO50" s="11">
+        <v>323</v>
+      </c>
+      <c r="AP50" s="11">
+        <v>143</v>
+      </c>
+      <c r="AQ50" s="11">
         <v>30</v>
       </c>
-      <c r="AK50" s="11">
-        <v>37</v>
-      </c>
-      <c r="AL50" s="11">
-        <v>58</v>
-      </c>
-      <c r="AM50" s="11">
-        <v>34</v>
-      </c>
-      <c r="AN50" s="11">
-        <v>8</v>
-      </c>
-      <c r="AO50" s="11">
-        <v>84</v>
-      </c>
-      <c r="AP50" s="11">
-        <v>323</v>
-      </c>
-      <c r="AQ50" s="11">
-        <v>143</v>
-      </c>
       <c r="AR50" s="11">
-        <v>30</v>
+        <v>226</v>
       </c>
       <c r="AS50" s="11">
-        <v>226</v>
+        <v>65</v>
       </c>
       <c r="AT50" s="11">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="AU50" s="11">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="AV50" s="11">
-        <v>130</v>
+        <v>45</v>
       </c>
       <c r="AW50" s="11">
-        <v>45</v>
+        <v>140</v>
       </c>
       <c r="AX50" s="11">
-        <v>140</v>
+        <v>107</v>
       </c>
       <c r="AY50" s="11">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="AZ50" s="11">
-        <v>110</v>
+        <v>35</v>
       </c>
       <c r="BA50" s="11">
-        <v>35</v>
+        <v>127</v>
       </c>
       <c r="BB50" s="11">
-        <v>127</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51" spans="2:54" x14ac:dyDescent="0.3">
@@ -7132,110 +7132,110 @@
       <c r="S51" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T51" s="13" t="s">
-        <v>58</v>
+      <c r="T51" s="13">
+        <v>264</v>
       </c>
       <c r="U51" s="13">
-        <v>264</v>
+        <v>351</v>
       </c>
       <c r="V51" s="13">
-        <v>351</v>
+        <v>117</v>
       </c>
       <c r="W51" s="13">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="X51" s="13">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Y51" s="13">
-        <v>148</v>
+        <v>227</v>
       </c>
       <c r="Z51" s="13">
-        <v>227</v>
+        <v>188</v>
       </c>
       <c r="AA51" s="13">
-        <v>188</v>
+        <v>149</v>
       </c>
       <c r="AB51" s="13">
-        <v>149</v>
+        <v>437</v>
       </c>
       <c r="AC51" s="13">
-        <v>437</v>
+        <v>247</v>
       </c>
       <c r="AD51" s="13">
-        <v>247</v>
+        <v>208</v>
       </c>
       <c r="AE51" s="13">
-        <v>208</v>
+        <v>370</v>
       </c>
       <c r="AF51" s="13">
-        <v>370</v>
+        <v>404</v>
       </c>
       <c r="AG51" s="13">
-        <v>404</v>
+        <v>172</v>
       </c>
       <c r="AH51" s="13">
+        <v>232</v>
+      </c>
+      <c r="AI51" s="13">
+        <v>273</v>
+      </c>
+      <c r="AJ51" s="13">
+        <v>285</v>
+      </c>
+      <c r="AK51" s="13">
+        <v>187</v>
+      </c>
+      <c r="AL51" s="13">
+        <v>183</v>
+      </c>
+      <c r="AM51" s="13">
+        <v>199</v>
+      </c>
+      <c r="AN51" s="13">
+        <v>489</v>
+      </c>
+      <c r="AO51" s="13">
+        <v>372</v>
+      </c>
+      <c r="AP51" s="13">
+        <v>142</v>
+      </c>
+      <c r="AQ51" s="13">
+        <v>71</v>
+      </c>
+      <c r="AR51" s="13">
+        <v>56</v>
+      </c>
+      <c r="AS51" s="13">
+        <v>488</v>
+      </c>
+      <c r="AT51" s="13">
         <v>172</v>
       </c>
-      <c r="AI51" s="13">
-        <v>232</v>
-      </c>
-      <c r="AJ51" s="13">
-        <v>273</v>
-      </c>
-      <c r="AK51" s="13">
-        <v>285</v>
-      </c>
-      <c r="AL51" s="13">
-        <v>187</v>
-      </c>
-      <c r="AM51" s="13">
-        <v>183</v>
-      </c>
-      <c r="AN51" s="13">
-        <v>199</v>
-      </c>
-      <c r="AO51" s="13">
-        <v>489</v>
-      </c>
-      <c r="AP51" s="13">
-        <v>372</v>
-      </c>
-      <c r="AQ51" s="13">
-        <v>142</v>
-      </c>
-      <c r="AR51" s="13">
-        <v>71</v>
-      </c>
-      <c r="AS51" s="13">
-        <v>56</v>
-      </c>
-      <c r="AT51" s="13">
-        <v>488</v>
-      </c>
       <c r="AU51" s="13">
-        <v>172</v>
+        <v>129</v>
       </c>
       <c r="AV51" s="13">
-        <v>129</v>
+        <v>62</v>
       </c>
       <c r="AW51" s="13">
-        <v>62</v>
+        <v>315</v>
       </c>
       <c r="AX51" s="13">
-        <v>315</v>
+        <v>200</v>
       </c>
       <c r="AY51" s="13">
-        <v>200</v>
+        <v>233</v>
       </c>
       <c r="AZ51" s="13">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BA51" s="13">
-        <v>234</v>
+        <v>495</v>
       </c>
       <c r="BB51" s="13">
-        <v>495</v>
+        <v>294</v>
       </c>
     </row>
     <row r="52" spans="2:54" x14ac:dyDescent="0.3">
@@ -7290,109 +7290,109 @@
         <v>0</v>
       </c>
       <c r="T52" s="15">
-        <v>0</v>
+        <v>6396</v>
       </c>
       <c r="U52" s="15">
-        <v>6396</v>
+        <v>6318</v>
       </c>
       <c r="V52" s="15">
-        <v>6318</v>
+        <v>5983</v>
       </c>
       <c r="W52" s="15">
-        <v>5983</v>
+        <v>5730</v>
       </c>
       <c r="X52" s="15">
-        <v>5730</v>
+        <v>6649</v>
       </c>
       <c r="Y52" s="15">
-        <v>6649</v>
+        <v>5745</v>
       </c>
       <c r="Z52" s="15">
-        <v>5745</v>
+        <v>5713</v>
       </c>
       <c r="AA52" s="15">
-        <v>5713</v>
+        <v>6174</v>
       </c>
       <c r="AB52" s="15">
-        <v>6174</v>
+        <v>7158</v>
       </c>
       <c r="AC52" s="15">
-        <v>7158</v>
+        <v>6921</v>
       </c>
       <c r="AD52" s="15">
-        <v>6921</v>
+        <v>6117</v>
       </c>
       <c r="AE52" s="15">
-        <v>6117</v>
+        <v>6350</v>
       </c>
       <c r="AF52" s="15">
-        <v>6350</v>
+        <v>6162</v>
       </c>
       <c r="AG52" s="15">
-        <v>6162</v>
+        <v>5099</v>
       </c>
       <c r="AH52" s="15">
-        <v>5099</v>
+        <v>5558</v>
       </c>
       <c r="AI52" s="15">
-        <v>5558</v>
+        <v>4983</v>
       </c>
       <c r="AJ52" s="15">
-        <v>4983</v>
+        <v>5449</v>
       </c>
       <c r="AK52" s="15">
-        <v>5449</v>
+        <v>5289</v>
       </c>
       <c r="AL52" s="15">
-        <v>5289</v>
+        <v>5020</v>
       </c>
       <c r="AM52" s="15">
-        <v>5020</v>
+        <v>4840</v>
       </c>
       <c r="AN52" s="15">
-        <v>4840</v>
+        <v>5699</v>
       </c>
       <c r="AO52" s="15">
-        <v>5699</v>
+        <v>6080</v>
       </c>
       <c r="AP52" s="15">
-        <v>6080</v>
+        <v>4847</v>
       </c>
       <c r="AQ52" s="15">
-        <v>4847</v>
+        <v>4857</v>
       </c>
       <c r="AR52" s="15">
-        <v>4857</v>
+        <v>5286</v>
       </c>
       <c r="AS52" s="15">
-        <v>5286</v>
+        <v>5431</v>
       </c>
       <c r="AT52" s="15">
-        <v>5431</v>
+        <v>5123</v>
       </c>
       <c r="AU52" s="15">
-        <v>5123</v>
+        <v>5287</v>
       </c>
       <c r="AV52" s="15">
-        <v>5287</v>
+        <v>5146</v>
       </c>
       <c r="AW52" s="15">
-        <v>5146</v>
+        <v>5519</v>
       </c>
       <c r="AX52" s="15">
-        <v>5519</v>
+        <v>5344</v>
       </c>
       <c r="AY52" s="15">
-        <v>5344</v>
+        <v>5747</v>
       </c>
       <c r="AZ52" s="15">
-        <v>5747</v>
+        <v>5708</v>
       </c>
       <c r="BA52" s="15">
-        <v>5708</v>
+        <v>6158</v>
       </c>
       <c r="BB52" s="15">
-        <v>6158</v>
+        <v>5607</v>
       </c>
     </row>
     <row r="53" spans="2:54" x14ac:dyDescent="0.3">
@@ -7568,8 +7568,8 @@
       <c r="AN54" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AO54" s="11" t="s">
-        <v>58</v>
+      <c r="AO54" s="11">
+        <v>0</v>
       </c>
       <c r="AP54" s="11">
         <v>0</v>
@@ -7691,11 +7691,11 @@
       <c r="AB55" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AC55" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD55" s="13">
-        <v>0</v>
+      <c r="AC55" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD55" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AE55" s="13" t="s">
         <v>58</v>
@@ -7724,8 +7724,8 @@
       <c r="AM55" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AN55" s="13" t="s">
-        <v>58</v>
+      <c r="AN55" s="13">
+        <v>0</v>
       </c>
       <c r="AO55" s="13">
         <v>0</v>
@@ -7752,10 +7752,10 @@
         <v>0</v>
       </c>
       <c r="AW55" s="13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX55" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AY55" s="13">
         <v>0</v>
@@ -7823,8 +7823,8 @@
       <c r="S56" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="T56" s="11" t="s">
-        <v>58</v>
+      <c r="T56" s="11">
+        <v>0</v>
       </c>
       <c r="U56" s="11">
         <v>0</v>
@@ -7850,8 +7850,8 @@
       <c r="AB56" s="11">
         <v>0</v>
       </c>
-      <c r="AC56" s="11">
-        <v>0</v>
+      <c r="AC56" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AD56" s="11" t="s">
         <v>58</v>
@@ -7883,8 +7883,8 @@
       <c r="AM56" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AN56" s="11" t="s">
-        <v>58</v>
+      <c r="AN56" s="11">
+        <v>0</v>
       </c>
       <c r="AO56" s="11">
         <v>0</v>
@@ -8045,8 +8045,8 @@
       <c r="AN57" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO57" s="13" t="s">
-        <v>58</v>
+      <c r="AO57" s="13">
+        <v>0</v>
       </c>
       <c r="AP57" s="13">
         <v>0</v>
@@ -8067,25 +8067,25 @@
         <v>0</v>
       </c>
       <c r="AV57" s="13">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AW57" s="13">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AX57" s="13">
         <v>0</v>
       </c>
       <c r="AY57" s="13">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AZ57" s="13">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="BA57" s="13">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="BB57" s="13">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="2:54" x14ac:dyDescent="0.3">
@@ -8201,11 +8201,11 @@
       <c r="AM58" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AN58" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO58" s="11">
-        <v>0</v>
+      <c r="AN58" s="11">
+        <v>0</v>
+      </c>
+      <c r="AO58" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AP58" s="11" t="s">
         <v>58</v>
@@ -8234,14 +8234,14 @@
       <c r="AX58" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AY58" s="11" t="s">
-        <v>58</v>
+      <c r="AY58" s="11">
+        <v>7</v>
       </c>
       <c r="AZ58" s="11">
-        <v>7</v>
-      </c>
-      <c r="BA58" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="BA58" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="BB58" s="11" t="s">
         <v>58</v>
@@ -8360,8 +8360,8 @@
       <c r="AM59" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AN59" s="13" t="s">
-        <v>58</v>
+      <c r="AN59" s="13">
+        <v>0</v>
       </c>
       <c r="AO59" s="13">
         <v>0</v>
@@ -8540,26 +8540,26 @@
       <c r="AT60" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AU60" s="11" t="s">
-        <v>58</v>
+      <c r="AU60" s="11">
+        <v>160</v>
       </c>
       <c r="AV60" s="11">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="AW60" s="11">
-        <v>172</v>
+        <v>100</v>
       </c>
       <c r="AX60" s="11">
+        <v>0</v>
+      </c>
+      <c r="AY60" s="11">
         <v>100</v>
       </c>
-      <c r="AY60" s="11">
-        <v>0</v>
-      </c>
       <c r="AZ60" s="11">
-        <v>100</v>
+        <v>176</v>
       </c>
       <c r="BA60" s="11">
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="BB60" s="11">
         <v>0</v>
@@ -8618,8 +8618,8 @@
       <c r="S61" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T61" s="13" t="s">
-        <v>58</v>
+      <c r="T61" s="13">
+        <v>0</v>
       </c>
       <c r="U61" s="13">
         <v>0</v>
@@ -8645,8 +8645,8 @@
       <c r="AB61" s="13">
         <v>0</v>
       </c>
-      <c r="AC61" s="13">
-        <v>0</v>
+      <c r="AC61" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AD61" s="13" t="s">
         <v>58</v>
@@ -8678,11 +8678,11 @@
       <c r="AM61" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AN61" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO61" s="13">
-        <v>0</v>
+      <c r="AN61" s="13">
+        <v>0</v>
+      </c>
+      <c r="AO61" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AP61" s="13" t="s">
         <v>58</v>
@@ -8699,29 +8699,29 @@
       <c r="AT61" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AU61" s="13" t="s">
-        <v>58</v>
+      <c r="AU61" s="13">
+        <v>225</v>
       </c>
       <c r="AV61" s="13">
-        <v>225</v>
+        <v>325</v>
       </c>
       <c r="AW61" s="13">
-        <v>325</v>
+        <v>106</v>
       </c>
       <c r="AX61" s="13">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="AY61" s="13">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="AZ61" s="13">
-        <v>55</v>
+        <v>113</v>
       </c>
       <c r="BA61" s="13">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="BB61" s="13">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="2:54" x14ac:dyDescent="0.3">
@@ -8804,11 +8804,11 @@
       <c r="AB62" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC62" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD62" s="11">
-        <v>0</v>
+      <c r="AC62" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD62" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AE62" s="11" t="s">
         <v>58</v>
@@ -8963,11 +8963,11 @@
       <c r="AB63" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AC63" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD63" s="13">
-        <v>0</v>
+      <c r="AC63" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AE63" s="13" t="s">
         <v>58</v>
@@ -9122,11 +9122,11 @@
       <c r="AB64" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC64" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD64" s="11">
-        <v>0</v>
+      <c r="AC64" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AE64" s="11" t="s">
         <v>58</v>
@@ -9281,11 +9281,11 @@
       <c r="AB65" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AC65" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD65" s="13">
-        <v>0</v>
+      <c r="AC65" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AE65" s="13" t="s">
         <v>58</v>
@@ -9493,28 +9493,28 @@
         <v>0</v>
       </c>
       <c r="AU66" s="15">
-        <v>0</v>
+        <v>385</v>
       </c>
       <c r="AV66" s="15">
-        <v>385</v>
+        <v>516</v>
       </c>
       <c r="AW66" s="15">
-        <v>516</v>
+        <v>208</v>
       </c>
       <c r="AX66" s="15">
-        <v>208</v>
+        <v>100</v>
       </c>
       <c r="AY66" s="15">
-        <v>100</v>
+        <v>282</v>
       </c>
       <c r="AZ66" s="15">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="BA66" s="15">
-        <v>289</v>
+        <v>69</v>
       </c>
       <c r="BB66" s="15">
-        <v>69</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="2:54" x14ac:dyDescent="0.3">
@@ -9654,11 +9654,11 @@
       <c r="AB68" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC68" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD68" s="11">
-        <v>0</v>
+      <c r="AC68" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AE68" s="11" t="s">
         <v>58</v>
@@ -9690,8 +9690,8 @@
       <c r="AN68" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AO68" s="11" t="s">
-        <v>58</v>
+      <c r="AO68" s="11">
+        <v>0</v>
       </c>
       <c r="AP68" s="11">
         <v>0</v>
@@ -9699,29 +9699,29 @@
       <c r="AQ68" s="11">
         <v>0</v>
       </c>
-      <c r="AR68" s="11">
-        <v>0</v>
+      <c r="AR68" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AS68" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT68" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU68" s="11">
-        <v>0</v>
-      </c>
-      <c r="AV68" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW68" s="11">
-        <v>0</v>
+      <c r="AT68" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU68" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV68" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW68" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AX68" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AY68" s="11" t="s">
-        <v>58</v>
+      <c r="AY68" s="11">
+        <v>0</v>
       </c>
       <c r="AZ68" s="11">
         <v>0</v>
@@ -9784,8 +9784,8 @@
       <c r="S69" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="T69" s="17" t="s">
-        <v>58</v>
+      <c r="T69" s="17">
+        <v>0</v>
       </c>
       <c r="U69" s="17">
         <v>0</v>
@@ -10063,8 +10063,8 @@
       <c r="AN71" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AO71" s="11" t="s">
-        <v>58</v>
+      <c r="AO71" s="11">
+        <v>0</v>
       </c>
       <c r="AP71" s="11">
         <v>0</v>
@@ -10072,35 +10072,35 @@
       <c r="AQ71" s="11">
         <v>0</v>
       </c>
-      <c r="AR71" s="11">
-        <v>0</v>
+      <c r="AR71" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AS71" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT71" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU71" s="11">
-        <v>0</v>
-      </c>
-      <c r="AV71" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW71" s="11">
-        <v>0</v>
+      <c r="AT71" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU71" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV71" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW71" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AX71" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AY71" s="11" t="s">
-        <v>58</v>
+      <c r="AY71" s="11">
+        <v>0</v>
       </c>
       <c r="AZ71" s="11">
         <v>0</v>
       </c>
-      <c r="BA71" s="11">
-        <v>0</v>
+      <c r="BA71" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="BB71" s="11" t="s">
         <v>58</v>
@@ -10157,8 +10157,8 @@
       <c r="S72" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="T72" s="17" t="s">
-        <v>58</v>
+      <c r="T72" s="17">
+        <v>0</v>
       </c>
       <c r="U72" s="17">
         <v>0</v>
@@ -10315,109 +10315,109 @@
         <v>0</v>
       </c>
       <c r="T73" s="15">
-        <v>0</v>
+        <v>6396</v>
       </c>
       <c r="U73" s="15">
-        <v>6396</v>
+        <v>6318</v>
       </c>
       <c r="V73" s="15">
-        <v>6318</v>
+        <v>5983</v>
       </c>
       <c r="W73" s="15">
-        <v>5983</v>
+        <v>5730</v>
       </c>
       <c r="X73" s="15">
-        <v>5730</v>
+        <v>6649</v>
       </c>
       <c r="Y73" s="15">
-        <v>6649</v>
+        <v>5745</v>
       </c>
       <c r="Z73" s="15">
-        <v>5745</v>
+        <v>5713</v>
       </c>
       <c r="AA73" s="15">
-        <v>5713</v>
+        <v>6174</v>
       </c>
       <c r="AB73" s="15">
-        <v>6174</v>
+        <v>7158</v>
       </c>
       <c r="AC73" s="15">
-        <v>7158</v>
+        <v>6921</v>
       </c>
       <c r="AD73" s="15">
-        <v>6921</v>
+        <v>6117</v>
       </c>
       <c r="AE73" s="15">
-        <v>6117</v>
+        <v>6350</v>
       </c>
       <c r="AF73" s="15">
-        <v>6350</v>
+        <v>6162</v>
       </c>
       <c r="AG73" s="15">
-        <v>6162</v>
+        <v>5099</v>
       </c>
       <c r="AH73" s="15">
-        <v>5099</v>
+        <v>5558</v>
       </c>
       <c r="AI73" s="15">
-        <v>5558</v>
+        <v>4983</v>
       </c>
       <c r="AJ73" s="15">
-        <v>4983</v>
+        <v>5449</v>
       </c>
       <c r="AK73" s="15">
-        <v>5449</v>
+        <v>5289</v>
       </c>
       <c r="AL73" s="15">
-        <v>5289</v>
+        <v>5020</v>
       </c>
       <c r="AM73" s="15">
-        <v>5020</v>
+        <v>4840</v>
       </c>
       <c r="AN73" s="15">
-        <v>4840</v>
+        <v>5699</v>
       </c>
       <c r="AO73" s="15">
-        <v>5699</v>
+        <v>6080</v>
       </c>
       <c r="AP73" s="15">
-        <v>6080</v>
+        <v>4847</v>
       </c>
       <c r="AQ73" s="15">
-        <v>4847</v>
+        <v>4857</v>
       </c>
       <c r="AR73" s="15">
-        <v>4857</v>
+        <v>5286</v>
       </c>
       <c r="AS73" s="15">
-        <v>5286</v>
+        <v>5431</v>
       </c>
       <c r="AT73" s="15">
-        <v>5431</v>
+        <v>5123</v>
       </c>
       <c r="AU73" s="15">
-        <v>5123</v>
+        <v>5672</v>
       </c>
       <c r="AV73" s="15">
-        <v>5672</v>
+        <v>5662</v>
       </c>
       <c r="AW73" s="15">
-        <v>5662</v>
+        <v>5727</v>
       </c>
       <c r="AX73" s="15">
-        <v>5727</v>
+        <v>5444</v>
       </c>
       <c r="AY73" s="15">
-        <v>5444</v>
+        <v>6029</v>
       </c>
       <c r="AZ73" s="15">
-        <v>6029</v>
+        <v>5997</v>
       </c>
       <c r="BA73" s="15">
-        <v>5997</v>
+        <v>6227</v>
       </c>
       <c r="BB73" s="15">
-        <v>6227</v>
+        <v>5607</v>
       </c>
     </row>
     <row r="74" spans="2:54" x14ac:dyDescent="0.3">
@@ -10907,110 +10907,110 @@
       <c r="S80" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="T80" s="11" t="s">
-        <v>58</v>
+      <c r="T80" s="11">
+        <v>38785</v>
       </c>
       <c r="U80" s="11">
-        <v>38785</v>
+        <v>43113</v>
       </c>
       <c r="V80" s="11">
-        <v>43113</v>
+        <v>40291</v>
       </c>
       <c r="W80" s="11">
-        <v>40291</v>
+        <v>27438</v>
       </c>
       <c r="X80" s="11">
-        <v>27438</v>
+        <v>26664</v>
       </c>
       <c r="Y80" s="11">
-        <v>26664</v>
+        <v>30851</v>
       </c>
       <c r="Z80" s="11">
-        <v>30851</v>
+        <v>35225</v>
       </c>
       <c r="AA80" s="11">
-        <v>35225</v>
+        <v>37469</v>
       </c>
       <c r="AB80" s="11">
-        <v>37469</v>
+        <v>47172</v>
       </c>
       <c r="AC80" s="11">
-        <v>47172</v>
+        <v>54250</v>
       </c>
       <c r="AD80" s="11">
-        <v>54250</v>
+        <v>46828</v>
       </c>
       <c r="AE80" s="11">
-        <v>46828</v>
+        <v>47051</v>
       </c>
       <c r="AF80" s="11">
-        <v>47051</v>
+        <v>63130</v>
       </c>
       <c r="AG80" s="11">
-        <v>63130</v>
+        <v>45245</v>
       </c>
       <c r="AH80" s="11">
-        <v>45245</v>
+        <v>52279</v>
       </c>
       <c r="AI80" s="11">
-        <v>52279</v>
+        <v>36911</v>
       </c>
       <c r="AJ80" s="11">
-        <v>36911</v>
+        <v>44912</v>
       </c>
       <c r="AK80" s="11">
-        <v>44912</v>
+        <v>36669</v>
       </c>
       <c r="AL80" s="11">
-        <v>36669</v>
+        <v>39775</v>
       </c>
       <c r="AM80" s="11">
-        <v>39775</v>
+        <v>39040</v>
       </c>
       <c r="AN80" s="11">
-        <v>39040</v>
+        <v>44815</v>
       </c>
       <c r="AO80" s="11">
-        <v>44815</v>
+        <v>66346</v>
       </c>
       <c r="AP80" s="11">
-        <v>66346</v>
+        <v>47689</v>
       </c>
       <c r="AQ80" s="11">
-        <v>47689</v>
+        <v>94269</v>
       </c>
       <c r="AR80" s="11">
-        <v>94269</v>
+        <v>75662</v>
       </c>
       <c r="AS80" s="11">
-        <v>75662</v>
+        <v>88218</v>
       </c>
       <c r="AT80" s="11">
-        <v>88218</v>
+        <v>80680</v>
       </c>
       <c r="AU80" s="11">
-        <v>80680</v>
+        <v>67454</v>
       </c>
       <c r="AV80" s="11">
-        <v>67454</v>
+        <v>65471</v>
       </c>
       <c r="AW80" s="11">
-        <v>65471</v>
+        <v>64946</v>
       </c>
       <c r="AX80" s="11">
-        <v>64946</v>
+        <v>59945</v>
       </c>
       <c r="AY80" s="11">
-        <v>59945</v>
+        <v>58401</v>
       </c>
       <c r="AZ80" s="11">
-        <v>58401</v>
+        <v>100218</v>
       </c>
       <c r="BA80" s="11">
-        <v>100218</v>
+        <v>105061</v>
       </c>
       <c r="BB80" s="11">
-        <v>105061</v>
+        <v>83174</v>
       </c>
     </row>
     <row r="81" spans="2:54" x14ac:dyDescent="0.3">
@@ -11066,110 +11066,110 @@
       <c r="S81" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T81" s="13" t="s">
-        <v>58</v>
+      <c r="T81" s="13">
+        <v>2697</v>
       </c>
       <c r="U81" s="13">
-        <v>2697</v>
+        <v>3596</v>
       </c>
       <c r="V81" s="13">
-        <v>3596</v>
+        <v>3573</v>
       </c>
       <c r="W81" s="13">
-        <v>3573</v>
+        <v>3323</v>
       </c>
       <c r="X81" s="13">
-        <v>3323</v>
+        <v>3981</v>
       </c>
       <c r="Y81" s="13">
-        <v>3981</v>
+        <v>4572</v>
       </c>
       <c r="Z81" s="13">
-        <v>4572</v>
+        <v>5883</v>
       </c>
       <c r="AA81" s="13">
-        <v>5883</v>
+        <v>3920</v>
       </c>
       <c r="AB81" s="13">
-        <v>3920</v>
+        <v>632</v>
       </c>
       <c r="AC81" s="13">
-        <v>632</v>
+        <v>4547</v>
       </c>
       <c r="AD81" s="13">
-        <v>4547</v>
+        <v>7168</v>
       </c>
       <c r="AE81" s="13">
-        <v>7168</v>
+        <v>60738</v>
       </c>
       <c r="AF81" s="13">
-        <v>60738</v>
+        <v>5312</v>
       </c>
       <c r="AG81" s="13">
-        <v>5312</v>
+        <v>4772</v>
       </c>
       <c r="AH81" s="13">
-        <v>4772</v>
+        <v>4780</v>
       </c>
       <c r="AI81" s="13">
-        <v>4780</v>
+        <v>6978</v>
       </c>
       <c r="AJ81" s="13">
-        <v>6978</v>
+        <v>2488</v>
       </c>
       <c r="AK81" s="13">
-        <v>2488</v>
+        <v>5440</v>
       </c>
       <c r="AL81" s="13">
-        <v>5440</v>
+        <v>3026</v>
       </c>
       <c r="AM81" s="13">
-        <v>3026</v>
+        <v>7998</v>
       </c>
       <c r="AN81" s="13">
-        <v>7998</v>
+        <v>5923</v>
       </c>
       <c r="AO81" s="13">
-        <v>5923</v>
+        <v>3354</v>
       </c>
       <c r="AP81" s="13">
-        <v>3354</v>
+        <v>5118</v>
       </c>
       <c r="AQ81" s="13">
-        <v>5118</v>
+        <v>9112</v>
       </c>
       <c r="AR81" s="13">
-        <v>9112</v>
+        <v>5711</v>
       </c>
       <c r="AS81" s="13">
-        <v>5711</v>
+        <v>7885</v>
       </c>
       <c r="AT81" s="13">
-        <v>7885</v>
+        <v>7531</v>
       </c>
       <c r="AU81" s="13">
-        <v>7531</v>
+        <v>8214</v>
       </c>
       <c r="AV81" s="13">
-        <v>8214</v>
+        <v>8030</v>
       </c>
       <c r="AW81" s="13">
-        <v>8030</v>
+        <v>7724</v>
       </c>
       <c r="AX81" s="13">
-        <v>7724</v>
+        <v>8275</v>
       </c>
       <c r="AY81" s="13">
-        <v>8275</v>
+        <v>9311</v>
       </c>
       <c r="AZ81" s="13">
-        <v>9311</v>
+        <v>8350</v>
       </c>
       <c r="BA81" s="13">
-        <v>8350</v>
+        <v>11289</v>
       </c>
       <c r="BB81" s="13">
-        <v>11289</v>
+        <v>6755</v>
       </c>
     </row>
     <row r="82" spans="2:54" x14ac:dyDescent="0.3">
@@ -11225,110 +11225,110 @@
       <c r="S82" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="T82" s="11" t="s">
-        <v>58</v>
+      <c r="T82" s="11">
+        <v>121887</v>
       </c>
       <c r="U82" s="11">
-        <v>121887</v>
+        <v>132660</v>
       </c>
       <c r="V82" s="11">
-        <v>132660</v>
+        <v>145124</v>
       </c>
       <c r="W82" s="11">
-        <v>145124</v>
+        <v>167809</v>
       </c>
       <c r="X82" s="11">
-        <v>167809</v>
+        <v>185579</v>
       </c>
       <c r="Y82" s="11">
-        <v>185579</v>
+        <v>185852</v>
       </c>
       <c r="Z82" s="11">
-        <v>185852</v>
+        <v>237485</v>
       </c>
       <c r="AA82" s="11">
-        <v>237485</v>
+        <v>185541</v>
       </c>
       <c r="AB82" s="11">
-        <v>185541</v>
+        <v>288955</v>
       </c>
       <c r="AC82" s="11">
-        <v>288955</v>
+        <v>173889</v>
       </c>
       <c r="AD82" s="11">
-        <v>173889</v>
+        <v>176230</v>
       </c>
       <c r="AE82" s="11">
-        <v>176230</v>
+        <v>176151</v>
       </c>
       <c r="AF82" s="11">
-        <v>176151</v>
+        <v>173479</v>
       </c>
       <c r="AG82" s="11">
-        <v>173479</v>
+        <v>194080</v>
       </c>
       <c r="AH82" s="11">
-        <v>194080</v>
+        <v>234992</v>
       </c>
       <c r="AI82" s="11">
-        <v>234992</v>
+        <v>253784</v>
       </c>
       <c r="AJ82" s="11">
-        <v>253784</v>
+        <v>307531</v>
       </c>
       <c r="AK82" s="11">
-        <v>307531</v>
+        <v>369184</v>
       </c>
       <c r="AL82" s="11">
-        <v>369184</v>
+        <v>271129</v>
       </c>
       <c r="AM82" s="11">
-        <v>271129</v>
+        <v>246789</v>
       </c>
       <c r="AN82" s="11">
-        <v>246789</v>
+        <v>236627</v>
       </c>
       <c r="AO82" s="11">
-        <v>236627</v>
+        <v>237213</v>
       </c>
       <c r="AP82" s="11">
-        <v>237213</v>
+        <v>269696</v>
       </c>
       <c r="AQ82" s="11">
-        <v>269696</v>
+        <v>369703</v>
       </c>
       <c r="AR82" s="11">
-        <v>369703</v>
+        <v>434957</v>
       </c>
       <c r="AS82" s="11">
-        <v>434957</v>
+        <v>389340</v>
       </c>
       <c r="AT82" s="11">
-        <v>389340</v>
+        <v>394070</v>
       </c>
       <c r="AU82" s="11">
-        <v>394070</v>
+        <v>459721</v>
       </c>
       <c r="AV82" s="11">
-        <v>459721</v>
+        <v>523819</v>
       </c>
       <c r="AW82" s="11">
-        <v>523819</v>
+        <v>541941</v>
       </c>
       <c r="AX82" s="11">
-        <v>541941</v>
+        <v>525099</v>
       </c>
       <c r="AY82" s="11">
-        <v>525099</v>
+        <v>550048</v>
       </c>
       <c r="AZ82" s="11">
-        <v>550048</v>
+        <v>462280</v>
       </c>
       <c r="BA82" s="11">
-        <v>462280</v>
+        <v>458987</v>
       </c>
       <c r="BB82" s="11">
-        <v>458987</v>
+        <v>482511</v>
       </c>
     </row>
     <row r="83" spans="2:54" x14ac:dyDescent="0.3">
@@ -11384,110 +11384,110 @@
       <c r="S83" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T83" s="13" t="s">
-        <v>58</v>
+      <c r="T83" s="13">
+        <v>62147</v>
       </c>
       <c r="U83" s="13">
-        <v>62147</v>
+        <v>69917</v>
       </c>
       <c r="V83" s="13">
-        <v>69917</v>
+        <v>93762</v>
       </c>
       <c r="W83" s="13">
-        <v>93762</v>
+        <v>86896</v>
       </c>
       <c r="X83" s="13">
-        <v>86896</v>
+        <v>108932</v>
       </c>
       <c r="Y83" s="13">
-        <v>108932</v>
+        <v>155633</v>
       </c>
       <c r="Z83" s="13">
-        <v>155633</v>
+        <v>121928</v>
       </c>
       <c r="AA83" s="13">
-        <v>121928</v>
+        <v>116762</v>
       </c>
       <c r="AB83" s="13">
-        <v>116762</v>
+        <v>89482</v>
       </c>
       <c r="AC83" s="13">
-        <v>89482</v>
+        <v>80919</v>
       </c>
       <c r="AD83" s="13">
-        <v>80919</v>
+        <v>61813</v>
       </c>
       <c r="AE83" s="13">
-        <v>61813</v>
+        <v>47100</v>
       </c>
       <c r="AF83" s="13">
-        <v>47100</v>
+        <v>75672</v>
       </c>
       <c r="AG83" s="13">
-        <v>75672</v>
+        <v>53939</v>
       </c>
       <c r="AH83" s="13">
-        <v>53939</v>
+        <v>76395</v>
       </c>
       <c r="AI83" s="13">
-        <v>76395</v>
+        <v>86474</v>
       </c>
       <c r="AJ83" s="13">
-        <v>86474</v>
+        <v>66704</v>
       </c>
       <c r="AK83" s="13">
-        <v>66704</v>
+        <v>91018</v>
       </c>
       <c r="AL83" s="13">
-        <v>91018</v>
+        <v>104048</v>
       </c>
       <c r="AM83" s="13">
-        <v>104048</v>
+        <v>61267</v>
       </c>
       <c r="AN83" s="13">
-        <v>61267</v>
+        <v>154567</v>
       </c>
       <c r="AO83" s="13">
-        <v>154567</v>
+        <v>119681</v>
       </c>
       <c r="AP83" s="13">
-        <v>119681</v>
+        <v>71394</v>
       </c>
       <c r="AQ83" s="13">
-        <v>71394</v>
+        <v>128928</v>
       </c>
       <c r="AR83" s="13">
-        <v>128928</v>
+        <v>274221</v>
       </c>
       <c r="AS83" s="13">
-        <v>274221</v>
+        <v>205927</v>
       </c>
       <c r="AT83" s="13">
-        <v>205927</v>
+        <v>213230</v>
       </c>
       <c r="AU83" s="13">
-        <v>213230</v>
+        <v>239480</v>
       </c>
       <c r="AV83" s="13">
-        <v>239480</v>
+        <v>140261</v>
       </c>
       <c r="AW83" s="13">
-        <v>140261</v>
+        <v>201781</v>
       </c>
       <c r="AX83" s="13">
-        <v>201781</v>
+        <v>262202</v>
       </c>
       <c r="AY83" s="13">
-        <v>262202</v>
+        <v>279098</v>
       </c>
       <c r="AZ83" s="13">
-        <v>279098</v>
+        <v>142668</v>
       </c>
       <c r="BA83" s="13">
-        <v>142668</v>
+        <v>125214</v>
       </c>
       <c r="BB83" s="13">
-        <v>125214</v>
+        <v>192615</v>
       </c>
     </row>
     <row r="84" spans="2:54" x14ac:dyDescent="0.3">
@@ -11543,110 +11543,110 @@
       <c r="S84" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="T84" s="11" t="s">
-        <v>58</v>
+      <c r="T84" s="11">
+        <v>94957</v>
       </c>
       <c r="U84" s="11">
-        <v>94957</v>
+        <v>96407</v>
       </c>
       <c r="V84" s="11">
-        <v>96407</v>
+        <v>93149</v>
       </c>
       <c r="W84" s="11">
-        <v>93149</v>
+        <v>79445</v>
       </c>
       <c r="X84" s="11">
-        <v>79445</v>
+        <v>76264</v>
       </c>
       <c r="Y84" s="11">
-        <v>76264</v>
+        <v>92072</v>
       </c>
       <c r="Z84" s="11">
-        <v>92072</v>
+        <v>96517</v>
       </c>
       <c r="AA84" s="11">
-        <v>96517</v>
+        <v>103839</v>
       </c>
       <c r="AB84" s="11">
-        <v>103839</v>
+        <v>115312</v>
       </c>
       <c r="AC84" s="11">
-        <v>115312</v>
+        <v>140015</v>
       </c>
       <c r="AD84" s="11">
-        <v>140015</v>
+        <v>129872</v>
       </c>
       <c r="AE84" s="11">
-        <v>129872</v>
+        <v>154105</v>
       </c>
       <c r="AF84" s="11">
-        <v>154105</v>
+        <v>162073</v>
       </c>
       <c r="AG84" s="11">
-        <v>162073</v>
+        <v>149926</v>
       </c>
       <c r="AH84" s="11">
-        <v>149926</v>
+        <v>177580</v>
       </c>
       <c r="AI84" s="11">
-        <v>177580</v>
+        <v>149679</v>
       </c>
       <c r="AJ84" s="11">
-        <v>149679</v>
+        <v>141875</v>
       </c>
       <c r="AK84" s="11">
-        <v>141875</v>
+        <v>129102</v>
       </c>
       <c r="AL84" s="11">
-        <v>129102</v>
+        <v>124947</v>
       </c>
       <c r="AM84" s="11">
-        <v>124947</v>
+        <v>145480</v>
       </c>
       <c r="AN84" s="11">
-        <v>145480</v>
+        <v>174302</v>
       </c>
       <c r="AO84" s="11">
-        <v>174302</v>
+        <v>196260</v>
       </c>
       <c r="AP84" s="11">
-        <v>196260</v>
+        <v>181695</v>
       </c>
       <c r="AQ84" s="11">
-        <v>181695</v>
+        <v>308028</v>
       </c>
       <c r="AR84" s="11">
-        <v>308028</v>
+        <v>270018</v>
       </c>
       <c r="AS84" s="11">
-        <v>270018</v>
+        <v>297226</v>
       </c>
       <c r="AT84" s="11">
-        <v>297226</v>
+        <v>278729</v>
       </c>
       <c r="AU84" s="11">
-        <v>278729</v>
+        <v>250866</v>
       </c>
       <c r="AV84" s="11">
-        <v>250866</v>
+        <v>270141</v>
       </c>
       <c r="AW84" s="11">
-        <v>270141</v>
+        <v>206575</v>
       </c>
       <c r="AX84" s="11">
-        <v>206575</v>
+        <v>213462</v>
       </c>
       <c r="AY84" s="11">
-        <v>213462</v>
+        <v>263686</v>
       </c>
       <c r="AZ84" s="11">
-        <v>263686</v>
+        <v>278638</v>
       </c>
       <c r="BA84" s="11">
-        <v>278638</v>
+        <v>314762</v>
       </c>
       <c r="BB84" s="11">
-        <v>314762</v>
+        <v>295321</v>
       </c>
     </row>
     <row r="85" spans="2:54" x14ac:dyDescent="0.3">
@@ -11702,110 +11702,110 @@
       <c r="S85" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T85" s="13" t="s">
-        <v>58</v>
+      <c r="T85" s="13">
+        <v>129740</v>
       </c>
       <c r="U85" s="13">
-        <v>129740</v>
+        <v>130365</v>
       </c>
       <c r="V85" s="13">
-        <v>130365</v>
+        <v>118621</v>
       </c>
       <c r="W85" s="13">
-        <v>118621</v>
+        <v>73158</v>
       </c>
       <c r="X85" s="13">
-        <v>73158</v>
+        <v>94857</v>
       </c>
       <c r="Y85" s="13">
-        <v>94857</v>
+        <v>116023</v>
       </c>
       <c r="Z85" s="13">
-        <v>116023</v>
+        <v>147835</v>
       </c>
       <c r="AA85" s="13">
-        <v>147835</v>
+        <v>128504</v>
       </c>
       <c r="AB85" s="13">
-        <v>128504</v>
+        <v>118801</v>
       </c>
       <c r="AC85" s="13">
-        <v>118801</v>
+        <v>139778</v>
       </c>
       <c r="AD85" s="13">
-        <v>139778</v>
+        <v>139942</v>
       </c>
       <c r="AE85" s="13">
-        <v>139942</v>
+        <v>127350</v>
       </c>
       <c r="AF85" s="13">
-        <v>127350</v>
+        <v>173600</v>
       </c>
       <c r="AG85" s="13">
-        <v>173600</v>
+        <v>145011</v>
       </c>
       <c r="AH85" s="13">
-        <v>145011</v>
+        <v>195894</v>
       </c>
       <c r="AI85" s="13">
-        <v>195894</v>
+        <v>168720</v>
       </c>
       <c r="AJ85" s="13">
-        <v>168720</v>
+        <v>186597</v>
       </c>
       <c r="AK85" s="13">
-        <v>186597</v>
+        <v>167854</v>
       </c>
       <c r="AL85" s="13">
-        <v>167854</v>
+        <v>145656</v>
       </c>
       <c r="AM85" s="13">
-        <v>145656</v>
+        <v>125182</v>
       </c>
       <c r="AN85" s="13">
-        <v>125182</v>
+        <v>173774</v>
       </c>
       <c r="AO85" s="13">
-        <v>173774</v>
+        <v>143584</v>
       </c>
       <c r="AP85" s="13">
-        <v>143584</v>
+        <v>211745</v>
       </c>
       <c r="AQ85" s="13">
-        <v>211745</v>
+        <v>301171</v>
       </c>
       <c r="AR85" s="13">
-        <v>301171</v>
+        <v>253232</v>
       </c>
       <c r="AS85" s="13">
-        <v>253232</v>
+        <v>311621</v>
       </c>
       <c r="AT85" s="13">
-        <v>311621</v>
+        <v>287745</v>
       </c>
       <c r="AU85" s="13">
-        <v>287745</v>
+        <v>272354</v>
       </c>
       <c r="AV85" s="13">
-        <v>272354</v>
+        <v>188880</v>
       </c>
       <c r="AW85" s="13">
-        <v>188880</v>
+        <v>208403</v>
       </c>
       <c r="AX85" s="13">
-        <v>208403</v>
+        <v>183119</v>
       </c>
       <c r="AY85" s="13">
-        <v>183119</v>
+        <v>225210</v>
       </c>
       <c r="AZ85" s="13">
-        <v>225210</v>
+        <v>338570</v>
       </c>
       <c r="BA85" s="13">
-        <v>338570</v>
+        <v>241465</v>
       </c>
       <c r="BB85" s="13">
-        <v>241465</v>
+        <v>247822</v>
       </c>
     </row>
     <row r="86" spans="2:54" x14ac:dyDescent="0.3">
@@ -11861,110 +11861,110 @@
       <c r="S86" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="T86" s="11" t="s">
-        <v>58</v>
+      <c r="T86" s="11">
+        <v>16173</v>
       </c>
       <c r="U86" s="11">
-        <v>16173</v>
+        <v>6410</v>
       </c>
       <c r="V86" s="11">
-        <v>6410</v>
+        <v>31436</v>
       </c>
       <c r="W86" s="11">
-        <v>31436</v>
+        <v>31557</v>
       </c>
       <c r="X86" s="11">
-        <v>31557</v>
+        <v>36592</v>
       </c>
       <c r="Y86" s="11">
-        <v>36592</v>
+        <v>56165</v>
       </c>
       <c r="Z86" s="11">
-        <v>56165</v>
+        <v>15284</v>
       </c>
       <c r="AA86" s="11">
-        <v>15284</v>
+        <v>21132</v>
       </c>
       <c r="AB86" s="11">
-        <v>21132</v>
+        <v>28971</v>
       </c>
       <c r="AC86" s="11">
-        <v>28971</v>
+        <v>17678</v>
       </c>
       <c r="AD86" s="11">
-        <v>17678</v>
+        <v>18837</v>
       </c>
       <c r="AE86" s="11">
-        <v>18837</v>
+        <v>8561</v>
       </c>
       <c r="AF86" s="11">
-        <v>8561</v>
+        <v>15527</v>
       </c>
       <c r="AG86" s="11">
-        <v>15527</v>
+        <v>45634</v>
       </c>
       <c r="AH86" s="11">
-        <v>45634</v>
+        <v>53651</v>
       </c>
       <c r="AI86" s="11">
-        <v>53651</v>
+        <v>23614</v>
       </c>
       <c r="AJ86" s="11">
-        <v>23614</v>
+        <v>32109</v>
       </c>
       <c r="AK86" s="11">
-        <v>32109</v>
+        <v>50298</v>
       </c>
       <c r="AL86" s="11">
-        <v>50298</v>
+        <v>28196</v>
       </c>
       <c r="AM86" s="11">
-        <v>28196</v>
+        <v>6560</v>
       </c>
       <c r="AN86" s="11">
-        <v>6560</v>
+        <v>65469</v>
       </c>
       <c r="AO86" s="11">
-        <v>65469</v>
+        <v>229861</v>
       </c>
       <c r="AP86" s="11">
-        <v>229861</v>
+        <v>111435</v>
       </c>
       <c r="AQ86" s="11">
-        <v>111435</v>
+        <v>39228</v>
       </c>
       <c r="AR86" s="11">
-        <v>39228</v>
+        <v>304620</v>
       </c>
       <c r="AS86" s="11">
-        <v>304620</v>
+        <v>106890</v>
       </c>
       <c r="AT86" s="11">
-        <v>106890</v>
+        <v>170034</v>
       </c>
       <c r="AU86" s="11">
-        <v>170034</v>
+        <v>183436</v>
       </c>
       <c r="AV86" s="11">
-        <v>183436</v>
+        <v>79961</v>
       </c>
       <c r="AW86" s="11">
-        <v>79961</v>
+        <v>193020</v>
       </c>
       <c r="AX86" s="11">
-        <v>193020</v>
+        <v>158336</v>
       </c>
       <c r="AY86" s="11">
-        <v>158336</v>
+        <v>165583</v>
       </c>
       <c r="AZ86" s="11">
-        <v>165583</v>
+        <v>60832</v>
       </c>
       <c r="BA86" s="11">
-        <v>60832</v>
+        <v>190571</v>
       </c>
       <c r="BB86" s="11">
-        <v>190571</v>
+        <v>60010</v>
       </c>
     </row>
     <row r="87" spans="2:54" x14ac:dyDescent="0.3">
@@ -12020,110 +12020,110 @@
       <c r="S87" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T87" s="13" t="s">
-        <v>58</v>
+      <c r="T87" s="13">
+        <v>67098</v>
       </c>
       <c r="U87" s="13">
-        <v>67098</v>
+        <v>95674</v>
       </c>
       <c r="V87" s="13">
-        <v>95674</v>
+        <v>28362</v>
       </c>
       <c r="W87" s="13">
-        <v>28362</v>
+        <v>25380</v>
       </c>
       <c r="X87" s="13">
-        <v>25380</v>
+        <v>26199</v>
       </c>
       <c r="Y87" s="13">
-        <v>26199</v>
+        <v>46704</v>
       </c>
       <c r="Z87" s="13">
-        <v>46704</v>
+        <v>50627</v>
       </c>
       <c r="AA87" s="13">
-        <v>50627</v>
+        <v>22594</v>
       </c>
       <c r="AB87" s="13">
-        <v>22594</v>
+        <v>138934</v>
       </c>
       <c r="AC87" s="13">
-        <v>138934</v>
+        <v>34153</v>
       </c>
       <c r="AD87" s="13">
-        <v>34153</v>
+        <v>41723</v>
       </c>
       <c r="AE87" s="13">
-        <v>41723</v>
+        <v>86498</v>
       </c>
       <c r="AF87" s="13">
-        <v>86498</v>
+        <v>144255</v>
       </c>
       <c r="AG87" s="13">
-        <v>144255</v>
+        <v>89327</v>
       </c>
       <c r="AH87" s="13">
-        <v>89327</v>
+        <v>98615</v>
       </c>
       <c r="AI87" s="13">
-        <v>98615</v>
+        <v>131104</v>
       </c>
       <c r="AJ87" s="13">
-        <v>131104</v>
+        <v>139543</v>
       </c>
       <c r="AK87" s="13">
-        <v>139543</v>
+        <v>114893</v>
       </c>
       <c r="AL87" s="13">
-        <v>114893</v>
+        <v>120711</v>
       </c>
       <c r="AM87" s="13">
-        <v>120711</v>
+        <v>115427</v>
       </c>
       <c r="AN87" s="13">
-        <v>115427</v>
+        <v>272339</v>
       </c>
       <c r="AO87" s="13">
-        <v>272339</v>
+        <v>221316</v>
       </c>
       <c r="AP87" s="13">
-        <v>221316</v>
+        <v>106861</v>
       </c>
       <c r="AQ87" s="13">
-        <v>106861</v>
+        <v>69614</v>
       </c>
       <c r="AR87" s="13">
-        <v>69614</v>
+        <v>69078</v>
       </c>
       <c r="AS87" s="13">
-        <v>69078</v>
+        <v>344727</v>
       </c>
       <c r="AT87" s="13">
-        <v>344727</v>
+        <v>165773</v>
       </c>
       <c r="AU87" s="13">
-        <v>165773</v>
+        <v>104155</v>
       </c>
       <c r="AV87" s="13">
-        <v>104155</v>
+        <v>61725</v>
       </c>
       <c r="AW87" s="13">
-        <v>61725</v>
+        <v>281615</v>
       </c>
       <c r="AX87" s="13">
-        <v>281615</v>
+        <v>188439</v>
       </c>
       <c r="AY87" s="13">
-        <v>188439</v>
+        <v>246788</v>
       </c>
       <c r="AZ87" s="13">
-        <v>246788</v>
+        <v>206460</v>
       </c>
       <c r="BA87" s="13">
-        <v>206460</v>
+        <v>474607</v>
       </c>
       <c r="BB87" s="13">
-        <v>474607</v>
+        <v>351878</v>
       </c>
     </row>
     <row r="88" spans="2:54" x14ac:dyDescent="0.3">
@@ -12178,109 +12178,109 @@
         <v>0</v>
       </c>
       <c r="T88" s="15">
-        <v>0</v>
+        <v>533484</v>
       </c>
       <c r="U88" s="15">
-        <v>533484</v>
+        <v>578142</v>
       </c>
       <c r="V88" s="15">
-        <v>578142</v>
+        <v>554318</v>
       </c>
       <c r="W88" s="15">
-        <v>554318</v>
+        <v>495006</v>
       </c>
       <c r="X88" s="15">
-        <v>495006</v>
+        <v>559068</v>
       </c>
       <c r="Y88" s="15">
-        <v>559068</v>
+        <v>687872</v>
       </c>
       <c r="Z88" s="15">
-        <v>687872</v>
+        <v>710784</v>
       </c>
       <c r="AA88" s="15">
-        <v>710784</v>
+        <v>619761</v>
       </c>
       <c r="AB88" s="15">
-        <v>619761</v>
+        <v>828259</v>
       </c>
       <c r="AC88" s="15">
-        <v>828259</v>
+        <v>645229</v>
       </c>
       <c r="AD88" s="15">
-        <v>645229</v>
+        <v>622413</v>
       </c>
       <c r="AE88" s="15">
-        <v>622413</v>
+        <v>707554</v>
       </c>
       <c r="AF88" s="15">
-        <v>707554</v>
+        <v>813048</v>
       </c>
       <c r="AG88" s="15">
-        <v>813048</v>
+        <v>727934</v>
       </c>
       <c r="AH88" s="15">
-        <v>727934</v>
+        <v>894186</v>
       </c>
       <c r="AI88" s="15">
-        <v>894186</v>
+        <v>857264</v>
       </c>
       <c r="AJ88" s="15">
-        <v>857264</v>
+        <v>921759</v>
       </c>
       <c r="AK88" s="15">
-        <v>921759</v>
+        <v>964458</v>
       </c>
       <c r="AL88" s="15">
-        <v>964458</v>
+        <v>837488</v>
       </c>
       <c r="AM88" s="15">
-        <v>837488</v>
+        <v>747743</v>
       </c>
       <c r="AN88" s="15">
-        <v>747743</v>
+        <v>1127816</v>
       </c>
       <c r="AO88" s="15">
-        <v>1127816</v>
+        <v>1217615</v>
       </c>
       <c r="AP88" s="15">
-        <v>1217615</v>
+        <v>1005633</v>
       </c>
       <c r="AQ88" s="15">
-        <v>1005633</v>
+        <v>1320053</v>
       </c>
       <c r="AR88" s="15">
-        <v>1320053</v>
+        <v>1687499</v>
       </c>
       <c r="AS88" s="15">
-        <v>1687499</v>
+        <v>1751834</v>
       </c>
       <c r="AT88" s="15">
-        <v>1751834</v>
+        <v>1597792</v>
       </c>
       <c r="AU88" s="15">
-        <v>1597792</v>
+        <v>1585680</v>
       </c>
       <c r="AV88" s="15">
-        <v>1585680</v>
+        <v>1338288</v>
       </c>
       <c r="AW88" s="15">
-        <v>1338288</v>
+        <v>1706005</v>
       </c>
       <c r="AX88" s="15">
-        <v>1706005</v>
+        <v>1598877</v>
       </c>
       <c r="AY88" s="15">
-        <v>1598877</v>
+        <v>1798125</v>
       </c>
       <c r="AZ88" s="15">
-        <v>1798125</v>
+        <v>1598016</v>
       </c>
       <c r="BA88" s="15">
-        <v>1598016</v>
+        <v>1921956</v>
       </c>
       <c r="BB88" s="15">
-        <v>1921956</v>
+        <v>1720086</v>
       </c>
     </row>
     <row r="89" spans="2:54" x14ac:dyDescent="0.3">
@@ -12456,8 +12456,8 @@
       <c r="AN90" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AO90" s="11" t="s">
-        <v>58</v>
+      <c r="AO90" s="11">
+        <v>0</v>
       </c>
       <c r="AP90" s="11">
         <v>0</v>
@@ -12579,8 +12579,8 @@
       <c r="AB91" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AC91" s="13" t="s">
-        <v>58</v>
+      <c r="AC91" s="13">
+        <v>0</v>
       </c>
       <c r="AD91" s="13">
         <v>0</v>
@@ -12640,10 +12640,10 @@
         <v>0</v>
       </c>
       <c r="AW91" s="13">
-        <v>0</v>
+        <v>3609</v>
       </c>
       <c r="AX91" s="13">
-        <v>3609</v>
+        <v>0</v>
       </c>
       <c r="AY91" s="13">
         <v>0</v>
@@ -12711,8 +12711,8 @@
       <c r="S92" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="T92" s="11" t="s">
-        <v>58</v>
+      <c r="T92" s="11">
+        <v>0</v>
       </c>
       <c r="U92" s="11">
         <v>0</v>
@@ -12738,8 +12738,8 @@
       <c r="AB92" s="11">
         <v>0</v>
       </c>
-      <c r="AC92" s="11">
-        <v>0</v>
+      <c r="AC92" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AD92" s="11" t="s">
         <v>58</v>
@@ -12771,8 +12771,8 @@
       <c r="AM92" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AN92" s="11" t="s">
-        <v>58</v>
+      <c r="AN92" s="11">
+        <v>0</v>
       </c>
       <c r="AO92" s="11">
         <v>0</v>
@@ -12933,8 +12933,8 @@
       <c r="AN93" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO93" s="13" t="s">
-        <v>58</v>
+      <c r="AO93" s="13">
+        <v>0</v>
       </c>
       <c r="AP93" s="13">
         <v>0</v>
@@ -12955,25 +12955,25 @@
         <v>0</v>
       </c>
       <c r="AV93" s="13">
-        <v>0</v>
+        <v>17952</v>
       </c>
       <c r="AW93" s="13">
-        <v>17952</v>
+        <v>0</v>
       </c>
       <c r="AX93" s="13">
         <v>0</v>
       </c>
       <c r="AY93" s="13">
-        <v>0</v>
+        <v>49800</v>
       </c>
       <c r="AZ93" s="13">
-        <v>49800</v>
+        <v>0</v>
       </c>
       <c r="BA93" s="13">
-        <v>0</v>
+        <v>40920</v>
       </c>
       <c r="BB93" s="13">
-        <v>40920</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="2:54" x14ac:dyDescent="0.3">
@@ -13089,11 +13089,11 @@
       <c r="AM94" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AN94" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO94" s="11">
-        <v>0</v>
+      <c r="AN94" s="11">
+        <v>0</v>
+      </c>
+      <c r="AO94" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AP94" s="11" t="s">
         <v>58</v>
@@ -13122,14 +13122,14 @@
       <c r="AX94" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AY94" s="11" t="s">
-        <v>58</v>
+      <c r="AY94" s="11">
+        <v>1944</v>
       </c>
       <c r="AZ94" s="11">
-        <v>1944</v>
-      </c>
-      <c r="BA94" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="BA94" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="BB94" s="11" t="s">
         <v>58</v>
@@ -13248,8 +13248,8 @@
       <c r="AM95" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AN95" s="13" t="s">
-        <v>58</v>
+      <c r="AN95" s="13">
+        <v>0</v>
       </c>
       <c r="AO95" s="13">
         <v>0</v>
@@ -13428,26 +13428,26 @@
       <c r="AT96" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AU96" s="11" t="s">
-        <v>58</v>
+      <c r="AU96" s="11">
+        <v>218400</v>
       </c>
       <c r="AV96" s="11">
-        <v>218400</v>
+        <v>235595</v>
       </c>
       <c r="AW96" s="11">
-        <v>235595</v>
+        <v>144798</v>
       </c>
       <c r="AX96" s="11">
-        <v>144798</v>
+        <v>0</v>
       </c>
       <c r="AY96" s="11">
-        <v>0</v>
+        <v>147000</v>
       </c>
       <c r="AZ96" s="11">
-        <v>147000</v>
+        <v>247700</v>
       </c>
       <c r="BA96" s="11">
-        <v>247700</v>
+        <v>0</v>
       </c>
       <c r="BB96" s="11">
         <v>0</v>
@@ -13506,8 +13506,8 @@
       <c r="S97" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T97" s="13" t="s">
-        <v>58</v>
+      <c r="T97" s="13">
+        <v>0</v>
       </c>
       <c r="U97" s="13">
         <v>0</v>
@@ -13533,14 +13533,14 @@
       <c r="AB97" s="13">
         <v>0</v>
       </c>
-      <c r="AC97" s="13">
-        <v>0</v>
+      <c r="AC97" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AD97" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AE97" s="13" t="s">
-        <v>58</v>
+      <c r="AE97" s="13">
+        <v>0</v>
       </c>
       <c r="AF97" s="13">
         <v>0</v>
@@ -13569,8 +13569,8 @@
       <c r="AN97" s="13">
         <v>0</v>
       </c>
-      <c r="AO97" s="13">
-        <v>0</v>
+      <c r="AO97" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AP97" s="13" t="s">
         <v>58</v>
@@ -13587,29 +13587,29 @@
       <c r="AT97" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AU97" s="13" t="s">
-        <v>58</v>
+      <c r="AU97" s="13">
+        <v>194625</v>
       </c>
       <c r="AV97" s="13">
-        <v>194625</v>
+        <v>236125</v>
       </c>
       <c r="AW97" s="13">
-        <v>236125</v>
+        <v>87000</v>
       </c>
       <c r="AX97" s="13">
-        <v>87000</v>
+        <v>87500</v>
       </c>
       <c r="AY97" s="13">
-        <v>87500</v>
+        <v>24140</v>
       </c>
       <c r="AZ97" s="13">
-        <v>24140</v>
+        <v>116300</v>
       </c>
       <c r="BA97" s="13">
-        <v>116300</v>
+        <v>23500</v>
       </c>
       <c r="BB97" s="13">
-        <v>23500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="2:54" x14ac:dyDescent="0.3">
@@ -13692,8 +13692,8 @@
       <c r="AB98" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC98" s="11" t="s">
-        <v>58</v>
+      <c r="AC98" s="11">
+        <v>0</v>
       </c>
       <c r="AD98" s="11">
         <v>0</v>
@@ -13725,8 +13725,8 @@
       <c r="AM98" s="11">
         <v>0</v>
       </c>
-      <c r="AN98" s="11">
-        <v>0</v>
+      <c r="AN98" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AO98" s="11" t="s">
         <v>58</v>
@@ -13851,14 +13851,14 @@
       <c r="AB99" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AC99" s="13" t="s">
-        <v>58</v>
+      <c r="AC99" s="13">
+        <v>0</v>
       </c>
       <c r="AD99" s="13">
         <v>0</v>
       </c>
-      <c r="AE99" s="13">
-        <v>0</v>
+      <c r="AE99" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AF99" s="13" t="s">
         <v>58</v>
@@ -14010,8 +14010,8 @@
       <c r="AB100" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC100" s="11" t="s">
-        <v>58</v>
+      <c r="AC100" s="11">
+        <v>0</v>
       </c>
       <c r="AD100" s="11">
         <v>0</v>
@@ -14043,8 +14043,8 @@
       <c r="AM100" s="11">
         <v>0</v>
       </c>
-      <c r="AN100" s="11">
-        <v>0</v>
+      <c r="AN100" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AO100" s="11" t="s">
         <v>58</v>
@@ -14169,8 +14169,8 @@
       <c r="AB101" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AC101" s="13" t="s">
-        <v>58</v>
+      <c r="AC101" s="13">
+        <v>0</v>
       </c>
       <c r="AD101" s="13">
         <v>0</v>
@@ -14202,8 +14202,8 @@
       <c r="AM101" s="13">
         <v>0</v>
       </c>
-      <c r="AN101" s="13">
-        <v>0</v>
+      <c r="AN101" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AO101" s="13" t="s">
         <v>58</v>
@@ -14381,28 +14381,28 @@
         <v>0</v>
       </c>
       <c r="AU102" s="15">
-        <v>0</v>
+        <v>413025</v>
       </c>
       <c r="AV102" s="15">
-        <v>413025</v>
+        <v>489672</v>
       </c>
       <c r="AW102" s="15">
-        <v>489672</v>
+        <v>235407</v>
       </c>
       <c r="AX102" s="15">
-        <v>235407</v>
+        <v>87500</v>
       </c>
       <c r="AY102" s="15">
-        <v>87500</v>
+        <v>222884</v>
       </c>
       <c r="AZ102" s="15">
-        <v>222884</v>
+        <v>364000</v>
       </c>
       <c r="BA102" s="15">
-        <v>364000</v>
+        <v>64420</v>
       </c>
       <c r="BB102" s="15">
-        <v>64420</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="2:54" x14ac:dyDescent="0.3">
@@ -14542,8 +14542,8 @@
       <c r="AB104" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC104" s="11" t="s">
-        <v>58</v>
+      <c r="AC104" s="11">
+        <v>0</v>
       </c>
       <c r="AD104" s="11">
         <v>0</v>
@@ -14674,8 +14674,8 @@
       <c r="S105" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="T105" s="17" t="s">
-        <v>58</v>
+      <c r="T105" s="17">
+        <v>0</v>
       </c>
       <c r="U105" s="17">
         <v>0</v>
@@ -14953,8 +14953,8 @@
       <c r="AN107" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AO107" s="11" t="s">
-        <v>58</v>
+      <c r="AO107" s="11">
+        <v>0</v>
       </c>
       <c r="AP107" s="11">
         <v>0</v>
@@ -14989,8 +14989,8 @@
       <c r="AZ107" s="11">
         <v>0</v>
       </c>
-      <c r="BA107" s="11">
-        <v>0</v>
+      <c r="BA107" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="BB107" s="11" t="s">
         <v>58</v>
@@ -15049,8 +15049,8 @@
       <c r="S108" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="T108" s="17" t="s">
-        <v>58</v>
+      <c r="T108" s="17">
+        <v>0</v>
       </c>
       <c r="U108" s="17">
         <v>0</v>
@@ -15265,8 +15265,8 @@
       <c r="S110" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="T110" s="11" t="s">
-        <v>58</v>
+      <c r="T110" s="11">
+        <v>0</v>
       </c>
       <c r="U110" s="11">
         <v>0</v>
@@ -15423,109 +15423,109 @@
         <v>0</v>
       </c>
       <c r="T111" s="17">
-        <v>0</v>
+        <v>533484</v>
       </c>
       <c r="U111" s="17">
-        <v>533484</v>
+        <v>578142</v>
       </c>
       <c r="V111" s="17">
-        <v>578142</v>
+        <v>554318</v>
       </c>
       <c r="W111" s="17">
-        <v>554318</v>
+        <v>495006</v>
       </c>
       <c r="X111" s="17">
-        <v>495006</v>
+        <v>559068</v>
       </c>
       <c r="Y111" s="17">
-        <v>559068</v>
+        <v>687872</v>
       </c>
       <c r="Z111" s="17">
-        <v>687872</v>
+        <v>710784</v>
       </c>
       <c r="AA111" s="17">
-        <v>710784</v>
+        <v>619761</v>
       </c>
       <c r="AB111" s="17">
-        <v>619761</v>
+        <v>828259</v>
       </c>
       <c r="AC111" s="17">
-        <v>828259</v>
+        <v>645229</v>
       </c>
       <c r="AD111" s="17">
-        <v>645229</v>
+        <v>622413</v>
       </c>
       <c r="AE111" s="17">
-        <v>622413</v>
+        <v>707554</v>
       </c>
       <c r="AF111" s="17">
-        <v>707554</v>
+        <v>813048</v>
       </c>
       <c r="AG111" s="17">
-        <v>813048</v>
+        <v>727934</v>
       </c>
       <c r="AH111" s="17">
-        <v>727934</v>
+        <v>894186</v>
       </c>
       <c r="AI111" s="17">
-        <v>894186</v>
+        <v>857264</v>
       </c>
       <c r="AJ111" s="17">
-        <v>857264</v>
+        <v>921759</v>
       </c>
       <c r="AK111" s="17">
-        <v>921759</v>
+        <v>964458</v>
       </c>
       <c r="AL111" s="17">
-        <v>964458</v>
+        <v>837488</v>
       </c>
       <c r="AM111" s="17">
-        <v>837488</v>
+        <v>747743</v>
       </c>
       <c r="AN111" s="17">
-        <v>747743</v>
+        <v>1127816</v>
       </c>
       <c r="AO111" s="17">
-        <v>1127816</v>
+        <v>1217615</v>
       </c>
       <c r="AP111" s="17">
-        <v>1217615</v>
+        <v>1005633</v>
       </c>
       <c r="AQ111" s="17">
-        <v>1005633</v>
+        <v>1320053</v>
       </c>
       <c r="AR111" s="17">
-        <v>1320053</v>
+        <v>1687499</v>
       </c>
       <c r="AS111" s="17">
-        <v>1687499</v>
+        <v>1751834</v>
       </c>
       <c r="AT111" s="17">
-        <v>1751834</v>
+        <v>1597792</v>
       </c>
       <c r="AU111" s="17">
-        <v>1597792</v>
+        <v>1998705</v>
       </c>
       <c r="AV111" s="17">
-        <v>1998705</v>
+        <v>1827960</v>
       </c>
       <c r="AW111" s="17">
-        <v>1827960</v>
+        <v>1941412</v>
       </c>
       <c r="AX111" s="17">
-        <v>1941412</v>
+        <v>1686377</v>
       </c>
       <c r="AY111" s="17">
-        <v>1686377</v>
+        <v>2021009</v>
       </c>
       <c r="AZ111" s="17">
-        <v>2021009</v>
+        <v>1962016</v>
       </c>
       <c r="BA111" s="17">
-        <v>1962016</v>
+        <v>1986376</v>
       </c>
       <c r="BB111" s="17">
-        <v>1986376</v>
+        <v>1720086</v>
       </c>
     </row>
     <row r="112" spans="2:54" x14ac:dyDescent="0.3">
@@ -16015,110 +16015,110 @@
       <c r="S118" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="T118" s="11" t="s">
-        <v>58</v>
+      <c r="T118" s="11">
+        <v>33755440</v>
       </c>
       <c r="U118" s="11">
-        <v>33755440</v>
+        <v>35165579</v>
       </c>
       <c r="V118" s="11">
-        <v>35165579</v>
+        <v>35281086</v>
       </c>
       <c r="W118" s="11">
-        <v>35281086</v>
+        <v>34426600</v>
       </c>
       <c r="X118" s="11">
-        <v>34426600</v>
+        <v>36081191</v>
       </c>
       <c r="Y118" s="11">
-        <v>36081191</v>
+        <v>41634278</v>
       </c>
       <c r="Z118" s="11">
-        <v>41634278</v>
+        <v>45865885</v>
       </c>
       <c r="AA118" s="11">
-        <v>45865885</v>
+        <v>43721120</v>
       </c>
       <c r="AB118" s="11">
-        <v>43721120</v>
+        <v>42080285</v>
       </c>
       <c r="AC118" s="11">
-        <v>42080285</v>
+        <v>42783912</v>
       </c>
       <c r="AD118" s="11">
-        <v>42783912</v>
+        <v>46548708</v>
       </c>
       <c r="AE118" s="11">
-        <v>46548708</v>
+        <v>51704396</v>
       </c>
       <c r="AF118" s="11">
-        <v>51704396</v>
+        <v>61650391</v>
       </c>
       <c r="AG118" s="11">
-        <v>61650391</v>
+        <v>56627034</v>
       </c>
       <c r="AH118" s="11">
-        <v>56627034</v>
+        <v>65842569</v>
       </c>
       <c r="AI118" s="11">
-        <v>65842569</v>
+        <v>62139731</v>
       </c>
       <c r="AJ118" s="11">
-        <v>62139731</v>
+        <v>64436155</v>
       </c>
       <c r="AK118" s="11">
-        <v>64436155</v>
+        <v>65715054</v>
       </c>
       <c r="AL118" s="11">
-        <v>65715054</v>
+        <v>66624791</v>
       </c>
       <c r="AM118" s="11">
-        <v>66624791</v>
+        <v>66735043</v>
       </c>
       <c r="AN118" s="11">
-        <v>66735043</v>
+        <v>66392593</v>
       </c>
       <c r="AO118" s="11">
-        <v>66392593</v>
+        <v>68327497</v>
       </c>
       <c r="AP118" s="11">
-        <v>68327497</v>
+        <v>73707883</v>
       </c>
       <c r="AQ118" s="11">
-        <v>73707883</v>
+        <v>107613014</v>
       </c>
       <c r="AR118" s="11">
-        <v>107613014</v>
+        <v>104074278</v>
       </c>
       <c r="AS118" s="11">
-        <v>104074278</v>
+        <v>105021429</v>
       </c>
       <c r="AT118" s="11">
-        <v>105021429</v>
+        <v>103969072</v>
       </c>
       <c r="AU118" s="11">
-        <v>103969072</v>
+        <v>103298622</v>
       </c>
       <c r="AV118" s="11">
-        <v>103298622</v>
+        <v>103593354</v>
       </c>
       <c r="AW118" s="11">
-        <v>103593354</v>
+        <v>105431818</v>
       </c>
       <c r="AX118" s="11">
-        <v>105431818</v>
+        <v>100747899</v>
       </c>
       <c r="AY118" s="11">
-        <v>100747899</v>
+        <v>102637961</v>
       </c>
       <c r="AZ118" s="11">
-        <v>102637961</v>
+        <v>101332659</v>
       </c>
       <c r="BA118" s="11">
-        <v>101332659</v>
+        <v>98004664</v>
       </c>
       <c r="BB118" s="11">
-        <v>98004664</v>
+        <v>101555556</v>
       </c>
     </row>
     <row r="119" spans="2:54" x14ac:dyDescent="0.3">
@@ -16174,110 +16174,110 @@
       <c r="S119" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T119" s="13" t="s">
-        <v>58</v>
+      <c r="T119" s="13">
+        <v>141947368</v>
       </c>
       <c r="U119" s="13">
-        <v>141947368</v>
+        <v>149833333</v>
       </c>
       <c r="V119" s="13">
-        <v>149833333</v>
+        <v>148875000</v>
       </c>
       <c r="W119" s="13">
-        <v>148875000</v>
+        <v>138458333</v>
       </c>
       <c r="X119" s="13">
-        <v>138458333</v>
+        <v>189571429</v>
       </c>
       <c r="Y119" s="13">
-        <v>189571429</v>
+        <v>147483871</v>
       </c>
       <c r="Z119" s="13">
-        <v>147483871</v>
+        <v>168085714</v>
       </c>
       <c r="AA119" s="13">
-        <v>168085714</v>
+        <v>145185185</v>
       </c>
       <c r="AB119" s="13">
-        <v>145185185</v>
+        <v>5851852</v>
       </c>
       <c r="AC119" s="13">
-        <v>5851852</v>
+        <v>174884615</v>
       </c>
       <c r="AD119" s="13">
-        <v>174884615</v>
+        <v>89600000</v>
       </c>
       <c r="AE119" s="13">
-        <v>89600000</v>
+        <v>164601626</v>
       </c>
       <c r="AF119" s="13">
-        <v>164601626</v>
+        <v>408615385</v>
       </c>
       <c r="AG119" s="13">
-        <v>408615385</v>
+        <v>238600000</v>
       </c>
       <c r="AH119" s="13">
-        <v>238600000</v>
+        <v>239000000</v>
       </c>
       <c r="AI119" s="13">
-        <v>239000000</v>
+        <v>240620690</v>
       </c>
       <c r="AJ119" s="13">
-        <v>240620690</v>
+        <v>248800000</v>
       </c>
       <c r="AK119" s="13">
-        <v>248800000</v>
+        <v>247272727</v>
       </c>
       <c r="AL119" s="13">
-        <v>247272727</v>
+        <v>216142857</v>
       </c>
       <c r="AM119" s="13">
-        <v>216142857</v>
+        <v>258000000</v>
       </c>
       <c r="AN119" s="13">
+        <v>269227273</v>
+      </c>
+      <c r="AO119" s="13">
         <v>258000000</v>
       </c>
-      <c r="AO119" s="13">
-        <v>269227273</v>
-      </c>
       <c r="AP119" s="13">
-        <v>258000000</v>
+        <v>284333333</v>
       </c>
       <c r="AQ119" s="13">
-        <v>284333333</v>
+        <v>479578947</v>
       </c>
       <c r="AR119" s="13">
-        <v>479578947</v>
+        <v>407928571</v>
       </c>
       <c r="AS119" s="13">
-        <v>407928571</v>
+        <v>438055556</v>
       </c>
       <c r="AT119" s="13">
-        <v>438055556</v>
+        <v>418388889</v>
       </c>
       <c r="AU119" s="13">
-        <v>418388889</v>
+        <v>432315789</v>
       </c>
       <c r="AV119" s="13">
-        <v>432315789</v>
+        <v>401500000</v>
       </c>
       <c r="AW119" s="13">
-        <v>401500000</v>
+        <v>429111111</v>
       </c>
       <c r="AX119" s="13">
-        <v>429111111</v>
+        <v>413750000</v>
       </c>
       <c r="AY119" s="13">
-        <v>413750000</v>
+        <v>423227273</v>
       </c>
       <c r="AZ119" s="13">
-        <v>423227273</v>
+        <v>417500000</v>
       </c>
       <c r="BA119" s="13">
-        <v>417500000</v>
+        <v>434192308</v>
       </c>
       <c r="BB119" s="13">
-        <v>434192308</v>
+        <v>450333333</v>
       </c>
     </row>
     <row r="120" spans="2:54" x14ac:dyDescent="0.3">
@@ -16333,110 +16333,110 @@
       <c r="S120" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="T120" s="11" t="s">
-        <v>58</v>
+      <c r="T120" s="11">
+        <v>53063561</v>
       </c>
       <c r="U120" s="11">
-        <v>53063561</v>
+        <v>59568927</v>
       </c>
       <c r="V120" s="11">
-        <v>59568927</v>
+        <v>65815873</v>
       </c>
       <c r="W120" s="11">
-        <v>65815873</v>
+        <v>60888607</v>
       </c>
       <c r="X120" s="11">
-        <v>60888607</v>
+        <v>50857495</v>
       </c>
       <c r="Y120" s="11">
-        <v>50857495</v>
+        <v>74549539</v>
       </c>
       <c r="Z120" s="11">
-        <v>74549539</v>
+        <v>90195594</v>
       </c>
       <c r="AA120" s="11">
-        <v>90195594</v>
+        <v>64919874</v>
       </c>
       <c r="AB120" s="11">
-        <v>64919874</v>
+        <v>95050987</v>
       </c>
       <c r="AC120" s="11">
-        <v>95050987</v>
+        <v>64714924</v>
       </c>
       <c r="AD120" s="11">
-        <v>64714924</v>
+        <v>70604968</v>
       </c>
       <c r="AE120" s="11">
-        <v>70604968</v>
+        <v>77293111</v>
       </c>
       <c r="AF120" s="11">
-        <v>77293111</v>
+        <v>75920788</v>
       </c>
       <c r="AG120" s="11">
-        <v>75920788</v>
+        <v>91633617</v>
       </c>
       <c r="AH120" s="11">
-        <v>91633617</v>
+        <v>97709771</v>
       </c>
       <c r="AI120" s="11">
-        <v>97709771</v>
+        <v>111308772</v>
       </c>
       <c r="AJ120" s="11">
-        <v>111308772</v>
+        <v>113229381</v>
       </c>
       <c r="AK120" s="11">
-        <v>113229381</v>
+        <v>129085315</v>
       </c>
       <c r="AL120" s="11">
-        <v>129085315</v>
+        <v>104000384</v>
       </c>
       <c r="AM120" s="11">
-        <v>104000384</v>
+        <v>102190062</v>
       </c>
       <c r="AN120" s="11">
-        <v>102190062</v>
+        <v>105731457</v>
       </c>
       <c r="AO120" s="11">
-        <v>105731457</v>
+        <v>108267001</v>
       </c>
       <c r="AP120" s="11">
-        <v>108267001</v>
+        <v>128917782</v>
       </c>
       <c r="AQ120" s="11">
-        <v>128917782</v>
+        <v>188527792</v>
       </c>
       <c r="AR120" s="11">
-        <v>188527792</v>
+        <v>194350760</v>
       </c>
       <c r="AS120" s="11">
-        <v>194350760</v>
+        <v>193125000</v>
       </c>
       <c r="AT120" s="11">
-        <v>193125000</v>
+        <v>186233459</v>
       </c>
       <c r="AU120" s="11">
-        <v>186233459</v>
+        <v>184404733</v>
       </c>
       <c r="AV120" s="11">
-        <v>184404733</v>
+        <v>191734627</v>
       </c>
       <c r="AW120" s="11">
-        <v>191734627</v>
+        <v>187263649</v>
       </c>
       <c r="AX120" s="11">
-        <v>187263649</v>
+        <v>185024313</v>
       </c>
       <c r="AY120" s="11">
-        <v>185024313</v>
+        <v>188954998</v>
       </c>
       <c r="AZ120" s="11">
-        <v>188954998</v>
+        <v>184985994</v>
       </c>
       <c r="BA120" s="11">
-        <v>184985994</v>
+        <v>182790522</v>
       </c>
       <c r="BB120" s="11">
-        <v>182790522</v>
+        <v>197346012</v>
       </c>
     </row>
     <row r="121" spans="2:54" x14ac:dyDescent="0.3">
@@ -16492,110 +16492,110 @@
       <c r="S121" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T121" s="13" t="s">
-        <v>58</v>
+      <c r="T121" s="13">
+        <v>239949807</v>
       </c>
       <c r="U121" s="13">
-        <v>239949807</v>
+        <v>276351779</v>
       </c>
       <c r="V121" s="13">
-        <v>276351779</v>
+        <v>307416393</v>
       </c>
       <c r="W121" s="13">
-        <v>307416393</v>
+        <v>284904918</v>
       </c>
       <c r="X121" s="13">
-        <v>284904918</v>
+        <v>279312821</v>
       </c>
       <c r="Y121" s="13">
-        <v>279312821</v>
+        <v>295318786</v>
       </c>
       <c r="Z121" s="13">
-        <v>295318786</v>
+        <v>335889807</v>
       </c>
       <c r="AA121" s="13">
-        <v>335889807</v>
+        <v>283402913</v>
       </c>
       <c r="AB121" s="13">
-        <v>283402913</v>
+        <v>301286195</v>
       </c>
       <c r="AC121" s="13">
-        <v>301286195</v>
+        <v>265308197</v>
       </c>
       <c r="AD121" s="13">
-        <v>265308197</v>
+        <v>330550802</v>
       </c>
       <c r="AE121" s="13">
-        <v>330550802</v>
+        <v>305844156</v>
       </c>
       <c r="AF121" s="13">
-        <v>305844156</v>
+        <v>485076923</v>
       </c>
       <c r="AG121" s="13">
-        <v>485076923</v>
+        <v>377195804</v>
       </c>
       <c r="AH121" s="13">
-        <v>377195804</v>
+        <v>449382353</v>
       </c>
       <c r="AI121" s="13">
-        <v>449382353</v>
+        <v>425980296</v>
       </c>
       <c r="AJ121" s="13">
-        <v>425980296</v>
+        <v>427589744</v>
       </c>
       <c r="AK121" s="13">
-        <v>427589744</v>
+        <v>459686869</v>
       </c>
       <c r="AL121" s="13">
-        <v>459686869</v>
+        <v>388238806</v>
       </c>
       <c r="AM121" s="13">
-        <v>388238806</v>
+        <v>352109195</v>
       </c>
       <c r="AN121" s="13">
-        <v>352109195</v>
+        <v>352892694</v>
       </c>
       <c r="AO121" s="13">
-        <v>352892694</v>
+        <v>318300532</v>
       </c>
       <c r="AP121" s="13">
-        <v>318300532</v>
+        <v>449018868</v>
       </c>
       <c r="AQ121" s="13">
-        <v>449018868</v>
+        <v>570477876</v>
       </c>
       <c r="AR121" s="13">
-        <v>570477876</v>
+        <v>577307368</v>
       </c>
       <c r="AS121" s="13">
-        <v>577307368</v>
+        <v>637544892</v>
       </c>
       <c r="AT121" s="13">
-        <v>637544892</v>
+        <v>623479532</v>
       </c>
       <c r="AU121" s="13">
-        <v>623479532</v>
+        <v>578454106</v>
       </c>
       <c r="AV121" s="13">
-        <v>578454106</v>
+        <v>671105263</v>
       </c>
       <c r="AW121" s="13">
-        <v>671105263</v>
+        <v>607774096</v>
       </c>
       <c r="AX121" s="13">
-        <v>607774096</v>
+        <v>699205333</v>
       </c>
       <c r="AY121" s="13">
-        <v>699205333</v>
+        <v>682391198</v>
       </c>
       <c r="AZ121" s="13">
-        <v>682391198</v>
+        <v>563905138</v>
       </c>
       <c r="BA121" s="13">
-        <v>563905138</v>
+        <v>626070000</v>
       </c>
       <c r="BB121" s="13">
-        <v>626070000</v>
+        <v>516394102</v>
       </c>
     </row>
     <row r="122" spans="2:54" x14ac:dyDescent="0.3">
@@ -16651,110 +16651,110 @@
       <c r="S122" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="T122" s="11" t="s">
-        <v>58</v>
+      <c r="T122" s="11">
+        <v>54199201</v>
       </c>
       <c r="U122" s="11">
-        <v>54199201</v>
+        <v>57214837</v>
       </c>
       <c r="V122" s="11">
-        <v>57214837</v>
+        <v>57534898</v>
       </c>
       <c r="W122" s="11">
-        <v>57534898</v>
+        <v>58935460</v>
       </c>
       <c r="X122" s="11">
-        <v>58935460</v>
+        <v>59861852</v>
       </c>
       <c r="Y122" s="11">
-        <v>59861852</v>
+        <v>71651362</v>
       </c>
       <c r="Z122" s="11">
-        <v>71651362</v>
+        <v>74243846</v>
       </c>
       <c r="AA122" s="11">
-        <v>74243846</v>
+        <v>72563941</v>
       </c>
       <c r="AB122" s="11">
-        <v>72563941</v>
+        <v>70743558</v>
       </c>
       <c r="AC122" s="11">
-        <v>70743558</v>
+        <v>73114883</v>
       </c>
       <c r="AD122" s="11">
-        <v>73114883</v>
+        <v>78048077</v>
       </c>
       <c r="AE122" s="11">
-        <v>78048077</v>
+        <v>82014369</v>
       </c>
       <c r="AF122" s="11">
-        <v>82014369</v>
+        <v>90746361</v>
       </c>
       <c r="AG122" s="11">
-        <v>90746361</v>
+        <v>106330496</v>
       </c>
       <c r="AH122" s="11">
-        <v>106330496</v>
+        <v>125056338</v>
       </c>
       <c r="AI122" s="11">
-        <v>125056338</v>
+        <v>125886459</v>
       </c>
       <c r="AJ122" s="11">
-        <v>125886459</v>
+        <v>126448307</v>
       </c>
       <c r="AK122" s="11">
-        <v>126448307</v>
+        <v>125463557</v>
       </c>
       <c r="AL122" s="11">
-        <v>125463557</v>
+        <v>126464575</v>
       </c>
       <c r="AM122" s="11">
-        <v>126464575</v>
+        <v>127726076</v>
       </c>
       <c r="AN122" s="11">
-        <v>127726076</v>
+        <v>128826312</v>
       </c>
       <c r="AO122" s="11">
-        <v>128826312</v>
+        <v>130752831</v>
       </c>
       <c r="AP122" s="11">
-        <v>130752831</v>
+        <v>146174578</v>
       </c>
       <c r="AQ122" s="11">
-        <v>146174578</v>
+        <v>233708649</v>
       </c>
       <c r="AR122" s="11">
-        <v>233708649</v>
+        <v>220963993</v>
       </c>
       <c r="AS122" s="11">
-        <v>220963993</v>
+        <v>229164225</v>
       </c>
       <c r="AT122" s="11">
-        <v>229164225</v>
+        <v>228279279</v>
       </c>
       <c r="AU122" s="11">
-        <v>228279279</v>
+        <v>225801980</v>
       </c>
       <c r="AV122" s="11">
-        <v>225801980</v>
+        <v>225681704</v>
       </c>
       <c r="AW122" s="11">
-        <v>225681704</v>
+        <v>221172377</v>
       </c>
       <c r="AX122" s="11">
-        <v>221172377</v>
+        <v>222820459</v>
       </c>
       <c r="AY122" s="11">
-        <v>222820459</v>
+        <v>222896027</v>
       </c>
       <c r="AZ122" s="11">
-        <v>222896027</v>
+        <v>222910400</v>
       </c>
       <c r="BA122" s="11">
-        <v>222910400</v>
+        <v>222446643</v>
       </c>
       <c r="BB122" s="11">
-        <v>222446643</v>
+        <v>222547852</v>
       </c>
     </row>
     <row r="123" spans="2:54" x14ac:dyDescent="0.3">
@@ -16810,110 +16810,110 @@
       <c r="S123" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T123" s="13" t="s">
-        <v>58</v>
+      <c r="T123" s="13">
+        <v>213037767</v>
       </c>
       <c r="U123" s="13">
-        <v>213037767</v>
+        <v>244129213</v>
       </c>
       <c r="V123" s="13">
-        <v>244129213</v>
+        <v>235359127</v>
       </c>
       <c r="W123" s="13">
-        <v>235359127</v>
+        <v>240651316</v>
       </c>
       <c r="X123" s="13">
-        <v>240651316</v>
+        <v>256370270</v>
       </c>
       <c r="Y123" s="13">
-        <v>256370270</v>
+        <v>324086592</v>
       </c>
       <c r="Z123" s="13">
-        <v>324086592</v>
+        <v>367748756</v>
       </c>
       <c r="AA123" s="13">
-        <v>367748756</v>
+        <v>314190709</v>
       </c>
       <c r="AB123" s="13">
-        <v>314190709</v>
+        <v>244446502</v>
       </c>
       <c r="AC123" s="13">
-        <v>244446502</v>
+        <v>312702461</v>
       </c>
       <c r="AD123" s="13">
-        <v>312702461</v>
+        <v>310982222</v>
       </c>
       <c r="AE123" s="13">
-        <v>310982222</v>
+        <v>336904762</v>
       </c>
       <c r="AF123" s="13">
-        <v>336904762</v>
+        <v>363941300</v>
       </c>
       <c r="AG123" s="13">
-        <v>363941300</v>
+        <v>392983740</v>
       </c>
       <c r="AH123" s="13">
-        <v>392983740</v>
+        <v>439224215</v>
       </c>
       <c r="AI123" s="13">
-        <v>439224215</v>
+        <v>438233766</v>
       </c>
       <c r="AJ123" s="13">
-        <v>438233766</v>
+        <v>438021127</v>
       </c>
       <c r="AK123" s="13">
-        <v>438021127</v>
+        <v>445236074</v>
       </c>
       <c r="AL123" s="13">
-        <v>445236074</v>
+        <v>442723404</v>
       </c>
       <c r="AM123" s="13">
-        <v>442723404</v>
+        <v>433155709</v>
       </c>
       <c r="AN123" s="13">
-        <v>433155709</v>
+        <v>434435000</v>
       </c>
       <c r="AO123" s="13">
-        <v>434435000</v>
+        <v>431183183</v>
       </c>
       <c r="AP123" s="13">
-        <v>431183183</v>
+        <v>525421836</v>
       </c>
       <c r="AQ123" s="13">
-        <v>525421836</v>
+        <v>845985955</v>
       </c>
       <c r="AR123" s="13">
-        <v>845985955</v>
+        <v>772048780</v>
       </c>
       <c r="AS123" s="13">
-        <v>772048780</v>
+        <v>811513021</v>
       </c>
       <c r="AT123" s="13">
-        <v>811513021</v>
+        <v>790508242</v>
       </c>
       <c r="AU123" s="13">
-        <v>790508242</v>
+        <v>805781065</v>
       </c>
       <c r="AV123" s="13">
-        <v>805781065</v>
+        <v>758554217</v>
       </c>
       <c r="AW123" s="13">
-        <v>758554217</v>
+        <v>771862963</v>
       </c>
       <c r="AX123" s="13">
-        <v>771862963</v>
+        <v>729557769</v>
       </c>
       <c r="AY123" s="13">
-        <v>729557769</v>
+        <v>726483871</v>
       </c>
       <c r="AZ123" s="13">
-        <v>726483871</v>
+        <v>791051402</v>
       </c>
       <c r="BA123" s="13">
-        <v>791051402</v>
+        <v>773926282</v>
       </c>
       <c r="BB123" s="13">
-        <v>773926282</v>
+        <v>823328904</v>
       </c>
     </row>
     <row r="124" spans="2:54" x14ac:dyDescent="0.3">
@@ -16969,110 +16969,110 @@
       <c r="S124" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="T124" s="11" t="s">
-        <v>58</v>
+      <c r="T124" s="11">
+        <v>344106383</v>
       </c>
       <c r="U124" s="11">
-        <v>344106383</v>
+        <v>356111111</v>
       </c>
       <c r="V124" s="11">
-        <v>356111111</v>
+        <v>469194030</v>
       </c>
       <c r="W124" s="11">
-        <v>469194030</v>
+        <v>631140000</v>
       </c>
       <c r="X124" s="11">
-        <v>631140000</v>
+        <v>630896552</v>
       </c>
       <c r="Y124" s="11">
-        <v>630896552</v>
+        <v>676686747</v>
       </c>
       <c r="Z124" s="11">
-        <v>676686747</v>
+        <v>636833333</v>
       </c>
       <c r="AA124" s="11">
-        <v>636833333</v>
+        <v>681677419</v>
       </c>
       <c r="AB124" s="11">
-        <v>681677419</v>
+        <v>742846154</v>
       </c>
       <c r="AC124" s="11">
-        <v>742846154</v>
+        <v>679923077</v>
       </c>
       <c r="AD124" s="11">
-        <v>679923077</v>
+        <v>724500000</v>
       </c>
       <c r="AE124" s="11">
-        <v>724500000</v>
+        <v>778272727</v>
       </c>
       <c r="AF124" s="11">
-        <v>778272727</v>
+        <v>913352941</v>
       </c>
       <c r="AG124" s="11">
-        <v>913352941</v>
+        <v>671088235</v>
       </c>
       <c r="AH124" s="11">
-        <v>671088235</v>
+        <v>755647887</v>
       </c>
       <c r="AI124" s="11">
-        <v>755647887</v>
+        <v>787133333</v>
       </c>
       <c r="AJ124" s="11">
-        <v>787133333</v>
+        <v>867810811</v>
       </c>
       <c r="AK124" s="11">
-        <v>867810811</v>
+        <v>867206897</v>
       </c>
       <c r="AL124" s="11">
-        <v>867206897</v>
+        <v>829294118</v>
       </c>
       <c r="AM124" s="11">
-        <v>829294118</v>
+        <v>820000000</v>
       </c>
       <c r="AN124" s="11">
-        <v>820000000</v>
+        <v>779392857</v>
       </c>
       <c r="AO124" s="11">
-        <v>779392857</v>
+        <v>711643963</v>
       </c>
       <c r="AP124" s="11">
-        <v>711643963</v>
+        <v>779265734</v>
       </c>
       <c r="AQ124" s="11">
-        <v>779265734</v>
+        <v>1307600000</v>
       </c>
       <c r="AR124" s="11">
-        <v>1307600000</v>
+        <v>1347876106</v>
       </c>
       <c r="AS124" s="11">
-        <v>1347876106</v>
+        <v>1644461538</v>
       </c>
       <c r="AT124" s="11">
-        <v>1644461538</v>
+        <v>1491526316</v>
       </c>
       <c r="AU124" s="11">
-        <v>1491526316</v>
+        <v>1411046154</v>
       </c>
       <c r="AV124" s="11">
-        <v>1411046154</v>
+        <v>1776911111</v>
       </c>
       <c r="AW124" s="11">
-        <v>1776911111</v>
+        <v>1378714286</v>
       </c>
       <c r="AX124" s="11">
-        <v>1378714286</v>
+        <v>1479775701</v>
       </c>
       <c r="AY124" s="11">
-        <v>1479775701</v>
+        <v>1505300000</v>
       </c>
       <c r="AZ124" s="11">
-        <v>1505300000</v>
+        <v>1738057143</v>
       </c>
       <c r="BA124" s="11">
-        <v>1738057143</v>
+        <v>1500559055</v>
       </c>
       <c r="BB124" s="11">
-        <v>1500559055</v>
+        <v>1818484848</v>
       </c>
     </row>
     <row r="125" spans="2:54" x14ac:dyDescent="0.3">
@@ -17128,110 +17128,110 @@
       <c r="S125" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T125" s="13" t="s">
-        <v>58</v>
+      <c r="T125" s="13">
+        <v>254159091</v>
       </c>
       <c r="U125" s="13">
-        <v>254159091</v>
+        <v>272575499</v>
       </c>
       <c r="V125" s="13">
-        <v>272575499</v>
+        <v>242410256</v>
       </c>
       <c r="W125" s="13">
-        <v>242410256</v>
+        <v>173835616</v>
       </c>
       <c r="X125" s="13">
-        <v>173835616</v>
+        <v>177020270</v>
       </c>
       <c r="Y125" s="13">
-        <v>177020270</v>
+        <v>205744493</v>
       </c>
       <c r="Z125" s="13">
-        <v>205744493</v>
+        <v>269292553</v>
       </c>
       <c r="AA125" s="13">
-        <v>269292553</v>
+        <v>151637584</v>
       </c>
       <c r="AB125" s="13">
-        <v>151637584</v>
+        <v>317926773</v>
       </c>
       <c r="AC125" s="13">
-        <v>317926773</v>
+        <v>138271255</v>
       </c>
       <c r="AD125" s="13">
-        <v>138271255</v>
+        <v>200591346</v>
       </c>
       <c r="AE125" s="13">
-        <v>200591346</v>
+        <v>233778378</v>
       </c>
       <c r="AF125" s="13">
-        <v>233778378</v>
+        <v>357066832</v>
       </c>
       <c r="AG125" s="13">
-        <v>357066832</v>
+        <v>519343023</v>
       </c>
       <c r="AH125" s="13">
-        <v>519343023</v>
+        <v>425064655</v>
       </c>
       <c r="AI125" s="13">
-        <v>425064655</v>
+        <v>480234432</v>
       </c>
       <c r="AJ125" s="13">
-        <v>480234432</v>
+        <v>489624561</v>
       </c>
       <c r="AK125" s="13">
-        <v>489624561</v>
+        <v>614401070</v>
       </c>
       <c r="AL125" s="13">
-        <v>614401070</v>
+        <v>659622951</v>
       </c>
       <c r="AM125" s="13">
-        <v>659622951</v>
+        <v>580035176</v>
       </c>
       <c r="AN125" s="13">
-        <v>580035176</v>
+        <v>556930470</v>
       </c>
       <c r="AO125" s="13">
-        <v>556930470</v>
+        <v>594935484</v>
       </c>
       <c r="AP125" s="13">
-        <v>594935484</v>
+        <v>752542254</v>
       </c>
       <c r="AQ125" s="13">
-        <v>752542254</v>
+        <v>980478873</v>
       </c>
       <c r="AR125" s="13">
-        <v>980478873</v>
+        <v>1233535714</v>
       </c>
       <c r="AS125" s="13">
-        <v>1233535714</v>
+        <v>706407787</v>
       </c>
       <c r="AT125" s="13">
-        <v>706407787</v>
+        <v>963796512</v>
       </c>
       <c r="AU125" s="13">
-        <v>963796512</v>
+        <v>807403101</v>
       </c>
       <c r="AV125" s="13">
-        <v>807403101</v>
+        <v>995564516</v>
       </c>
       <c r="AW125" s="13">
-        <v>995564516</v>
+        <v>894015873</v>
       </c>
       <c r="AX125" s="13">
-        <v>894015873</v>
+        <v>942195000</v>
       </c>
       <c r="AY125" s="13">
-        <v>942195000</v>
+        <v>1059175966</v>
       </c>
       <c r="AZ125" s="13">
-        <v>1059175966</v>
+        <v>882307692</v>
       </c>
       <c r="BA125" s="13">
-        <v>882307692</v>
+        <v>958802020</v>
       </c>
       <c r="BB125" s="13">
-        <v>958802020</v>
+        <v>1196863946</v>
       </c>
     </row>
     <row r="126" spans="2:54" x14ac:dyDescent="0.3">
@@ -17431,11 +17431,11 @@
       <c r="AV127" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AW127" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX127" s="11">
+      <c r="AW127" s="11">
         <v>1804500000</v>
+      </c>
+      <c r="AX127" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AY127" s="11" t="s">
         <v>58</v>
@@ -17746,26 +17746,26 @@
       <c r="AU129" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AV129" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW129" s="11">
+      <c r="AV129" s="11">
         <v>944842105</v>
       </c>
+      <c r="AW129" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AX129" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AY129" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ129" s="11">
+      <c r="AY129" s="11">
         <v>415000000</v>
       </c>
-      <c r="BA129" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="BB129" s="11">
+      <c r="AZ129" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA129" s="11">
         <v>930000000</v>
+      </c>
+      <c r="BB129" s="11" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="130" spans="2:54" x14ac:dyDescent="0.3">
@@ -17914,11 +17914,11 @@
       <c r="AX130" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AY130" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ130" s="13">
+      <c r="AY130" s="13">
         <v>277714286</v>
+      </c>
+      <c r="AZ130" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="BA130" s="13" t="s">
         <v>58</v>
@@ -18061,26 +18061,26 @@
       <c r="AT131" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AU131" s="11" t="s">
-        <v>58</v>
+      <c r="AU131" s="11">
+        <v>1365000000</v>
       </c>
       <c r="AV131" s="11">
-        <v>1365000000</v>
+        <v>1369738372</v>
       </c>
       <c r="AW131" s="11">
-        <v>1369738372</v>
-      </c>
-      <c r="AX131" s="11">
         <v>1447980000</v>
       </c>
-      <c r="AY131" s="11" t="s">
-        <v>58</v>
+      <c r="AX131" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY131" s="11">
+        <v>1470000000</v>
       </c>
       <c r="AZ131" s="11">
-        <v>1470000000</v>
-      </c>
-      <c r="BA131" s="11">
         <v>1407386364</v>
+      </c>
+      <c r="BA131" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="BB131" s="11" t="s">
         <v>58</v>
@@ -18220,29 +18220,29 @@
       <c r="AT132" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AU132" s="13" t="s">
-        <v>58</v>
+      <c r="AU132" s="13">
+        <v>865000000</v>
       </c>
       <c r="AV132" s="13">
-        <v>865000000</v>
+        <v>726538462</v>
       </c>
       <c r="AW132" s="13">
-        <v>726538462</v>
+        <v>820754717</v>
       </c>
       <c r="AX132" s="13">
-        <v>820754717</v>
+        <v>875000000</v>
       </c>
       <c r="AY132" s="13">
-        <v>875000000</v>
+        <v>438909091</v>
       </c>
       <c r="AZ132" s="13">
-        <v>438909091</v>
+        <v>1029203540</v>
       </c>
       <c r="BA132" s="13">
-        <v>1029203540</v>
-      </c>
-      <c r="BB132" s="13">
         <v>940000000</v>
+      </c>
+      <c r="BB132" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="133" spans="2:54" x14ac:dyDescent="0.3">
@@ -18382,8 +18382,8 @@
       <c r="AB134" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC134" s="11" t="s">
-        <v>58</v>
+      <c r="AC134" s="11">
+        <v>0</v>
       </c>
       <c r="AD134" s="11">
         <v>0</v>
